--- a/Tables/StreamHabitatSpecifications.xlsx
+++ b/Tables/StreamHabitatSpecifications.xlsx
@@ -11784,33 +11784,36 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -11831,26 +11834,27 @@
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2"/>
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
+      <c r="K2"/>
       <c r="L2" t="s">
         <v>19</v>
       </c>
       <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
         <v>15</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>20</v>
       </c>
-      <c r="O2"/>
-      <c r="P2" t="s">
+      <c r="P2"/>
+      <c r="Q2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11874,31 +11878,32 @@
         <v>25</v>
       </c>
       <c r="G3"/>
-      <c r="H3" t="s">
+      <c r="H3"/>
+      <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
       </c>
       <c r="L3" t="s">
         <v>19</v>
       </c>
       <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
         <v>22</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>20</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>28</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11925,22 +11930,23 @@
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
+      <c r="K4"/>
       <c r="L4" t="s">
         <v>19</v>
       </c>
       <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
         <v>29</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>20</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>33</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11965,20 +11971,21 @@
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
-      <c r="K5" t="s">
-        <v>19</v>
-      </c>
+      <c r="K5"/>
       <c r="L5" t="s">
         <v>19</v>
       </c>
       <c r="M5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" t="s">
         <v>34</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>20</v>
       </c>
-      <c r="O5"/>
-      <c r="P5" t="s">
+      <c r="P5"/>
+      <c r="Q5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -12003,20 +12010,21 @@
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
-      <c r="K6" t="s">
-        <v>19</v>
-      </c>
+      <c r="K6"/>
       <c r="L6" t="s">
         <v>19</v>
       </c>
       <c r="M6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" t="s">
         <v>36</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>20</v>
       </c>
-      <c r="O6"/>
-      <c r="P6" t="s">
+      <c r="P6"/>
+      <c r="Q6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -12043,20 +12051,21 @@
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
-      <c r="K7" t="s">
-        <v>19</v>
-      </c>
+      <c r="K7"/>
       <c r="L7" t="s">
         <v>19</v>
       </c>
-      <c r="M7"/>
-      <c r="N7" t="s">
+      <c r="M7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7"/>
+      <c r="O7" t="s">
         <v>20</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>42</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -12083,22 +12092,23 @@
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
-      <c r="K8" t="s">
-        <v>19</v>
-      </c>
+      <c r="K8"/>
       <c r="L8" t="s">
         <v>19</v>
       </c>
       <c r="M8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" t="s">
         <v>43</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>20</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>46</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -12129,6 +12139,7 @@
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
+      <c r="Q9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -12157,6 +12168,7 @@
       <c r="N10"/>
       <c r="O10"/>
       <c r="P10"/>
+      <c r="Q10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -12178,23 +12190,24 @@
         <v>32</v>
       </c>
       <c r="G11"/>
-      <c r="H11" t="s">
+      <c r="H11"/>
+      <c r="I11" t="s">
         <v>18</v>
       </c>
-      <c r="I11"/>
       <c r="J11"/>
-      <c r="K11" t="s">
-        <v>19</v>
-      </c>
+      <c r="K11"/>
       <c r="L11" t="s">
         <v>19</v>
       </c>
-      <c r="M11"/>
-      <c r="N11" t="s">
+      <c r="M11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11"/>
+      <c r="O11" t="s">
         <v>20</v>
       </c>
-      <c r="O11"/>
-      <c r="P11" t="s">
+      <c r="P11"/>
+      <c r="Q11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -12216,23 +12229,24 @@
         <v>32</v>
       </c>
       <c r="G12"/>
-      <c r="H12" t="s">
+      <c r="H12"/>
+      <c r="I12" t="s">
         <v>18</v>
       </c>
-      <c r="I12"/>
       <c r="J12"/>
-      <c r="K12" t="s">
-        <v>19</v>
-      </c>
+      <c r="K12"/>
       <c r="L12" t="s">
         <v>19</v>
       </c>
-      <c r="M12"/>
+      <c r="M12" t="s">
+        <v>19</v>
+      </c>
       <c r="N12"/>
-      <c r="O12" t="s">
+      <c r="O12"/>
+      <c r="P12" t="s">
         <v>57</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -12254,21 +12268,22 @@
         <v>32</v>
       </c>
       <c r="G13"/>
-      <c r="H13" t="s">
+      <c r="H13"/>
+      <c r="I13" t="s">
         <v>18</v>
       </c>
-      <c r="I13"/>
       <c r="J13"/>
-      <c r="K13" t="s">
-        <v>19</v>
-      </c>
+      <c r="K13"/>
       <c r="L13" t="s">
         <v>19</v>
       </c>
-      <c r="M13"/>
+      <c r="M13" t="s">
+        <v>19</v>
+      </c>
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13"/>
+      <c r="Q13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -12289,28 +12304,29 @@
       <c r="F14" t="s">
         <v>32</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14"/>
+      <c r="H14" t="s">
         <v>18</v>
       </c>
-      <c r="H14"/>
       <c r="I14"/>
       <c r="J14"/>
-      <c r="K14" t="s">
-        <v>19</v>
-      </c>
+      <c r="K14"/>
       <c r="L14" t="s">
         <v>19</v>
       </c>
       <c r="M14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" t="s">
         <v>60</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>63</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>64</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>65</v>
       </c>
     </row>
@@ -12337,16 +12353,17 @@
       <c r="H15"/>
       <c r="I15"/>
       <c r="J15"/>
-      <c r="K15" t="s">
-        <v>19</v>
-      </c>
+      <c r="K15"/>
       <c r="L15" t="s">
         <v>19</v>
       </c>
-      <c r="M15"/>
+      <c r="M15" t="s">
+        <v>19</v>
+      </c>
       <c r="N15"/>
       <c r="O15"/>
       <c r="P15"/>
+      <c r="Q15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -12369,22 +12386,23 @@
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
-      <c r="K16" t="s">
-        <v>19</v>
-      </c>
+      <c r="K16"/>
       <c r="L16" t="s">
         <v>19</v>
       </c>
       <c r="M16" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" t="s">
         <v>69</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>63</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>71</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>65</v>
       </c>
     </row>
@@ -12409,20 +12427,21 @@
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
-      <c r="K17" t="s">
-        <v>19</v>
-      </c>
+      <c r="K17"/>
       <c r="L17" t="s">
         <v>19</v>
       </c>
       <c r="M17" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" t="s">
         <v>72</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>63</v>
       </c>
-      <c r="O17"/>
-      <c r="P17" t="s">
+      <c r="P17"/>
+      <c r="Q17" t="s">
         <v>65</v>
       </c>
     </row>
@@ -12447,20 +12466,21 @@
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
-      <c r="K18" t="s">
-        <v>19</v>
-      </c>
+      <c r="K18"/>
       <c r="L18" t="s">
         <v>19</v>
       </c>
       <c r="M18" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" t="s">
         <v>75</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>63</v>
       </c>
-      <c r="O18"/>
-      <c r="P18" t="s">
+      <c r="P18"/>
+      <c r="Q18" t="s">
         <v>65</v>
       </c>
     </row>
@@ -12482,27 +12502,28 @@
         <v>32</v>
       </c>
       <c r="G19"/>
-      <c r="H19" t="s">
+      <c r="H19"/>
+      <c r="I19" t="s">
         <v>18</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>79</v>
       </c>
-      <c r="J19"/>
-      <c r="K19" t="s">
-        <v>19</v>
-      </c>
+      <c r="K19"/>
       <c r="L19" t="s">
         <v>19</v>
       </c>
       <c r="M19" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="N19" t="s">
         <v>77</v>
       </c>
-      <c r="O19"/>
-      <c r="P19" t="s">
+      <c r="O19" t="s">
+        <v>77</v>
+      </c>
+      <c r="P19"/>
+      <c r="Q19" t="s">
         <v>65</v>
       </c>
     </row>
@@ -12525,28 +12546,29 @@
       <c r="F20" t="s">
         <v>32</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20"/>
+      <c r="H20" t="s">
         <v>18</v>
       </c>
-      <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
-      <c r="K20" t="s">
-        <v>19</v>
-      </c>
+      <c r="K20"/>
       <c r="L20" t="s">
         <v>19</v>
       </c>
       <c r="M20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" t="s">
         <v>80</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>83</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>84</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>85</v>
       </c>
     </row>
@@ -12573,20 +12595,21 @@
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
-      <c r="K21" t="s">
-        <v>19</v>
-      </c>
+      <c r="K21"/>
       <c r="L21" t="s">
         <v>19</v>
       </c>
       <c r="M21" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" t="s">
         <v>86</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>83</v>
       </c>
-      <c r="O21"/>
-      <c r="P21" t="s">
+      <c r="P21"/>
+      <c r="Q21" t="s">
         <v>85</v>
       </c>
     </row>
@@ -12613,22 +12636,23 @@
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
-      <c r="K22" t="s">
-        <v>19</v>
-      </c>
+      <c r="K22"/>
       <c r="L22" t="s">
         <v>19</v>
       </c>
       <c r="M22" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" t="s">
         <v>89</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>83</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>92</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>85</v>
       </c>
     </row>
@@ -12653,24 +12677,25 @@
       </c>
       <c r="G23"/>
       <c r="H23"/>
-      <c r="I23" t="s">
+      <c r="I23"/>
+      <c r="J23" t="s">
         <v>96</v>
       </c>
-      <c r="J23"/>
-      <c r="K23" t="s">
-        <v>19</v>
-      </c>
+      <c r="K23"/>
       <c r="L23" t="s">
         <v>19</v>
       </c>
       <c r="M23" t="s">
+        <v>19</v>
+      </c>
+      <c r="N23" t="s">
         <v>93</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>83</v>
       </c>
-      <c r="O23"/>
-      <c r="P23" t="s">
+      <c r="P23"/>
+      <c r="Q23" t="s">
         <v>85</v>
       </c>
     </row>
@@ -12697,6 +12722,7 @@
       <c r="N24"/>
       <c r="O24"/>
       <c r="P24"/>
+      <c r="Q24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -12721,20 +12747,21 @@
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
-      <c r="K25" t="s">
-        <v>19</v>
-      </c>
+      <c r="K25"/>
       <c r="L25" t="s">
         <v>19</v>
       </c>
       <c r="M25" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" t="s">
         <v>99</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>83</v>
       </c>
-      <c r="O25"/>
-      <c r="P25" t="s">
+      <c r="P25"/>
+      <c r="Q25" t="s">
         <v>85</v>
       </c>
     </row>
@@ -12757,26 +12784,27 @@
       <c r="F26" t="s">
         <v>17</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26"/>
+      <c r="H26" t="s">
         <v>18</v>
       </c>
-      <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
-      <c r="K26" t="s">
-        <v>19</v>
-      </c>
+      <c r="K26"/>
       <c r="L26" t="s">
         <v>19</v>
       </c>
       <c r="M26" t="s">
+        <v>19</v>
+      </c>
+      <c r="N26" t="s">
         <v>110</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>111</v>
       </c>
-      <c r="O26"/>
-      <c r="P26" t="s">
+      <c r="P26"/>
+      <c r="Q26" t="s">
         <v>112</v>
       </c>
     </row>
@@ -12800,27 +12828,28 @@
         <v>32</v>
       </c>
       <c r="G27"/>
-      <c r="H27" t="s">
+      <c r="H27"/>
+      <c r="I27" t="s">
         <v>18</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>116</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>117</v>
-      </c>
-      <c r="K27" t="s">
-        <v>19</v>
       </c>
       <c r="L27" t="s">
         <v>19</v>
       </c>
-      <c r="M27"/>
-      <c r="N27" t="s">
+      <c r="M27" t="s">
+        <v>19</v>
+      </c>
+      <c r="N27"/>
+      <c r="O27" t="s">
         <v>111</v>
       </c>
-      <c r="O27"/>
-      <c r="P27" t="s">
+      <c r="P27"/>
+      <c r="Q27" t="s">
         <v>112</v>
       </c>
     </row>
@@ -12842,29 +12871,30 @@
         <v>74</v>
       </c>
       <c r="G28"/>
-      <c r="H28" t="s">
+      <c r="H28"/>
+      <c r="I28" t="s">
         <v>18</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>120</v>
       </c>
-      <c r="J28"/>
-      <c r="K28" t="s">
-        <v>19</v>
-      </c>
+      <c r="K28"/>
       <c r="L28" t="s">
         <v>19</v>
       </c>
       <c r="M28" t="s">
+        <v>19</v>
+      </c>
+      <c r="N28" t="s">
         <v>118</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>111</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>121</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>112</v>
       </c>
     </row>
@@ -12888,27 +12918,28 @@
         <v>32</v>
       </c>
       <c r="G29"/>
-      <c r="H29" t="s">
+      <c r="H29"/>
+      <c r="I29" t="s">
         <v>18</v>
       </c>
-      <c r="I29"/>
-      <c r="J29" t="s">
+      <c r="J29"/>
+      <c r="K29" t="s">
         <v>125</v>
-      </c>
-      <c r="K29" t="s">
-        <v>19</v>
       </c>
       <c r="L29" t="s">
         <v>19</v>
       </c>
       <c r="M29" t="s">
+        <v>19</v>
+      </c>
+      <c r="N29" t="s">
         <v>122</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>111</v>
       </c>
-      <c r="O29"/>
-      <c r="P29" t="s">
+      <c r="P29"/>
+      <c r="Q29" t="s">
         <v>112</v>
       </c>
     </row>
@@ -12935,20 +12966,21 @@
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
-      <c r="K30" t="s">
-        <v>19</v>
-      </c>
+      <c r="K30"/>
       <c r="L30" t="s">
         <v>19</v>
       </c>
       <c r="M30" t="s">
+        <v>19</v>
+      </c>
+      <c r="N30" t="s">
         <v>126</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>111</v>
       </c>
-      <c r="O30"/>
-      <c r="P30" t="s">
+      <c r="P30"/>
+      <c r="Q30" t="s">
         <v>112</v>
       </c>
     </row>
@@ -12975,22 +13007,23 @@
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
-      <c r="K31" t="s">
-        <v>19</v>
-      </c>
+      <c r="K31"/>
       <c r="L31" t="s">
         <v>19</v>
       </c>
       <c r="M31" t="s">
+        <v>19</v>
+      </c>
+      <c r="N31" t="s">
         <v>129</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>111</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>133</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>112</v>
       </c>
     </row>
@@ -13017,20 +13050,21 @@
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
-      <c r="K32" t="s">
-        <v>105</v>
-      </c>
+      <c r="K32"/>
       <c r="L32" t="s">
         <v>105</v>
       </c>
       <c r="M32" t="s">
+        <v>105</v>
+      </c>
+      <c r="N32" t="s">
         <v>134</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" t="s">
         <v>111</v>
       </c>
-      <c r="O32"/>
-      <c r="P32" t="s">
+      <c r="P32"/>
+      <c r="Q32" t="s">
         <v>112</v>
       </c>
     </row>
@@ -13057,20 +13091,21 @@
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
-      <c r="K33" t="s">
-        <v>105</v>
-      </c>
+      <c r="K33"/>
       <c r="L33" t="s">
         <v>105</v>
       </c>
       <c r="M33" t="s">
+        <v>105</v>
+      </c>
+      <c r="N33" t="s">
         <v>137</v>
       </c>
-      <c r="N33" t="s">
+      <c r="O33" t="s">
         <v>111</v>
       </c>
-      <c r="O33"/>
-      <c r="P33" t="s">
+      <c r="P33"/>
+      <c r="Q33" t="s">
         <v>112</v>
       </c>
     </row>
@@ -13093,20 +13128,23 @@
       <c r="F34" t="s">
         <v>32</v>
       </c>
-      <c r="G34"/>
+      <c r="G34" t="s">
+        <v>173</v>
+      </c>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
-      <c r="K34" t="s">
+      <c r="K34"/>
+      <c r="L34" t="s">
         <v>105</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>106</v>
       </c>
-      <c r="M34"/>
       <c r="N34"/>
       <c r="O34"/>
       <c r="P34"/>
+      <c r="Q34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/StreamHabitatSpecifications.xlsx
+++ b/Tables/StreamHabitatSpecifications.xlsx
@@ -459,964 +459,964 @@
     <t xml:space="preserve">Channel Characteristics</t>
   </si>
   <si>
-    <t xml:space="preserve">Beaver</t>
+    <t xml:space="preserve">Sin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinuosity of Local Stream Reach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reach sinuosity (reach length along the thalweg divided by straight line distance between the bottom of the reach and the top of the reach)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StreamOrder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stream Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strahler stream order of the site from the provider dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel dimensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AvgBFWDRatio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bankfull width to depth ratio at transects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average bankfull width/depth ratio for the reach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFHeight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bankfull Height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average bankfull height measured from water surface across transects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFWidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average bankfull width from transects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average bankfull width across transects for the reach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">countTransectsBFWidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of cross sections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cross sections included in the average bankfull width calculation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count of measurments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gradient of stream reach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean slope of water surface (percent) from the bottom of the reach to the top of the reach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min: 0, max: 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MeanThalwegDepth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Thalweg Depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean thalweg depth. Metric of how deep water was at the site.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReachLen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length of sampling reach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length of sampling reach measured along the thalweg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WetWidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average wetted width from transects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average wetted width across transects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctPool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent pools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent of the sample reach (linear extent) classified as pool habitat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residual pool depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average of the residual pool depth values for all pools in a reach. Residual pool depth the difference of the pool tail depth from the max depth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Streambanks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankAngle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank angle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measured angle of the stream bank;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min: 0, max: 180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">degrees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctStab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent stable banks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent of 42 banks lacking visible signs of active erosion (e.g., slump, slough, fracture) (units: percent, min: 0, max: 100, n= 42)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diameter of the 16th percentile streambed particle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bed surface particle size corresponding to the 16th percentile of measured particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min: 1, max: 4098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diameter of the 50th percentile streambed particle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median diameter of bed surface particle size corresponding to the areal median (50th percentile of measured particles) .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diameter of the 84th percentile streambed particle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bed surface particle size corresponding to the 84th percentile of measured particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctBdrk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent Bed Surface Bedrock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent of the stream bed area that is composed of particles with a b-axis &gt; 4098mm (bedrock)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctFines2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent of streambed particles &lt;2mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent of the stream bed area that is comprised of particles with a b-axis &lt; 2 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctFines6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent of streambed particles &lt;6mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent of the stream bed area that is composed of particles with a b-axis &lt; 6 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoolTailFines2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent pool tail fines &lt; 2mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average percent fine sediment (&lt; 2mm) on the pool tail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoolTailFines6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent pool tail fines &lt; 6mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average percent fine sediment (&lt; 6mm) on the pool tail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water chemistry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conductivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measure of the concentration of ionized materials in water, or the ability of water to conduct electrical current. Used as a measure of mineral / ionic concentration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ppm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measured pH value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min: 0, max: 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpecificConductance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specific Conductance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measured specific conductance value. The specific conductance is conductivity standardized to 25 degrees C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min: 0, max: 65500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uS/cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TotalNitrogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Nitrogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measured total nitrogen value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ug/L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TotalPhosphorous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Phosphorous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measured total phosphorous value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turbidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average water clarity as measured by the suspended solids in the water column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">originalField</t>
+  </si>
+  <si>
+    <t xml:space="preserve">originalUnit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">originalDataType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">methodCollection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">methodAnalysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AREMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SITE_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS_CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NRSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIBO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SiteID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRM_NM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lattitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIDLAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal degrees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAT_DD83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decimal Degrees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decimal degree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIDLONG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LON_DD83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">site_survey_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RchID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">survey_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m/d/yyyy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE_COL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SampDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">survey_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRTCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALXSITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Categorical: I, IS, IK, IKS, K, P, R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">survey_year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YEAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EventRemarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beaver_impacted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BVR_SGN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNSTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SINU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/1610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRM_ORDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRAHLERORDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ave_widthDepth_ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6849 AND https://www.monitoringresources.org/Document/CustomizedMethod/Details/31107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/1064 OR www.monitoringresources.org/Document/Method/Details/1275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFWD_RAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6870 AND www.monitoringresources.org/Document/Method/Details/56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/1064 OR  www.monitoringresources.org/Document/Method/Details/1275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDTrans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/65 AND https://www.monitoringresources.org/Document/Method/Details/6871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average_bfdepth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/CustomizedMethod/Details/31107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNKFLL_HT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XBKF_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average_bfwidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/4103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNKFLL_WT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.monitoringresources.org/Document/CustomizedMethod/Details/31137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XBKF_W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gradient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent, expressed as a decimal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/CustomizedMethod/Details/31139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/4113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XSLOPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ThalwegDepthMean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XDEPTH_CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REACH_LENGTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOT_RCH_LEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REACHLEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RchLen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wettedWidth_ave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WTTD_WT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/CustomizedMethod/Details/31137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XWIDTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctReachInPools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCT_PL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/4115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoolPct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ave_residual_depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RES_PL_DEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoolDp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNK_AN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNK_STBLTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/1730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub_dmm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bedrock_pcnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCT_BDRK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log 10 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pcnt_fines_tran2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCT_FN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCT_SAFN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">precent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pect_fines_tran6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCT_FN6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pool_fines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PL_TL_FN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTFines2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PL_TL_FN6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTFines6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mg/L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parts per million</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">µS/cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">µg/L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRBDTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TURB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCT_DRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCT_DRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StrmFlow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Categorical: Flow, No Flow, Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent  of reach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AREMPFieldCW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AREMPCollectionMethodIDCW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AREMPAnalysisMethodIDCW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIMFieldCW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIMCollectionMethodIDCW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIMAnalysisMethodIDCW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NRSAFieldCW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NRSACollectionMethodIDCW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NRSAAnalysisMethodIDCW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIBOFieldCW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIBOCollectionMethodIDCW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIBOAnalysisMethodIDCW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dataset Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bibliographicCitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InstitutionID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institution Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dataset link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre Processing Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location Identification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site Identification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stream Name From The Data Set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard Latitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard Longitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locaiton Remark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event Identification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From the Dataset Location Identification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling Protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event Remarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Year</t>
   </si>
   <si>
     <t xml:space="preserve">Beaver Sign at Reach</t>
   </si>
   <si>
     <t xml:space="preserve">Beaver present from the provider dataset.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinuosity of Local Stream Reach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reach sinuosity (reach length along the thalweg divided by straight line distance between the bottom of the reach and the top of the reach)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StreamOrder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stream Order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strahler stream order of the site from the provider dataset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel dimensions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AvgBFWDRatio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bankfull width to depth ratio at transects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull width/depth ratio for the reach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFHeight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bankfull Height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull height measured from water surface across transects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFWidth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull width from transects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull width across transects for the reach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">countTransectsBFWidth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of cross sections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of cross sections included in the average bankfull width calculation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">count of measurments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gradient of stream reach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean slope of water surface (percent) from the bottom of the reach to the top of the reach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 0, max: 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MeanThalwegDepth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average Thalweg Depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean thalweg depth. Metric of how deep water was at the site.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReachLen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length of sampling reach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length of sampling reach measured along the thalweg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WetWidth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average wetted width from transects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average wetted width across transects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctPool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent pools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent of the sample reach (linear extent) classified as pool habitat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residual pool depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average of the residual pool depth values for all pools in a reach. Residual pool depth the difference of the pool tail depth from the max depth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Streambanks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankAngle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank angle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured angle of the stream bank;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 0, max: 180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">degrees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctStab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent stable banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent of 42 banks lacking visible signs of active erosion (e.g., slump, slough, fracture) (units: percent, min: 0, max: 100, n= 42)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter of the 16th percentile streambed particle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bed surface particle size corresponding to the 16th percentile of measured particles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 1, max: 4098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter of the 50th percentile streambed particle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median diameter of bed surface particle size corresponding to the areal median (50th percentile of measured particles) .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter of the 84th percentile streambed particle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bed surface particle size corresponding to the 84th percentile of measured particles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctBdrk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent Bed Surface Bedrock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent of the stream bed area that is composed of particles with a b-axis &gt; 4098mm (bedrock)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctFines2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent of streambed particles &lt;2mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent of the stream bed area that is comprised of particles with a b-axis &lt; 2 mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctFines6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent of streambed particles &lt;6mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent of the stream bed area that is composed of particles with a b-axis &lt; 6 mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoolTailFines2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent pool tail fines &lt; 2mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average percent fine sediment (&lt; 2mm) on the pool tail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoolTailFines6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent pool tail fines &lt; 6mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average percent fine sediment (&lt; 6mm) on the pool tail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water chemistry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conductivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measure of the concentration of ionized materials in water, or the ability of water to conduct electrical current. Used as a measure of mineral / ionic concentration.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ppm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured pH value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 0, max: 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpecificConductance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specific Conductance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured specific conductance value. The specific conductance is conductivity standardized to 25 degrees C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 0, max: 65500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uS/cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TotalNitrogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Nitrogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured total nitrogen value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ug/L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TotalPhosphorous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Phosphorous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured total phosphorous value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turbidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average water clarity as measured by the suspended solids in the water column</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">originalField</t>
-  </si>
-  <si>
-    <t xml:space="preserve">originalUnit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">originalDataType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">methodCollection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">methodAnalysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AREMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SITE_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MS_CD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NRSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIBO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SiteID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STRM_NM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lattitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIDLAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal degrees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAT_DD83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decimal Degrees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decimal degree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIDLONG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LON_DD83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Long</t>
-  </si>
-  <si>
-    <t xml:space="preserve">site_survey_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RchID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">survey_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m/d/yyyy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DATE_COL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SampDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">survey_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRTCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALXSITE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Categorical: I, IS, IK, IKS, K, P, R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">survey_year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YEAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beaver_impacted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BVR_SGN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNSTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SINU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/1610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STRM_ORDR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STRAHLERORDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ave_widthDepth_ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6849 AND https://www.monitoringresources.org/Document/CustomizedMethod/Details/31107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/1064 OR www.monitoringresources.org/Document/Method/Details/1275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFWD_RAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6870 AND www.monitoringresources.org/Document/Method/Details/56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/1064 OR  www.monitoringresources.org/Document/Method/Details/1275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WDTrans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/65 AND https://www.monitoringresources.org/Document/Method/Details/6871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">average_bfdepth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/CustomizedMethod/Details/31107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNKFLL_HT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XBKF_H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">average_bfwidth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/4103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNKFLL_WT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.monitoringresources.org/Document/CustomizedMethod/Details/31137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XBKF_W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6870</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gradient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent, expressed as a decimal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/CustomizedMethod/Details/31139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/4113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XSLOPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ThalwegDepthMean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XDEPTH_CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REACH_LENGTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOT_RCH_LEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REACHLEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RchLen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wettedWidth_ave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WTTD_WT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/CustomizedMethod/Details/31137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XWIDTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctReachInPools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_PL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/4115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoolPct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ave_residual_depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES_PL_DEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoolDp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNK_AN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNK_STBLTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6810</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/1730</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub_dmm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bedrock_pcnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_BDRK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Log 10 mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pcnt_fines_tran2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_FN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_SAFN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">precent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pect_fines_tran6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_FN6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pool_fines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL_TL_FN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTFines2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL_TL_FN6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTFines6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mg/L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parts per million</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">µS/cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">µg/L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRBDTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TURB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_DRY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_DRS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StrmFlow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Categorical: Flow, No Flow, Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent  of reach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AREMPFieldCW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AREMPCollectionMethodIDCW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AREMPAnalysisMethodIDCW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIMFieldCW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIMCollectionMethodIDCW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIMAnalysisMethodIDCW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NRSAFieldCW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NRSACollectionMethodIDCW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NRSAAnalysisMethodIDCW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIBOFieldCW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIBOCollectionMethodIDCW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIBOAnalysisMethodIDCW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dataset Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bibliographicCitation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InstitutionID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Institution Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dataset link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre Processing Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location Identification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Site Identification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stream Name From The Data Set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standard Latitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standard Longitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locaiton Remark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event Identification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From the Dataset Location Identification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sampling Protocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event Remarks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample Year</t>
   </si>
   <si>
     <t xml:space="preserve">programMethods</t>
@@ -2424,10 +2424,10 @@
         <v>466</v>
       </c>
       <c r="C1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -2448,7 +2448,7 @@
         <v>469</v>
       </c>
       <c r="D2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E2" t="s">
         <v>463</v>
@@ -2467,7 +2467,7 @@
         <v>469</v>
       </c>
       <c r="D3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E3" t="s">
         <v>464</v>
@@ -2524,7 +2524,7 @@
         <v>474</v>
       </c>
       <c r="D6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E6" t="s">
         <v>465</v>
@@ -2545,7 +2545,7 @@
         <v>474</v>
       </c>
       <c r="D7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E7" t="s">
         <v>463</v>
@@ -2566,7 +2566,7 @@
         <v>474</v>
       </c>
       <c r="D8" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E8" t="s">
         <v>463</v>
@@ -2587,7 +2587,7 @@
         <v>474</v>
       </c>
       <c r="D9" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E9" t="s">
         <v>463</v>
@@ -2606,7 +2606,7 @@
         <v>474</v>
       </c>
       <c r="D10" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E10" t="s">
         <v>463</v>
@@ -2625,7 +2625,7 @@
         <v>474</v>
       </c>
       <c r="D11" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E11" t="s">
         <v>463</v>
@@ -2646,7 +2646,7 @@
         <v>474</v>
       </c>
       <c r="D12" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E12" t="s">
         <v>463</v>
@@ -2667,7 +2667,7 @@
         <v>474</v>
       </c>
       <c r="D13" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E13" t="s">
         <v>463</v>
@@ -2688,7 +2688,7 @@
         <v>489</v>
       </c>
       <c r="D14" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E14" t="s">
         <v>463</v>
@@ -2772,10 +2772,10 @@
         <v>497</v>
       </c>
       <c r="C1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -4024,7 +4024,7 @@
         <v>141</v>
       </c>
       <c r="B2" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>142</v>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="H2"/>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="J2" t="s">
         <v>19</v>
@@ -4052,125 +4052,127 @@
         <v>141</v>
       </c>
       <c r="B3" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="s">
         <v>74</v>
       </c>
-      <c r="H3"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
       <c r="I3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B4" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F4"/>
       <c r="G4" t="s">
         <v>74</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="I4" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="J4" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B5" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F5"/>
       <c r="G5" t="s">
         <v>74</v>
       </c>
       <c r="H5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I5" t="s">
         <v>105</v>
       </c>
       <c r="J5" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B6" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F6"/>
       <c r="G6" t="s">
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I6" t="s">
         <v>105</v>
       </c>
       <c r="J6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B7" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
         <v>162</v>
@@ -4186,83 +4188,83 @@
         <v>74</v>
       </c>
       <c r="H7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="I7" t="s">
         <v>105</v>
       </c>
       <c r="J7" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F8"/>
+        <v>168</v>
+      </c>
+      <c r="F8" t="s">
+        <v>169</v>
+      </c>
       <c r="G8" t="s">
         <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I8" t="s">
         <v>105</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B9" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E9" t="s">
-        <v>171</v>
-      </c>
-      <c r="F9" t="s">
-        <v>172</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="F9"/>
       <c r="G9" t="s">
         <v>74</v>
       </c>
       <c r="H9" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="I9" t="s">
         <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B10" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
         <v>174</v>
@@ -4278,81 +4280,83 @@
         <v>74</v>
       </c>
       <c r="H10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="J10" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B11" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F11"/>
       <c r="G11" t="s">
         <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I11" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="J11" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="B12" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E12" t="s">
-        <v>184</v>
-      </c>
-      <c r="F12"/>
+        <v>185</v>
+      </c>
+      <c r="F12" t="s">
+        <v>169</v>
+      </c>
       <c r="G12" t="s">
         <v>74</v>
       </c>
       <c r="H12" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="I12" t="s">
         <v>105</v>
       </c>
       <c r="J12" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B13" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
         <v>186</v>
@@ -4363,154 +4367,154 @@
       <c r="E13" t="s">
         <v>188</v>
       </c>
-      <c r="F13" t="s">
-        <v>172</v>
-      </c>
+      <c r="F13"/>
       <c r="G13" t="s">
         <v>74</v>
       </c>
       <c r="H13" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="I13" t="s">
         <v>105</v>
       </c>
       <c r="J13" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B14" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E14" t="s">
-        <v>191</v>
-      </c>
-      <c r="F14"/>
+        <v>192</v>
+      </c>
+      <c r="F14" t="s">
+        <v>193</v>
+      </c>
       <c r="G14" t="s">
         <v>74</v>
       </c>
       <c r="H14" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="I14" t="s">
         <v>105</v>
       </c>
       <c r="J14" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B15" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D15" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E15" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F15" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="G15" t="s">
         <v>74</v>
       </c>
       <c r="H15" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="I15" t="s">
         <v>105</v>
       </c>
       <c r="J15" t="s">
-        <v>198</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B16" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F16" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="G16" t="s">
         <v>74</v>
       </c>
       <c r="H16" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="I16" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="J16" t="s">
-        <v>106</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B17" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
+        <v>206</v>
+      </c>
+      <c r="D17" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" t="s">
+        <v>208</v>
+      </c>
+      <c r="F17" t="s">
         <v>203</v>
       </c>
-      <c r="D17" t="s">
+      <c r="G17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" t="s">
         <v>204</v>
       </c>
-      <c r="E17" t="s">
+      <c r="I17" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" t="s">
         <v>205</v>
-      </c>
-      <c r="F17" t="s">
-        <v>206</v>
-      </c>
-      <c r="G17" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" t="s">
-        <v>207</v>
-      </c>
-      <c r="I17" t="s">
-        <v>148</v>
-      </c>
-      <c r="J17" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B18" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
         <v>209</v>
@@ -4522,27 +4526,27 @@
         <v>211</v>
       </c>
       <c r="F18" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G18" t="s">
         <v>74</v>
       </c>
       <c r="H18" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J18" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B19" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
         <v>212</v>
@@ -4554,27 +4558,27 @@
         <v>214</v>
       </c>
       <c r="F19" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="G19" t="s">
         <v>74</v>
       </c>
       <c r="H19" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="I19" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="J19" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B20" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
         <v>215</v>
@@ -4586,27 +4590,27 @@
         <v>217</v>
       </c>
       <c r="F20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G20" t="s">
         <v>74</v>
       </c>
       <c r="H20" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I20" t="s">
         <v>105</v>
       </c>
       <c r="J20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B21" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
         <v>218</v>
@@ -4618,13 +4622,13 @@
         <v>220</v>
       </c>
       <c r="F21" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G21" t="s">
         <v>74</v>
       </c>
       <c r="H21" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I21" t="s">
         <v>105</v>
@@ -4635,10 +4639,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B22" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
         <v>221</v>
@@ -4650,13 +4654,13 @@
         <v>223</v>
       </c>
       <c r="F22" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G22" t="s">
         <v>74</v>
       </c>
       <c r="H22" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I22" t="s">
         <v>105</v>
@@ -4667,10 +4671,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B23" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
         <v>224</v>
@@ -4682,13 +4686,13 @@
         <v>226</v>
       </c>
       <c r="F23" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G23" t="s">
         <v>74</v>
       </c>
       <c r="H23" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I23" t="s">
         <v>105</v>
@@ -4699,13 +4703,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="B24" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D24" t="s">
         <v>228</v>
@@ -4713,28 +4717,26 @@
       <c r="E24" t="s">
         <v>229</v>
       </c>
-      <c r="F24" t="s">
-        <v>172</v>
-      </c>
+      <c r="F24"/>
       <c r="G24" t="s">
         <v>74</v>
       </c>
       <c r="H24" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="I24" t="s">
         <v>105</v>
       </c>
       <c r="J24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B25" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
         <v>231</v>
@@ -4745,172 +4747,142 @@
       <c r="E25" t="s">
         <v>232</v>
       </c>
-      <c r="F25"/>
+      <c r="F25" t="s">
+        <v>233</v>
+      </c>
       <c r="G25" t="s">
         <v>74</v>
       </c>
       <c r="H25" t="s">
-        <v>233</v>
+        <v>19</v>
       </c>
       <c r="I25" t="s">
         <v>105</v>
       </c>
       <c r="J25" t="s">
-        <v>105</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B26" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D26" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E26" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F26" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G26" t="s">
         <v>74</v>
       </c>
       <c r="H26" t="s">
-        <v>19</v>
+        <v>239</v>
       </c>
       <c r="I26" t="s">
         <v>105</v>
       </c>
       <c r="J26" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B27" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D27" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E27" t="s">
-        <v>240</v>
-      </c>
-      <c r="F27" t="s">
-        <v>241</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="F27"/>
       <c r="G27" t="s">
         <v>74</v>
       </c>
       <c r="H27" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I27" t="s">
         <v>105</v>
       </c>
       <c r="J27" t="s">
-        <v>243</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B28" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D28" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E28" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F28"/>
       <c r="G28" t="s">
         <v>74</v>
       </c>
       <c r="H28" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I28" t="s">
         <v>105</v>
       </c>
       <c r="J28" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B29" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
         <v>248</v>
       </c>
       <c r="D29" t="s">
+        <v>248</v>
+      </c>
+      <c r="E29" t="s">
         <v>249</v>
-      </c>
-      <c r="E29" t="s">
-        <v>250</v>
       </c>
       <c r="F29"/>
       <c r="G29" t="s">
         <v>74</v>
       </c>
       <c r="H29" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="I29" t="s">
         <v>105</v>
       </c>
       <c r="J29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>230</v>
-      </c>
-      <c r="B30" t="n">
-        <v>63</v>
-      </c>
-      <c r="C30" t="s">
-        <v>251</v>
-      </c>
-      <c r="D30" t="s">
-        <v>251</v>
-      </c>
-      <c r="E30" t="s">
-        <v>252</v>
-      </c>
-      <c r="F30"/>
-      <c r="G30" t="s">
-        <v>74</v>
-      </c>
-      <c r="H30" t="s">
-        <v>253</v>
-      </c>
-      <c r="I30" t="s">
-        <v>105</v>
-      </c>
-      <c r="J30" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -4938,22 +4910,22 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G1" t="s">
         <v>254</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>255</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>256</v>
-      </c>
-      <c r="G1" t="s">
-        <v>257</v>
-      </c>
-      <c r="H1" t="s">
-        <v>258</v>
-      </c>
-      <c r="I1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="2">
@@ -4967,10 +4939,10 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="s">
@@ -4990,10 +4962,10 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -5015,10 +4987,10 @@
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F4"/>
       <c r="G4" t="s">
@@ -5038,10 +5010,10 @@
         <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F5"/>
       <c r="G5" t="s">
@@ -5061,10 +5033,10 @@
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
@@ -5086,10 +5058,10 @@
         <v>32</v>
       </c>
       <c r="D7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E7" t="s">
         <v>265</v>
-      </c>
-      <c r="E7" t="s">
-        <v>268</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
@@ -5111,10 +5083,10 @@
         <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E8" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F8"/>
       <c r="G8" t="s">
@@ -5134,13 +5106,13 @@
         <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E9" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G9" t="s">
         <v>132</v>
@@ -5159,13 +5131,13 @@
         <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E10" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F10" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G10" t="s">
         <v>132</v>
@@ -5184,13 +5156,13 @@
         <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E11" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F11" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G11" t="s">
         <v>132</v>
@@ -5209,7 +5181,7 @@
         <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E12" t="s">
         <v>75</v>
@@ -5232,13 +5204,13 @@
         <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E13" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F13" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G13" t="s">
         <v>132</v>
@@ -5257,13 +5229,13 @@
         <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E14" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F14" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G14" t="s">
         <v>132</v>
@@ -5282,13 +5254,13 @@
         <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E15" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F15" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G15" t="s">
         <v>132</v>
@@ -5307,10 +5279,10 @@
         <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E16" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F16"/>
       <c r="G16" t="s">
@@ -5330,10 +5302,10 @@
         <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F17" t="s">
         <v>19</v>
@@ -5355,10 +5327,10 @@
         <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E18" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F18"/>
       <c r="G18" t="s">
@@ -5378,10 +5350,10 @@
         <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E19" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F19"/>
       <c r="G19" t="s">
@@ -5401,10 +5373,10 @@
         <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E20" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F20"/>
       <c r="G20" t="s">
@@ -5424,13 +5396,13 @@
         <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E21" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F21" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G21" t="s">
         <v>38</v>
@@ -5449,10 +5421,10 @@
         <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E22" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F22"/>
       <c r="G22" t="s">
@@ -5472,10 +5444,10 @@
         <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E23" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F23"/>
       <c r="G23" t="s">
@@ -5495,10 +5467,10 @@
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E24" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F24"/>
       <c r="G24" t="s">
@@ -5518,10 +5490,10 @@
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E25" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F25" t="s">
         <v>19</v>
@@ -5543,10 +5515,10 @@
         <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E26" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F26"/>
       <c r="G26"/>
@@ -5564,13 +5536,13 @@
         <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E27" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F27" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G27" t="s">
         <v>32</v>
@@ -5589,14 +5561,14 @@
         <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E28" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F28"/>
       <c r="G28" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H28"/>
       <c r="I28"/>
@@ -5612,10 +5584,10 @@
         <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E29" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F29"/>
       <c r="G29"/>
@@ -5633,10 +5605,10 @@
         <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E30" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F30"/>
       <c r="G30" t="s">
@@ -5650,21 +5622,21 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>142</v>
+        <v>293</v>
       </c>
       <c r="C31" t="s">
         <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E31" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I31"/>
     </row>
@@ -5673,23 +5645,23 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>142</v>
+        <v>293</v>
       </c>
       <c r="C32" t="s">
         <v>74</v>
       </c>
       <c r="D32" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E32" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F32" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G32"/>
       <c r="H32" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I32"/>
     </row>
@@ -5698,26 +5670,26 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C33" t="s">
         <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F33"/>
       <c r="G33" t="s">
         <v>132</v>
       </c>
       <c r="H33" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I33" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34">
@@ -5725,26 +5697,26 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C34" t="s">
         <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E34" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F34"/>
       <c r="G34" t="s">
         <v>132</v>
       </c>
       <c r="H34" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I34" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35">
@@ -5752,28 +5724,28 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C35" t="s">
         <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E35" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F35" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G35" t="s">
         <v>132</v>
       </c>
       <c r="H35" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I35" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36">
@@ -5781,16 +5753,16 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C36" t="s">
         <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E36" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F36"/>
       <c r="G36"/>
@@ -5802,16 +5774,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C37" t="s">
         <v>74</v>
       </c>
       <c r="D37" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E37" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F37" t="s">
         <v>19</v>
@@ -5825,16 +5797,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C38" t="s">
         <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E38" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F38"/>
       <c r="G38" t="s">
@@ -5848,28 +5820,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C39" t="s">
         <v>74</v>
       </c>
       <c r="D39" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E39" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F39" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G39" t="s">
         <v>132</v>
       </c>
       <c r="H39" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I39" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="40">
@@ -5877,28 +5849,28 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C40" t="s">
         <v>74</v>
       </c>
       <c r="D40" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E40" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F40" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G40" t="s">
         <v>132</v>
       </c>
       <c r="H40" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I40" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="41">
@@ -5906,28 +5878,28 @@
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C41" t="s">
         <v>74</v>
       </c>
       <c r="D41" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E41" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F41" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G41" t="s">
         <v>132</v>
       </c>
       <c r="H41" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I41" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42">
@@ -5935,26 +5907,26 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C42" t="s">
         <v>74</v>
       </c>
       <c r="D42" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E42" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F42" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G42"/>
       <c r="H42" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I42" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43">
@@ -5962,26 +5934,26 @@
         <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C43" t="s">
         <v>74</v>
       </c>
       <c r="D43" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E43" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F43" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G43"/>
       <c r="H43" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I43" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44">
@@ -5989,28 +5961,28 @@
         <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C44" t="s">
         <v>74</v>
       </c>
       <c r="D44" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E44" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F44" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G44" t="s">
         <v>132</v>
       </c>
       <c r="H44" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I44" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45">
@@ -6018,28 +5990,28 @@
         <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C45" t="s">
         <v>74</v>
       </c>
       <c r="D45" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E45" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F45" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G45" t="s">
         <v>132</v>
       </c>
       <c r="H45" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I45" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="46">
@@ -6047,28 +6019,28 @@
         <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C46" t="s">
         <v>74</v>
       </c>
       <c r="D46" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E46" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F46" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G46" t="s">
         <v>132</v>
       </c>
       <c r="H46" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I46" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47">
@@ -6076,28 +6048,28 @@
         <v>39</v>
       </c>
       <c r="B47" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C47" t="s">
         <v>74</v>
       </c>
       <c r="D47" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E47" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F47" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G47" t="s">
         <v>132</v>
       </c>
       <c r="H47" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I47" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48">
@@ -6105,28 +6077,28 @@
         <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C48" t="s">
         <v>74</v>
       </c>
       <c r="D48" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E48" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F48" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G48" t="s">
         <v>132</v>
       </c>
       <c r="H48" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I48" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="49">
@@ -6134,25 +6106,25 @@
         <v>41</v>
       </c>
       <c r="B49" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C49" t="s">
         <v>74</v>
       </c>
       <c r="D49" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E49" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F49" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G49" t="s">
         <v>132</v>
       </c>
       <c r="H49" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I49"/>
     </row>
@@ -6161,28 +6133,28 @@
         <v>41</v>
       </c>
       <c r="B50" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C50" t="s">
         <v>74</v>
       </c>
       <c r="D50" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E50" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F50" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G50" t="s">
         <v>132</v>
       </c>
       <c r="H50" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I50" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="51">
@@ -6190,28 +6162,28 @@
         <v>41</v>
       </c>
       <c r="B51" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C51" t="s">
         <v>74</v>
       </c>
       <c r="D51" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E51" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F51" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G51" t="s">
         <v>132</v>
       </c>
       <c r="H51" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I51" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="52">
@@ -6219,28 +6191,28 @@
         <v>41</v>
       </c>
       <c r="B52" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C52" t="s">
         <v>74</v>
       </c>
       <c r="D52" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E52" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F52" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G52" t="s">
         <v>132</v>
       </c>
       <c r="H52" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I52" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="53">
@@ -6248,26 +6220,26 @@
         <v>42</v>
       </c>
       <c r="B53" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C53" t="s">
         <v>74</v>
       </c>
       <c r="D53" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E53" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F53" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G53"/>
       <c r="H53" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I53" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="54">
@@ -6275,28 +6247,28 @@
         <v>42</v>
       </c>
       <c r="B54" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C54" t="s">
         <v>74</v>
       </c>
       <c r="D54" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E54" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F54" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G54" t="s">
         <v>132</v>
       </c>
       <c r="H54" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I54" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="55">
@@ -6304,25 +6276,25 @@
         <v>43</v>
       </c>
       <c r="B55" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C55" t="s">
         <v>74</v>
       </c>
       <c r="D55" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E55" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F55" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G55" t="s">
         <v>132</v>
       </c>
       <c r="H55" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I55"/>
     </row>
@@ -6331,25 +6303,25 @@
         <v>43</v>
       </c>
       <c r="B56" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C56" t="s">
         <v>74</v>
       </c>
       <c r="D56" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E56" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F56" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G56" t="s">
         <v>132</v>
       </c>
       <c r="H56" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I56"/>
     </row>
@@ -6358,23 +6330,23 @@
         <v>43</v>
       </c>
       <c r="B57" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C57" t="s">
         <v>74</v>
       </c>
       <c r="D57" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E57" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F57"/>
       <c r="G57" t="s">
         <v>132</v>
       </c>
       <c r="H57" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I57"/>
     </row>
@@ -6383,25 +6355,25 @@
         <v>43</v>
       </c>
       <c r="B58" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C58" t="s">
         <v>74</v>
       </c>
       <c r="D58" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E58" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F58" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G58" t="s">
         <v>132</v>
       </c>
       <c r="H58" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I58"/>
     </row>
@@ -6410,26 +6382,26 @@
         <v>44</v>
       </c>
       <c r="B59" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C59" t="s">
         <v>74</v>
       </c>
       <c r="D59" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E59" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F59" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G59"/>
       <c r="H59" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I59" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="60">
@@ -6437,26 +6409,26 @@
         <v>44</v>
       </c>
       <c r="B60" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C60" t="s">
         <v>74</v>
       </c>
       <c r="D60" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E60" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F60" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G60"/>
       <c r="H60" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I60" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="61">
@@ -6464,28 +6436,28 @@
         <v>44</v>
       </c>
       <c r="B61" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C61" t="s">
         <v>74</v>
       </c>
       <c r="D61" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E61" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F61" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G61" t="s">
         <v>132</v>
       </c>
       <c r="H61" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I61" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="62">
@@ -6493,28 +6465,28 @@
         <v>46</v>
       </c>
       <c r="B62" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C62" t="s">
         <v>74</v>
       </c>
       <c r="D62" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E62" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F62" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G62" t="s">
         <v>132</v>
       </c>
       <c r="H62" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I62" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="63">
@@ -6522,28 +6494,28 @@
         <v>46</v>
       </c>
       <c r="B63" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C63" t="s">
         <v>74</v>
       </c>
       <c r="D63" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E63" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F63" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G63" t="s">
         <v>132</v>
       </c>
       <c r="H63" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I63" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="64">
@@ -6551,28 +6523,28 @@
         <v>46</v>
       </c>
       <c r="B64" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C64" t="s">
         <v>74</v>
       </c>
       <c r="D64" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E64" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F64" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G64" t="s">
         <v>132</v>
       </c>
       <c r="H64" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I64" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="65">
@@ -6580,28 +6552,28 @@
         <v>47</v>
       </c>
       <c r="B65" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C65" t="s">
         <v>74</v>
       </c>
       <c r="D65" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E65" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F65" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G65" t="s">
         <v>132</v>
       </c>
       <c r="H65" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I65" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="66">
@@ -6609,28 +6581,28 @@
         <v>47</v>
       </c>
       <c r="B66" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C66" t="s">
         <v>74</v>
       </c>
       <c r="D66" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E66" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F66" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G66" t="s">
         <v>132</v>
       </c>
       <c r="H66" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I66" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="67">
@@ -6638,28 +6610,28 @@
         <v>47</v>
       </c>
       <c r="B67" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
       </c>
       <c r="D67" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E67" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F67" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G67" t="s">
         <v>132</v>
       </c>
       <c r="H67" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I67" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="68">
@@ -6667,25 +6639,25 @@
         <v>48</v>
       </c>
       <c r="B68" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C68" t="s">
         <v>74</v>
       </c>
       <c r="D68" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E68" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F68" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G68" t="s">
         <v>132</v>
       </c>
       <c r="H68" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I68"/>
     </row>
@@ -6694,25 +6666,25 @@
         <v>48</v>
       </c>
       <c r="B69" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C69" t="s">
         <v>74</v>
       </c>
       <c r="D69" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E69" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F69" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G69" t="s">
         <v>132</v>
       </c>
       <c r="H69" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I69"/>
     </row>
@@ -6721,28 +6693,28 @@
         <v>49</v>
       </c>
       <c r="B70" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C70" t="s">
         <v>74</v>
       </c>
       <c r="D70" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E70" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F70" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G70" t="s">
         <v>132</v>
       </c>
       <c r="H70" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I70" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="71">
@@ -6750,28 +6722,28 @@
         <v>49</v>
       </c>
       <c r="B71" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C71" t="s">
         <v>74</v>
       </c>
       <c r="D71" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E71" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F71" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G71" t="s">
         <v>132</v>
       </c>
       <c r="H71" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I71" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="72">
@@ -6779,28 +6751,28 @@
         <v>50</v>
       </c>
       <c r="B72" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C72" t="s">
         <v>74</v>
       </c>
       <c r="D72" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E72" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F72" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G72" t="s">
         <v>132</v>
       </c>
       <c r="H72" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I72" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="73">
@@ -6808,28 +6780,28 @@
         <v>50</v>
       </c>
       <c r="B73" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C73" t="s">
         <v>74</v>
       </c>
       <c r="D73" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E73" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F73" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G73" t="s">
         <v>132</v>
       </c>
       <c r="H73" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I73" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="74">
@@ -6837,28 +6809,28 @@
         <v>51</v>
       </c>
       <c r="B74" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C74" t="s">
         <v>74</v>
       </c>
       <c r="D74" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E74" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F74" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G74" t="s">
         <v>132</v>
       </c>
       <c r="H74" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I74" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="75">
@@ -6866,28 +6838,28 @@
         <v>51</v>
       </c>
       <c r="B75" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C75" t="s">
         <v>74</v>
       </c>
       <c r="D75" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E75" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F75" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G75" t="s">
         <v>132</v>
       </c>
       <c r="H75" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I75" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="76">
@@ -6895,26 +6867,26 @@
         <v>51</v>
       </c>
       <c r="B76" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C76" t="s">
         <v>74</v>
       </c>
       <c r="D76" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E76" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F76"/>
       <c r="G76" t="s">
         <v>132</v>
       </c>
       <c r="H76" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I76" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="77">
@@ -6922,28 +6894,28 @@
         <v>51</v>
       </c>
       <c r="B77" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C77" t="s">
         <v>74</v>
       </c>
       <c r="D77" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E77" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F77" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G77" t="s">
         <v>132</v>
       </c>
       <c r="H77" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I77" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="78">
@@ -6951,28 +6923,28 @@
         <v>52</v>
       </c>
       <c r="B78" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C78" t="s">
         <v>74</v>
       </c>
       <c r="D78" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E78" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F78" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G78" t="s">
         <v>132</v>
       </c>
       <c r="H78" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I78" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="79">
@@ -6980,28 +6952,28 @@
         <v>52</v>
       </c>
       <c r="B79" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C79" t="s">
         <v>74</v>
       </c>
       <c r="D79" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E79" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F79" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G79" t="s">
         <v>132</v>
       </c>
       <c r="H79" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I79" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="80">
@@ -7009,26 +6981,26 @@
         <v>53</v>
       </c>
       <c r="B80" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C80" t="s">
         <v>74</v>
       </c>
       <c r="D80" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E80" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F80" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G80"/>
       <c r="H80" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I80" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="81">
@@ -7036,28 +7008,28 @@
         <v>53</v>
       </c>
       <c r="B81" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C81" t="s">
         <v>74</v>
       </c>
       <c r="D81" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E81" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F81" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G81" t="s">
         <v>132</v>
       </c>
       <c r="H81" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I81" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="82">
@@ -7065,26 +7037,26 @@
         <v>54</v>
       </c>
       <c r="B82" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C82" t="s">
         <v>74</v>
       </c>
       <c r="D82" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E82" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F82" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G82"/>
       <c r="H82" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I82" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="83">
@@ -7092,26 +7064,26 @@
         <v>54</v>
       </c>
       <c r="B83" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C83" t="s">
         <v>74</v>
       </c>
       <c r="D83" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E83" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F83" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G83"/>
       <c r="H83" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I83" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="84">
@@ -7119,28 +7091,28 @@
         <v>54</v>
       </c>
       <c r="B84" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C84" t="s">
         <v>74</v>
       </c>
       <c r="D84" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E84" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F84" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G84" t="s">
         <v>132</v>
       </c>
       <c r="H84" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I84" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="85">
@@ -7148,26 +7120,26 @@
         <v>55</v>
       </c>
       <c r="B85" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C85" t="s">
         <v>74</v>
       </c>
       <c r="D85" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E85" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F85" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G85"/>
       <c r="H85" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I85" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="86">
@@ -7175,26 +7147,26 @@
         <v>55</v>
       </c>
       <c r="B86" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C86" t="s">
         <v>74</v>
       </c>
       <c r="D86" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E86" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F86" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G86"/>
       <c r="H86" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I86" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="87">
@@ -7202,28 +7174,28 @@
         <v>56</v>
       </c>
       <c r="B87" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C87" t="s">
         <v>74</v>
       </c>
       <c r="D87" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E87" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F87" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G87" t="s">
         <v>132</v>
       </c>
       <c r="H87" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I87" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="88">
@@ -7231,28 +7203,28 @@
         <v>56</v>
       </c>
       <c r="B88" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C88" t="s">
         <v>74</v>
       </c>
       <c r="D88" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E88" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F88" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G88" t="s">
         <v>132</v>
       </c>
       <c r="H88" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I88" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="89">
@@ -7260,28 +7232,28 @@
         <v>56</v>
       </c>
       <c r="B89" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C89" t="s">
         <v>74</v>
       </c>
       <c r="D89" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E89" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F89" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G89" t="s">
         <v>132</v>
       </c>
       <c r="H89" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I89" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="90">
@@ -7289,28 +7261,28 @@
         <v>57</v>
       </c>
       <c r="B90" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C90" t="s">
         <v>74</v>
       </c>
       <c r="D90" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E90" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F90" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G90" t="s">
         <v>132</v>
       </c>
       <c r="H90" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I90" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="91">
@@ -7318,28 +7290,28 @@
         <v>57</v>
       </c>
       <c r="B91" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C91" t="s">
         <v>74</v>
       </c>
       <c r="D91" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E91" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F91" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G91" t="s">
         <v>132</v>
       </c>
       <c r="H91" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I91" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="92">
@@ -7347,28 +7319,28 @@
         <v>58</v>
       </c>
       <c r="B92" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C92" t="s">
         <v>74</v>
       </c>
       <c r="D92" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E92" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F92" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G92" t="s">
         <v>132</v>
       </c>
       <c r="H92" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I92" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="93">
@@ -7376,28 +7348,28 @@
         <v>58</v>
       </c>
       <c r="B93" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C93" t="s">
         <v>74</v>
       </c>
       <c r="D93" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E93" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F93" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G93" t="s">
         <v>132</v>
       </c>
       <c r="H93" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I93" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="94">
@@ -7405,26 +7377,26 @@
         <v>59</v>
       </c>
       <c r="B94" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C94" t="s">
         <v>74</v>
       </c>
       <c r="D94" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E94" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F94" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G94"/>
       <c r="H94" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I94" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="95">
@@ -7432,26 +7404,26 @@
         <v>60</v>
       </c>
       <c r="B95" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C95" t="s">
         <v>74</v>
       </c>
       <c r="D95" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E95" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F95" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G95"/>
       <c r="H95" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I95" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="96">
@@ -7459,28 +7431,28 @@
         <v>60</v>
       </c>
       <c r="B96" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C96" t="s">
         <v>74</v>
       </c>
       <c r="D96" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E96" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F96" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G96" t="s">
         <v>132</v>
       </c>
       <c r="H96" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I96" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="97">
@@ -7488,26 +7460,26 @@
         <v>61</v>
       </c>
       <c r="B97" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C97" t="s">
         <v>74</v>
       </c>
       <c r="D97" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E97" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F97" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G97"/>
       <c r="H97" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I97" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="98">
@@ -7515,28 +7487,28 @@
         <v>61</v>
       </c>
       <c r="B98" t="s">
+        <v>241</v>
+      </c>
+      <c r="C98" t="s">
+        <v>74</v>
+      </c>
+      <c r="D98" t="s">
+        <v>261</v>
+      </c>
+      <c r="E98" t="s">
+        <v>412</v>
+      </c>
+      <c r="F98" t="s">
         <v>244</v>
-      </c>
-      <c r="C98" t="s">
-        <v>74</v>
-      </c>
-      <c r="D98" t="s">
-        <v>264</v>
-      </c>
-      <c r="E98" t="s">
-        <v>414</v>
-      </c>
-      <c r="F98" t="s">
-        <v>247</v>
       </c>
       <c r="G98" t="s">
         <v>132</v>
       </c>
       <c r="H98" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I98" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="99">
@@ -7544,26 +7516,26 @@
         <v>62</v>
       </c>
       <c r="B99" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C99" t="s">
         <v>74</v>
       </c>
       <c r="D99" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E99" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F99" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G99"/>
       <c r="H99" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I99" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="100">
@@ -7571,28 +7543,28 @@
         <v>62</v>
       </c>
       <c r="B100" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C100" t="s">
         <v>74</v>
       </c>
       <c r="D100" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E100" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F100" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G100" t="s">
         <v>132</v>
       </c>
       <c r="H100" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I100" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="101">
@@ -7600,23 +7572,23 @@
         <v>63</v>
       </c>
       <c r="B101" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C101" t="s">
         <v>74</v>
       </c>
       <c r="D101" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E101" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F101" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G101"/>
       <c r="H101" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I101"/>
     </row>
@@ -7625,26 +7597,26 @@
         <v>63</v>
       </c>
       <c r="B102" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C102" t="s">
         <v>74</v>
       </c>
       <c r="D102" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E102" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F102"/>
       <c r="G102" t="s">
         <v>132</v>
       </c>
       <c r="H102" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I102" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="103">
@@ -7658,22 +7630,22 @@
         <v>32</v>
       </c>
       <c r="D103" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E103" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F103" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G103" t="s">
         <v>132</v>
       </c>
       <c r="H103" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I103" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="104">
@@ -7687,22 +7659,22 @@
         <v>32</v>
       </c>
       <c r="D104" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E104" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F104" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G104" t="s">
         <v>132</v>
       </c>
       <c r="H104" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I104" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="105">
@@ -7716,22 +7688,22 @@
         <v>32</v>
       </c>
       <c r="D105" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E105" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F105" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G105" t="s">
         <v>32</v>
       </c>
       <c r="H105" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I105" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="106">
@@ -7739,15 +7711,15 @@
         <v>46</v>
       </c>
       <c r="B106" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C106"/>
       <c r="D106" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E106"/>
       <c r="F106" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G106"/>
       <c r="H106"/>
@@ -7758,15 +7730,15 @@
         <v>47</v>
       </c>
       <c r="B107" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C107"/>
       <c r="D107" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E107"/>
       <c r="F107" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G107"/>
       <c r="H107"/>
@@ -7777,15 +7749,15 @@
         <v>48</v>
       </c>
       <c r="B108" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C108"/>
       <c r="D108" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E108"/>
       <c r="F108" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G108"/>
       <c r="H108"/>
@@ -7796,15 +7768,15 @@
         <v>52</v>
       </c>
       <c r="B109" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C109"/>
       <c r="D109" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E109"/>
       <c r="F109" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G109"/>
       <c r="H109"/>
@@ -7815,15 +7787,15 @@
         <v>55</v>
       </c>
       <c r="B110" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C110"/>
       <c r="D110" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E110"/>
       <c r="F110" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G110"/>
       <c r="H110"/>
@@ -7836,7 +7808,7 @@
       <c r="B111"/>
       <c r="C111"/>
       <c r="D111" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E111"/>
       <c r="F111"/>
@@ -7862,7 +7834,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B1" t="s">
         <v>134</v>
@@ -7892,40 +7864,40 @@
         <v>137</v>
       </c>
       <c r="K1" t="s">
+        <v>428</v>
+      </c>
+      <c r="L1" t="s">
+        <v>429</v>
+      </c>
+      <c r="M1" t="s">
         <v>430</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>431</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>432</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>433</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>434</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>435</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>436</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>437</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>438</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>439</v>
-      </c>
-      <c r="U1" t="s">
-        <v>440</v>
-      </c>
-      <c r="V1" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="2">
@@ -8015,7 +7987,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -8053,7 +8025,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G5" t="s">
         <v>35</v>
@@ -8125,7 +8097,7 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G7" t="s">
         <v>40</v>
@@ -8163,7 +8135,7 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G8" t="s">
         <v>44</v>
@@ -8199,7 +8171,7 @@
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G9" t="s">
         <v>48</v>
@@ -8235,7 +8207,7 @@
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G10" t="s">
         <v>44</v>
@@ -8273,7 +8245,7 @@
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G11" t="s">
         <v>53</v>
@@ -8347,7 +8319,7 @@
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G13" t="s">
         <v>59</v>
@@ -8383,7 +8355,7 @@
         <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G14" t="s">
         <v>61</v>
@@ -8421,7 +8393,7 @@
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G15" t="s">
         <v>67</v>
@@ -8434,22 +8406,22 @@
       </c>
       <c r="J15"/>
       <c r="K15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L15"/>
       <c r="M15"/>
       <c r="N15" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="O15"/>
       <c r="P15"/>
       <c r="Q15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="R15"/>
       <c r="S15"/>
       <c r="T15" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="U15"/>
       <c r="V15"/>
@@ -8467,7 +8439,7 @@
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G16" t="s">
         <v>70</v>
@@ -8481,7 +8453,7 @@
       <c r="L16"/>
       <c r="M16"/>
       <c r="N16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="O16"/>
       <c r="P16"/>
@@ -8489,7 +8461,7 @@
       <c r="R16"/>
       <c r="S16"/>
       <c r="T16" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="U16"/>
       <c r="V16"/>
@@ -8507,7 +8479,7 @@
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G17" t="s">
         <v>73</v>
@@ -8518,22 +8490,22 @@
       </c>
       <c r="J17"/>
       <c r="K17" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L17"/>
       <c r="M17"/>
       <c r="N17" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="R17"/>
       <c r="S17"/>
       <c r="T17" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="U17"/>
       <c r="V17"/>
@@ -8551,7 +8523,7 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G18" t="s">
         <v>76</v>
@@ -8567,17 +8539,17 @@
       <c r="L18"/>
       <c r="M18"/>
       <c r="N18" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O18"/>
       <c r="P18"/>
       <c r="Q18" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="R18"/>
       <c r="S18"/>
       <c r="T18" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="U18"/>
       <c r="V18"/>
@@ -8595,7 +8567,7 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G19" t="s">
         <v>78</v>
@@ -8631,7 +8603,7 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G20" t="s">
         <v>81</v>
@@ -8669,7 +8641,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G21" t="s">
         <v>87</v>
@@ -8682,22 +8654,22 @@
       </c>
       <c r="J21"/>
       <c r="K21" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L21"/>
       <c r="M21"/>
       <c r="N21" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O21"/>
       <c r="P21"/>
       <c r="Q21" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="R21"/>
       <c r="S21"/>
       <c r="T21" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="U21"/>
       <c r="V21"/>
@@ -8715,7 +8687,7 @@
         <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G22" t="s">
         <v>90</v>
@@ -8728,22 +8700,22 @@
       </c>
       <c r="J22"/>
       <c r="K22" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="L22"/>
       <c r="M22"/>
       <c r="N22" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O22"/>
       <c r="P22"/>
       <c r="Q22" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="R22"/>
       <c r="S22"/>
       <c r="T22" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="U22"/>
       <c r="V22"/>
@@ -8761,7 +8733,7 @@
         <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G23" t="s">
         <v>94</v>
@@ -8774,22 +8746,22 @@
       </c>
       <c r="J23"/>
       <c r="K23" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L23"/>
       <c r="M23"/>
       <c r="N23" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="O23"/>
       <c r="P23"/>
       <c r="Q23" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="R23"/>
       <c r="S23"/>
       <c r="T23" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="U23"/>
       <c r="V23"/>
@@ -8805,7 +8777,7 @@
       </c>
       <c r="E24"/>
       <c r="F24" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G24" t="s">
         <v>98</v>
@@ -8839,7 +8811,7 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G25" t="s">
         <v>100</v>
@@ -8852,7 +8824,7 @@
       </c>
       <c r="J25"/>
       <c r="K25" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L25"/>
       <c r="M25"/>
@@ -8860,12 +8832,12 @@
       <c r="O25"/>
       <c r="P25"/>
       <c r="Q25" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="R25"/>
       <c r="S25"/>
       <c r="T25" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="U25"/>
       <c r="V25"/>
@@ -9158,7 +9130,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="B34" t="s">
         <v>141</v>
@@ -9167,16 +9139,16 @@
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>142</v>
+        <v>293</v>
       </c>
       <c r="E34" t="n">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>143</v>
+        <v>460</v>
       </c>
       <c r="G34" t="s">
-        <v>144</v>
+        <v>461</v>
       </c>
       <c r="H34"/>
       <c r="I34" t="s">
@@ -9184,17 +9156,17 @@
       </c>
       <c r="J34"/>
       <c r="K34" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L34" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M34"/>
       <c r="N34" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O34" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="P34"/>
       <c r="Q34"/>
@@ -9215,16 +9187,16 @@
         <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E35" t="n">
         <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G35" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H35"/>
       <c r="I35" t="s">
@@ -9235,31 +9207,31 @@
       <c r="L35"/>
       <c r="M35"/>
       <c r="N35" t="s">
+        <v>298</v>
+      </c>
+      <c r="O35" t="s">
+        <v>299</v>
+      </c>
+      <c r="P35" t="s">
         <v>300</v>
       </c>
-      <c r="O35" t="s">
+      <c r="Q35" t="s">
         <v>301</v>
       </c>
-      <c r="P35" t="s">
+      <c r="R35" t="s">
         <v>302</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="S35" t="s">
         <v>303</v>
       </c>
-      <c r="R35" t="s">
-        <v>304</v>
-      </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
+        <v>142</v>
+      </c>
+      <c r="U35" t="s">
         <v>305</v>
       </c>
-      <c r="T35" t="s">
-        <v>145</v>
-      </c>
-      <c r="U35" t="s">
-        <v>307</v>
-      </c>
       <c r="V35" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36">
@@ -9273,16 +9245,16 @@
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E36" t="n">
         <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G36" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H36"/>
       <c r="I36" t="s">
@@ -9292,17 +9264,17 @@
         <v>19</v>
       </c>
       <c r="K36" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L36"/>
       <c r="M36"/>
       <c r="N36" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O36"/>
       <c r="P36"/>
       <c r="Q36" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="R36"/>
       <c r="S36"/>
@@ -9315,59 +9287,59 @@
         <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C37" t="n">
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E37" t="n">
         <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G37" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H37"/>
       <c r="I37" t="s">
         <v>74</v>
       </c>
       <c r="J37" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K37" t="s">
+        <v>309</v>
+      </c>
+      <c r="L37" t="s">
+        <v>310</v>
+      </c>
+      <c r="M37" t="s">
         <v>311</v>
-      </c>
-      <c r="L37" t="s">
-        <v>312</v>
-      </c>
-      <c r="M37" t="s">
-        <v>313</v>
       </c>
       <c r="N37"/>
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37" t="s">
+        <v>312</v>
+      </c>
+      <c r="R37" t="s">
+        <v>313</v>
+      </c>
+      <c r="S37" t="s">
         <v>314</v>
       </c>
-      <c r="R37" t="s">
+      <c r="T37" t="s">
         <v>315</v>
       </c>
-      <c r="S37" t="s">
+      <c r="U37" t="s">
         <v>316</v>
       </c>
-      <c r="T37" t="s">
-        <v>317</v>
-      </c>
-      <c r="U37" t="s">
-        <v>318</v>
-      </c>
       <c r="V37" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="38">
@@ -9375,56 +9347,56 @@
         <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C38" t="n">
         <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E38" t="n">
         <v>38</v>
       </c>
       <c r="F38" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G38" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H38"/>
       <c r="I38" t="s">
         <v>74</v>
       </c>
       <c r="J38" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K38" t="s">
+        <v>317</v>
+      </c>
+      <c r="L38" t="s">
+        <v>318</v>
+      </c>
+      <c r="M38" t="s">
+        <v>306</v>
+      </c>
+      <c r="N38" t="s">
         <v>319</v>
       </c>
-      <c r="L38" t="s">
+      <c r="O38" t="s">
         <v>320</v>
       </c>
-      <c r="M38" t="s">
-        <v>308</v>
-      </c>
-      <c r="N38" t="s">
+      <c r="P38" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q38" t="s">
         <v>321</v>
       </c>
-      <c r="O38" t="s">
+      <c r="R38" t="s">
         <v>322</v>
       </c>
-      <c r="P38" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q38" t="s">
+      <c r="S38" t="s">
         <v>323</v>
-      </c>
-      <c r="R38" t="s">
-        <v>324</v>
-      </c>
-      <c r="S38" t="s">
-        <v>325</v>
       </c>
       <c r="T38"/>
       <c r="U38"/>
@@ -9435,65 +9407,65 @@
         <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E39" t="n">
         <v>39</v>
       </c>
       <c r="F39" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G39" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H39"/>
       <c r="I39" t="s">
         <v>74</v>
       </c>
       <c r="J39" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K39" t="s">
+        <v>324</v>
+      </c>
+      <c r="L39" t="s">
+        <v>325</v>
+      </c>
+      <c r="M39" t="s">
         <v>326</v>
       </c>
-      <c r="L39" t="s">
+      <c r="N39" t="s">
         <v>327</v>
       </c>
-      <c r="M39" t="s">
+      <c r="O39" t="s">
         <v>328</v>
       </c>
-      <c r="N39" t="s">
+      <c r="P39" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q39" t="s">
         <v>329</v>
       </c>
-      <c r="O39" t="s">
+      <c r="R39" t="s">
         <v>330</v>
       </c>
-      <c r="P39" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q39" t="s">
+      <c r="S39" t="s">
+        <v>326</v>
+      </c>
+      <c r="T39" t="s">
         <v>331</v>
       </c>
-      <c r="R39" t="s">
+      <c r="U39" t="s">
         <v>332</v>
       </c>
-      <c r="S39" t="s">
-        <v>328</v>
-      </c>
-      <c r="T39" t="s">
-        <v>333</v>
-      </c>
-      <c r="U39" t="s">
-        <v>334</v>
-      </c>
       <c r="V39" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40">
@@ -9501,29 +9473,29 @@
         <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E40" t="n">
         <v>40</v>
       </c>
       <c r="F40" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G40" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H40"/>
       <c r="I40" t="s">
         <v>74</v>
       </c>
       <c r="J40" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K40"/>
       <c r="L40"/>
@@ -9543,65 +9515,65 @@
         <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C41" t="n">
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E41" t="n">
         <v>41</v>
       </c>
       <c r="F41" t="s">
+        <v>167</v>
+      </c>
+      <c r="G41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H41" t="s">
+        <v>169</v>
+      </c>
+      <c r="I41" t="s">
+        <v>74</v>
+      </c>
+      <c r="J41" t="s">
         <v>170</v>
       </c>
-      <c r="G41" t="s">
-        <v>171</v>
-      </c>
-      <c r="H41" t="s">
-        <v>172</v>
-      </c>
-      <c r="I41" t="s">
-        <v>74</v>
-      </c>
-      <c r="J41" t="s">
-        <v>173</v>
-      </c>
       <c r="K41" t="s">
+        <v>333</v>
+      </c>
+      <c r="L41" t="s">
         <v>335</v>
-      </c>
-      <c r="L41" t="s">
-        <v>337</v>
       </c>
       <c r="M41"/>
       <c r="N41" t="s">
+        <v>336</v>
+      </c>
+      <c r="O41" t="s">
+        <v>337</v>
+      </c>
+      <c r="P41" t="s">
         <v>338</v>
       </c>
-      <c r="O41" t="s">
+      <c r="Q41" t="s">
         <v>339</v>
       </c>
-      <c r="P41" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>341</v>
-      </c>
       <c r="R41" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="S41" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="T41" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="U41" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="V41" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42">
@@ -9609,50 +9581,50 @@
         <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C42" t="n">
         <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E42" t="n">
         <v>42</v>
       </c>
       <c r="F42" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G42" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H42"/>
       <c r="I42" t="s">
         <v>74</v>
       </c>
       <c r="J42" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42"/>
       <c r="N42" t="s">
+        <v>340</v>
+      </c>
+      <c r="O42" t="s">
+        <v>341</v>
+      </c>
+      <c r="P42" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q42" t="s">
         <v>342</v>
       </c>
-      <c r="O42" t="s">
-        <v>343</v>
-      </c>
-      <c r="P42" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q42" t="s">
+      <c r="R42" t="s">
         <v>344</v>
       </c>
-      <c r="R42" t="s">
-        <v>346</v>
-      </c>
       <c r="S42" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="T42"/>
       <c r="U42"/>
@@ -9663,56 +9635,56 @@
         <v>25</v>
       </c>
       <c r="B43" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C43" t="n">
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E43" t="n">
         <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G43" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H43"/>
       <c r="I43" t="s">
         <v>74</v>
       </c>
       <c r="J43" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K43" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="L43" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M43"/>
       <c r="N43" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="O43" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="P43"/>
       <c r="Q43" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="R43" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="S43"/>
       <c r="T43" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="U43" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="V43"/>
     </row>
@@ -9721,56 +9693,56 @@
         <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C44" t="n">
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E44" t="n">
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G44" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H44"/>
       <c r="I44" t="s">
         <v>74</v>
       </c>
       <c r="J44" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K44" t="s">
+        <v>351</v>
+      </c>
+      <c r="L44" t="s">
+        <v>325</v>
+      </c>
+      <c r="M44" t="s">
+        <v>352</v>
+      </c>
+      <c r="N44" t="s">
         <v>353</v>
       </c>
-      <c r="L44" t="s">
-        <v>327</v>
-      </c>
-      <c r="M44" t="s">
+      <c r="O44" t="s">
         <v>354</v>
       </c>
-      <c r="N44" t="s">
+      <c r="P44" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q44" t="s">
         <v>355</v>
       </c>
-      <c r="O44" t="s">
-        <v>356</v>
-      </c>
-      <c r="P44" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>357</v>
-      </c>
       <c r="R44" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="S44" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="T44"/>
       <c r="U44"/>
@@ -9781,61 +9753,61 @@
         <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C45" t="n">
         <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E45" t="n">
         <v>46</v>
       </c>
       <c r="F45" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G45" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H45" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I45" t="s">
         <v>74</v>
       </c>
       <c r="J45" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K45" t="s">
+        <v>356</v>
+      </c>
+      <c r="L45" t="s">
+        <v>357</v>
+      </c>
+      <c r="M45" t="s">
         <v>358</v>
       </c>
-      <c r="L45" t="s">
+      <c r="N45" t="s">
         <v>359</v>
       </c>
-      <c r="M45" t="s">
+      <c r="O45" t="s">
         <v>360</v>
       </c>
-      <c r="N45" t="s">
+      <c r="P45" t="s">
         <v>361</v>
-      </c>
-      <c r="O45" t="s">
-        <v>362</v>
-      </c>
-      <c r="P45" t="s">
-        <v>363</v>
       </c>
       <c r="Q45"/>
       <c r="R45"/>
       <c r="S45"/>
       <c r="T45" t="s">
+        <v>362</v>
+      </c>
+      <c r="U45" t="s">
+        <v>363</v>
+      </c>
+      <c r="V45" t="s">
         <v>364</v>
-      </c>
-      <c r="U45" t="s">
-        <v>365</v>
-      </c>
-      <c r="V45" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="46">
@@ -9843,59 +9815,59 @@
         <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C46" t="n">
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E46" t="n">
         <v>47</v>
       </c>
       <c r="F46" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G46" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H46"/>
       <c r="I46" t="s">
         <v>74</v>
       </c>
       <c r="J46" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K46" t="s">
+        <v>365</v>
+      </c>
+      <c r="L46" t="s">
+        <v>357</v>
+      </c>
+      <c r="M46" t="s">
+        <v>366</v>
+      </c>
+      <c r="N46" t="s">
         <v>367</v>
       </c>
-      <c r="L46" t="s">
-        <v>359</v>
-      </c>
-      <c r="M46" t="s">
-        <v>368</v>
-      </c>
-      <c r="N46" t="s">
-        <v>369</v>
-      </c>
       <c r="O46" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="P46" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="Q46"/>
       <c r="R46"/>
       <c r="S46"/>
       <c r="T46" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="U46" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="V46" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="47">
@@ -9903,50 +9875,50 @@
         <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C47" t="n">
         <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E47" t="n">
         <v>48</v>
       </c>
       <c r="F47" t="s">
+        <v>191</v>
+      </c>
+      <c r="G47" t="s">
+        <v>192</v>
+      </c>
+      <c r="H47" t="s">
+        <v>193</v>
+      </c>
+      <c r="I47" t="s">
+        <v>74</v>
+      </c>
+      <c r="J47" t="s">
         <v>194</v>
-      </c>
-      <c r="G47" t="s">
-        <v>195</v>
-      </c>
-      <c r="H47" t="s">
-        <v>196</v>
-      </c>
-      <c r="I47" t="s">
-        <v>74</v>
-      </c>
-      <c r="J47" t="s">
-        <v>197</v>
       </c>
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47"/>
       <c r="N47" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="O47" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="P47"/>
       <c r="Q47"/>
       <c r="R47"/>
       <c r="S47"/>
       <c r="T47" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="U47" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="V47"/>
     </row>
@@ -9955,55 +9927,55 @@
         <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C48" t="n">
         <v>17</v>
       </c>
       <c r="D48" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E48" t="n">
         <v>49</v>
       </c>
       <c r="F48" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G48" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H48" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I48" t="s">
         <v>74</v>
       </c>
       <c r="J48" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48"/>
       <c r="N48" t="s">
+        <v>371</v>
+      </c>
+      <c r="O48" t="s">
+        <v>372</v>
+      </c>
+      <c r="P48" t="s">
         <v>373</v>
-      </c>
-      <c r="O48" t="s">
-        <v>374</v>
-      </c>
-      <c r="P48" t="s">
-        <v>375</v>
       </c>
       <c r="Q48"/>
       <c r="R48"/>
       <c r="S48"/>
       <c r="T48" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="U48" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="V48" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="49">
@@ -10011,55 +9983,55 @@
         <v>25</v>
       </c>
       <c r="B49" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C49" t="n">
         <v>21</v>
       </c>
       <c r="D49" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E49" t="n">
         <v>50</v>
       </c>
       <c r="F49" t="s">
+        <v>201</v>
+      </c>
+      <c r="G49" t="s">
+        <v>202</v>
+      </c>
+      <c r="H49" t="s">
+        <v>203</v>
+      </c>
+      <c r="I49" t="s">
+        <v>74</v>
+      </c>
+      <c r="J49" t="s">
         <v>204</v>
-      </c>
-      <c r="G49" t="s">
-        <v>205</v>
-      </c>
-      <c r="H49" t="s">
-        <v>206</v>
-      </c>
-      <c r="I49" t="s">
-        <v>74</v>
-      </c>
-      <c r="J49" t="s">
-        <v>207</v>
       </c>
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49"/>
       <c r="N49" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O49" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="P49" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="Q49"/>
       <c r="R49"/>
       <c r="S49"/>
       <c r="T49" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="U49" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="V49" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="50">
@@ -10067,67 +10039,67 @@
         <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C50" t="n">
         <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E50" t="n">
         <v>51</v>
       </c>
       <c r="F50" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G50" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H50" t="s">
+        <v>203</v>
+      </c>
+      <c r="I50" t="s">
+        <v>74</v>
+      </c>
+      <c r="J50" t="s">
+        <v>204</v>
+      </c>
+      <c r="K50" t="s">
         <v>206</v>
       </c>
-      <c r="I50" t="s">
-        <v>74</v>
-      </c>
-      <c r="J50" t="s">
-        <v>207</v>
-      </c>
-      <c r="K50" t="s">
-        <v>209</v>
-      </c>
       <c r="L50" t="s">
+        <v>377</v>
+      </c>
+      <c r="M50" t="s">
+        <v>376</v>
+      </c>
+      <c r="N50" t="s">
+        <v>206</v>
+      </c>
+      <c r="O50" t="s">
+        <v>378</v>
+      </c>
+      <c r="P50" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q50" t="s">
         <v>379</v>
       </c>
-      <c r="M50" t="s">
-        <v>378</v>
-      </c>
-      <c r="N50" t="s">
-        <v>209</v>
-      </c>
-      <c r="O50" t="s">
+      <c r="R50" t="s">
         <v>380</v>
       </c>
-      <c r="P50" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>381</v>
-      </c>
-      <c r="R50" t="s">
-        <v>382</v>
-      </c>
       <c r="S50" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="T50" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="U50" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="V50" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="51">
@@ -10135,55 +10107,55 @@
         <v>25</v>
       </c>
       <c r="B51" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C51" t="n">
         <v>22</v>
       </c>
       <c r="D51" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E51" t="n">
         <v>52</v>
       </c>
       <c r="F51" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G51" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H51" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I51" t="s">
         <v>74</v>
       </c>
       <c r="J51" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K51"/>
       <c r="L51"/>
       <c r="M51"/>
       <c r="N51" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="O51" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="P51" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="Q51"/>
       <c r="R51"/>
       <c r="S51"/>
       <c r="T51" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="U51" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="V51" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="52">
@@ -10191,52 +10163,52 @@
         <v>25</v>
       </c>
       <c r="B52" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C52" t="n">
         <v>23</v>
       </c>
       <c r="D52" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E52" t="n">
         <v>53</v>
       </c>
       <c r="F52" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G52" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H52" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I52" t="s">
         <v>74</v>
       </c>
       <c r="J52" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K52" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="L52" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M52" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N52"/>
       <c r="O52"/>
       <c r="P52"/>
       <c r="Q52" t="s">
+        <v>382</v>
+      </c>
+      <c r="R52" t="s">
+        <v>380</v>
+      </c>
+      <c r="S52" t="s">
         <v>384</v>
-      </c>
-      <c r="R52" t="s">
-        <v>382</v>
-      </c>
-      <c r="S52" t="s">
-        <v>386</v>
       </c>
       <c r="T52"/>
       <c r="U52"/>
@@ -10247,58 +10219,58 @@
         <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C53" t="n">
         <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E53" t="n">
         <v>54</v>
       </c>
       <c r="F53" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G53" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H53" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I53" t="s">
         <v>74</v>
       </c>
       <c r="J53" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K53" t="s">
+        <v>385</v>
+      </c>
+      <c r="L53" t="s">
+        <v>377</v>
+      </c>
+      <c r="M53" t="s">
+        <v>386</v>
+      </c>
+      <c r="N53" t="s">
         <v>387</v>
       </c>
-      <c r="L53" t="s">
-        <v>379</v>
-      </c>
-      <c r="M53" t="s">
+      <c r="O53" t="s">
         <v>388</v>
       </c>
-      <c r="N53" t="s">
+      <c r="P53" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q53" t="s">
         <v>389</v>
       </c>
-      <c r="O53" t="s">
-        <v>390</v>
-      </c>
-      <c r="P53" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>391</v>
-      </c>
       <c r="R53" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="S53" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="T53"/>
       <c r="U53"/>
@@ -10309,49 +10281,49 @@
         <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C54" t="n">
         <v>20</v>
       </c>
       <c r="D54" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E54" t="n">
         <v>55</v>
       </c>
       <c r="F54" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G54" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H54" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I54" t="s">
         <v>74</v>
       </c>
       <c r="J54" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K54" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="L54" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M54" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="N54" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="O54" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="P54" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="Q54"/>
       <c r="R54"/>
@@ -10365,61 +10337,61 @@
         <v>25</v>
       </c>
       <c r="B55" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C55" t="n">
         <v>24</v>
       </c>
       <c r="D55" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E55" t="n">
         <v>56</v>
       </c>
       <c r="F55" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G55" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H55" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I55" t="s">
         <v>74</v>
       </c>
       <c r="J55" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K55" t="s">
+        <v>393</v>
+      </c>
+      <c r="L55" t="s">
+        <v>394</v>
+      </c>
+      <c r="M55" t="s">
         <v>395</v>
       </c>
-      <c r="L55" t="s">
+      <c r="N55" t="s">
         <v>396</v>
       </c>
-      <c r="M55" t="s">
-        <v>397</v>
-      </c>
-      <c r="N55" t="s">
-        <v>398</v>
-      </c>
       <c r="O55" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="P55" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="Q55"/>
       <c r="R55"/>
       <c r="S55"/>
       <c r="T55" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="U55" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="V55" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="56">
@@ -10427,55 +10399,55 @@
         <v>25</v>
       </c>
       <c r="B56" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C56" t="n">
         <v>25</v>
       </c>
       <c r="D56" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E56" t="n">
         <v>57</v>
       </c>
       <c r="F56" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G56" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H56" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I56" t="s">
         <v>74</v>
       </c>
       <c r="J56" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K56"/>
       <c r="L56"/>
       <c r="M56"/>
       <c r="N56" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="O56" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="P56" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="Q56"/>
       <c r="R56"/>
       <c r="S56"/>
       <c r="T56" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="U56" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="V56" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="57">
@@ -10483,29 +10455,29 @@
         <v>25</v>
       </c>
       <c r="B57" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C57" t="n">
         <v>60</v>
       </c>
       <c r="D57" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E57" t="n">
         <v>58</v>
       </c>
       <c r="F57" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G57" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H57"/>
       <c r="I57" t="s">
         <v>74</v>
       </c>
       <c r="J57" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K57"/>
       <c r="L57"/>
@@ -10514,22 +10486,22 @@
       <c r="O57"/>
       <c r="P57"/>
       <c r="Q57" t="s">
+        <v>400</v>
+      </c>
+      <c r="R57" t="s">
         <v>402</v>
       </c>
-      <c r="R57" t="s">
-        <v>404</v>
-      </c>
       <c r="S57" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="T57" t="s">
+        <v>403</v>
+      </c>
+      <c r="U57" t="s">
         <v>405</v>
       </c>
-      <c r="U57" t="s">
-        <v>407</v>
-      </c>
       <c r="V57" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="58">
@@ -10537,25 +10509,25 @@
         <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C58" t="n">
         <v>64</v>
       </c>
       <c r="D58" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E58" t="n">
         <v>59</v>
       </c>
       <c r="F58" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G58" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H58" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I58" t="s">
         <v>74</v>
@@ -10567,13 +10539,13 @@
       <c r="L58"/>
       <c r="M58"/>
       <c r="N58" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="O58" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="P58" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="Q58"/>
       <c r="R58"/>
@@ -10587,52 +10559,52 @@
         <v>25</v>
       </c>
       <c r="B59" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C59" t="n">
         <v>63</v>
       </c>
       <c r="D59" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E59" t="n">
         <v>60</v>
       </c>
       <c r="F59" t="s">
+        <v>236</v>
+      </c>
+      <c r="G59" t="s">
+        <v>237</v>
+      </c>
+      <c r="H59" t="s">
+        <v>238</v>
+      </c>
+      <c r="I59" t="s">
+        <v>74</v>
+      </c>
+      <c r="J59" t="s">
         <v>239</v>
-      </c>
-      <c r="G59" t="s">
-        <v>240</v>
-      </c>
-      <c r="H59" t="s">
-        <v>241</v>
-      </c>
-      <c r="I59" t="s">
-        <v>74</v>
-      </c>
-      <c r="J59" t="s">
-        <v>242</v>
       </c>
       <c r="K59"/>
       <c r="L59"/>
       <c r="M59"/>
       <c r="N59" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O59" t="s">
+        <v>407</v>
+      </c>
+      <c r="P59" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q59" t="s">
         <v>409</v>
       </c>
-      <c r="P59" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>411</v>
-      </c>
       <c r="R59" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="S59" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="T59"/>
       <c r="U59"/>
@@ -10643,50 +10615,50 @@
         <v>25</v>
       </c>
       <c r="B60" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C60" t="n">
         <v>61</v>
       </c>
       <c r="D60" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E60" t="n">
         <v>61</v>
       </c>
       <c r="F60" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G60" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H60"/>
       <c r="I60" t="s">
         <v>74</v>
       </c>
       <c r="J60" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K60"/>
       <c r="L60"/>
       <c r="M60"/>
       <c r="N60" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O60" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="P60" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Q60" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="R60" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="S60" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="T60"/>
       <c r="U60"/>
@@ -10697,50 +10669,50 @@
         <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C61" t="n">
         <v>62</v>
       </c>
       <c r="D61" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E61" t="n">
         <v>62</v>
       </c>
       <c r="F61" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G61" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H61"/>
       <c r="I61" t="s">
         <v>74</v>
       </c>
       <c r="J61" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K61"/>
       <c r="L61"/>
       <c r="M61"/>
       <c r="N61" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O61" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="P61" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Q61" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="R61" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="S61" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="T61"/>
       <c r="U61"/>
@@ -10751,48 +10723,48 @@
         <v>25</v>
       </c>
       <c r="B62" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C62" t="n">
         <v>65</v>
       </c>
       <c r="D62" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E62" t="n">
         <v>63</v>
       </c>
       <c r="F62" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G62" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H62"/>
       <c r="I62" t="s">
         <v>74</v>
       </c>
       <c r="J62" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="K62"/>
       <c r="L62"/>
       <c r="M62"/>
       <c r="N62" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="O62" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="P62"/>
       <c r="Q62" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="R62" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="S62" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="T62"/>
       <c r="U62"/>
@@ -10821,37 +10793,37 @@
         <v>32</v>
       </c>
       <c r="J63" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K63"/>
       <c r="L63"/>
       <c r="M63"/>
       <c r="N63" t="s">
+        <v>419</v>
+      </c>
+      <c r="O63" t="s">
+        <v>354</v>
+      </c>
+      <c r="P63" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q63" t="s">
         <v>421</v>
       </c>
-      <c r="O63" t="s">
-        <v>356</v>
-      </c>
-      <c r="P63" t="s">
+      <c r="R63" t="s">
+        <v>302</v>
+      </c>
+      <c r="S63" t="s">
         <v>422</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="T63" t="s">
         <v>423</v>
       </c>
-      <c r="R63" t="s">
-        <v>304</v>
-      </c>
-      <c r="S63" t="s">
-        <v>424</v>
-      </c>
-      <c r="T63" t="s">
+      <c r="U63" t="s">
         <v>425</v>
       </c>
-      <c r="U63" t="s">
-        <v>427</v>
-      </c>
       <c r="V63" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -10876,10 +10848,10 @@
         <v>462</v>
       </c>
       <c r="C1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2">
@@ -10887,13 +10859,13 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3">
@@ -10901,13 +10873,13 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4">
@@ -10915,13 +10887,13 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5">
@@ -10929,13 +10901,13 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6">
@@ -10943,13 +10915,13 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7">
@@ -10957,13 +10929,13 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8">
@@ -10971,13 +10943,13 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9">
@@ -10985,13 +10957,13 @@
         <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10">
@@ -10999,13 +10971,13 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11">
@@ -11013,13 +10985,13 @@
         <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D11" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12">
@@ -11027,13 +10999,13 @@
         <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D12" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13">
@@ -11041,13 +11013,13 @@
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D13" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14">
@@ -11055,13 +11027,13 @@
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D14" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15">
@@ -11069,13 +11041,13 @@
         <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C15" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D15" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16">
@@ -11083,13 +11055,13 @@
         <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C16" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17">
@@ -11097,13 +11069,13 @@
         <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C17" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D17" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18">
@@ -11111,13 +11083,13 @@
         <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C18" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D18" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19">
@@ -11125,13 +11097,13 @@
         <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D19" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20">
@@ -11139,13 +11111,13 @@
         <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C20" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D20" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21">
@@ -11153,13 +11125,13 @@
         <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C21" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D21" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22">
@@ -11167,13 +11139,13 @@
         <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C22" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D22" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23">
@@ -11181,13 +11153,13 @@
         <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C23" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D23" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24">
@@ -11195,13 +11167,13 @@
         <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C24" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D24" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25">
@@ -11209,13 +11181,13 @@
         <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C25" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D25" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26">
@@ -11223,13 +11195,13 @@
         <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C26" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D26" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27">
@@ -11237,13 +11209,13 @@
         <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C27" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D27" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28">
@@ -11251,13 +11223,13 @@
         <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C28" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D28" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29">
@@ -11265,13 +11237,13 @@
         <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C29" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D29" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30">
@@ -11279,13 +11251,13 @@
         <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D30" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31">
@@ -11293,13 +11265,13 @@
         <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C31" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D31" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32">
@@ -11307,13 +11279,13 @@
         <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C32" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D32" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33">
@@ -11321,13 +11293,13 @@
         <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C33" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D33" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34">
@@ -11335,13 +11307,13 @@
         <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C34" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D34" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35">
@@ -11349,13 +11321,13 @@
         <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C35" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D35" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36">
@@ -11363,13 +11335,13 @@
         <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C36" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D36" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37">
@@ -11377,13 +11349,13 @@
         <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C37" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D37" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38">
@@ -11391,13 +11363,13 @@
         <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C38" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D38" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39">
@@ -11405,13 +11377,13 @@
         <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C39" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D39" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40">
@@ -11419,13 +11391,13 @@
         <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C40" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D40" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41">
@@ -11433,13 +11405,13 @@
         <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C41" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D41" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42">
@@ -11447,13 +11419,13 @@
         <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C42" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D42" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43">
@@ -11461,13 +11433,13 @@
         <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C43" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D43" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44">
@@ -11475,13 +11447,13 @@
         <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C44" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D44" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45">
@@ -11489,13 +11461,13 @@
         <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C45" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D45" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46">
@@ -11503,13 +11475,13 @@
         <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C46" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D46" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47">
@@ -11517,13 +11489,13 @@
         <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C47" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D47" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="48">
@@ -11531,13 +11503,13 @@
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C48" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D48" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49">
@@ -11545,13 +11517,13 @@
         <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C49" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D49" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="50">
@@ -11559,13 +11531,13 @@
         <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C50" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D50" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51">
@@ -11573,13 +11545,13 @@
         <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C51" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D51" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="52">
@@ -11587,13 +11559,13 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C52" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D52" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="53">
@@ -11601,13 +11573,13 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C53" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D53" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="54">
@@ -11615,13 +11587,13 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C54" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D54" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="55">
@@ -11629,13 +11601,13 @@
         <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C55" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D55" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56">
@@ -11643,13 +11615,13 @@
         <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C56" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D56" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="57">
@@ -11657,13 +11629,13 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C57" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D57" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58">
@@ -11671,13 +11643,13 @@
         <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C58" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D58" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="59">
@@ -11685,13 +11657,13 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C59" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D59" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="60">
@@ -11699,13 +11671,13 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C60" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D60" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61">
@@ -11713,13 +11685,13 @@
         <v>115</v>
       </c>
       <c r="B61" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C61" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D61" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="62">
@@ -11727,13 +11699,13 @@
         <v>115</v>
       </c>
       <c r="B62" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C62" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D62" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="63">
@@ -11741,13 +11713,13 @@
         <v>115</v>
       </c>
       <c r="B63" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C63" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D63" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -11766,7 +11738,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -13129,7 +13101,7 @@
         <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H34"/>
       <c r="I34"/>

--- a/Tables/StreamHabitatSpecifications.xlsx
+++ b/Tables/StreamHabitatSpecifications.xlsx
@@ -9,7 +9,7 @@
     <sheet name="RecordLevel" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Location" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Event" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="MeasurementOrFact" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="MeasurementorFact" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="metricControlledVocabulary" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Crosswalk" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="416">
   <si>
     <t xml:space="preserve">tblname</t>
   </si>
@@ -295,9 +295,81 @@
     <t xml:space="preserve">2008</t>
   </si>
   <si>
+    <t xml:space="preserve">MeasurementorFact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comma Separated Value (CSV) file containing MeasurementorFact data for the Integrated Stream Habitat Data. This table corresponds to the 'MeasurementorFact' table in the database (.accdb) file.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measurementDeterminedBy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The acronym for the monitoring program from which this measurement originated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measurementID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global unique identifier assigned to the variable/measurementType.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measurementMethod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A description of or reference to (publication, URI) the method or protocol used to determine the measurement, fact, characteristic, or assertion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL of the MonitoringResources.rog field and if avilable calcuation method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measurementRemarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments or notes accompanying the MeasurementOrFact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tip of tail missing</t>
+  </si>
+  <si>
     <t xml:space="preserve">measurementType</t>
   </si>
   <si>
+    <t xml:space="preserve">The variable or name of the measurement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grad, WetWidth, ReachLen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measurementValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The value of the measurementTerm attribute measured in units given in the measurementTerm definitions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">double</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45, "20", "1", "14.5", "UV-light"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resultID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique global identifier for each result measurement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resultTypeCV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The category of measurement type to which the measurement belongs. This is the same category as that in the 'measurementType' attribute in the MetricCV table.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tail length, "temperature", "trap line length", "survey area", "trap type"</t>
+  </si>
+  <si>
     <t xml:space="preserve">termID</t>
   </si>
   <si>
@@ -322,6 +394,27 @@
     <t xml:space="preserve">Channel Characteristics</t>
   </si>
   <si>
+    <t xml:space="preserve">PctDry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of Reach that is Dry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of the reach that was dry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min: 0, max: 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sin</t>
   </si>
   <si>
@@ -364,9 +457,6 @@
     <t xml:space="preserve">m</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
     <t xml:space="preserve">BFHeight</t>
   </si>
   <si>
@@ -409,15 +499,6 @@
     <t xml:space="preserve">Mean slope of water surface (percent) from the bottom of the reach to the top of the reach.</t>
   </si>
   <si>
-    <t xml:space="preserve">min: 0, max: 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
     <t xml:space="preserve">MeanThalwegDepth</t>
   </si>
   <si>
@@ -682,9 +763,6 @@
     <t xml:space="preserve">lattitude</t>
   </si>
   <si>
-    <t xml:space="preserve">double</t>
-  </si>
-  <si>
     <t xml:space="preserve">AIM</t>
   </si>
   <si>
@@ -694,19 +772,67 @@
     <t xml:space="preserve">decimal degrees</t>
   </si>
   <si>
+    <t xml:space="preserve">NRSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAT_DD83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIBO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIDLONG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LON_DD83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SITE_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS_CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SiteID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRM_NM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">survey_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m/d/yyyy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE_COL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SampDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCT_DRY</t>
+  </si>
+  <si>
     <t xml:space="preserve">www.monitoringresources.org/Document/CustomizedMethod/Details/31137</t>
   </si>
   <si>
     <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7004</t>
   </si>
   <si>
-    <t xml:space="preserve">NRSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAT_DD83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decimal Degrees</t>
+    <t xml:space="preserve">PCT_DRS</t>
   </si>
   <si>
     <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/1610</t>
@@ -715,13 +841,10 @@
     <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7018</t>
   </si>
   <si>
-    <t xml:space="preserve">PIBO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decimal degree</t>
+    <t xml:space="preserve">StrmFlow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Categorical: Flow, No Flow, Other</t>
   </si>
   <si>
     <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/924</t>
@@ -730,57 +853,6 @@
     <t xml:space="preserve">tbd</t>
   </si>
   <si>
-    <t xml:space="preserve">MIDLONG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LON_DD83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Long</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SITE_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MS_CD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SiteID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STRM_NM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">survey_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m/d/yyyy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DATE_COL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SampDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_DRY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_DRS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StrmFlow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Categorical: Flow, No Flow, Other</t>
-  </si>
-  <si>
     <t xml:space="preserve">survey_type</t>
   </si>
   <si>
@@ -811,6 +883,9 @@
     <t xml:space="preserve">beaver_impacted</t>
   </si>
   <si>
+    <t xml:space="preserve">string</t>
+  </si>
+  <si>
     <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7003</t>
   </si>
   <si>
@@ -820,6 +895,9 @@
     <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7002</t>
   </si>
   <si>
+    <t xml:space="preserve">cataogry</t>
+  </si>
+  <si>
     <t xml:space="preserve">SNSTY</t>
   </si>
   <si>
@@ -841,6 +919,9 @@
     <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6868</t>
   </si>
   <si>
+    <t xml:space="preserve">integer</t>
+  </si>
+  <si>
     <t xml:space="preserve">STRM_ORDR</t>
   </si>
   <si>
@@ -1042,24 +1123,24 @@
     <t xml:space="preserve">Stab</t>
   </si>
   <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/1730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub_dmm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6874</t>
+  </si>
+  <si>
     <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6810</t>
   </si>
   <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/1730</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub_dmm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6874</t>
-  </si>
-  <si>
     <t xml:space="preserve">bedrock_pcnt</t>
   </si>
   <si>
@@ -1184,9 +1265,6 @@
   </si>
   <si>
     <t xml:space="preserve">Yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent  of reach</t>
   </si>
 </sst>
 </file>
@@ -2264,6 +2342,204 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2280,19 +2556,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="C1" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E1" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -2301,879 +2577,911 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="I1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="J1" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="B2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2"/>
+        <v>127</v>
+      </c>
+      <c r="F2" t="s">
+        <v>128</v>
+      </c>
       <c r="G2" t="s">
         <v>52</v>
       </c>
-      <c r="H2"/>
+      <c r="H2" t="s">
+        <v>129</v>
+      </c>
       <c r="I2" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="J2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="s">
         <v>52</v>
       </c>
-      <c r="H3" t="s">
-        <v>105</v>
-      </c>
+      <c r="H3"/>
       <c r="I3" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="J3" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="F4"/>
       <c r="G4" t="s">
         <v>52</v>
       </c>
       <c r="H4" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="I4" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="J4" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="B5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="F5"/>
       <c r="G5" t="s">
         <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="I5" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="J5" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="B6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F6"/>
       <c r="G6" t="s">
         <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="I6" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="J6" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="B7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="F7"/>
       <c r="G7" t="s">
         <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="I7" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="J7" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" t="s">
+        <v>156</v>
+      </c>
+      <c r="I8" t="s">
         <v>130</v>
       </c>
-      <c r="G8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" t="s">
-        <v>131</v>
-      </c>
-      <c r="I8" t="s">
-        <v>115</v>
-      </c>
       <c r="J8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="B9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="D9" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="E9" t="s">
-        <v>135</v>
-      </c>
-      <c r="F9"/>
+        <v>159</v>
+      </c>
+      <c r="F9" t="s">
+        <v>128</v>
+      </c>
       <c r="G9" t="s">
         <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="I9" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="J9" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="B10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="D10" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="E10" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="F10"/>
       <c r="G10" t="s">
         <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="I10" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="J10" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="B11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="D11" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="E11" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="F11"/>
       <c r="G11" t="s">
         <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="I11" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B12" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E12" t="s">
+        <v>170</v>
+      </c>
+      <c r="F12"/>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" t="s">
         <v>145</v>
       </c>
-      <c r="D12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E12" t="s">
-        <v>147</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="I12" t="s">
         <v>130</v>
       </c>
-      <c r="G12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" t="s">
-        <v>131</v>
-      </c>
-      <c r="I12" t="s">
-        <v>115</v>
-      </c>
       <c r="J12" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="B13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="D13" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="E13" t="s">
-        <v>150</v>
-      </c>
-      <c r="F13"/>
+        <v>174</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
       <c r="G13" t="s">
         <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="I13" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="J13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="B14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="D14" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="E14" t="s">
-        <v>154</v>
-      </c>
-      <c r="F14" t="s">
-        <v>155</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="F14"/>
       <c r="G14" t="s">
         <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="I14" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="J14" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="B15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="E15" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="F15" t="s">
+        <v>182</v>
+      </c>
+      <c r="G15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" t="s">
+        <v>183</v>
+      </c>
+      <c r="I15" t="s">
         <v>130</v>
       </c>
-      <c r="G15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" t="s">
-        <v>131</v>
-      </c>
-      <c r="I15" t="s">
-        <v>115</v>
-      </c>
       <c r="J15" t="s">
-        <v>132</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="B16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="D16" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="E16" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="F16" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="G16" t="s">
         <v>52</v>
       </c>
       <c r="H16" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="I16" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="J16" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="B17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="D17" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="E17" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="G17" t="s">
         <v>52</v>
       </c>
       <c r="H17" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="I17" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="J17" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="B18" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="D18" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="E18" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="F18" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="G18" t="s">
         <v>52</v>
       </c>
       <c r="H18" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="I18" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="J18" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="B19" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="D19" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="E19" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="F19" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="G19" t="s">
         <v>52</v>
       </c>
       <c r="H19" t="s">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="I19" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="J19" t="s">
-        <v>115</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="B20" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="D20" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="E20" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="F20" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I20" t="s">
         <v>130</v>
       </c>
-      <c r="G20" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" t="s">
-        <v>131</v>
-      </c>
-      <c r="I20" t="s">
-        <v>115</v>
-      </c>
       <c r="J20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="B21" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="D21" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="E21" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="F21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" t="s">
+        <v>129</v>
+      </c>
+      <c r="I21" t="s">
         <v>130</v>
       </c>
-      <c r="G21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
         <v>131</v>
-      </c>
-      <c r="I21" t="s">
-        <v>115</v>
-      </c>
-      <c r="J21" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="B22" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="D22" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="E22" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="F22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" t="s">
+        <v>129</v>
+      </c>
+      <c r="I22" t="s">
         <v>130</v>
       </c>
-      <c r="G22" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="J22" t="s">
         <v>131</v>
-      </c>
-      <c r="I22" t="s">
-        <v>115</v>
-      </c>
-      <c r="J22" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="B23" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="D23" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="E23" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="F23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" t="s">
+        <v>129</v>
+      </c>
+      <c r="I23" t="s">
         <v>130</v>
       </c>
-      <c r="G23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="J23" t="s">
         <v>131</v>
-      </c>
-      <c r="I23" t="s">
-        <v>115</v>
-      </c>
-      <c r="J23" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B24" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="D24" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="E24" t="s">
-        <v>191</v>
-      </c>
-      <c r="F24"/>
+        <v>215</v>
+      </c>
+      <c r="F24" t="s">
+        <v>128</v>
+      </c>
       <c r="G24" t="s">
         <v>52</v>
       </c>
       <c r="H24" t="s">
-        <v>192</v>
+        <v>129</v>
       </c>
       <c r="I24" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="J24" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="B25" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="D25" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="E25" t="s">
-        <v>194</v>
-      </c>
-      <c r="F25" t="s">
-        <v>195</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="F25"/>
       <c r="G25" t="s">
         <v>52</v>
       </c>
       <c r="H25" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="I25" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="J25" t="s">
-        <v>196</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="B26" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="D26" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="E26" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="F26" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="G26" t="s">
         <v>52</v>
       </c>
       <c r="H26" t="s">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="I26" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="J26" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="B27" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="D27" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="E27" t="s">
-        <v>205</v>
-      </c>
-      <c r="F27"/>
+        <v>226</v>
+      </c>
+      <c r="F27" t="s">
+        <v>227</v>
+      </c>
       <c r="G27" t="s">
         <v>52</v>
       </c>
       <c r="H27" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="I27" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="J27" t="s">
-        <v>119</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="B28" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="D28" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="E28" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="F28"/>
       <c r="G28" t="s">
         <v>52</v>
       </c>
       <c r="H28" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="I28" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="J28" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="B29" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="D29" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="E29" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="F29"/>
       <c r="G29" t="s">
         <v>52</v>
       </c>
       <c r="H29" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="I29" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="J29" t="s">
-        <v>119</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>216</v>
+      </c>
+      <c r="B30" t="n">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>237</v>
+      </c>
+      <c r="D30" t="s">
+        <v>237</v>
+      </c>
+      <c r="E30" t="s">
+        <v>238</v>
+      </c>
+      <c r="F30"/>
+      <c r="G30" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" t="s">
+        <v>239</v>
+      </c>
+      <c r="I30" t="s">
+        <v>130</v>
+      </c>
+      <c r="J30" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3192,31 +3500,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="E1" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="F1" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="G1" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="H1" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="I1" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2">
@@ -3230,14 +3538,14 @@
         <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="E2" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -3253,23 +3561,19 @@
         <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="E3" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="F3" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="G3" t="s">
-        <v>221</v>
-      </c>
-      <c r="H3" t="s">
-        <v>225</v>
-      </c>
-      <c r="I3" t="s">
-        <v>226</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -3282,23 +3586,19 @@
         <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="E4" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="F4" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="G4" t="s">
-        <v>221</v>
-      </c>
-      <c r="H4" t="s">
-        <v>225</v>
-      </c>
-      <c r="I4" t="s">
-        <v>226</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="H4"/>
+      <c r="I4"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -3311,110 +3611,92 @@
         <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="E5" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="F5" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="G5" t="s">
-        <v>221</v>
-      </c>
-      <c r="H5" t="s">
-        <v>230</v>
-      </c>
-      <c r="I5" t="s">
-        <v>231</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
         <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F6" t="s">
-        <v>229</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="F6"/>
       <c r="G6" t="s">
-        <v>221</v>
-      </c>
-      <c r="H6" t="s">
-        <v>230</v>
-      </c>
-      <c r="I6" t="s">
-        <v>231</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
         <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="E7" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="F7" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="G7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H7" t="s">
-        <v>235</v>
-      </c>
-      <c r="I7" t="s">
-        <v>236</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
         <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="E8" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="F8" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>235</v>
-      </c>
-      <c r="I8" t="s">
-        <v>236</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -3427,89 +3709,85 @@
         <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9"/>
+        <v>257</v>
+      </c>
+      <c r="F9" t="s">
+        <v>250</v>
+      </c>
       <c r="G9" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="E10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F10" t="s">
-        <v>224</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="F10"/>
       <c r="G10" t="s">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="E11" t="s">
-        <v>238</v>
-      </c>
-      <c r="F11" t="s">
-        <v>229</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="F11"/>
       <c r="G11" t="s">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="H11"/>
       <c r="I11"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="E12" t="s">
-        <v>239</v>
-      </c>
-      <c r="F12" t="s">
-        <v>234</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="F12"/>
       <c r="G12" t="s">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="H12"/>
       <c r="I12"/>
@@ -3525,37 +3803,35 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="E13" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="F13"/>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H13"/>
       <c r="I13"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="E14" t="s">
-        <v>241</v>
-      </c>
-      <c r="F14" t="s">
-        <v>105</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="F14"/>
       <c r="G14" t="s">
         <v>12</v>
       </c>
@@ -3564,21 +3840,23 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="E15" t="s">
-        <v>240</v>
-      </c>
-      <c r="F15"/>
+        <v>262</v>
+      </c>
+      <c r="F15" t="s">
+        <v>136</v>
+      </c>
       <c r="G15" t="s">
         <v>12</v>
       </c>
@@ -3587,73 +3865,71 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="E16" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="F16"/>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="H16"/>
       <c r="I16"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="E17" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="F17" t="s">
-        <v>105</v>
+        <v>265</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="E18" t="s">
-        <v>244</v>
-      </c>
-      <c r="F18" t="s">
-        <v>105</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="F18"/>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H18"/>
       <c r="I18"/>
@@ -3669,10 +3945,10 @@
         <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="E19" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="F19"/>
       <c r="G19" t="s">
@@ -3683,264 +3959,246 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="E20" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="F20" t="s">
-        <v>247</v>
+        <v>129</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20"/>
-      <c r="I20"/>
+        <v>109</v>
+      </c>
+      <c r="H20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I20" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="E21" t="s">
-        <v>248</v>
-      </c>
-      <c r="F21"/>
+        <v>271</v>
+      </c>
+      <c r="F21" t="s">
+        <v>129</v>
+      </c>
       <c r="G21" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21"/>
-      <c r="I21"/>
+        <v>109</v>
+      </c>
+      <c r="H21" t="s">
+        <v>272</v>
+      </c>
+      <c r="I21" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="E22" t="s">
-        <v>249</v>
-      </c>
-      <c r="F22"/>
+        <v>274</v>
+      </c>
+      <c r="F22" t="s">
+        <v>275</v>
+      </c>
       <c r="G22" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22"/>
-      <c r="I22"/>
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>276</v>
+      </c>
+      <c r="I22" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>246</v>
+      </c>
+      <c r="E23" t="s">
+        <v>278</v>
+      </c>
+      <c r="F23"/>
+      <c r="G23" t="s">
         <v>12</v>
       </c>
-      <c r="D23" t="s">
-        <v>222</v>
-      </c>
-      <c r="E23" t="s">
-        <v>250</v>
-      </c>
-      <c r="F23" t="s">
-        <v>131</v>
-      </c>
-      <c r="G23" t="s">
-        <v>221</v>
-      </c>
-      <c r="H23" t="s">
-        <v>225</v>
-      </c>
-      <c r="I23" t="s">
-        <v>226</v>
-      </c>
+      <c r="H23"/>
+      <c r="I23"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>248</v>
+      </c>
+      <c r="E24" t="s">
+        <v>279</v>
+      </c>
+      <c r="F24"/>
+      <c r="G24" t="s">
         <v>12</v>
       </c>
-      <c r="D24" t="s">
-        <v>222</v>
-      </c>
-      <c r="E24" t="s">
-        <v>250</v>
-      </c>
-      <c r="F24" t="s">
-        <v>131</v>
-      </c>
-      <c r="G24" t="s">
-        <v>221</v>
-      </c>
-      <c r="H24" t="s">
-        <v>225</v>
-      </c>
-      <c r="I24" t="s">
-        <v>226</v>
-      </c>
+      <c r="H24"/>
+      <c r="I24"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>251</v>
+      </c>
+      <c r="E25" t="s">
+        <v>280</v>
+      </c>
+      <c r="F25"/>
+      <c r="G25" t="s">
         <v>12</v>
       </c>
-      <c r="D25" t="s">
-        <v>227</v>
-      </c>
-      <c r="E25" t="s">
-        <v>251</v>
-      </c>
-      <c r="F25" t="s">
-        <v>131</v>
-      </c>
-      <c r="G25" t="s">
-        <v>221</v>
-      </c>
-      <c r="H25" t="s">
-        <v>230</v>
-      </c>
-      <c r="I25" t="s">
-        <v>231</v>
-      </c>
+      <c r="H25"/>
+      <c r="I25"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>253</v>
+      </c>
+      <c r="E26" t="s">
+        <v>281</v>
+      </c>
+      <c r="F26" t="s">
+        <v>282</v>
+      </c>
+      <c r="G26" t="s">
         <v>12</v>
       </c>
-      <c r="D26" t="s">
-        <v>227</v>
-      </c>
-      <c r="E26" t="s">
-        <v>251</v>
-      </c>
-      <c r="F26" t="s">
-        <v>131</v>
-      </c>
-      <c r="G26" t="s">
-        <v>221</v>
-      </c>
-      <c r="H26" t="s">
-        <v>230</v>
-      </c>
-      <c r="I26" t="s">
-        <v>231</v>
-      </c>
+      <c r="H26"/>
+      <c r="I26"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="E27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F27" t="s">
-        <v>253</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="F27"/>
       <c r="G27" t="s">
-        <v>221</v>
-      </c>
-      <c r="H27" t="s">
-        <v>235</v>
-      </c>
-      <c r="I27" t="s">
-        <v>236</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H27"/>
+      <c r="I27"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="E28" t="s">
-        <v>252</v>
-      </c>
-      <c r="F28" t="s">
-        <v>253</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="F28"/>
       <c r="G28" t="s">
         <v>12</v>
       </c>
-      <c r="H28" t="s">
-        <v>235</v>
-      </c>
-      <c r="I28" t="s">
-        <v>236</v>
-      </c>
+      <c r="H28"/>
+      <c r="I28"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="E29" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="F29"/>
       <c r="G29" t="s">
@@ -3951,535 +4209,573 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>253</v>
+      </c>
+      <c r="E30" t="s">
+        <v>285</v>
+      </c>
+      <c r="F30"/>
+      <c r="G30" t="s">
         <v>16</v>
-      </c>
-      <c r="D30" t="s">
-        <v>222</v>
-      </c>
-      <c r="E30" t="s">
-        <v>255</v>
-      </c>
-      <c r="F30" t="s">
-        <v>105</v>
-      </c>
-      <c r="G30" t="s">
-        <v>12</v>
       </c>
       <c r="H30"/>
       <c r="I30"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D31" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E31" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
+      <c r="G31" t="s">
+        <v>288</v>
+      </c>
+      <c r="H31" t="s">
+        <v>289</v>
+      </c>
       <c r="I31"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D32" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="E32" t="s">
-        <v>257</v>
-      </c>
-      <c r="F32" t="s">
-        <v>258</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="F32"/>
       <c r="G32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32"/>
+        <v>288</v>
+      </c>
+      <c r="H32" t="s">
+        <v>291</v>
+      </c>
       <c r="I32"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D33" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="E33" t="s">
-        <v>259</v>
-      </c>
-      <c r="F33"/>
+        <v>268</v>
+      </c>
+      <c r="F33" t="s">
+        <v>129</v>
+      </c>
       <c r="G33" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33"/>
-      <c r="I33"/>
+        <v>109</v>
+      </c>
+      <c r="H33" t="s">
+        <v>269</v>
+      </c>
+      <c r="I33" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="E34" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="F34" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="G34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34"/>
-      <c r="I34"/>
+        <v>109</v>
+      </c>
+      <c r="H34" t="s">
+        <v>272</v>
+      </c>
+      <c r="I34" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D35" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="E35" t="s">
-        <v>260</v>
-      </c>
-      <c r="F35"/>
+        <v>274</v>
+      </c>
+      <c r="F35" t="s">
+        <v>292</v>
+      </c>
       <c r="G35" t="s">
         <v>12</v>
       </c>
-      <c r="H35"/>
-      <c r="I35"/>
+      <c r="H35" t="s">
+        <v>276</v>
+      </c>
+      <c r="I35" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D36" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="E36" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="F36"/>
       <c r="G36" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36"/>
-      <c r="I36"/>
+        <v>109</v>
+      </c>
+      <c r="H36" t="s">
+        <v>294</v>
+      </c>
+      <c r="I36" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>262</v>
+        <v>132</v>
       </c>
       <c r="C37" t="s">
         <v>52</v>
       </c>
       <c r="D37" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="E37" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="F37"/>
-      <c r="G37"/>
+      <c r="G37" t="s">
+        <v>109</v>
+      </c>
       <c r="H37" t="s">
-        <v>264</v>
-      </c>
-      <c r="I37"/>
+        <v>272</v>
+      </c>
+      <c r="I37" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>262</v>
+        <v>132</v>
       </c>
       <c r="C38" t="s">
         <v>52</v>
       </c>
       <c r="D38" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="E38" t="s">
-        <v>265</v>
+        <v>132</v>
       </c>
       <c r="F38" t="s">
-        <v>119</v>
-      </c>
-      <c r="G38"/>
+        <v>298</v>
+      </c>
+      <c r="G38" t="s">
+        <v>109</v>
+      </c>
       <c r="H38" t="s">
-        <v>266</v>
-      </c>
-      <c r="I38"/>
+        <v>299</v>
+      </c>
+      <c r="I38" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="C39" t="s">
         <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="E39" t="s">
-        <v>267</v>
+        <v>137</v>
       </c>
       <c r="F39"/>
       <c r="G39" t="s">
-        <v>221</v>
-      </c>
-      <c r="H39" t="s">
-        <v>268</v>
-      </c>
-      <c r="I39" t="s">
-        <v>269</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="H39"/>
+      <c r="I39"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="C40" t="s">
         <v>52</v>
       </c>
       <c r="D40" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="E40" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="F40"/>
       <c r="G40" t="s">
-        <v>221</v>
-      </c>
-      <c r="H40" t="s">
-        <v>230</v>
-      </c>
-      <c r="I40" t="s">
-        <v>271</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="H40"/>
+      <c r="I40"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="C41" t="s">
         <v>52</v>
       </c>
       <c r="D41" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="E41" t="s">
-        <v>101</v>
-      </c>
-      <c r="F41" t="s">
-        <v>272</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="F41"/>
       <c r="G41" t="s">
-        <v>221</v>
-      </c>
-      <c r="H41" t="s">
-        <v>273</v>
-      </c>
-      <c r="I41" t="s">
-        <v>236</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="H41"/>
+      <c r="I41"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="C42" t="s">
         <v>52</v>
       </c>
       <c r="D42" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="E42" t="s">
-        <v>106</v>
-      </c>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
-      <c r="I42"/>
+        <v>303</v>
+      </c>
+      <c r="F42" t="s">
+        <v>298</v>
+      </c>
+      <c r="G42" t="s">
+        <v>109</v>
+      </c>
+      <c r="H42" t="s">
+        <v>304</v>
+      </c>
+      <c r="I42" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="C43" t="s">
         <v>52</v>
       </c>
       <c r="D43" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="E43" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="F43" t="s">
-        <v>105</v>
-      </c>
-      <c r="G43"/>
-      <c r="H43"/>
-      <c r="I43"/>
+        <v>298</v>
+      </c>
+      <c r="G43" t="s">
+        <v>109</v>
+      </c>
+      <c r="H43" t="s">
+        <v>307</v>
+      </c>
+      <c r="I43" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="C44" t="s">
         <v>52</v>
       </c>
       <c r="D44" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="E44" t="s">
-        <v>275</v>
-      </c>
-      <c r="F44"/>
+        <v>309</v>
+      </c>
+      <c r="F44" t="s">
+        <v>298</v>
+      </c>
       <c r="G44" t="s">
-        <v>221</v>
-      </c>
-      <c r="H44"/>
-      <c r="I44"/>
+        <v>109</v>
+      </c>
+      <c r="H44" t="s">
+        <v>310</v>
+      </c>
+      <c r="I44" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
       </c>
       <c r="D45" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="E45" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="F45" t="s">
-        <v>272</v>
-      </c>
-      <c r="G45" t="s">
-        <v>221</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="G45"/>
       <c r="H45" t="s">
+        <v>312</v>
+      </c>
+      <c r="I45" t="s">
         <v>277</v>
-      </c>
-      <c r="I45" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="C46" t="s">
         <v>52</v>
       </c>
       <c r="D46" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="E46" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="F46" t="s">
-        <v>272</v>
+        <v>145</v>
       </c>
       <c r="G46" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H46" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="I46" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="C47" t="s">
         <v>52</v>
       </c>
       <c r="D47" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="E47" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="F47" t="s">
-        <v>272</v>
+        <v>145</v>
       </c>
       <c r="G47" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H47" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="I47" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="C48" t="s">
         <v>52</v>
       </c>
       <c r="D48" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="E48" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="F48" t="s">
-        <v>272</v>
-      </c>
-      <c r="G48"/>
+        <v>145</v>
+      </c>
+      <c r="G48" t="s">
+        <v>109</v>
+      </c>
       <c r="H48" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="I48" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="C49" t="s">
         <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="E49" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="F49" t="s">
-        <v>114</v>
-      </c>
-      <c r="G49"/>
+        <v>145</v>
+      </c>
+      <c r="G49" t="s">
+        <v>109</v>
+      </c>
       <c r="H49" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="I49" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="C50" t="s">
         <v>52</v>
       </c>
       <c r="D50" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="E50" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="F50" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="G50" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H50" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="I50" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
     </row>
     <row r="51">
@@ -4487,115 +4783,113 @@
         <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C51" t="s">
         <v>52</v>
       </c>
       <c r="D51" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="E51" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="F51" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="G51" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H51" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="I51" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="C52" t="s">
         <v>52</v>
       </c>
       <c r="D52" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="E52" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="F52" t="s">
-        <v>114</v>
+        <v>328</v>
       </c>
       <c r="G52" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H52" t="s">
-        <v>295</v>
-      </c>
-      <c r="I52" t="s">
-        <v>293</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="I52"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="C53" t="s">
         <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="E53" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="F53" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="G53" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H53" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="I53" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="C54" t="s">
         <v>52</v>
       </c>
       <c r="D54" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="E54" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="F54" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="G54" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H54" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="I54" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55">
@@ -4603,702 +4897,710 @@
         <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="C55" t="s">
         <v>52</v>
       </c>
       <c r="D55" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="E55" t="s">
-        <v>300</v>
+        <v>157</v>
       </c>
       <c r="F55" t="s">
-        <v>301</v>
+        <v>129</v>
       </c>
       <c r="G55" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H55" t="s">
-        <v>302</v>
-      </c>
-      <c r="I55"/>
+        <v>299</v>
+      </c>
+      <c r="I55" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B56" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="C56" t="s">
         <v>52</v>
       </c>
       <c r="D56" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="E56" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="F56" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G56" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H56" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="I56" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B57" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="C57" t="s">
         <v>52</v>
       </c>
       <c r="D57" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="E57" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="F57" t="s">
-        <v>131</v>
+        <v>337</v>
       </c>
       <c r="G57" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H57" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="I57" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B58" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="C58" t="s">
         <v>52</v>
       </c>
       <c r="D58" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="E58" t="s">
-        <v>127</v>
+        <v>340</v>
       </c>
       <c r="F58" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G58" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H58" t="s">
-        <v>273</v>
-      </c>
-      <c r="I58" t="s">
-        <v>305</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="I58"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B59" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="C59" t="s">
         <v>52</v>
       </c>
       <c r="D59" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="E59" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="F59" t="s">
-        <v>114</v>
-      </c>
-      <c r="G59"/>
+        <v>145</v>
+      </c>
+      <c r="G59" t="s">
+        <v>109</v>
+      </c>
       <c r="H59" t="s">
-        <v>308</v>
-      </c>
-      <c r="I59" t="s">
-        <v>236</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="I59"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B60" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="C60" t="s">
         <v>52</v>
       </c>
       <c r="D60" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="E60" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="F60" t="s">
-        <v>310</v>
+        <v>145</v>
       </c>
       <c r="G60" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H60" t="s">
-        <v>311</v>
-      </c>
-      <c r="I60" t="s">
-        <v>312</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="I60"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>22</v>
       </c>
       <c r="B61" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="C61" t="s">
         <v>52</v>
       </c>
       <c r="D61" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="E61" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="F61" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="G61" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H61" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="I61"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B62" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="C62" t="s">
         <v>52</v>
       </c>
       <c r="D62" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="E62" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="F62" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="G62" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H62" t="s">
-        <v>315</v>
-      </c>
-      <c r="I62"/>
+        <v>319</v>
+      </c>
+      <c r="I62" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B63" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="C63" t="s">
         <v>52</v>
       </c>
       <c r="D63" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="E63" t="s">
-        <v>316</v>
-      </c>
-      <c r="F63"/>
+        <v>347</v>
+      </c>
+      <c r="F63" t="s">
+        <v>145</v>
+      </c>
       <c r="G63" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H63" t="s">
-        <v>230</v>
-      </c>
-      <c r="I63"/>
+        <v>269</v>
+      </c>
+      <c r="I63" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B64" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="C64" t="s">
         <v>52</v>
       </c>
       <c r="D64" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="E64" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="F64" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="G64" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H64" t="s">
-        <v>273</v>
-      </c>
-      <c r="I64"/>
+        <v>272</v>
+      </c>
+      <c r="I64" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="C65" t="s">
         <v>52</v>
       </c>
       <c r="D65" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="E65" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="F65" t="s">
-        <v>114</v>
-      </c>
-      <c r="G65"/>
+        <v>129</v>
+      </c>
+      <c r="G65" t="s">
+        <v>109</v>
+      </c>
       <c r="H65" t="s">
-        <v>292</v>
+        <v>350</v>
       </c>
       <c r="I65" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B66" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="C66" t="s">
         <v>52</v>
       </c>
       <c r="D66" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="E66" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="F66" t="s">
-        <v>114</v>
-      </c>
-      <c r="G66"/>
+        <v>129</v>
+      </c>
+      <c r="G66" t="s">
+        <v>109</v>
+      </c>
       <c r="H66" t="s">
-        <v>225</v>
+        <v>353</v>
       </c>
       <c r="I66" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B67" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="C67" t="s">
         <v>52</v>
       </c>
       <c r="D67" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="E67" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="F67" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="G67" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H67" t="s">
-        <v>230</v>
+        <v>356</v>
       </c>
       <c r="I67" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B68" t="s">
+        <v>175</v>
+      </c>
+      <c r="C68" t="s">
+        <v>52</v>
+      </c>
+      <c r="D68" t="s">
+        <v>246</v>
+      </c>
+      <c r="E68" t="s">
+        <v>358</v>
+      </c>
+      <c r="F68" t="s">
         <v>145</v>
       </c>
-      <c r="C68" t="s">
-        <v>52</v>
-      </c>
-      <c r="D68" t="s">
-        <v>219</v>
-      </c>
-      <c r="E68" t="s">
-        <v>322</v>
-      </c>
-      <c r="F68" t="s">
-        <v>131</v>
-      </c>
       <c r="G68" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H68" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="I68" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B69" t="s">
+        <v>175</v>
+      </c>
+      <c r="C69" t="s">
+        <v>52</v>
+      </c>
+      <c r="D69" t="s">
+        <v>248</v>
+      </c>
+      <c r="E69" t="s">
+        <v>360</v>
+      </c>
+      <c r="F69" t="s">
         <v>145</v>
       </c>
-      <c r="C69" t="s">
-        <v>52</v>
-      </c>
-      <c r="D69" t="s">
-        <v>222</v>
-      </c>
-      <c r="E69" t="s">
-        <v>325</v>
-      </c>
-      <c r="F69" t="s">
-        <v>131</v>
-      </c>
       <c r="G69" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H69" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="I69" t="s">
-        <v>327</v>
+        <v>359</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B70" t="s">
+        <v>175</v>
+      </c>
+      <c r="C70" t="s">
+        <v>52</v>
+      </c>
+      <c r="D70" t="s">
+        <v>253</v>
+      </c>
+      <c r="E70" t="s">
+        <v>361</v>
+      </c>
+      <c r="F70" t="s">
         <v>145</v>
       </c>
-      <c r="C70" t="s">
-        <v>52</v>
-      </c>
-      <c r="D70" t="s">
-        <v>232</v>
-      </c>
-      <c r="E70" t="s">
-        <v>328</v>
-      </c>
-      <c r="F70" t="s">
-        <v>131</v>
-      </c>
       <c r="G70" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H70" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="I70" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B71" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="C71" t="s">
         <v>52</v>
       </c>
       <c r="D71" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="E71" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="F71" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="G71" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H71" t="s">
-        <v>323</v>
-      </c>
-      <c r="I71" t="s">
-        <v>332</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="I71"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B72" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="C72" t="s">
         <v>52</v>
       </c>
       <c r="D72" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="E72" t="s">
-        <v>333</v>
+        <v>179</v>
       </c>
       <c r="F72" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="G72" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H72" t="s">
-        <v>326</v>
-      </c>
-      <c r="I72" t="s">
-        <v>332</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="I72"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B73" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="C73" t="s">
         <v>52</v>
       </c>
       <c r="D73" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="E73" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="F73" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="G73" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H73" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="I73" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B74" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="C74" t="s">
         <v>52</v>
       </c>
       <c r="D74" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="E74" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
       <c r="F74" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="G74" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H74" t="s">
-        <v>336</v>
-      </c>
-      <c r="I74"/>
+        <v>365</v>
+      </c>
+      <c r="I74" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B75" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="C75" t="s">
         <v>52</v>
       </c>
       <c r="D75" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="E75" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="F75" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="G75" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H75" t="s">
-        <v>336</v>
-      </c>
-      <c r="I75"/>
+        <v>368</v>
+      </c>
+      <c r="I75" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B76" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="C76" t="s">
         <v>52</v>
       </c>
       <c r="D76" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="E76" t="s">
-        <v>337</v>
+        <v>189</v>
       </c>
       <c r="F76" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G76" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H76" t="s">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="I76" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B77" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="C77" t="s">
         <v>52</v>
       </c>
       <c r="D77" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="E77" t="s">
-        <v>340</v>
+        <v>195</v>
       </c>
       <c r="F77" t="s">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="G77" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H77" t="s">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="I77" t="s">
-        <v>236</v>
+        <v>369</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B78" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="C78" t="s">
         <v>52</v>
       </c>
       <c r="D78" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="E78" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="F78" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="G78" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H78" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="I78" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B79" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="C79" t="s">
         <v>52</v>
       </c>
       <c r="D79" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="E79" t="s">
-        <v>162</v>
-      </c>
-      <c r="F79" t="s">
-        <v>114</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="F79"/>
       <c r="G79" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H79" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="I79" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
     </row>
     <row r="80">
@@ -5306,994 +5608,825 @@
         <v>30</v>
       </c>
       <c r="B80" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="C80" t="s">
         <v>52</v>
       </c>
       <c r="D80" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="E80" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="F80" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="G80" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H80" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="I80" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B81" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="C81" t="s">
         <v>52</v>
       </c>
       <c r="D81" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="E81" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="F81" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="G81" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H81" t="s">
-        <v>344</v>
+        <v>373</v>
       </c>
       <c r="I81" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B82" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="C82" t="s">
         <v>52</v>
       </c>
       <c r="D82" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="E82" t="s">
-        <v>345</v>
-      </c>
-      <c r="F82"/>
+        <v>198</v>
+      </c>
+      <c r="F82" t="s">
+        <v>145</v>
+      </c>
       <c r="G82" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H82" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="I82" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B83" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="C83" t="s">
         <v>52</v>
       </c>
       <c r="D83" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="E83" t="s">
-        <v>168</v>
+        <v>374</v>
       </c>
       <c r="F83" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="G83" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H83" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="I83" t="s">
-        <v>342</v>
+        <v>277</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B84" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="C84" t="s">
         <v>52</v>
       </c>
       <c r="D84" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="E84" t="s">
-        <v>171</v>
+        <v>375</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>376</v>
       </c>
       <c r="G84" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H84" t="s">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="I84" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B85" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="C85" t="s">
         <v>52</v>
       </c>
       <c r="D85" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="E85" t="s">
-        <v>171</v>
+        <v>378</v>
       </c>
       <c r="F85" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="G85" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H85" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="I85" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B86" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="C86" t="s">
         <v>52</v>
       </c>
       <c r="D86" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="E86" t="s">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="F86" t="s">
-        <v>131</v>
-      </c>
-      <c r="G86"/>
+        <v>129</v>
+      </c>
+      <c r="G86" t="s">
+        <v>109</v>
+      </c>
       <c r="H86" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="I86" t="s">
-        <v>236</v>
+        <v>379</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B87" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="C87" t="s">
         <v>52</v>
       </c>
       <c r="D87" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="E87" t="s">
-        <v>348</v>
+        <v>382</v>
       </c>
       <c r="F87" t="s">
-        <v>349</v>
+        <v>383</v>
       </c>
       <c r="G87" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H87" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="I87" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B88" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="C88" t="s">
         <v>52</v>
       </c>
       <c r="D88" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="E88" t="s">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="F88" t="s">
-        <v>131</v>
-      </c>
-      <c r="G88"/>
+        <v>129</v>
+      </c>
+      <c r="G88" t="s">
+        <v>109</v>
+      </c>
       <c r="H88" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="I88" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B89" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="C89" t="s">
         <v>52</v>
       </c>
       <c r="D89" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="E89" t="s">
-        <v>353</v>
+        <v>385</v>
       </c>
       <c r="F89" t="s">
-        <v>131</v>
-      </c>
-      <c r="G89"/>
+        <v>129</v>
+      </c>
+      <c r="G89" t="s">
+        <v>109</v>
+      </c>
       <c r="H89" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="I89" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B90" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="C90" t="s">
         <v>52</v>
       </c>
       <c r="D90" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E90" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="F90" t="s">
-        <v>356</v>
+        <v>129</v>
       </c>
       <c r="G90" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H90" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="I90" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B91" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="C91" t="s">
         <v>52</v>
       </c>
       <c r="D91" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="E91" t="s">
-        <v>357</v>
+        <v>389</v>
       </c>
       <c r="F91" t="s">
-        <v>131</v>
-      </c>
-      <c r="G91"/>
+        <v>129</v>
+      </c>
+      <c r="G91" t="s">
+        <v>109</v>
+      </c>
       <c r="H91" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="I91" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B92" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="C92" t="s">
         <v>52</v>
       </c>
       <c r="D92" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="E92" t="s">
-        <v>358</v>
+        <v>390</v>
       </c>
       <c r="F92" t="s">
-        <v>131</v>
-      </c>
-      <c r="G92"/>
+        <v>129</v>
+      </c>
+      <c r="G92" t="s">
+        <v>109</v>
+      </c>
       <c r="H92" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="I92" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B93" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="C93" t="s">
         <v>52</v>
       </c>
       <c r="D93" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="E93" t="s">
-        <v>359</v>
+        <v>391</v>
       </c>
       <c r="F93" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G93" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H93" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="I93" t="s">
-        <v>361</v>
+        <v>388</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B94" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="C94" t="s">
         <v>52</v>
       </c>
       <c r="D94" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="E94" t="s">
-        <v>362</v>
+        <v>392</v>
       </c>
       <c r="F94" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G94" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H94" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="I94" t="s">
-        <v>361</v>
+        <v>388</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B95" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="C95" t="s">
         <v>52</v>
       </c>
       <c r="D95" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="E95" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="F95" t="s">
-        <v>131</v>
+        <v>394</v>
       </c>
       <c r="G95" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H95" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="I95" t="s">
-        <v>361</v>
+        <v>277</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B96" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="C96" t="s">
         <v>52</v>
       </c>
       <c r="D96" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="E96" t="s">
-        <v>364</v>
+        <v>396</v>
       </c>
       <c r="F96" t="s">
-        <v>131</v>
+        <v>397</v>
       </c>
       <c r="G96" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H96" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="I96" t="s">
-        <v>361</v>
+        <v>277</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B97" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="C97" t="s">
         <v>52</v>
       </c>
       <c r="D97" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="E97" t="s">
-        <v>365</v>
+        <v>220</v>
       </c>
       <c r="F97" t="s">
-        <v>131</v>
+        <v>399</v>
       </c>
       <c r="G97" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H97" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="I97" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B98" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="C98" t="s">
         <v>52</v>
       </c>
       <c r="D98" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="E98" t="s">
-        <v>366</v>
+        <v>224</v>
       </c>
       <c r="F98" t="s">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="G98" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H98" t="s">
-        <v>368</v>
+        <v>400</v>
       </c>
       <c r="I98" t="s">
-        <v>236</v>
+        <v>400</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B99" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="C99" t="s">
         <v>52</v>
       </c>
       <c r="D99" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="E99" t="s">
-        <v>369</v>
+        <v>402</v>
       </c>
       <c r="F99" t="s">
-        <v>370</v>
+        <v>228</v>
       </c>
       <c r="G99" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H99" t="s">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="I99" t="s">
-        <v>236</v>
+        <v>277</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B100" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="C100" t="s">
         <v>52</v>
       </c>
       <c r="D100" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="F100" t="s">
-        <v>372</v>
-      </c>
-      <c r="G100"/>
+        <v>404</v>
+      </c>
+      <c r="G100" t="s">
+        <v>109</v>
+      </c>
       <c r="H100" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="I100" t="s">
-        <v>373</v>
+        <v>277</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B101" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="C101" t="s">
         <v>52</v>
       </c>
       <c r="D101" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>405</v>
       </c>
       <c r="F101" t="s">
-        <v>374</v>
-      </c>
-      <c r="G101"/>
+        <v>233</v>
+      </c>
+      <c r="G101" t="s">
+        <v>109</v>
+      </c>
       <c r="H101" t="s">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="I101" t="s">
-        <v>373</v>
+        <v>277</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B102" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="C102" t="s">
         <v>52</v>
       </c>
       <c r="D102" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="E102" t="s">
-        <v>375</v>
+        <v>234</v>
       </c>
       <c r="F102" t="s">
-        <v>201</v>
+        <v>404</v>
       </c>
       <c r="G102" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H102" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="I102" t="s">
-        <v>236</v>
+        <v>277</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B103" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="C103" t="s">
         <v>52</v>
       </c>
       <c r="D103" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>407</v>
       </c>
       <c r="F103" t="s">
-        <v>377</v>
-      </c>
-      <c r="G103"/>
+        <v>233</v>
+      </c>
+      <c r="G103" t="s">
+        <v>109</v>
+      </c>
       <c r="H103" t="s">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="I103" t="s">
-        <v>236</v>
+        <v>277</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B104" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="C104" t="s">
         <v>52</v>
       </c>
       <c r="D104" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="E104" t="s">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="G104" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="H104" t="s">
-        <v>379</v>
-      </c>
-      <c r="I104" t="s">
-        <v>236</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="I104"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B105" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="C105" t="s">
         <v>52</v>
       </c>
       <c r="D105" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>377</v>
-      </c>
-      <c r="G105"/>
+        <v>410</v>
+      </c>
+      <c r="F105"/>
+      <c r="G105" t="s">
+        <v>109</v>
+      </c>
       <c r="H105" t="s">
-        <v>373</v>
+        <v>411</v>
       </c>
       <c r="I105" t="s">
-        <v>236</v>
+        <v>277</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="B106" t="s">
-        <v>207</v>
+        <v>87</v>
       </c>
       <c r="C106" t="s">
         <v>52</v>
       </c>
       <c r="D106" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E106" t="s">
-        <v>380</v>
+        <v>412</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>87</v>
       </c>
       <c r="G106" t="s">
-        <v>221</v>
-      </c>
-      <c r="H106" t="s">
-        <v>379</v>
-      </c>
-      <c r="I106" t="s">
-        <v>236</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="H106"/>
+      <c r="I106"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="B107" t="s">
-        <v>210</v>
+        <v>87</v>
       </c>
       <c r="C107" t="s">
         <v>52</v>
       </c>
       <c r="D107" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="E107" t="s">
-        <v>381</v>
+        <v>414</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
-      </c>
-      <c r="G107"/>
-      <c r="H107" t="s">
-        <v>382</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G107" t="s">
+        <v>300</v>
+      </c>
+      <c r="H107"/>
       <c r="I107"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="B108" t="s">
-        <v>210</v>
+        <v>87</v>
       </c>
       <c r="C108" t="s">
         <v>52</v>
       </c>
       <c r="D108" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="E108" t="s">
-        <v>383</v>
-      </c>
-      <c r="F108"/>
+        <v>415</v>
+      </c>
+      <c r="F108" t="s">
+        <v>87</v>
+      </c>
       <c r="G108" t="s">
-        <v>221</v>
-      </c>
-      <c r="H108" t="s">
-        <v>384</v>
-      </c>
-      <c r="I108" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>93</v>
-      </c>
-      <c r="B109" t="s">
-        <v>87</v>
-      </c>
-      <c r="C109" t="s">
         <v>16</v>
       </c>
-      <c r="D109" t="s">
-        <v>219</v>
-      </c>
-      <c r="E109" t="s">
-        <v>385</v>
-      </c>
-      <c r="F109"/>
-      <c r="G109" t="s">
-        <v>386</v>
-      </c>
-      <c r="H109"/>
-      <c r="I109"/>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>93</v>
-      </c>
-      <c r="B110" t="s">
-        <v>87</v>
-      </c>
-      <c r="C110" t="s">
-        <v>16</v>
-      </c>
-      <c r="D110" t="s">
-        <v>227</v>
-      </c>
-      <c r="E110" t="s">
-        <v>387</v>
-      </c>
-      <c r="F110"/>
-      <c r="G110"/>
-      <c r="H110"/>
-      <c r="I110"/>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>93</v>
-      </c>
-      <c r="B111" t="s">
-        <v>87</v>
-      </c>
-      <c r="C111" t="s">
-        <v>16</v>
-      </c>
-      <c r="D111" t="s">
-        <v>232</v>
-      </c>
-      <c r="E111" t="s">
-        <v>388</v>
-      </c>
-      <c r="F111"/>
-      <c r="G111" t="s">
-        <v>16</v>
-      </c>
-      <c r="H111"/>
-      <c r="I111"/>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>25</v>
-      </c>
-      <c r="B112" t="s">
-        <v>145</v>
-      </c>
-      <c r="C112"/>
-      <c r="D112" t="s">
-        <v>227</v>
-      </c>
-      <c r="E112"/>
-      <c r="F112" t="s">
-        <v>389</v>
-      </c>
-      <c r="G112"/>
-      <c r="H112"/>
-      <c r="I112"/>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>26</v>
-      </c>
-      <c r="B113" t="s">
-        <v>148</v>
-      </c>
-      <c r="C113"/>
-      <c r="D113" t="s">
-        <v>227</v>
-      </c>
-      <c r="E113"/>
-      <c r="F113" t="s">
-        <v>310</v>
-      </c>
-      <c r="G113"/>
-      <c r="H113"/>
-      <c r="I113"/>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>27</v>
-      </c>
-      <c r="B114" t="s">
-        <v>152</v>
-      </c>
-      <c r="C114"/>
-      <c r="D114" t="s">
-        <v>227</v>
-      </c>
-      <c r="E114"/>
-      <c r="F114" t="s">
-        <v>156</v>
-      </c>
-      <c r="G114"/>
-      <c r="H114"/>
-      <c r="I114"/>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>31</v>
-      </c>
-      <c r="B115" t="s">
-        <v>171</v>
-      </c>
-      <c r="C115"/>
-      <c r="D115" t="s">
-        <v>219</v>
-      </c>
-      <c r="E115"/>
-      <c r="F115" t="s">
-        <v>131</v>
-      </c>
-      <c r="G115"/>
-      <c r="H115"/>
-      <c r="I115"/>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>34</v>
-      </c>
-      <c r="B116" t="s">
-        <v>180</v>
-      </c>
-      <c r="C116"/>
-      <c r="D116" t="s">
-        <v>227</v>
-      </c>
-      <c r="E116"/>
-      <c r="F116" t="s">
-        <v>131</v>
-      </c>
-      <c r="G116"/>
-      <c r="H116"/>
-      <c r="I116"/>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>37</v>
-      </c>
-      <c r="B117"/>
-      <c r="C117"/>
-      <c r="D117" t="s">
-        <v>222</v>
-      </c>
-      <c r="E117"/>
-      <c r="F117"/>
-      <c r="G117" t="s">
-        <v>221</v>
-      </c>
-      <c r="H117"/>
-      <c r="I117"/>
+      <c r="H108"/>
+      <c r="I108"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/StreamHabitatSpecifications.xlsx
+++ b/Tables/StreamHabitatSpecifications.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="412">
   <si>
     <t xml:space="preserve">tblname</t>
   </si>
@@ -394,13 +394,91 @@
     <t xml:space="preserve">Channel Characteristics</t>
   </si>
   <si>
-    <t xml:space="preserve">PctDry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of Reach that is Dry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of the reach that was dry</t>
+    <t xml:space="preserve">Sin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinuosity of Local Stream Reach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reach sinuosity (reach length along the thalweg divided by straight line distance between the bottom of the reach and the top of the reach)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StreamOrder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stream Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strahler stream order of the site from the provider dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel dimensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AvgBFWDRatio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bankfull width to depth ratio at transects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average bankfull width/depth ratio for the reach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFHeight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bankfull Height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average bankfull height measured from water surface across transects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFWidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average bankfull width from transects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average bankfull width across transects for the reach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">countTransectsBFWidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of cross sections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cross sections included in the average bankfull width calculation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count of measurments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gradient of stream reach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean slope of water surface (percent) from the bottom of the reach to the top of the reach.</t>
   </si>
   <si>
     <t xml:space="preserve">min: 0, max: 100</t>
@@ -409,96 +487,9 @@
     <t xml:space="preserve">percent</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
     <t xml:space="preserve">100</t>
   </si>
   <si>
-    <t xml:space="preserve">Sin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinuosity of Local Stream Reach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reach sinuosity (reach length along the thalweg divided by straight line distance between the bottom of the reach and the top of the reach)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StreamOrder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stream Order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strahler stream order of the site from the provider dataset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel dimensions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AvgBFWDRatio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bankfull width to depth ratio at transects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull width/depth ratio for the reach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFHeight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bankfull Height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull height measured from water surface across transects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFWidth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull width from transects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull width across transects for the reach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">countTransectsBFWidth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of cross sections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of cross sections included in the average bankfull width calculation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">count of measurments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gradient of stream reach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean slope of water surface (percent) from the bottom of the reach to the top of the reach.</t>
-  </si>
-  <si>
     <t xml:space="preserve">MeanThalwegDepth</t>
   </si>
   <si>
@@ -893,9 +884,6 @@
   </si>
   <si>
     <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cataogry</t>
   </si>
   <si>
     <t xml:space="preserve">SNSTY</t>
@@ -2591,7 +2579,7 @@
         <v>124</v>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>125</v>
@@ -2602,20 +2590,16 @@
       <c r="E2" t="s">
         <v>127</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2"/>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2" t="s">
         <v>128</v>
       </c>
-      <c r="G2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>129</v>
-      </c>
-      <c r="I2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="3">
@@ -2623,185 +2607,189 @@
         <v>124</v>
       </c>
       <c r="B3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" t="s">
         <v>132</v>
-      </c>
-      <c r="D3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" t="s">
-        <v>134</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="s">
         <v>52</v>
       </c>
-      <c r="H3"/>
+      <c r="H3" t="s">
+        <v>129</v>
+      </c>
       <c r="I3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="J3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" t="s">
         <v>137</v>
-      </c>
-      <c r="D4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E4" t="s">
-        <v>139</v>
       </c>
       <c r="F4"/>
       <c r="G4" t="s">
         <v>52</v>
       </c>
       <c r="H4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="J4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" t="n">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" t="s">
         <v>141</v>
       </c>
-      <c r="B5" t="n">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>142</v>
-      </c>
-      <c r="D5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E5" t="s">
-        <v>144</v>
       </c>
       <c r="F5"/>
       <c r="G5" t="s">
         <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="J5" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" t="s">
         <v>146</v>
-      </c>
-      <c r="D6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E6" t="s">
-        <v>148</v>
       </c>
       <c r="F6"/>
       <c r="G6" t="s">
         <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="I6" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="J6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F7"/>
       <c r="G7" t="s">
         <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="J7" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" t="s">
         <v>153</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>154</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" t="s">
         <v>155</v>
       </c>
-      <c r="F8"/>
-      <c r="G8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J8" t="s">
         <v>156</v>
-      </c>
-      <c r="I8" t="s">
-        <v>130</v>
-      </c>
-      <c r="J8" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>157</v>
@@ -2812,28 +2800,26 @@
       <c r="E9" t="s">
         <v>159</v>
       </c>
-      <c r="F9" t="s">
-        <v>128</v>
-      </c>
+      <c r="F9"/>
       <c r="G9" t="s">
         <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="I9" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="J9" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>160</v>
@@ -2849,81 +2835,83 @@
         <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="I10" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="J10" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F11"/>
       <c r="G11" t="s">
         <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="I11" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="J11" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="B12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E12" t="s">
-        <v>170</v>
-      </c>
-      <c r="F12"/>
+        <v>171</v>
+      </c>
+      <c r="F12" t="s">
+        <v>154</v>
+      </c>
       <c r="G12" t="s">
         <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="J12" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>172</v>
@@ -2934,154 +2922,154 @@
       <c r="E13" t="s">
         <v>174</v>
       </c>
-      <c r="F13" t="s">
-        <v>128</v>
-      </c>
+      <c r="F13"/>
       <c r="G13" t="s">
         <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="J13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E14" t="s">
-        <v>177</v>
-      </c>
-      <c r="F14"/>
+        <v>178</v>
+      </c>
+      <c r="F14" t="s">
+        <v>179</v>
+      </c>
       <c r="G14" t="s">
         <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="J14" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D15" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E15" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F15" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="G15" t="s">
         <v>52</v>
       </c>
       <c r="H15" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="J15" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F16" t="s">
+        <v>189</v>
+      </c>
+      <c r="G16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" t="s">
+        <v>190</v>
+      </c>
+      <c r="I16" t="s">
         <v>128</v>
       </c>
-      <c r="G16" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" t="s">
-        <v>129</v>
-      </c>
-      <c r="I16" t="s">
-        <v>130</v>
-      </c>
       <c r="J16" t="s">
-        <v>131</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" t="s">
         <v>189</v>
       </c>
-      <c r="D17" t="s">
+      <c r="G17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" t="s">
         <v>190</v>
       </c>
-      <c r="E17" t="s">
+      <c r="I17" t="s">
+        <v>128</v>
+      </c>
+      <c r="J17" t="s">
         <v>191</v>
-      </c>
-      <c r="F17" t="s">
-        <v>192</v>
-      </c>
-      <c r="G17" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" t="s">
-        <v>193</v>
-      </c>
-      <c r="I17" t="s">
-        <v>135</v>
-      </c>
-      <c r="J17" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B18" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
         <v>195</v>
@@ -3093,27 +3081,27 @@
         <v>197</v>
       </c>
       <c r="F18" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G18" t="s">
         <v>52</v>
       </c>
       <c r="H18" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I18" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="J18" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B19" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
         <v>198</v>
@@ -3125,27 +3113,27 @@
         <v>200</v>
       </c>
       <c r="F19" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="G19" t="s">
         <v>52</v>
       </c>
       <c r="H19" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="I19" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="J19" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B20" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
         <v>201</v>
@@ -3157,27 +3145,27 @@
         <v>203</v>
       </c>
       <c r="F20" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="G20" t="s">
         <v>52</v>
       </c>
       <c r="H20" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="I20" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="J20" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B21" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
         <v>204</v>
@@ -3189,27 +3177,27 @@
         <v>206</v>
       </c>
       <c r="F21" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="G21" t="s">
         <v>52</v>
       </c>
       <c r="H21" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="I21" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="J21" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B22" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
         <v>207</v>
@@ -3221,27 +3209,27 @@
         <v>209</v>
       </c>
       <c r="F22" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="G22" t="s">
         <v>52</v>
       </c>
       <c r="H22" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="I22" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="J22" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B23" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
         <v>210</v>
@@ -3253,30 +3241,30 @@
         <v>212</v>
       </c>
       <c r="F23" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="G23" t="s">
         <v>52</v>
       </c>
       <c r="H23" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="I23" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="J23" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="B24" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D24" t="s">
         <v>214</v>
@@ -3284,28 +3272,26 @@
       <c r="E24" t="s">
         <v>215</v>
       </c>
-      <c r="F24" t="s">
-        <v>128</v>
-      </c>
+      <c r="F24"/>
       <c r="G24" t="s">
         <v>52</v>
       </c>
       <c r="H24" t="s">
-        <v>129</v>
+        <v>216</v>
       </c>
       <c r="I24" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="J24" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B25" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
         <v>217</v>
@@ -3316,172 +3302,142 @@
       <c r="E25" t="s">
         <v>218</v>
       </c>
-      <c r="F25"/>
+      <c r="F25" t="s">
+        <v>219</v>
+      </c>
       <c r="G25" t="s">
         <v>52</v>
       </c>
       <c r="H25" t="s">
-        <v>219</v>
+        <v>129</v>
       </c>
       <c r="I25" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="J25" t="s">
-        <v>130</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B26" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D26" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E26" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F26" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G26" t="s">
         <v>52</v>
       </c>
       <c r="H26" t="s">
-        <v>136</v>
+        <v>225</v>
       </c>
       <c r="I26" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="J26" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B27" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D27" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E27" t="s">
-        <v>226</v>
-      </c>
-      <c r="F27" t="s">
-        <v>227</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="F27"/>
       <c r="G27" t="s">
         <v>52</v>
       </c>
       <c r="H27" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I27" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="J27" t="s">
-        <v>229</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B28" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D28" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E28" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F28"/>
       <c r="G28" t="s">
         <v>52</v>
       </c>
       <c r="H28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I28" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="J28" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B29" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
         <v>234</v>
       </c>
       <c r="D29" t="s">
+        <v>234</v>
+      </c>
+      <c r="E29" t="s">
         <v>235</v>
-      </c>
-      <c r="E29" t="s">
-        <v>236</v>
       </c>
       <c r="F29"/>
       <c r="G29" t="s">
         <v>52</v>
       </c>
       <c r="H29" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="I29" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="J29" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>216</v>
-      </c>
-      <c r="B30" t="n">
-        <v>42</v>
-      </c>
-      <c r="C30" t="s">
-        <v>237</v>
-      </c>
-      <c r="D30" t="s">
-        <v>237</v>
-      </c>
-      <c r="E30" t="s">
-        <v>238</v>
-      </c>
-      <c r="F30"/>
-      <c r="G30" t="s">
-        <v>52</v>
-      </c>
-      <c r="H30" t="s">
-        <v>239</v>
-      </c>
-      <c r="I30" t="s">
-        <v>130</v>
-      </c>
-      <c r="J30" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3509,22 +3465,22 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G1" t="s">
         <v>240</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>241</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>242</v>
-      </c>
-      <c r="G1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H1" t="s">
-        <v>244</v>
-      </c>
-      <c r="I1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="2">
@@ -3538,10 +3494,10 @@
         <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="s">
@@ -3561,13 +3517,13 @@
         <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G3" t="s">
         <v>109</v>
@@ -3586,13 +3542,13 @@
         <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G4" t="s">
         <v>109</v>
@@ -3611,13 +3567,13 @@
         <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G5" t="s">
         <v>109</v>
@@ -3636,7 +3592,7 @@
         <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E6" t="s">
         <v>58</v>
@@ -3659,13 +3615,13 @@
         <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G7" t="s">
         <v>109</v>
@@ -3684,13 +3640,13 @@
         <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G8" t="s">
         <v>109</v>
@@ -3709,13 +3665,13 @@
         <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F9" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G9" t="s">
         <v>109</v>
@@ -3734,10 +3690,10 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F10"/>
       <c r="G10" t="s">
@@ -3757,10 +3713,10 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E11" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F11"/>
       <c r="G11" t="s">
@@ -3780,10 +3736,10 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E12" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F12"/>
       <c r="G12" t="s">
@@ -3803,10 +3759,10 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E13" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F13"/>
       <c r="G13" t="s">
@@ -3826,10 +3782,10 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F14"/>
       <c r="G14" t="s">
@@ -3849,13 +3805,13 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E15" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F15" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
@@ -3874,10 +3830,10 @@
         <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E16" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F16"/>
       <c r="G16" t="s">
@@ -3897,13 +3853,13 @@
         <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E17" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F17" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G17" t="s">
         <v>36</v>
@@ -3922,10 +3878,10 @@
         <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E18" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F18"/>
       <c r="G18" t="s">
@@ -3945,10 +3901,10 @@
         <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E19" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F19"/>
       <c r="G19" t="s">
@@ -3968,22 +3924,22 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E20" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F20" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="G20" t="s">
         <v>109</v>
       </c>
       <c r="H20" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I20" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21">
@@ -3997,22 +3953,22 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E21" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="G21" t="s">
         <v>109</v>
       </c>
       <c r="H21" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I21" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22">
@@ -4026,22 +3982,22 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E22" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F22" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G22" t="s">
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I22" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23">
@@ -4055,10 +4011,10 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E23" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F23"/>
       <c r="G23" t="s">
@@ -4078,10 +4034,10 @@
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E24" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F24"/>
       <c r="G24" t="s">
@@ -4101,10 +4057,10 @@
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E25" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F25"/>
       <c r="G25" t="s">
@@ -4124,13 +4080,13 @@
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E26" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F26" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G26" t="s">
         <v>12</v>
@@ -4149,10 +4105,10 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E27" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F27"/>
       <c r="G27" t="s">
@@ -4172,10 +4128,10 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E28" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F28"/>
       <c r="G28" t="s">
@@ -4195,10 +4151,10 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E29" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F29"/>
       <c r="G29" t="s">
@@ -4218,10 +4174,10 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E30" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F30"/>
       <c r="G30" t="s">
@@ -4235,23 +4191,23 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C31" t="s">
         <v>52</v>
       </c>
       <c r="D31" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E31" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F31"/>
       <c r="G31" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H31" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="I31"/>
     </row>
@@ -4260,29 +4216,29 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C32" t="s">
         <v>52</v>
       </c>
       <c r="D32" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E32" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F32"/>
       <c r="G32" t="s">
+        <v>285</v>
+      </c>
+      <c r="H32" t="s">
         <v>288</v>
-      </c>
-      <c r="H32" t="s">
-        <v>291</v>
       </c>
       <c r="I32"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
         <v>125</v>
@@ -4291,27 +4247,25 @@
         <v>52</v>
       </c>
       <c r="D33" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E33" t="s">
-        <v>268</v>
-      </c>
-      <c r="F33" t="s">
-        <v>129</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="F33"/>
       <c r="G33" t="s">
         <v>109</v>
       </c>
       <c r="H33" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="I33" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
         <v>125</v>
@@ -4320,27 +4274,25 @@
         <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E34" t="s">
-        <v>271</v>
-      </c>
-      <c r="F34" t="s">
-        <v>129</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="F34"/>
       <c r="G34" t="s">
         <v>109</v>
       </c>
       <c r="H34" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I34" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
         <v>125</v>
@@ -4349,136 +4301,128 @@
         <v>52</v>
       </c>
       <c r="D35" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E35" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" t="s">
+        <v>294</v>
+      </c>
+      <c r="G35" t="s">
+        <v>109</v>
+      </c>
+      <c r="H35" t="s">
+        <v>295</v>
+      </c>
+      <c r="I35" t="s">
         <v>274</v>
-      </c>
-      <c r="F35" t="s">
-        <v>292</v>
-      </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" t="s">
-        <v>276</v>
-      </c>
-      <c r="I35" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C36" t="s">
         <v>52</v>
       </c>
       <c r="D36" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E36" t="s">
-        <v>293</v>
+        <v>130</v>
       </c>
       <c r="F36"/>
       <c r="G36" t="s">
-        <v>109</v>
-      </c>
-      <c r="H36" t="s">
-        <v>294</v>
-      </c>
-      <c r="I36" t="s">
-        <v>295</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="H36"/>
+      <c r="I36"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C37" t="s">
         <v>52</v>
       </c>
       <c r="D37" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E37" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F37"/>
       <c r="G37" t="s">
-        <v>109</v>
-      </c>
-      <c r="H37" t="s">
-        <v>272</v>
-      </c>
-      <c r="I37" t="s">
-        <v>297</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="H37"/>
+      <c r="I37"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C38" t="s">
         <v>52</v>
       </c>
       <c r="D38" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E38" t="s">
-        <v>132</v>
-      </c>
-      <c r="F38" t="s">
         <v>298</v>
       </c>
+      <c r="F38"/>
       <c r="G38" t="s">
         <v>109</v>
       </c>
-      <c r="H38" t="s">
-        <v>299</v>
-      </c>
-      <c r="I38" t="s">
-        <v>277</v>
-      </c>
+      <c r="H38"/>
+      <c r="I38"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
         <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E39" t="s">
-        <v>137</v>
-      </c>
-      <c r="F39"/>
+        <v>299</v>
+      </c>
+      <c r="F39" t="s">
+        <v>294</v>
+      </c>
       <c r="G39" t="s">
+        <v>109</v>
+      </c>
+      <c r="H39" t="s">
         <v>300</v>
       </c>
-      <c r="H39"/>
-      <c r="I39"/>
+      <c r="I39" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C40" t="s">
         <v>52</v>
@@ -4487,208 +4431,220 @@
         <v>248</v>
       </c>
       <c r="E40" t="s">
-        <v>301</v>
-      </c>
-      <c r="F40"/>
+        <v>302</v>
+      </c>
+      <c r="F40" t="s">
+        <v>294</v>
+      </c>
       <c r="G40" t="s">
-        <v>300</v>
-      </c>
-      <c r="H40"/>
-      <c r="I40"/>
+        <v>109</v>
+      </c>
+      <c r="H40" t="s">
+        <v>303</v>
+      </c>
+      <c r="I40" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C41" t="s">
         <v>52</v>
       </c>
       <c r="D41" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E41" t="s">
-        <v>302</v>
-      </c>
-      <c r="F41"/>
+        <v>305</v>
+      </c>
+      <c r="F41" t="s">
+        <v>294</v>
+      </c>
       <c r="G41" t="s">
         <v>109</v>
       </c>
-      <c r="H41"/>
-      <c r="I41"/>
+      <c r="H41" t="s">
+        <v>306</v>
+      </c>
+      <c r="I41" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C42" t="s">
         <v>52</v>
       </c>
       <c r="D42" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E42" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F42" t="s">
-        <v>298</v>
-      </c>
-      <c r="G42" t="s">
-        <v>109</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="G42"/>
       <c r="H42" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="I42" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C43" t="s">
         <v>52</v>
       </c>
       <c r="D43" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E43" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F43" t="s">
-        <v>298</v>
+        <v>138</v>
       </c>
       <c r="G43" t="s">
         <v>109</v>
       </c>
       <c r="H43" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="I43" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C44" t="s">
         <v>52</v>
       </c>
       <c r="D44" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E44" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F44" t="s">
-        <v>298</v>
+        <v>138</v>
       </c>
       <c r="G44" t="s">
         <v>109</v>
       </c>
       <c r="H44" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I44" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
       </c>
       <c r="D45" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E45" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F45" t="s">
-        <v>298</v>
-      </c>
-      <c r="G45"/>
+        <v>138</v>
+      </c>
+      <c r="G45" t="s">
+        <v>109</v>
+      </c>
       <c r="H45" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="I45" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C46" t="s">
         <v>52</v>
       </c>
       <c r="D46" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E46" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F46" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G46" t="s">
         <v>109</v>
       </c>
       <c r="H46" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="I46" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C47" t="s">
         <v>52</v>
       </c>
       <c r="D47" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E47" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F47" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G47" t="s">
         <v>109</v>
       </c>
       <c r="H47" t="s">
+        <v>320</v>
+      </c>
+      <c r="I47" t="s">
         <v>316</v>
-      </c>
-      <c r="I47" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="48">
@@ -4696,115 +4652,113 @@
         <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C48" t="s">
         <v>52</v>
       </c>
       <c r="D48" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E48" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F48" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G48" t="s">
         <v>109</v>
       </c>
       <c r="H48" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="I48" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C49" t="s">
         <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E49" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F49" t="s">
-        <v>145</v>
+        <v>324</v>
       </c>
       <c r="G49" t="s">
         <v>109</v>
       </c>
       <c r="H49" t="s">
-        <v>322</v>
-      </c>
-      <c r="I49" t="s">
-        <v>320</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="I49"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C50" t="s">
         <v>52</v>
       </c>
       <c r="D50" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E50" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F50" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G50" t="s">
         <v>109</v>
       </c>
       <c r="H50" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="I50" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C51" t="s">
         <v>52</v>
       </c>
       <c r="D51" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E51" t="s">
+        <v>329</v>
+      </c>
+      <c r="F51" t="s">
+        <v>155</v>
+      </c>
+      <c r="G51" t="s">
+        <v>109</v>
+      </c>
+      <c r="H51" t="s">
         <v>325</v>
       </c>
-      <c r="F51" t="s">
-        <v>145</v>
-      </c>
-      <c r="G51" t="s">
-        <v>109</v>
-      </c>
-      <c r="H51" t="s">
-        <v>326</v>
-      </c>
       <c r="I51" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="52">
@@ -4812,31 +4766,33 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C52" t="s">
         <v>52</v>
       </c>
       <c r="D52" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E52" t="s">
-        <v>327</v>
+        <v>151</v>
       </c>
       <c r="F52" t="s">
+        <v>155</v>
+      </c>
+      <c r="G52" t="s">
+        <v>109</v>
+      </c>
+      <c r="H52" t="s">
+        <v>295</v>
+      </c>
+      <c r="I52" t="s">
         <v>328</v>
       </c>
-      <c r="G52" t="s">
-        <v>109</v>
-      </c>
-      <c r="H52" t="s">
-        <v>329</v>
-      </c>
-      <c r="I52"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B53" t="s">
         <v>157</v>
@@ -4845,13 +4801,13 @@
         <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E53" t="s">
         <v>330</v>
       </c>
       <c r="F53" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="G53" t="s">
         <v>109</v>
@@ -4860,12 +4816,12 @@
         <v>331</v>
       </c>
       <c r="I53" t="s">
-        <v>332</v>
+        <v>274</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B54" t="s">
         <v>157</v>
@@ -4874,56 +4830,54 @@
         <v>52</v>
       </c>
       <c r="D54" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E54" t="s">
+        <v>332</v>
+      </c>
+      <c r="F54" t="s">
         <v>333</v>
       </c>
-      <c r="F54" t="s">
-        <v>129</v>
-      </c>
       <c r="G54" t="s">
         <v>109</v>
       </c>
       <c r="H54" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="I54" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C55" t="s">
         <v>52</v>
       </c>
       <c r="D55" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E55" t="s">
-        <v>157</v>
+        <v>336</v>
       </c>
       <c r="F55" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="G55" t="s">
         <v>109</v>
       </c>
       <c r="H55" t="s">
-        <v>299</v>
-      </c>
-      <c r="I55" t="s">
-        <v>332</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="I55"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B56" t="s">
         <v>160</v>
@@ -4932,27 +4886,25 @@
         <v>52</v>
       </c>
       <c r="D56" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E56" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F56" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G56" t="s">
         <v>109</v>
       </c>
       <c r="H56" t="s">
-        <v>335</v>
-      </c>
-      <c r="I56" t="s">
-        <v>277</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="I56"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B57" t="s">
         <v>160</v>
@@ -4961,222 +4913,226 @@
         <v>52</v>
       </c>
       <c r="D57" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E57" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F57" t="s">
-        <v>337</v>
+        <v>138</v>
       </c>
       <c r="G57" t="s">
         <v>109</v>
       </c>
       <c r="H57" t="s">
-        <v>338</v>
-      </c>
-      <c r="I57" t="s">
-        <v>339</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="I57"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>22</v>
       </c>
       <c r="B58" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C58" t="s">
         <v>52</v>
       </c>
       <c r="D58" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E58" t="s">
         <v>340</v>
       </c>
       <c r="F58" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G58" t="s">
         <v>109</v>
       </c>
       <c r="H58" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I58"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C59" t="s">
         <v>52</v>
       </c>
       <c r="D59" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E59" t="s">
         <v>341</v>
       </c>
       <c r="F59" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G59" t="s">
         <v>109</v>
       </c>
       <c r="H59" t="s">
+        <v>315</v>
+      </c>
+      <c r="I59" t="s">
         <v>342</v>
       </c>
-      <c r="I59"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C60" t="s">
         <v>52</v>
       </c>
       <c r="D60" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E60" t="s">
         <v>343</v>
       </c>
       <c r="F60" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G60" t="s">
         <v>109</v>
       </c>
       <c r="H60" t="s">
-        <v>272</v>
-      </c>
-      <c r="I60"/>
+        <v>266</v>
+      </c>
+      <c r="I60" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B61" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C61" t="s">
         <v>52</v>
       </c>
       <c r="D61" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E61" t="s">
         <v>344</v>
       </c>
       <c r="F61" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G61" t="s">
         <v>109</v>
       </c>
       <c r="H61" t="s">
-        <v>299</v>
-      </c>
-      <c r="I61"/>
+        <v>269</v>
+      </c>
+      <c r="I61" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B62" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C62" t="s">
         <v>52</v>
       </c>
       <c r="D62" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E62" t="s">
         <v>345</v>
       </c>
       <c r="F62" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G62" t="s">
         <v>109</v>
       </c>
       <c r="H62" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="I62" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B63" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C63" t="s">
         <v>52</v>
       </c>
       <c r="D63" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E63" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F63" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G63" t="s">
         <v>109</v>
       </c>
       <c r="H63" t="s">
-        <v>269</v>
+        <v>349</v>
       </c>
       <c r="I63" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C64" t="s">
         <v>52</v>
       </c>
       <c r="D64" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E64" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F64" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G64" t="s">
         <v>109</v>
       </c>
       <c r="H64" t="s">
-        <v>272</v>
+        <v>352</v>
       </c>
       <c r="I64" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B65" t="s">
         <v>172</v>
@@ -5185,27 +5141,27 @@
         <v>52</v>
       </c>
       <c r="D65" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E65" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="F65" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="G65" t="s">
         <v>109</v>
       </c>
       <c r="H65" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="I65" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B66" t="s">
         <v>172</v>
@@ -5214,27 +5170,27 @@
         <v>52</v>
       </c>
       <c r="D66" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E66" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F66" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="G66" t="s">
         <v>109</v>
       </c>
       <c r="H66" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I66" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B67" t="s">
         <v>172</v>
@@ -5243,279 +5199,277 @@
         <v>52</v>
       </c>
       <c r="D67" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E67" t="s">
+        <v>357</v>
+      </c>
+      <c r="F67" t="s">
+        <v>138</v>
+      </c>
+      <c r="G67" t="s">
+        <v>109</v>
+      </c>
+      <c r="H67" t="s">
+        <v>352</v>
+      </c>
+      <c r="I67" t="s">
         <v>355</v>
-      </c>
-      <c r="F67" t="s">
-        <v>129</v>
-      </c>
-      <c r="G67" t="s">
-        <v>109</v>
-      </c>
-      <c r="H67" t="s">
-        <v>356</v>
-      </c>
-      <c r="I67" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B68" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C68" t="s">
         <v>52</v>
       </c>
       <c r="D68" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E68" t="s">
         <v>358</v>
       </c>
       <c r="F68" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="G68" t="s">
         <v>109</v>
       </c>
       <c r="H68" t="s">
-        <v>350</v>
-      </c>
-      <c r="I68" t="s">
         <v>359</v>
       </c>
+      <c r="I68"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B69" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C69" t="s">
         <v>52</v>
       </c>
       <c r="D69" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E69" t="s">
-        <v>360</v>
+        <v>176</v>
       </c>
       <c r="F69" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="G69" t="s">
         <v>109</v>
       </c>
       <c r="H69" t="s">
-        <v>353</v>
-      </c>
-      <c r="I69" t="s">
         <v>359</v>
       </c>
+      <c r="I69"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B70" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C70" t="s">
         <v>52</v>
       </c>
       <c r="D70" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E70" t="s">
+        <v>360</v>
+      </c>
+      <c r="F70" t="s">
+        <v>155</v>
+      </c>
+      <c r="G70" t="s">
+        <v>109</v>
+      </c>
+      <c r="H70" t="s">
         <v>361</v>
       </c>
-      <c r="F70" t="s">
-        <v>145</v>
-      </c>
-      <c r="G70" t="s">
-        <v>109</v>
-      </c>
-      <c r="H70" t="s">
-        <v>356</v>
-      </c>
       <c r="I70" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B71" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C71" t="s">
         <v>52</v>
       </c>
       <c r="D71" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E71" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F71" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="G71" t="s">
         <v>109</v>
       </c>
       <c r="H71" t="s">
-        <v>363</v>
-      </c>
-      <c r="I71"/>
+        <v>361</v>
+      </c>
+      <c r="I71" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B72" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C72" t="s">
         <v>52</v>
       </c>
       <c r="D72" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E72" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F72" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="G72" t="s">
         <v>109</v>
       </c>
       <c r="H72" t="s">
-        <v>363</v>
-      </c>
-      <c r="I72"/>
+        <v>364</v>
+      </c>
+      <c r="I72" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B73" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C73" t="s">
         <v>52</v>
       </c>
       <c r="D73" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E73" t="s">
-        <v>364</v>
+        <v>186</v>
       </c>
       <c r="F73" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="G73" t="s">
         <v>109</v>
       </c>
       <c r="H73" t="s">
+        <v>366</v>
+      </c>
+      <c r="I73" t="s">
         <v>365</v>
-      </c>
-      <c r="I73" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B74" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C74" t="s">
         <v>52</v>
       </c>
       <c r="D74" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E74" t="s">
-        <v>367</v>
+        <v>192</v>
       </c>
       <c r="F74" t="s">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="G74" t="s">
         <v>109</v>
       </c>
       <c r="H74" t="s">
+        <v>366</v>
+      </c>
+      <c r="I74" t="s">
         <v>365</v>
-      </c>
-      <c r="I74" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B75" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C75" t="s">
         <v>52</v>
       </c>
       <c r="D75" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E75" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F75" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G75" t="s">
         <v>109</v>
       </c>
       <c r="H75" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="I75" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B76" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C76" t="s">
         <v>52</v>
       </c>
       <c r="D76" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E76" t="s">
-        <v>189</v>
-      </c>
-      <c r="F76" t="s">
-        <v>145</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="F76"/>
       <c r="G76" t="s">
         <v>109</v>
       </c>
       <c r="H76" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I76" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="77">
@@ -5523,33 +5477,33 @@
         <v>30</v>
       </c>
       <c r="B77" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C77" t="s">
         <v>52</v>
       </c>
       <c r="D77" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E77" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F77" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
       <c r="G77" t="s">
         <v>109</v>
       </c>
       <c r="H77" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I77" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B78" t="s">
         <v>195</v>
@@ -5558,27 +5512,27 @@
         <v>52</v>
       </c>
       <c r="D78" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E78" t="s">
         <v>195</v>
       </c>
       <c r="F78" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G78" t="s">
         <v>109</v>
       </c>
       <c r="H78" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I78" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B79" t="s">
         <v>195</v>
@@ -5587,54 +5541,56 @@
         <v>52</v>
       </c>
       <c r="D79" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E79" t="s">
-        <v>371</v>
-      </c>
-      <c r="F79"/>
+        <v>195</v>
+      </c>
+      <c r="F79" t="s">
+        <v>138</v>
+      </c>
       <c r="G79" t="s">
         <v>109</v>
       </c>
       <c r="H79" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="I79" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B80" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C80" t="s">
         <v>52</v>
       </c>
       <c r="D80" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E80" t="s">
-        <v>195</v>
+        <v>370</v>
       </c>
       <c r="F80" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G80" t="s">
         <v>109</v>
       </c>
       <c r="H80" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I80" t="s">
-        <v>369</v>
+        <v>274</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B81" t="s">
         <v>198</v>
@@ -5646,53 +5602,53 @@
         <v>248</v>
       </c>
       <c r="E81" t="s">
-        <v>198</v>
+        <v>371</v>
       </c>
       <c r="F81" t="s">
-        <v>193</v>
+        <v>372</v>
       </c>
       <c r="G81" t="s">
         <v>109</v>
       </c>
       <c r="H81" t="s">
+        <v>368</v>
+      </c>
+      <c r="I81" t="s">
         <v>373</v>
-      </c>
-      <c r="I81" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B82" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C82" t="s">
         <v>52</v>
       </c>
       <c r="D82" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E82" t="s">
-        <v>198</v>
+        <v>374</v>
       </c>
       <c r="F82" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G82" t="s">
         <v>109</v>
       </c>
       <c r="H82" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I82" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B83" t="s">
         <v>201</v>
@@ -5701,27 +5657,27 @@
         <v>52</v>
       </c>
       <c r="D83" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E83" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F83" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="G83" t="s">
         <v>109</v>
       </c>
       <c r="H83" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="I83" t="s">
-        <v>277</v>
+        <v>375</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B84" t="s">
         <v>201</v>
@@ -5730,27 +5686,27 @@
         <v>52</v>
       </c>
       <c r="D84" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E84" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F84" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G84" t="s">
         <v>109</v>
       </c>
       <c r="H84" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="I84" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B85" t="s">
         <v>204</v>
@@ -5759,27 +5715,27 @@
         <v>52</v>
       </c>
       <c r="D85" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E85" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F85" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="G85" t="s">
         <v>109</v>
       </c>
       <c r="H85" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I85" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B86" t="s">
         <v>204</v>
@@ -5788,56 +5744,56 @@
         <v>52</v>
       </c>
       <c r="D86" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E86" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F86" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="G86" t="s">
         <v>109</v>
       </c>
       <c r="H86" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="I86" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B87" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C87" t="s">
         <v>52</v>
       </c>
       <c r="D87" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E87" t="s">
         <v>382</v>
       </c>
       <c r="F87" t="s">
+        <v>155</v>
+      </c>
+      <c r="G87" t="s">
+        <v>109</v>
+      </c>
+      <c r="H87" t="s">
         <v>383</v>
       </c>
-      <c r="G87" t="s">
-        <v>109</v>
-      </c>
-      <c r="H87" t="s">
-        <v>372</v>
-      </c>
       <c r="I87" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B88" t="s">
         <v>207</v>
@@ -5846,27 +5802,27 @@
         <v>52</v>
       </c>
       <c r="D88" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E88" t="s">
+        <v>385</v>
+      </c>
+      <c r="F88" t="s">
+        <v>155</v>
+      </c>
+      <c r="G88" t="s">
+        <v>109</v>
+      </c>
+      <c r="H88" t="s">
+        <v>377</v>
+      </c>
+      <c r="I88" t="s">
         <v>384</v>
-      </c>
-      <c r="F88" t="s">
-        <v>129</v>
-      </c>
-      <c r="G88" t="s">
-        <v>109</v>
-      </c>
-      <c r="H88" t="s">
-        <v>370</v>
-      </c>
-      <c r="I88" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B89" t="s">
         <v>207</v>
@@ -5875,27 +5831,27 @@
         <v>52</v>
       </c>
       <c r="D89" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E89" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F89" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="G89" t="s">
         <v>109</v>
       </c>
       <c r="H89" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="I89" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B90" t="s">
         <v>210</v>
@@ -5904,27 +5860,27 @@
         <v>52</v>
       </c>
       <c r="D90" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E90" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F90" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="G90" t="s">
         <v>109</v>
       </c>
       <c r="H90" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="I90" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B91" t="s">
         <v>210</v>
@@ -5933,204 +5889,204 @@
         <v>52</v>
       </c>
       <c r="D91" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E91" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F91" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="G91" t="s">
         <v>109</v>
       </c>
       <c r="H91" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="I91" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B92" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C92" t="s">
         <v>52</v>
       </c>
       <c r="D92" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E92" t="s">
+        <v>389</v>
+      </c>
+      <c r="F92" t="s">
         <v>390</v>
       </c>
-      <c r="F92" t="s">
-        <v>129</v>
-      </c>
       <c r="G92" t="s">
         <v>109</v>
       </c>
       <c r="H92" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="I92" t="s">
-        <v>388</v>
+        <v>274</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B93" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C93" t="s">
         <v>52</v>
       </c>
       <c r="D93" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E93" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F93" t="s">
-        <v>129</v>
+        <v>393</v>
       </c>
       <c r="G93" t="s">
         <v>109</v>
       </c>
       <c r="H93" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="I93" t="s">
-        <v>388</v>
+        <v>274</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B94" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C94" t="s">
         <v>52</v>
       </c>
       <c r="D94" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E94" t="s">
-        <v>392</v>
+        <v>217</v>
       </c>
       <c r="F94" t="s">
-        <v>129</v>
+        <v>395</v>
       </c>
       <c r="G94" t="s">
         <v>109</v>
       </c>
       <c r="H94" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="I94" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B95" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C95" t="s">
         <v>52</v>
       </c>
       <c r="D95" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E95" t="s">
-        <v>393</v>
+        <v>221</v>
       </c>
       <c r="F95" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="G95" t="s">
         <v>109</v>
       </c>
       <c r="H95" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I95" t="s">
-        <v>277</v>
+        <v>396</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B96" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C96" t="s">
         <v>52</v>
       </c>
       <c r="D96" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E96" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F96" t="s">
-        <v>397</v>
+        <v>225</v>
       </c>
       <c r="G96" t="s">
         <v>109</v>
       </c>
       <c r="H96" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I96" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B97" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C97" t="s">
         <v>52</v>
       </c>
       <c r="D97" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E97" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="F97" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G97" t="s">
         <v>109</v>
       </c>
       <c r="H97" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I97" t="s">
-        <v>400</v>
+        <v>274</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B98" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C98" t="s">
         <v>52</v>
@@ -6139,56 +6095,56 @@
         <v>248</v>
       </c>
       <c r="E98" t="s">
-        <v>224</v>
+        <v>401</v>
       </c>
       <c r="F98" t="s">
-        <v>401</v>
+        <v>230</v>
       </c>
       <c r="G98" t="s">
         <v>109</v>
       </c>
       <c r="H98" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="I98" t="s">
-        <v>400</v>
+        <v>274</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B99" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C99" t="s">
         <v>52</v>
       </c>
       <c r="D99" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E99" t="s">
-        <v>402</v>
+        <v>231</v>
       </c>
       <c r="F99" t="s">
-        <v>228</v>
+        <v>400</v>
       </c>
       <c r="G99" t="s">
         <v>109</v>
       </c>
       <c r="H99" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="I99" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B100" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C100" t="s">
         <v>52</v>
@@ -6197,53 +6153,51 @@
         <v>248</v>
       </c>
       <c r="E100" t="s">
+        <v>403</v>
+      </c>
+      <c r="F100" t="s">
         <v>230</v>
       </c>
-      <c r="F100" t="s">
-        <v>404</v>
-      </c>
       <c r="G100" t="s">
         <v>109</v>
       </c>
       <c r="H100" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="I100" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B101" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C101" t="s">
         <v>52</v>
       </c>
       <c r="D101" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E101" t="s">
+        <v>404</v>
+      </c>
+      <c r="F101" t="s">
+        <v>236</v>
+      </c>
+      <c r="G101" t="s">
+        <v>109</v>
+      </c>
+      <c r="H101" t="s">
         <v>405</v>
       </c>
-      <c r="F101" t="s">
-        <v>233</v>
-      </c>
-      <c r="G101" t="s">
-        <v>109</v>
-      </c>
-      <c r="H101" t="s">
-        <v>406</v>
-      </c>
-      <c r="I101" t="s">
-        <v>277</v>
-      </c>
+      <c r="I101"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B102" t="s">
         <v>234</v>
@@ -6255,56 +6209,50 @@
         <v>248</v>
       </c>
       <c r="E102" t="s">
-        <v>234</v>
-      </c>
-      <c r="F102" t="s">
-        <v>404</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="F102"/>
       <c r="G102" t="s">
         <v>109</v>
       </c>
       <c r="H102" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="I102" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="B103" t="s">
-        <v>234</v>
+        <v>87</v>
       </c>
       <c r="C103" t="s">
         <v>52</v>
       </c>
       <c r="D103" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E103" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F103" t="s">
-        <v>233</v>
+        <v>87</v>
       </c>
       <c r="G103" t="s">
-        <v>109</v>
-      </c>
-      <c r="H103" t="s">
-        <v>406</v>
-      </c>
-      <c r="I103" t="s">
-        <v>277</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="H103"/>
+      <c r="I103"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="B104" t="s">
-        <v>237</v>
+        <v>87</v>
       </c>
       <c r="C104" t="s">
         <v>52</v>
@@ -6313,120 +6261,41 @@
         <v>248</v>
       </c>
       <c r="E104" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F104" t="s">
-        <v>239</v>
+        <v>87</v>
       </c>
       <c r="G104" t="s">
-        <v>109</v>
-      </c>
-      <c r="H104" t="s">
-        <v>409</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="H104"/>
       <c r="I104"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="B105" t="s">
-        <v>237</v>
+        <v>87</v>
       </c>
       <c r="C105" t="s">
         <v>52</v>
       </c>
       <c r="D105" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E105" t="s">
-        <v>410</v>
-      </c>
-      <c r="F105"/>
+        <v>411</v>
+      </c>
+      <c r="F105" t="s">
+        <v>87</v>
+      </c>
       <c r="G105" t="s">
-        <v>109</v>
-      </c>
-      <c r="H105" t="s">
-        <v>411</v>
-      </c>
-      <c r="I105" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>93</v>
-      </c>
-      <c r="B106" t="s">
-        <v>87</v>
-      </c>
-      <c r="C106" t="s">
-        <v>52</v>
-      </c>
-      <c r="D106" t="s">
-        <v>246</v>
-      </c>
-      <c r="E106" t="s">
-        <v>412</v>
-      </c>
-      <c r="F106" t="s">
-        <v>87</v>
-      </c>
-      <c r="G106" t="s">
-        <v>413</v>
-      </c>
-      <c r="H106"/>
-      <c r="I106"/>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>93</v>
-      </c>
-      <c r="B107" t="s">
-        <v>87</v>
-      </c>
-      <c r="C107" t="s">
-        <v>52</v>
-      </c>
-      <c r="D107" t="s">
-        <v>251</v>
-      </c>
-      <c r="E107" t="s">
-        <v>414</v>
-      </c>
-      <c r="F107" t="s">
-        <v>87</v>
-      </c>
-      <c r="G107" t="s">
-        <v>300</v>
-      </c>
-      <c r="H107"/>
-      <c r="I107"/>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>93</v>
-      </c>
-      <c r="B108" t="s">
-        <v>87</v>
-      </c>
-      <c r="C108" t="s">
-        <v>52</v>
-      </c>
-      <c r="D108" t="s">
-        <v>253</v>
-      </c>
-      <c r="E108" t="s">
-        <v>415</v>
-      </c>
-      <c r="F108" t="s">
-        <v>87</v>
-      </c>
-      <c r="G108" t="s">
         <v>16</v>
       </c>
-      <c r="H108"/>
-      <c r="I108"/>
+      <c r="H105"/>
+      <c r="I105"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/StreamHabitatSpecifications.xlsx
+++ b/Tables/StreamHabitatSpecifications.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="405">
   <si>
     <t xml:space="preserve">tblname</t>
   </si>
@@ -175,592 +175,571 @@
     <t xml:space="preserve">71.268600000000006</t>
   </si>
   <si>
+    <t xml:space="preserve">Float</t>
+  </si>
+  <si>
+    <t xml:space="preserve">locationID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique global identifier assigned to the location where the event occurred.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5483AIM, 88963AREMP, WtR563EPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">locationRemarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments or notes about the Location.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The geographic longitude (ed: insert spatial reference system when known) of the geographic center of a location.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-163.74230800000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-67.498393539999995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verbatimLocationID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The verbatim location ID from the originating source dataset assigned by the monitoring program.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5483, 88693. WtR563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waterBody</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The name of the water body in which the location occurs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comma Separated Value (CSV) file containing Event data for the Integrated Stream Habitat Data. This table corresponds to the 'Event' table in the database (.accdb) file.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eventDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The calendar date of the event.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000-05-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eventID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global unique identifier assigned to an Event (something that occurs at a place and time, such as a survey or measurement).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFFE9F28-60DB-40C0-B9C0-4AFC753A9880, 10002-PIBO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eventRemarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments or notes about the Event. The description of flow for the reach flow, partial flow or dry.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fieldNotes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of notes taken in the field about the Event.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dry, wet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samplingProtocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The name of, reference to, or description of the stream survey method or protocol used during an Event.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UV light trap, "mist net", "bottom trawl", "ad hoc observation", "point count", "Penguins from space: faecal stains reveal the location of emperor penguin colonies, http://dx.doi.org/10.1111/j.1466-8238.2009.00467.x", "Takats et al. 2001. Guidelines for Nocturnal Owl Monitoring in North America. Beaverhill Bird Observatory and Bird Studies Canada, Edmonton, Alberta. 32 pp.", "http://www.bsc-eoc.org/download/Owl.pdf"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verbatimEventID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The verbatim event ID from the originating source dataset assigned by the program.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFFE9F28-60DB-40C0-B9C0-4AFC753A9880, 10002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The four-digit year in which the event occurred.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MeasurementorFact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comma Separated Value (CSV) file containing MeasurementorFact data for the Integrated Stream Habitat Data. This table corresponds to the 'MeasurementorFact' table in the database (.accdb) file.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measurementID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global unique identifier assigned to the variable/measurementType.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measurementMethod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A description of or reference to (publication, URI) the method or protocol used to determine the measurement, fact, characteristic, or assertion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL of the MonitoringResources.rog field and if avilable calcuation method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measurementRemarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments or notes accompanying the MeasurementOrFact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tip of tail missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measurementType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The variable or name of the measurement. Fill in with metric controlled voacabulary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grad, WetWidth, ReachLen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measurementValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The value of the measurementTerm attribute measured in units given in the measurementTerm definitions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45, "20", "1", "14.5", "UV-light"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">termID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measurementUnit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimumPossibleValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maximumPossibleValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Characteristics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinuosity of Local Stream Reach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reach sinuosity (reach length along the thalweg divided by straight line distance between the bottom of the reach and the top of the reach)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Numeric</t>
   </si>
   <si>
-    <t xml:space="preserve">locationID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique global identifier assigned to the location where the event occurred.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5483AIM, 88963AREMP, WtR563EPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">locationRemarks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments or notes about the Location.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The geographic longitude (ed: insert spatial reference system when known) of the geographic center of a location.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-163.74230800000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-67.498393539999995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verbatimLocationID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The verbatim location ID from the originating source dataset assigned by the monitoring program.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5483, 88693. WtR563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waterBody</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The name of the water body in which the location occurs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comma Separated Value (CSV) file containing Event data for the Integrated Stream Habitat Data. This table corresponds to the 'Event' table in the database (.accdb) file.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eventDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The calendar date of the event.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000-05-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-10-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eventID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global unique identifier assigned to an Event (something that occurs at a place and time, such as a survey or measurement).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FFFE9F28-60DB-40C0-B9C0-4AFC753A9880, 10002-PIBO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eventRemarks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments or notes about the Event. The description of flow for the reach flow, partial flow or dry.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fieldNotes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of notes taken in the field about the Event.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dry, wet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">samplingProtocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The name of, reference to, or description of the stream survey method or protocol used during an Event.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UV light trap, "mist net", "bottom trawl", "ad hoc observation", "point count", "Penguins from space: faecal stains reveal the location of emperor penguin colonies, http://dx.doi.org/10.1111/j.1466-8238.2009.00467.x", "Takats et al. 2001. Guidelines for Nocturnal Owl Monitoring in North America. Beaverhill Bird Observatory and Bird Studies Canada, Edmonton, Alberta. 32 pp.", "http://www.bsc-eoc.org/download/Owl.pdf"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verbatimEventID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The verbatim event ID from the originating source dataset assigned by the program.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FFFE9F28-60DB-40C0-B9C0-4AFC753A9880, 10002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The four-digit year in which the event occurred.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MeasurementorFact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comma Separated Value (CSV) file containing MeasurementorFact data for the Integrated Stream Habitat Data. This table corresponds to the 'MeasurementorFact' table in the database (.accdb) file.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measurementDeterminedBy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The acronym for the monitoring program from which this measurement originated.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measurementID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global unique identifier assigned to the variable/measurementType.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measurementMethod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A description of or reference to (publication, URI) the method or protocol used to determine the measurement, fact, characteristic, or assertion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL of the MonitoringResources.rog field and if avilable calcuation method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measurementRemarks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments or notes accompanying the MeasurementOrFact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tip of tail missing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measurementType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The variable or name of the measurement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grad, WetWidth, ReachLen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measurementValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The value of the measurementTerm attribute measured in units given in the measurementTerm definitions.</t>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StreamOrder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stream Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strahler stream order of the site from the provider dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel dimensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AvgBFWDRatio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bankfull width to depth ratio at transects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average bankfull width/depth ratio for the reach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFHeight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bankfull Height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average bankfull height measured from water surface across transects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFWidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average bankfull width from transects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average bankfull width across transects for the reach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">countTransectsBFWidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of cross sections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cross sections included in the average bankfull width calculation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count of measurments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gradient of stream reach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean slope of water surface (percent) from the bottom of the reach to the top of the reach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min: 0, max: 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MeanThalwegDepth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Thalweg Depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean thalweg depth. Metric of how deep water was at the site.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReachLen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length of sampling reach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length of sampling reach measured along the thalweg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WetWidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average wetted width from transects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average wetted width across transects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctPool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent pools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent of the sample reach (linear extent) classified as pool habitat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residual pool depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average of the residual pool depth values for all pools in a reach. Residual pool depth the difference of the pool tail depth from the max depth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Streambanks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankAngle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank angle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measured angle of the stream bank;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min: 0, max: 180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">degrees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctStab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent stable banks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent of 42 banks lacking visible signs of active erosion (e.g., slump, slough, fracture) (units: percent, min: 0, max: 100, n= 42)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diameter of the 16th percentile streambed particle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bed surface particle size corresponding to the 16th percentile of measured particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min: 1, max: 4098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diameter of the 50th percentile streambed particle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median diameter of bed surface particle size corresponding to the areal median (50th percentile of measured particles) .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diameter of the 84th percentile streambed particle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bed surface particle size corresponding to the 84th percentile of measured particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctBdrk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent Bed Surface Bedrock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent of the stream bed area that is composed of particles with a b-axis &gt; 4098mm (bedrock)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctFines2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent of streambed particles &lt;2mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent of the stream bed area that is comprised of particles with a b-axis &lt; 2 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctFines6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent of streambed particles &lt;6mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent of the stream bed area that is composed of particles with a b-axis &lt; 6 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoolTailFines2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent pool tail fines &lt; 2mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average percent fine sediment (&lt; 2mm) on the pool tail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoolTailFines6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent pool tail fines &lt; 6mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average percent fine sediment (&lt; 6mm) on the pool tail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water chemistry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conductivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measure of the concentration of ionized materials in water, or the ability of water to conduct electrical current. Used as a measure of mineral / ionic concentration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ppm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measured pH value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min: 0, max: 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpecificConductance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specific Conductance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measured specific conductance value. The specific conductance is conductivity standardized to 25 degrees C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min: 0, max: 65500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uS/cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TotalNitrogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Nitrogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measured total nitrogen value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ug/L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TotalPhosphorous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Phosphorous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measured total phosphorous value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turbidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average water clarity as measured by the suspended solids in the water column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">originalField</t>
+  </si>
+  <si>
+    <t xml:space="preserve">originalUnit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">originalDataType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">methodCollection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">methodAnalysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AREMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lattitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal degrees</t>
   </si>
   <si>
     <t xml:space="preserve">double</t>
   </si>
   <si>
-    <t xml:space="preserve">45, "20", "1", "14.5", "UV-light"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resultID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique global identifier for each result measurement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resultTypeCV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The category of measurement type to which the measurement belongs. This is the same category as that in the 'measurementType' attribute in the MetricCV table.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tail length, "temperature", "trap line length", "survey area", "trap type"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">termID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">term</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measurementUnit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minimumPossibleValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maximumPossibleValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Characteristics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinuosity of Local Stream Reach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reach sinuosity (reach length along the thalweg divided by straight line distance between the bottom of the reach and the top of the reach)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StreamOrder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stream Order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strahler stream order of the site from the provider dataset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel dimensions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AvgBFWDRatio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bankfull width to depth ratio at transects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull width/depth ratio for the reach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFHeight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bankfull Height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull height measured from water surface across transects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFWidth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull width from transects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull width across transects for the reach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">countTransectsBFWidth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of cross sections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of cross sections included in the average bankfull width calculation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">count of measurments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gradient of stream reach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean slope of water surface (percent) from the bottom of the reach to the top of the reach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 0, max: 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MeanThalwegDepth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average Thalweg Depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean thalweg depth. Metric of how deep water was at the site.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReachLen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length of sampling reach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length of sampling reach measured along the thalweg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WetWidth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average wetted width from transects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average wetted width across transects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctPool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent pools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent of the sample reach (linear extent) classified as pool habitat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residual pool depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average of the residual pool depth values for all pools in a reach. Residual pool depth the difference of the pool tail depth from the max depth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Streambanks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankAngle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank angle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured angle of the stream bank;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 0, max: 180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">degrees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctStab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent stable banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent of 42 banks lacking visible signs of active erosion (e.g., slump, slough, fracture) (units: percent, min: 0, max: 100, n= 42)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter of the 16th percentile streambed particle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bed surface particle size corresponding to the 16th percentile of measured particles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 1, max: 4098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter of the 50th percentile streambed particle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median diameter of bed surface particle size corresponding to the areal median (50th percentile of measured particles) .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter of the 84th percentile streambed particle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bed surface particle size corresponding to the 84th percentile of measured particles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctBdrk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent Bed Surface Bedrock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent of the stream bed area that is composed of particles with a b-axis &gt; 4098mm (bedrock)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctFines2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent of streambed particles &lt;2mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent of the stream bed area that is comprised of particles with a b-axis &lt; 2 mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctFines6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent of streambed particles &lt;6mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent of the stream bed area that is composed of particles with a b-axis &lt; 6 mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoolTailFines2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent pool tail fines &lt; 2mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average percent fine sediment (&lt; 2mm) on the pool tail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoolTailFines6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent pool tail fines &lt; 6mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average percent fine sediment (&lt; 6mm) on the pool tail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water chemistry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conductivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measure of the concentration of ionized materials in water, or the ability of water to conduct electrical current. Used as a measure of mineral / ionic concentration.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ppm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured pH value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 0, max: 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpecificConductance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specific Conductance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured specific conductance value. The specific conductance is conductivity standardized to 25 degrees C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 0, max: 65500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uS/cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TotalNitrogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Nitrogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured total nitrogen value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ug/L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TotalPhosphorous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Phosphorous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured total phosphorous value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turbidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average water clarity as measured by the suspended solids in the water column</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">originalField</t>
-  </si>
-  <si>
-    <t xml:space="preserve">originalUnit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">originalDataType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">methodCollection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">methodAnalysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AREMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lattitude</t>
-  </si>
-  <si>
     <t xml:space="preserve">AIM</t>
   </si>
   <si>
     <t xml:space="preserve">MIDLAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal degrees</t>
   </si>
   <si>
     <t xml:space="preserve">NRSA</t>
@@ -1926,7 +1905,9 @@
       </c>
       <c r="D3"/>
       <c r="E3"/>
-      <c r="F3"/>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
       <c r="G3"/>
       <c r="H3"/>
     </row>
@@ -2216,7 +2197,9 @@
       </c>
       <c r="D7"/>
       <c r="E7"/>
-      <c r="F7"/>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
       <c r="G7"/>
       <c r="H7"/>
     </row>
@@ -2281,7 +2264,7 @@
         <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
         <v>91</v>
@@ -2356,9 +2339,13 @@
       </c>
       <c r="D3"/>
       <c r="E3"/>
-      <c r="F3"/>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
       <c r="G3"/>
-      <c r="H3"/>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -2372,9 +2359,13 @@
       </c>
       <c r="D4"/>
       <c r="E4"/>
-      <c r="F4"/>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
       <c r="G4"/>
-      <c r="H4"/>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -2389,9 +2380,11 @@
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>98</v>
+      </c>
       <c r="H5" t="s">
         <v>13</v>
       </c>
@@ -2401,10 +2394,10 @@
         <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -2412,7 +2405,7 @@
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
@@ -2423,10 +2416,10 @@
         <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -2434,7 +2427,7 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
@@ -2445,87 +2438,21 @@
         <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9" t="s">
-        <v>109</v>
-      </c>
-      <c r="G9" t="s">
-        <v>110</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s">
-        <v>113</v>
-      </c>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H11" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2544,19 +2471,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -2565,879 +2492,879 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="I1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="J1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B2" t="n">
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="H2"/>
       <c r="I2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="J2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B3" t="n">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="H3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="I3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="J3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B4" t="n">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E4" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F4"/>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="H4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="I4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="J4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B5" t="n">
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F5"/>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="H5" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="I5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="J5" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B6" t="n">
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F6"/>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="H6" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="I6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="J6" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B7" t="n">
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F7"/>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="H7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="I7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="J7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B8" t="n">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E8" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="F8" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="H8" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I8" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="J8" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B9" t="n">
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E9" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F9"/>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="H9" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="I9" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="J9" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B10" t="n">
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E10" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F10"/>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="H10" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="I10" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="J10" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B11" t="n">
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E11" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F11"/>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="H11" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="I11" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B12" t="n">
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D12" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E12" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F12" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="H12" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="J12" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B13" t="n">
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D13" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E13" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F13"/>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="H13" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="I13" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="J13" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B14" t="n">
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D14" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E14" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F14" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="H14" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="I14" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="J14" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B15" t="n">
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D15" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E15" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F15" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="H15" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I15" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="J15" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B16" t="n">
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D16" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E16" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F16" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="H16" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="I16" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="J16" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B17" t="n">
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D17" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E17" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F17" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G17" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="H17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="I17" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="J17" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B18" t="n">
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D18" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E18" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F18" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="H18" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="I18" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="J18" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B19" t="n">
         <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D19" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E19" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F19" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G19" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="H19" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I19" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="J19" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B20" t="n">
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D20" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E20" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F20" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G20" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="H20" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I20" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="J20" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B21" t="n">
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D21" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E21" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F21" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G21" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="H21" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I21" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="J21" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B22" t="n">
         <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D22" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E22" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F22" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G22" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="H22" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I22" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="J22" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B23" t="n">
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D23" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E23" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F23" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G23" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="H23" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I23" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="J23" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B24" t="n">
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D24" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E24" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F24"/>
       <c r="G24" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="H24" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="I24" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="J24" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B25" t="n">
         <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D25" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E25" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F25" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="G25" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="H25" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="I25" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="J25" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B26" t="n">
         <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D26" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E26" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G26" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="H26" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I26" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="J26" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B27" t="n">
         <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D27" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E27" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F27"/>
       <c r="G27" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="H27" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="I27" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="J27" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B28" t="n">
         <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D28" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E28" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F28"/>
       <c r="G28" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="H28" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="I28" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="J28" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B29" t="n">
         <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D29" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E29" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F29"/>
       <c r="G29" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="H29" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="I29" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="J29" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3456,31 +3383,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="H1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2">
@@ -3491,17 +3418,19 @@
         <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F2"/>
+        <v>236</v>
+      </c>
+      <c r="F2" t="s">
+        <v>237</v>
+      </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -3514,19 +3443,19 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F3" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="G3" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -3539,19 +3468,19 @@
         <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F4" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="G4" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -3564,19 +3493,19 @@
         <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F5" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="G5" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -3589,17 +3518,19 @@
         <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E6" t="s">
         <v>58</v>
       </c>
-      <c r="F6"/>
+      <c r="F6" t="s">
+        <v>237</v>
+      </c>
       <c r="G6" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -3612,19 +3543,19 @@
         <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E7" t="s">
         <v>245</v>
       </c>
-      <c r="E7" t="s">
-        <v>252</v>
-      </c>
       <c r="F7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="G7" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
@@ -3637,19 +3568,19 @@
         <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D8" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E8" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F8" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="G8" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
@@ -3662,19 +3593,19 @@
         <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D9" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E9" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="F9" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="G9" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
@@ -3690,10 +3621,10 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E10" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F10"/>
       <c r="G10" t="s">
@@ -3713,10 +3644,10 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E11" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="F11"/>
       <c r="G11" t="s">
@@ -3736,10 +3667,10 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
+        <v>241</v>
+      </c>
+      <c r="E12" t="s">
         <v>248</v>
-      </c>
-      <c r="E12" t="s">
-        <v>255</v>
       </c>
       <c r="F12"/>
       <c r="G12" t="s">
@@ -3759,10 +3690,10 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
+        <v>243</v>
+      </c>
+      <c r="E13" t="s">
         <v>250</v>
-      </c>
-      <c r="E13" t="s">
-        <v>257</v>
       </c>
       <c r="F13"/>
       <c r="G13" t="s">
@@ -3782,10 +3713,10 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E14" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F14"/>
       <c r="G14" t="s">
@@ -3805,13 +3736,13 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E15" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
@@ -3830,10 +3761,10 @@
         <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E16" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="F16"/>
       <c r="G16" t="s">
@@ -3853,13 +3784,13 @@
         <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E17" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F17" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G17" t="s">
         <v>36</v>
@@ -3878,10 +3809,10 @@
         <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E18" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F18"/>
       <c r="G18" t="s">
@@ -3901,10 +3832,10 @@
         <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E19" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="F19"/>
       <c r="G19" t="s">
@@ -3924,22 +3855,22 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E20" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F20" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G20" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H20" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="I20" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21">
@@ -3953,22 +3884,22 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E21" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F21" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G21" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H21" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="I21" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22">
@@ -3982,22 +3913,22 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E22" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F22" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G22" t="s">
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="I22" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23">
@@ -4011,10 +3942,10 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E23" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F23"/>
       <c r="G23" t="s">
@@ -4034,10 +3965,10 @@
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E24" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="F24"/>
       <c r="G24" t="s">
@@ -4057,10 +3988,10 @@
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E25" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F25"/>
       <c r="G25" t="s">
@@ -4080,13 +4011,13 @@
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E26" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F26" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="G26" t="s">
         <v>12</v>
@@ -4105,10 +4036,10 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E27" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F27"/>
       <c r="G27" t="s">
@@ -4128,10 +4059,10 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E28" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F28"/>
       <c r="G28" t="s">
@@ -4151,10 +4082,10 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E29" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F29"/>
       <c r="G29" t="s">
@@ -4174,10 +4105,10 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E30" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="F30"/>
       <c r="G30" t="s">
@@ -4191,23 +4122,23 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D31" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E31" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="F31"/>
       <c r="G31" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="H31" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="I31"/>
     </row>
@@ -4216,23 +4147,23 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D32" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E32" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F32"/>
       <c r="G32" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="H32" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="I32"/>
     </row>
@@ -4241,26 +4172,26 @@
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D33" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E33" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F33"/>
       <c r="G33" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H33" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="I33" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34">
@@ -4268,26 +4199,26 @@
         <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D34" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E34" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F34"/>
       <c r="G34" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H34" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="I34" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35">
@@ -4295,28 +4226,28 @@
         <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D35" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E35" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F35" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G35" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H35" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="I35" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36">
@@ -4324,20 +4255,20 @@
         <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D36" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E36" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F36"/>
       <c r="G36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H36"/>
       <c r="I36"/>
@@ -4347,20 +4278,20 @@
         <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D37" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E37" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F37"/>
       <c r="G37" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H37"/>
       <c r="I37"/>
@@ -4370,20 +4301,20 @@
         <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D38" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F38"/>
       <c r="G38" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H38"/>
       <c r="I38"/>
@@ -4393,28 +4324,28 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D39" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E39" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F39" t="s">
+        <v>287</v>
+      </c>
+      <c r="G39" t="s">
+        <v>238</v>
+      </c>
+      <c r="H39" t="s">
+        <v>293</v>
+      </c>
+      <c r="I39" t="s">
         <v>294</v>
-      </c>
-      <c r="G39" t="s">
-        <v>109</v>
-      </c>
-      <c r="H39" t="s">
-        <v>300</v>
-      </c>
-      <c r="I39" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="40">
@@ -4422,28 +4353,28 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D40" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E40" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F40" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G40" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H40" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="I40" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="41">
@@ -4451,28 +4382,28 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D41" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E41" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F41" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G41" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H41" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="I41" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42">
@@ -4480,26 +4411,28 @@
         <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D42" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E42" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F42" t="s">
-        <v>294</v>
-      </c>
-      <c r="G42"/>
+        <v>130</v>
+      </c>
+      <c r="G42" t="s">
+        <v>238</v>
+      </c>
       <c r="H42" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="I42" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43">
@@ -4507,28 +4440,28 @@
         <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D43" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E43" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F43" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G43" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H43" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="I43" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="44">
@@ -4536,28 +4469,28 @@
         <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D44" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E44" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F44" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G44" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H44" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="I44" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45">
@@ -4565,28 +4498,28 @@
         <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C45" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D45" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E45" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F45" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G45" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H45" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="I45" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46">
@@ -4594,28 +4527,28 @@
         <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C46" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D46" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E46" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F46" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G46" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H46" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="I46" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="47">
@@ -4623,28 +4556,28 @@
         <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C47" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D47" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E47" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F47" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G47" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H47" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="I47" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="48">
@@ -4652,28 +4585,28 @@
         <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C48" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D48" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E48" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F48" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G48" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H48" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="I48" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49">
@@ -4681,25 +4614,25 @@
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D49" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E49" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F49" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G49" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H49" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="I49"/>
     </row>
@@ -4708,28 +4641,28 @@
         <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C50" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D50" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E50" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F50" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G50" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H50" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="I50" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="51">
@@ -4737,28 +4670,28 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D51" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E51" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F51" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G51" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H51" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="I51" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52">
@@ -4766,28 +4699,28 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C52" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D52" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E52" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F52" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G52" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H52" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="I52" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53">
@@ -4795,28 +4728,28 @@
         <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C53" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D53" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E53" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="F53" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G53" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H53" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="I53" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="54">
@@ -4824,28 +4757,28 @@
         <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C54" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D54" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E54" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F54" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="G54" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H54" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="I54" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="55">
@@ -4853,25 +4786,25 @@
         <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C55" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D55" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E55" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="F55" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G55" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H55" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="I55"/>
     </row>
@@ -4880,25 +4813,25 @@
         <v>22</v>
       </c>
       <c r="B56" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C56" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D56" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E56" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F56" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G56" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H56" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="I56"/>
     </row>
@@ -4907,25 +4840,25 @@
         <v>22</v>
       </c>
       <c r="B57" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C57" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D57" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E57" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F57" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G57" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H57" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="I57"/>
     </row>
@@ -4934,25 +4867,25 @@
         <v>22</v>
       </c>
       <c r="B58" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C58" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D58" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E58" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F58" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G58" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H58" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="I58"/>
     </row>
@@ -4961,28 +4894,28 @@
         <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C59" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D59" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E59" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F59" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G59" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H59" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="I59" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="60">
@@ -4990,28 +4923,28 @@
         <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C60" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D60" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E60" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F60" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G60" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H60" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="I60" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="61">
@@ -5019,28 +4952,28 @@
         <v>23</v>
       </c>
       <c r="B61" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C61" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D61" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E61" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F61" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G61" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H61" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="I61" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="62">
@@ -5048,28 +4981,28 @@
         <v>25</v>
       </c>
       <c r="B62" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C62" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D62" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E62" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F62" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G62" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H62" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="I62" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="63">
@@ -5077,28 +5010,28 @@
         <v>25</v>
       </c>
       <c r="B63" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C63" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D63" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E63" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="F63" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G63" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H63" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="I63" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="64">
@@ -5106,28 +5039,28 @@
         <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C64" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D64" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E64" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F64" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G64" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H64" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="I64" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="65">
@@ -5135,28 +5068,28 @@
         <v>26</v>
       </c>
       <c r="B65" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C65" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D65" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E65" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F65" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G65" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H65" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="I65" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="66">
@@ -5164,28 +5097,28 @@
         <v>26</v>
       </c>
       <c r="B66" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C66" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D66" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E66" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F66" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G66" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H66" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="I66" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="67">
@@ -5193,28 +5126,28 @@
         <v>26</v>
       </c>
       <c r="B67" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C67" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D67" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E67" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F67" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G67" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H67" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="I67" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="68">
@@ -5222,25 +5155,25 @@
         <v>27</v>
       </c>
       <c r="B68" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C68" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D68" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E68" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F68" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G68" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H68" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="I68"/>
     </row>
@@ -5249,25 +5182,25 @@
         <v>27</v>
       </c>
       <c r="B69" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C69" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D69" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E69" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F69" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G69" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H69" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="I69"/>
     </row>
@@ -5276,28 +5209,28 @@
         <v>28</v>
       </c>
       <c r="B70" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C70" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D70" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E70" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F70" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G70" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H70" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="I70" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="71">
@@ -5305,28 +5238,28 @@
         <v>28</v>
       </c>
       <c r="B71" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C71" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D71" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E71" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F71" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G71" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H71" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="I71" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="72">
@@ -5334,28 +5267,28 @@
         <v>29</v>
       </c>
       <c r="B72" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C72" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D72" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E72" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F72" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G72" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H72" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="I72" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="73">
@@ -5363,28 +5296,28 @@
         <v>29</v>
       </c>
       <c r="B73" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C73" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D73" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E73" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F73" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G73" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H73" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="I73" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="74">
@@ -5392,28 +5325,28 @@
         <v>30</v>
       </c>
       <c r="B74" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C74" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D74" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E74" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F74" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G74" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H74" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="I74" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="75">
@@ -5421,28 +5354,28 @@
         <v>30</v>
       </c>
       <c r="B75" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C75" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D75" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E75" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F75" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G75" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H75" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="I75" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="76">
@@ -5450,26 +5383,26 @@
         <v>30</v>
       </c>
       <c r="B76" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C76" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D76" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E76" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F76"/>
       <c r="G76" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H76" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="I76" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="77">
@@ -5477,28 +5410,28 @@
         <v>30</v>
       </c>
       <c r="B77" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C77" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D77" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E77" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F77" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G77" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H77" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="I77" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="78">
@@ -5506,28 +5439,28 @@
         <v>31</v>
       </c>
       <c r="B78" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C78" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D78" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E78" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F78" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G78" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H78" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="I78" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="79">
@@ -5535,28 +5468,28 @@
         <v>31</v>
       </c>
       <c r="B79" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C79" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D79" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E79" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F79" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G79" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H79" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="I79" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="80">
@@ -5564,28 +5497,28 @@
         <v>32</v>
       </c>
       <c r="B80" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C80" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D80" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E80" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="F80" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G80" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H80" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="I80" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="81">
@@ -5593,28 +5526,28 @@
         <v>32</v>
       </c>
       <c r="B81" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C81" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D81" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E81" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F81" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G81" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H81" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="I81" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="82">
@@ -5622,28 +5555,28 @@
         <v>33</v>
       </c>
       <c r="B82" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C82" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D82" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E82" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F82" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G82" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H82" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="I82" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="83">
@@ -5651,28 +5584,28 @@
         <v>33</v>
       </c>
       <c r="B83" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C83" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D83" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E83" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F83" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G83" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H83" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="I83" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="84">
@@ -5680,28 +5613,28 @@
         <v>33</v>
       </c>
       <c r="B84" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C84" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D84" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E84" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="F84" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="G84" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H84" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="I84" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="85">
@@ -5709,28 +5642,28 @@
         <v>34</v>
       </c>
       <c r="B85" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C85" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D85" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E85" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F85" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G85" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H85" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="I85" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="86">
@@ -5738,28 +5671,28 @@
         <v>34</v>
       </c>
       <c r="B86" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C86" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D86" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E86" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F86" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G86" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H86" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="I86" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="87">
@@ -5767,28 +5700,28 @@
         <v>35</v>
       </c>
       <c r="B87" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C87" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D87" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E87" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="F87" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G87" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H87" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="I87" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="88">
@@ -5796,28 +5729,28 @@
         <v>35</v>
       </c>
       <c r="B88" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C88" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D88" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E88" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F88" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G88" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H88" t="s">
+        <v>370</v>
+      </c>
+      <c r="I88" t="s">
         <v>377</v>
-      </c>
-      <c r="I88" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="89">
@@ -5825,28 +5758,28 @@
         <v>35</v>
       </c>
       <c r="B89" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C89" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D89" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E89" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="F89" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G89" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H89" t="s">
+        <v>370</v>
+      </c>
+      <c r="I89" t="s">
         <v>377</v>
-      </c>
-      <c r="I89" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="90">
@@ -5854,28 +5787,28 @@
         <v>36</v>
       </c>
       <c r="B90" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C90" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D90" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E90" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F90" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G90" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H90" t="s">
+        <v>370</v>
+      </c>
+      <c r="I90" t="s">
         <v>377</v>
-      </c>
-      <c r="I90" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="91">
@@ -5883,28 +5816,28 @@
         <v>36</v>
       </c>
       <c r="B91" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C91" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D91" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E91" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F91" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G91" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H91" t="s">
+        <v>370</v>
+      </c>
+      <c r="I91" t="s">
         <v>377</v>
-      </c>
-      <c r="I91" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="92">
@@ -5912,28 +5845,28 @@
         <v>37</v>
       </c>
       <c r="B92" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C92" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D92" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E92" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F92" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G92" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H92" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="I92" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="93">
@@ -5941,28 +5874,28 @@
         <v>37</v>
       </c>
       <c r="B93" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C93" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D93" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E93" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F93" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G93" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H93" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="I93" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="94">
@@ -5970,28 +5903,28 @@
         <v>38</v>
       </c>
       <c r="B94" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C94" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D94" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E94" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F94" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="G94" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H94" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="I94" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="95">
@@ -5999,28 +5932,28 @@
         <v>39</v>
       </c>
       <c r="B95" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C95" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D95" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E95" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F95" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="G95" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H95" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="I95" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="96">
@@ -6028,28 +5961,28 @@
         <v>39</v>
       </c>
       <c r="B96" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C96" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D96" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E96" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="F96" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="G96" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H96" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="I96" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="97">
@@ -6057,28 +5990,28 @@
         <v>40</v>
       </c>
       <c r="B97" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C97" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D97" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E97" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F97" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G97" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H97" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="I97" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="98">
@@ -6086,28 +6019,28 @@
         <v>40</v>
       </c>
       <c r="B98" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C98" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D98" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E98" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F98" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G98" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H98" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="I98" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="99">
@@ -6115,28 +6048,28 @@
         <v>41</v>
       </c>
       <c r="B99" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C99" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D99" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E99" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F99" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G99" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H99" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="I99" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="100">
@@ -6144,28 +6077,28 @@
         <v>41</v>
       </c>
       <c r="B100" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C100" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D100" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E100" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F100" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G100" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H100" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="I100" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="101">
@@ -6173,25 +6106,25 @@
         <v>42</v>
       </c>
       <c r="B101" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C101" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D101" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E101" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="F101" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="G101" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H101" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="I101"/>
     </row>
@@ -6200,26 +6133,26 @@
         <v>42</v>
       </c>
       <c r="B102" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C102" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D102" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E102" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="F102"/>
       <c r="G102" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="H102" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="I102" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="103">
@@ -6230,19 +6163,19 @@
         <v>87</v>
       </c>
       <c r="C103" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D103" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E103" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="F103" t="s">
         <v>87</v>
       </c>
       <c r="G103" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="H103"/>
       <c r="I103"/>
@@ -6255,19 +6188,19 @@
         <v>87</v>
       </c>
       <c r="C104" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D104" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E104" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="F104" t="s">
         <v>87</v>
       </c>
       <c r="G104" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H104"/>
       <c r="I104"/>
@@ -6280,13 +6213,13 @@
         <v>87</v>
       </c>
       <c r="C105" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D105" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E105" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F105" t="s">
         <v>87</v>

--- a/Tables/StreamHabitatSpecifications.xlsx
+++ b/Tables/StreamHabitatSpecifications.xlsx
@@ -166,7 +166,7 @@
     <t xml:space="preserve">latitude</t>
   </si>
   <si>
-    <t xml:space="preserve">The geographic latitude (ed: insert spatial reference system when known) of the geographic center of a location.</t>
+    <t xml:space="preserve">The geographic latitude (WGS84) of the geographic center of a location.</t>
   </si>
   <si>
     <t xml:space="preserve">25.848932980000001</t>
@@ -196,7 +196,7 @@
     <t xml:space="preserve">longitude</t>
   </si>
   <si>
-    <t xml:space="preserve">The geographic longitude (ed: insert spatial reference system when known) of the geographic center of a location.</t>
+    <t xml:space="preserve">The geographic longitude (WGS84) of the geographic center of a location.</t>
   </si>
   <si>
     <t xml:space="preserve">-163.74230800000001</t>
@@ -304,7 +304,7 @@
     <t xml:space="preserve">measurementID</t>
   </si>
   <si>
-    <t xml:space="preserve">Global unique identifier assigned to the variable/measurementType.</t>
+    <t xml:space="preserve">Global unique identifier assigned to the variable or measurementType.</t>
   </si>
   <si>
     <t xml:space="preserve">measurementMethod</t>

--- a/Tables/StreamHabitatSpecifications.xlsx
+++ b/Tables/StreamHabitatSpecifications.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="410">
   <si>
     <t xml:space="preserve">tblname</t>
   </si>
@@ -214,6 +214,15 @@
     <t xml:space="preserve">5483, 88693. WtR563</t>
   </si>
   <si>
+    <t xml:space="preserve">siteSelectionType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies whether the site was a part of a probabilistic random design (Random) or whether it was selected as a targeted site to address a specific management concern (Targeted)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Randome</t>
+  </si>
+  <si>
     <t xml:space="preserve">waterBody</t>
   </si>
   <si>
@@ -280,6 +289,12 @@
     <t xml:space="preserve">FFFE9F28-60DB-40C0-B9C0-4AFC753A9880, 10002</t>
   </si>
   <si>
+    <t xml:space="preserve">beaverImpact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beaver impact the flow of the reach.</t>
+  </si>
+  <si>
     <t xml:space="preserve">year</t>
   </si>
   <si>
@@ -847,9 +862,6 @@
     <t xml:space="preserve">RchID</t>
   </si>
   <si>
-    <t xml:space="preserve">EventRemarks</t>
-  </si>
-  <si>
     <t xml:space="preserve">beaver_impacted</t>
   </si>
   <si>
@@ -1220,6 +1232,9 @@
   </si>
   <si>
     <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Targeted</t>
   </si>
   <si>
     <t xml:space="preserve">survey_year</t>
@@ -2038,8 +2053,30 @@
       <c r="F9" t="s">
         <v>12</v>
       </c>
-      <c r="G9"/>
+      <c r="G9" t="s">
+        <v>67</v>
+      </c>
       <c r="H9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2085,11 +2122,11 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B2"/>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
@@ -2099,19 +2136,19 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -2123,13 +2160,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -2137,7 +2174,7 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -2145,13 +2182,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -2165,13 +2202,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -2179,7 +2216,7 @@
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
@@ -2187,7 +2224,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
@@ -2205,13 +2242,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -2219,7 +2256,7 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -2227,13 +2264,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -2241,7 +2278,7 @@
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H9" t="s">
         <v>20</v>
@@ -2249,27 +2286,47 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" t="s">
-        <v>90</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
       <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" t="s">
         <v>36</v>
       </c>
-      <c r="G10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="G11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2315,11 +2372,11 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B2"/>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
@@ -2329,13 +2386,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -2349,13 +2406,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -2369,13 +2426,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -2383,7 +2440,7 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
@@ -2391,13 +2448,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -2405,7 +2462,7 @@
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
@@ -2413,13 +2470,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -2427,7 +2484,7 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
@@ -2435,13 +2492,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -2449,7 +2506,7 @@
         <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -2471,19 +2528,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -2492,879 +2549,879 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="I1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="J1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B2" t="n">
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H2"/>
       <c r="I2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="J2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B3" t="n">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="I3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="J3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B4" t="n">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F4"/>
       <c r="G4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B5" t="n">
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F5"/>
       <c r="G5" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I5" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J5" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B6" t="n">
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E6" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F6"/>
       <c r="G6" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H6" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I6" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J6" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B7" t="n">
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F7"/>
       <c r="G7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B8" t="n">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F8" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G8" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H8" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I8" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J8" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B9" t="n">
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D9" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E9" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F9"/>
       <c r="G9" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H9" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I9" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J9" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B10" t="n">
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D10" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E10" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F10"/>
       <c r="G10" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H10" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I10" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="J10" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B11" t="n">
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E11" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F11"/>
       <c r="G11" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H11" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I11" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J11" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B12" t="n">
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E12" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F12" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G12" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H12" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I12" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J12" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B13" t="n">
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E13" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F13"/>
       <c r="G13" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H13" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J13" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B14" t="n">
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D14" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E14" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F14" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G14" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H14" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I14" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J14" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B15" t="n">
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D15" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E15" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G15" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H15" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J15" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B16" t="n">
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D16" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E16" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F16" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="G16" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H16" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="I16" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="J16" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B17" t="n">
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D17" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" t="s">
         <v>186</v>
       </c>
-      <c r="F17" t="s">
-        <v>181</v>
-      </c>
       <c r="G17" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H17" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="I17" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="J17" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B18" t="n">
         <v>31</v>
       </c>
       <c r="C18" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18" t="s">
+        <v>194</v>
+      </c>
+      <c r="F18" t="s">
+        <v>186</v>
+      </c>
+      <c r="G18" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" t="s">
         <v>187</v>
       </c>
-      <c r="D18" t="s">
+      <c r="I18" t="s">
+        <v>125</v>
+      </c>
+      <c r="J18" t="s">
         <v>188</v>
-      </c>
-      <c r="E18" t="s">
-        <v>189</v>
-      </c>
-      <c r="F18" t="s">
-        <v>181</v>
-      </c>
-      <c r="G18" t="s">
-        <v>119</v>
-      </c>
-      <c r="H18" t="s">
-        <v>182</v>
-      </c>
-      <c r="I18" t="s">
-        <v>120</v>
-      </c>
-      <c r="J18" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B19" t="n">
         <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D19" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E19" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F19" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G19" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H19" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I19" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J19" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B20" t="n">
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D20" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E20" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F20" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G20" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H20" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I20" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J20" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B21" t="n">
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D21" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E21" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="F21" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G21" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H21" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I21" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J21" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B22" t="n">
         <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D22" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E22" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F22" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G22" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H22" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I22" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J22" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B23" t="n">
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D23" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E23" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F23" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G23" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H23" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I23" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J23" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B24" t="n">
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D24" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E24" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F24"/>
       <c r="G24" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H24" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="I24" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J24" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B25" t="n">
         <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D25" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E25" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F25" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="G25" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H25" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="I25" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J25" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B26" t="n">
         <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D26" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E26" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F26" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="G26" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H26" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="I26" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J26" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B27" t="n">
         <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D27" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E27" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F27"/>
       <c r="G27" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H27" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="I27" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J27" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B28" t="n">
         <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D28" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E28" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F28"/>
       <c r="G28" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H28" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="I28" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J28" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B29" t="n">
         <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D29" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E29" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F29"/>
       <c r="G29" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H29" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="I29" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J29" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3383,31 +3440,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="G1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="H1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="I1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2">
@@ -3418,19 +3475,19 @@
         <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -3443,19 +3500,19 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E3" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G3" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -3468,19 +3525,19 @@
         <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D4" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F4" t="s">
         <v>242</v>
       </c>
-      <c r="F4" t="s">
-        <v>237</v>
-      </c>
       <c r="G4" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -3493,19 +3550,19 @@
         <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D5" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F5" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G5" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -3518,19 +3575,19 @@
         <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D6" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E6" t="s">
         <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G6" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -3543,19 +3600,19 @@
         <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
@@ -3568,19 +3625,19 @@
         <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D8" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E8" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F8" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G8" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
@@ -3593,19 +3650,19 @@
         <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D9" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E9" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F9" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G9" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
@@ -3621,10 +3678,10 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E10" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F10"/>
       <c r="G10" t="s">
@@ -3644,10 +3701,10 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E11" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F11"/>
       <c r="G11" t="s">
@@ -3667,10 +3724,10 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E12" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F12"/>
       <c r="G12" t="s">
@@ -3690,10 +3747,10 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E13" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F13"/>
       <c r="G13" t="s">
@@ -3707,16 +3764,16 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E14" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F14"/>
       <c r="G14" t="s">
@@ -3730,19 +3787,19 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E15" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="F15" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
@@ -3755,16 +3812,16 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E16" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F16"/>
       <c r="G16" t="s">
@@ -3778,19 +3835,19 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E17" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F17" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="G17" t="s">
         <v>36</v>
@@ -3803,16 +3860,16 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E18" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F18"/>
       <c r="G18" t="s">
@@ -3826,16 +3883,16 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E19" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="F19"/>
       <c r="G19" t="s">
@@ -3849,28 +3906,28 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E20" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F20" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G20" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H20" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="I20" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21">
@@ -3878,28 +3935,28 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E21" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F21" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G21" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H21" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="I21" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22">
@@ -3907,28 +3964,28 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E22" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F22" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="G22" t="s">
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="I22" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23">
@@ -3936,16 +3993,16 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E23" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F23"/>
       <c r="G23" t="s">
@@ -3959,16 +4016,16 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E24" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="F24"/>
       <c r="G24" t="s">
@@ -3982,16 +4039,16 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E25" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="F25"/>
       <c r="G25" t="s">
@@ -4005,19 +4062,19 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E26" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="F26" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="G26" t="s">
         <v>12</v>
@@ -4030,16 +4087,16 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E27" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F27"/>
       <c r="G27" t="s">
@@ -4053,16 +4110,16 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E28" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="F28"/>
       <c r="G28" t="s">
@@ -4076,16 +4133,16 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E29" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="F29"/>
       <c r="G29" t="s">
@@ -4099,16 +4156,16 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E30" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F30"/>
       <c r="G30" t="s">
@@ -4122,23 +4179,23 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>276</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D31" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E31" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F31"/>
       <c r="G31" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H31" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="I31"/>
     </row>
@@ -4147,23 +4204,23 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>276</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D32" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E32" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F32"/>
       <c r="G32" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H32" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="I32"/>
     </row>
@@ -4172,26 +4229,26 @@
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D33" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E33" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F33"/>
       <c r="G33" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H33" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="I33" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="34">
@@ -4199,26 +4256,26 @@
         <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D34" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E34" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F34"/>
       <c r="G34" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H34" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="I34" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35">
@@ -4226,28 +4283,28 @@
         <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D35" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E35" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F35" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="G35" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H35" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="I35" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36">
@@ -4255,20 +4312,20 @@
         <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D36" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E36" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F36"/>
       <c r="G36" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H36"/>
       <c r="I36"/>
@@ -4278,20 +4335,20 @@
         <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C37" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D37" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E37" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F37"/>
       <c r="G37" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H37"/>
       <c r="I37"/>
@@ -4301,20 +4358,20 @@
         <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C38" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D38" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E38" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F38"/>
       <c r="G38" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H38"/>
       <c r="I38"/>
@@ -4324,28 +4381,28 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C39" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D39" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E39" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F39" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="G39" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H39" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="I39" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="40">
@@ -4353,28 +4410,28 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C40" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D40" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E40" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F40" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="G40" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H40" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="I40" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41">
@@ -4382,28 +4439,28 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D41" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E41" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F41" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="G41" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H41" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="I41" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42">
@@ -4411,28 +4468,28 @@
         <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C42" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D42" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E42" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F42" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G42" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H42" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="I42" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43">
@@ -4440,28 +4497,28 @@
         <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C43" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D43" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E43" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F43" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G43" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H43" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="I43" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44">
@@ -4469,28 +4526,28 @@
         <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C44" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D44" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E44" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F44" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G44" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H44" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="I44" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45">
@@ -4498,28 +4555,28 @@
         <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C45" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D45" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E45" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="F45" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G45" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H45" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="I45" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46">
@@ -4527,28 +4584,28 @@
         <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C46" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D46" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E46" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F46" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G46" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H46" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="I46" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="47">
@@ -4556,28 +4613,28 @@
         <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C47" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D47" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E47" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F47" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G47" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H47" t="s">
+        <v>317</v>
+      </c>
+      <c r="I47" t="s">
         <v>313</v>
-      </c>
-      <c r="I47" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="48">
@@ -4585,28 +4642,28 @@
         <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D48" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E48" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F48" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G48" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H48" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="I48" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="49">
@@ -4614,25 +4671,25 @@
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C49" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D49" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E49" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F49" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="G49" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H49" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="I49"/>
     </row>
@@ -4641,28 +4698,28 @@
         <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C50" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D50" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E50" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F50" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G50" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H50" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I50" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51">
@@ -4670,28 +4727,28 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C51" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D51" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E51" t="s">
+        <v>326</v>
+      </c>
+      <c r="F51" t="s">
+        <v>152</v>
+      </c>
+      <c r="G51" t="s">
+        <v>243</v>
+      </c>
+      <c r="H51" t="s">
         <v>322</v>
       </c>
-      <c r="F51" t="s">
-        <v>147</v>
-      </c>
-      <c r="G51" t="s">
-        <v>238</v>
-      </c>
-      <c r="H51" t="s">
-        <v>318</v>
-      </c>
       <c r="I51" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="52">
@@ -4699,28 +4756,28 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C52" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D52" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E52" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F52" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G52" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H52" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="I52" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53">
@@ -4728,28 +4785,28 @@
         <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C53" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D53" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E53" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F53" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G53" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H53" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="I53" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="54">
@@ -4757,28 +4814,28 @@
         <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C54" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D54" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E54" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F54" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G54" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H54" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="I54" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55">
@@ -4786,25 +4843,25 @@
         <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C55" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D55" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E55" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F55" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G55" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H55" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="I55"/>
     </row>
@@ -4813,25 +4870,25 @@
         <v>22</v>
       </c>
       <c r="B56" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C56" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D56" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E56" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F56" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G56" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H56" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="I56"/>
     </row>
@@ -4840,25 +4897,25 @@
         <v>22</v>
       </c>
       <c r="B57" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C57" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D57" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E57" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F57" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G57" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H57" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="I57"/>
     </row>
@@ -4867,25 +4924,25 @@
         <v>22</v>
       </c>
       <c r="B58" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D58" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E58" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F58" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G58" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H58" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="I58"/>
     </row>
@@ -4894,28 +4951,28 @@
         <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C59" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D59" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E59" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F59" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G59" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H59" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="I59" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="60">
@@ -4923,28 +4980,28 @@
         <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C60" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D60" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E60" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F60" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G60" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H60" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="I60" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61">
@@ -4952,28 +5009,28 @@
         <v>23</v>
       </c>
       <c r="B61" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C61" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D61" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E61" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F61" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G61" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H61" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="I61" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="62">
@@ -4981,28 +5038,28 @@
         <v>25</v>
       </c>
       <c r="B62" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C62" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D62" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E62" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F62" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G62" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H62" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="I62" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="63">
@@ -5010,28 +5067,28 @@
         <v>25</v>
       </c>
       <c r="B63" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C63" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D63" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E63" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F63" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G63" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H63" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="I63" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="64">
@@ -5039,28 +5096,28 @@
         <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C64" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D64" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E64" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F64" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G64" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H64" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="I64" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="65">
@@ -5068,28 +5125,28 @@
         <v>26</v>
       </c>
       <c r="B65" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C65" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D65" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E65" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G65" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H65" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="I65" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="66">
@@ -5097,28 +5154,28 @@
         <v>26</v>
       </c>
       <c r="B66" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C66" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D66" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E66" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G66" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H66" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="I66" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="67">
@@ -5126,28 +5183,28 @@
         <v>26</v>
       </c>
       <c r="B67" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C67" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D67" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E67" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F67" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G67" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H67" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="I67" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="68">
@@ -5155,25 +5212,25 @@
         <v>27</v>
       </c>
       <c r="B68" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C68" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D68" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E68" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F68" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G68" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H68" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="I68"/>
     </row>
@@ -5182,25 +5239,25 @@
         <v>27</v>
       </c>
       <c r="B69" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C69" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D69" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E69" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F69" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G69" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H69" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="I69"/>
     </row>
@@ -5209,28 +5266,28 @@
         <v>28</v>
       </c>
       <c r="B70" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C70" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D70" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E70" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F70" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G70" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H70" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="I70" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="71">
@@ -5238,28 +5295,28 @@
         <v>28</v>
       </c>
       <c r="B71" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C71" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D71" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E71" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F71" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G71" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H71" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="I71" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="72">
@@ -5267,28 +5324,28 @@
         <v>29</v>
       </c>
       <c r="B72" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C72" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D72" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E72" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F72" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G72" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H72" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="I72" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="73">
@@ -5296,28 +5353,28 @@
         <v>29</v>
       </c>
       <c r="B73" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C73" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D73" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E73" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F73" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G73" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H73" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="I73" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="74">
@@ -5325,28 +5382,28 @@
         <v>30</v>
       </c>
       <c r="B74" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C74" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D74" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E74" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F74" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G74" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H74" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="I74" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="75">
@@ -5354,28 +5411,28 @@
         <v>30</v>
       </c>
       <c r="B75" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C75" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D75" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E75" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F75" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G75" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H75" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="I75" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="76">
@@ -5383,26 +5440,26 @@
         <v>30</v>
       </c>
       <c r="B76" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C76" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D76" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E76" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="F76"/>
       <c r="G76" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H76" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="I76" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="77">
@@ -5410,28 +5467,28 @@
         <v>30</v>
       </c>
       <c r="B77" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C77" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D77" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E77" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F77" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G77" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H77" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="I77" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="78">
@@ -5439,28 +5496,28 @@
         <v>31</v>
       </c>
       <c r="B78" t="s">
+        <v>192</v>
+      </c>
+      <c r="C78" t="s">
+        <v>124</v>
+      </c>
+      <c r="D78" t="s">
+        <v>244</v>
+      </c>
+      <c r="E78" t="s">
+        <v>192</v>
+      </c>
+      <c r="F78" t="s">
         <v>187</v>
       </c>
-      <c r="C78" t="s">
-        <v>119</v>
-      </c>
-      <c r="D78" t="s">
-        <v>239</v>
-      </c>
-      <c r="E78" t="s">
-        <v>187</v>
-      </c>
-      <c r="F78" t="s">
-        <v>182</v>
-      </c>
       <c r="G78" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H78" t="s">
+        <v>366</v>
+      </c>
+      <c r="I78" t="s">
         <v>362</v>
-      </c>
-      <c r="I78" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="79">
@@ -5468,28 +5525,28 @@
         <v>31</v>
       </c>
       <c r="B79" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C79" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D79" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E79" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F79" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G79" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H79" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="I79" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="80">
@@ -5497,28 +5554,28 @@
         <v>32</v>
       </c>
       <c r="B80" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C80" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D80" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E80" t="s">
+        <v>367</v>
+      </c>
+      <c r="F80" t="s">
+        <v>152</v>
+      </c>
+      <c r="G80" t="s">
+        <v>243</v>
+      </c>
+      <c r="H80" t="s">
         <v>363</v>
       </c>
-      <c r="F80" t="s">
-        <v>147</v>
-      </c>
-      <c r="G80" t="s">
-        <v>238</v>
-      </c>
-      <c r="H80" t="s">
-        <v>359</v>
-      </c>
       <c r="I80" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="81">
@@ -5526,28 +5583,28 @@
         <v>32</v>
       </c>
       <c r="B81" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C81" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D81" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E81" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="F81" t="s">
+        <v>369</v>
+      </c>
+      <c r="G81" t="s">
+        <v>243</v>
+      </c>
+      <c r="H81" t="s">
         <v>365</v>
       </c>
-      <c r="G81" t="s">
-        <v>238</v>
-      </c>
-      <c r="H81" t="s">
-        <v>361</v>
-      </c>
       <c r="I81" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="82">
@@ -5555,28 +5612,28 @@
         <v>33</v>
       </c>
       <c r="B82" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C82" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D82" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E82" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="F82" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G82" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H82" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="I82" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="83">
@@ -5584,28 +5641,28 @@
         <v>33</v>
       </c>
       <c r="B83" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C83" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D83" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E83" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="F83" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G83" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H83" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="I83" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="84">
@@ -5613,28 +5670,28 @@
         <v>33</v>
       </c>
       <c r="B84" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C84" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D84" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E84" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F84" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="G84" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H84" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="I84" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="85">
@@ -5642,28 +5699,28 @@
         <v>34</v>
       </c>
       <c r="B85" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C85" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D85" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E85" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F85" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G85" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H85" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="I85" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="86">
@@ -5671,28 +5728,28 @@
         <v>34</v>
       </c>
       <c r="B86" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C86" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D86" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E86" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="F86" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G86" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H86" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="I86" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="87">
@@ -5700,28 +5757,28 @@
         <v>35</v>
       </c>
       <c r="B87" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C87" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D87" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E87" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F87" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G87" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H87" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="I87" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="88">
@@ -5729,28 +5786,28 @@
         <v>35</v>
       </c>
       <c r="B88" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C88" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D88" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E88" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F88" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G88" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H88" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="I88" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="89">
@@ -5758,28 +5815,28 @@
         <v>35</v>
       </c>
       <c r="B89" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C89" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D89" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E89" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="F89" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G89" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H89" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="I89" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="90">
@@ -5787,28 +5844,28 @@
         <v>36</v>
       </c>
       <c r="B90" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C90" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D90" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E90" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="F90" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G90" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H90" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="I90" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="91">
@@ -5816,28 +5873,28 @@
         <v>36</v>
       </c>
       <c r="B91" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C91" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D91" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E91" t="s">
+        <v>385</v>
+      </c>
+      <c r="F91" t="s">
+        <v>152</v>
+      </c>
+      <c r="G91" t="s">
+        <v>243</v>
+      </c>
+      <c r="H91" t="s">
+        <v>374</v>
+      </c>
+      <c r="I91" t="s">
         <v>381</v>
-      </c>
-      <c r="F91" t="s">
-        <v>147</v>
-      </c>
-      <c r="G91" t="s">
-        <v>238</v>
-      </c>
-      <c r="H91" t="s">
-        <v>370</v>
-      </c>
-      <c r="I91" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="92">
@@ -5845,28 +5902,28 @@
         <v>37</v>
       </c>
       <c r="B92" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C92" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D92" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E92" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F92" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="G92" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H92" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="I92" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="93">
@@ -5874,28 +5931,28 @@
         <v>37</v>
       </c>
       <c r="B93" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C93" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D93" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E93" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F93" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="G93" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H93" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="I93" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="94">
@@ -5903,28 +5960,28 @@
         <v>38</v>
       </c>
       <c r="B94" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C94" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D94" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E94" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F94" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="G94" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H94" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="I94" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="95">
@@ -5932,28 +5989,28 @@
         <v>39</v>
       </c>
       <c r="B95" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C95" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D95" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E95" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F95" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="G95" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H95" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="I95" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="96">
@@ -5961,28 +6018,28 @@
         <v>39</v>
       </c>
       <c r="B96" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C96" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D96" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E96" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="F96" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="G96" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H96" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="I96" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="97">
@@ -5990,28 +6047,28 @@
         <v>40</v>
       </c>
       <c r="B97" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C97" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D97" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E97" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F97" t="s">
+        <v>397</v>
+      </c>
+      <c r="G97" t="s">
+        <v>243</v>
+      </c>
+      <c r="H97" t="s">
         <v>393</v>
       </c>
-      <c r="G97" t="s">
-        <v>238</v>
-      </c>
-      <c r="H97" t="s">
-        <v>389</v>
-      </c>
       <c r="I97" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="98">
@@ -6019,28 +6076,28 @@
         <v>40</v>
       </c>
       <c r="B98" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C98" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D98" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E98" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="F98" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="G98" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H98" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="I98" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="99">
@@ -6048,28 +6105,28 @@
         <v>41</v>
       </c>
       <c r="B99" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C99" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D99" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E99" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F99" t="s">
+        <v>397</v>
+      </c>
+      <c r="G99" t="s">
+        <v>243</v>
+      </c>
+      <c r="H99" t="s">
         <v>393</v>
       </c>
-      <c r="G99" t="s">
-        <v>238</v>
-      </c>
-      <c r="H99" t="s">
-        <v>389</v>
-      </c>
       <c r="I99" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="100">
@@ -6077,28 +6134,28 @@
         <v>41</v>
       </c>
       <c r="B100" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C100" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D100" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E100" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F100" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="G100" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H100" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="I100" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="101">
@@ -6106,25 +6163,25 @@
         <v>42</v>
       </c>
       <c r="B101" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C101" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D101" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E101" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="F101" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="G101" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H101" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="I101"/>
     </row>
@@ -6133,50 +6190,46 @@
         <v>42</v>
       </c>
       <c r="B102" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C102" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D102" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E102" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="F102"/>
       <c r="G102" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H102" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="I102" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>93</v>
-      </c>
-      <c r="B103" t="s">
-        <v>87</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B103"/>
       <c r="C103" t="s">
-        <v>119</v>
+        <v>282</v>
       </c>
       <c r="D103" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="E103" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="F103" t="s">
-        <v>87</v>
-      </c>
-      <c r="G103" t="s">
-        <v>402</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G103"/>
       <c r="H103"/>
       <c r="I103"/>
     </row>
@@ -6185,22 +6238,22 @@
         <v>93</v>
       </c>
       <c r="B104" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C104" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E104" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F104" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G104" t="s">
-        <v>289</v>
+        <v>407</v>
       </c>
       <c r="H104"/>
       <c r="I104"/>
@@ -6210,25 +6263,50 @@
         <v>93</v>
       </c>
       <c r="B105" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C105" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D105" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E105" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="F105" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G105" t="s">
-        <v>16</v>
+        <v>293</v>
       </c>
       <c r="H105"/>
       <c r="I105"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>93</v>
+      </c>
+      <c r="B106" t="s">
+        <v>92</v>
+      </c>
+      <c r="C106" t="s">
+        <v>124</v>
+      </c>
+      <c r="D106" t="s">
+        <v>248</v>
+      </c>
+      <c r="E106" t="s">
+        <v>409</v>
+      </c>
+      <c r="F106" t="s">
+        <v>92</v>
+      </c>
+      <c r="G106" t="s">
+        <v>16</v>
+      </c>
+      <c r="H106"/>
+      <c r="I106"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/StreamHabitatSpecifications.xlsx
+++ b/Tables/StreamHabitatSpecifications.xlsx
@@ -1,1260 +1,1270 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rscully\Documents\Projects\Habitat Data Sharing\2019_2020\Code\Stream-Monitoring-Data-Exchange-Specifications\Tables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC2E6AC-F9C7-48E9-ABDD-0ACE5D3505EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="RecordLevel" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Location" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Event" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="MeasurementorFact" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="metricControlledVocabulary" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Crosswalk" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="RecordLevel" sheetId="1" r:id="rId1"/>
+    <sheet name="Location" sheetId="2" r:id="rId2"/>
+    <sheet name="Event" sheetId="3" r:id="rId3"/>
+    <sheet name="MeasurementorFact" sheetId="4" r:id="rId4"/>
+    <sheet name="metricControlledVocabulary" sheetId="5" r:id="rId5"/>
+    <sheet name="Crosswalk" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Crosswalk!$A$1:$I$106</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="410">
-  <si>
-    <t xml:space="preserve">tblname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">definition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdommin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdommax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dataType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">examples</t>
-  </si>
-  <si>
-    <t xml:space="preserve">standard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RecordLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comma Separated Value (CSV) file containing information about the originating source datasets from Monitoring Programs for the Stream Habitat Metric Integration project. This table corresponds to the RecordLevel table in the database (.accdb) file.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bibilographicCitation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A bibliographic reference for the resource as a statement indicating how this record should be cited (attributed) when used.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Darwin Core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datasetID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A unique identifier assigned to the originating source data's program.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datasetLink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A URL identifier for the collection or dataset from which the record was derived. The source location for the originating source data.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.epa.gov/national-aquatic-resource-surveys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Producer defned</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datasetName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The name of the originating data set from which the record was derived.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPA NARS 2018 dataset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The nature or genre of the resource. The type of data obtained from the originating dataset, including water chemistry (including but not limited to pH) and physical habitat (including but not limited to channel dimensions and characteristics).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Quality and Physical Habitat Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">institutionCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The name (or acronym) in use by the institution having custody of the object(s) or information referred to in the record.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLM,  EPA, USFS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metadataID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A URL identifier for the metadata for the originating source dataset.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ODM2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The most recent calendar date on which the datasets were modified or combined as part of the integrated dataset.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-11-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preProcessingCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL identifier for access to the code used to pre-process (download, standardize and tidy) the data sets before integration into the Stream Habitat Integrated Dataset.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">projectCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The acronym of the name assigned by the Institution (project leader or principal investigator) to the project, from wich the source data originates from.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIBO, AIM, USFS, NRSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">projectName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The name assigned by the Institution (project leader or principal investigator) to the project, from wich the source data originates from.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USFS PacFish/InFish Biological Opinion Monitoring Program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comma Separated Value (CSV) file containing location data for the Integrated Stream Habitat Data. This table corresponds to the 'Location' table in the database (.accdb) file.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A unique numeric identifier assigned to the originating source data's program.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">latitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The geographic latitude (WGS84) of the geographic center of a location.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.848932980000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.268600000000006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Float</t>
-  </si>
-  <si>
-    <t xml:space="preserve">locationID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique global identifier assigned to the location where the event occurred.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5483AIM, 88963AREMP, WtR563EPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">locationRemarks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments or notes about the Location.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The geographic longitude (WGS84) of the geographic center of a location.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-163.74230800000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-67.498393539999995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verbatimLocationID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The verbatim location ID from the originating source dataset assigned by the monitoring program.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5483, 88693. WtR563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">siteSelectionType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifies whether the site was a part of a probabilistic random design (Random) or whether it was selected as a targeted site to address a specific management concern (Targeted)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Randome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waterBody</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The name of the water body in which the location occurs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comma Separated Value (CSV) file containing Event data for the Integrated Stream Habitat Data. This table corresponds to the 'Event' table in the database (.accdb) file.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eventDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The calendar date of the event.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000-05-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-10-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eventID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global unique identifier assigned to an Event (something that occurs at a place and time, such as a survey or measurement).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FFFE9F28-60DB-40C0-B9C0-4AFC753A9880, 10002-PIBO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eventRemarks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments or notes about the Event. The description of flow for the reach flow, partial flow or dry.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fieldNotes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of notes taken in the field about the Event.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dry, wet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">samplingProtocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The name of, reference to, or description of the stream survey method or protocol used during an Event.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UV light trap, "mist net", "bottom trawl", "ad hoc observation", "point count", "Penguins from space: faecal stains reveal the location of emperor penguin colonies, http://dx.doi.org/10.1111/j.1466-8238.2009.00467.x", "Takats et al. 2001. Guidelines for Nocturnal Owl Monitoring in North America. Beaverhill Bird Observatory and Bird Studies Canada, Edmonton, Alberta. 32 pp.", "http://www.bsc-eoc.org/download/Owl.pdf"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verbatimEventID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The verbatim event ID from the originating source dataset assigned by the program.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FFFE9F28-60DB-40C0-B9C0-4AFC753A9880, 10002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beaverImpact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beaver impact the flow of the reach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The four-digit year in which the event occurred.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MeasurementorFact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comma Separated Value (CSV) file containing MeasurementorFact data for the Integrated Stream Habitat Data. This table corresponds to the 'MeasurementorFact' table in the database (.accdb) file.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measurementID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global unique identifier assigned to the variable or measurementType.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measurementMethod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A description of or reference to (publication, URI) the method or protocol used to determine the measurement, fact, characteristic, or assertion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL of the MonitoringResources.rog field and if avilable calcuation method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measurementRemarks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments or notes accompanying the MeasurementOrFact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tip of tail missing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measurementType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The variable or name of the measurement. Fill in with metric controlled voacabulary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grad, WetWidth, ReachLen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measurementValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The value of the measurementTerm attribute measured in units given in the measurementTerm definitions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45, "20", "1", "14.5", "UV-light"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">termID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">term</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measurementUnit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minimumPossibleValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maximumPossibleValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Characteristics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinuosity of Local Stream Reach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reach sinuosity (reach length along the thalweg divided by straight line distance between the bottom of the reach and the top of the reach)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numeric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StreamOrder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stream Order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strahler stream order of the site from the provider dataset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel dimensions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AvgBFWDRatio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bankfull width to depth ratio at transects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull width/depth ratio for the reach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFHeight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bankfull Height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull height measured from water surface across transects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFWidth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull width from transects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull width across transects for the reach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">countTransectsBFWidth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of cross sections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of cross sections included in the average bankfull width calculation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">count of measurments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gradient of stream reach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean slope of water surface (percent) from the bottom of the reach to the top of the reach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 0, max: 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MeanThalwegDepth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average Thalweg Depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean thalweg depth. Metric of how deep water was at the site.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReachLen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length of sampling reach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length of sampling reach measured along the thalweg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WetWidth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average wetted width from transects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average wetted width across transects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctPool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent pools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent of the sample reach (linear extent) classified as pool habitat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residual pool depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average of the residual pool depth values for all pools in a reach. Residual pool depth the difference of the pool tail depth from the max depth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Streambanks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankAngle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank angle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured angle of the stream bank;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 0, max: 180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">degrees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctStab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent stable banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent of 42 banks lacking visible signs of active erosion (e.g., slump, slough, fracture) (units: percent, min: 0, max: 100, n= 42)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter of the 16th percentile streambed particle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bed surface particle size corresponding to the 16th percentile of measured particles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 1, max: 4098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter of the 50th percentile streambed particle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median diameter of bed surface particle size corresponding to the areal median (50th percentile of measured particles) .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter of the 84th percentile streambed particle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bed surface particle size corresponding to the 84th percentile of measured particles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctBdrk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent Bed Surface Bedrock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent of the stream bed area that is composed of particles with a b-axis &gt; 4098mm (bedrock)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctFines2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent of streambed particles &lt;2mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent of the stream bed area that is comprised of particles with a b-axis &lt; 2 mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctFines6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent of streambed particles &lt;6mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent of the stream bed area that is composed of particles with a b-axis &lt; 6 mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoolTailFines2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent pool tail fines &lt; 2mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average percent fine sediment (&lt; 2mm) on the pool tail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoolTailFines6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent pool tail fines &lt; 6mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average percent fine sediment (&lt; 6mm) on the pool tail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water chemistry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conductivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measure of the concentration of ionized materials in water, or the ability of water to conduct electrical current. Used as a measure of mineral / ionic concentration.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ppm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured pH value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 0, max: 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpecificConductance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specific Conductance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured specific conductance value. The specific conductance is conductivity standardized to 25 degrees C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 0, max: 65500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uS/cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TotalNitrogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Nitrogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured total nitrogen value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ug/L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TotalPhosphorous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Phosphorous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured total phosphorous value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turbidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average water clarity as measured by the suspended solids in the water column</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">originalField</t>
-  </si>
-  <si>
-    <t xml:space="preserve">originalUnit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">originalDataType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">methodCollection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">methodAnalysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AREMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lattitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal degrees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">double</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIDLAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NRSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAT_DD83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIBO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIDLONG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LON_DD83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Long</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SITE_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MS_CD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SiteID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STRM_NM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">survey_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m/d/yyyy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DATE_COL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SampDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_DRY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/CustomizedMethod/Details/31137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_DRS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/1610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StrmFlow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Categorical: Flow, No Flow, Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">survey_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRTCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALXSITE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Categorical: I, IS, IK, IKS, K, P, R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">site_survey_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RchID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beaver_impacted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BVR_SGN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNSTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SINU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STRM_ORDR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STRAHLERORDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ave_widthDepth_ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6849 AND https://www.monitoringresources.org/Document/CustomizedMethod/Details/31107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/1064 OR www.monitoringresources.org/Document/Method/Details/1275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFWD_RAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6870 AND www.monitoringresources.org/Document/Method/Details/56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/1064 OR  www.monitoringresources.org/Document/Method/Details/1275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WDTrans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/65 AND https://www.monitoringresources.org/Document/Method/Details/6871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">average_bfdepth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/CustomizedMethod/Details/31107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNKFLL_HT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XBKF_H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">average_bfwidth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/4103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNKFLL_WT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.monitoringresources.org/Document/CustomizedMethod/Details/31137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XBKF_W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6870</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gradient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent, expressed as a decimal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/CustomizedMethod/Details/31139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/4113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XSLOPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ThalwegDepthMean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XDEPTH_CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REACH_LENGTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOT_RCH_LEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REACHLEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RchLen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wettedWidth_ave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WTTD_WT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XWIDTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctReachInPools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_PL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/4115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoolPct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ave_residual_depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES_PL_DEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoolDp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNK_AN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNK_STBLTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/1730</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub_dmm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6810</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bedrock_pcnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_BDRK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Log 10 mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pcnt_fines_tran2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_FN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_SAFN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">precent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pect_fines_tran6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_FN6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pool_fines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL_TL_FN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTFines2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL_TL_FN6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTFines6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mg/L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parts per million</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">µS/cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">µg/L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRBDTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TURB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Targeted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">survey_year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YEAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yr</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="410">
+  <si>
+    <t>tblname</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>definition</t>
+  </si>
+  <si>
+    <t>rdommin</t>
+  </si>
+  <si>
+    <t>rdommax</t>
+  </si>
+  <si>
+    <t>dataType</t>
+  </si>
+  <si>
+    <t>examples</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>RecordLevel</t>
+  </si>
+  <si>
+    <t>Comma Separated Value (CSV) file containing information about the originating source datasets from Monitoring Programs for the Stream Habitat Metric Integration project. This table corresponds to the RecordLevel table in the database (.accdb) file.</t>
+  </si>
+  <si>
+    <t>bibilographicCitation</t>
+  </si>
+  <si>
+    <t>A bibliographic reference for the resource as a statement indicating how this record should be cited (attributed) when used.</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Darwin Core</t>
+  </si>
+  <si>
+    <t>datasetID</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to the originating source data's program.</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>datasetLink</t>
+  </si>
+  <si>
+    <t>A URL identifier for the collection or dataset from which the record was derived. The source location for the originating source data.</t>
+  </si>
+  <si>
+    <t>https://www.epa.gov/national-aquatic-resource-surveys</t>
+  </si>
+  <si>
+    <t>Producer defned</t>
+  </si>
+  <si>
+    <t>datasetName</t>
+  </si>
+  <si>
+    <t>The name of the originating data set from which the record was derived.</t>
+  </si>
+  <si>
+    <t>EPA NARS 2018 dataset</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>The nature or genre of the resource. The type of data obtained from the originating dataset, including water chemistry (including but not limited to pH) and physical habitat (including but not limited to channel dimensions and characteristics).</t>
+  </si>
+  <si>
+    <t>Water Quality and Physical Habitat Structure</t>
+  </si>
+  <si>
+    <t>institutionCode</t>
+  </si>
+  <si>
+    <t>The name (or acronym) in use by the institution having custody of the object(s) or information referred to in the record.</t>
+  </si>
+  <si>
+    <t>BLM,  EPA, USFS</t>
+  </si>
+  <si>
+    <t>metadataID</t>
+  </si>
+  <si>
+    <t>A URL identifier for the metadata for the originating source dataset.</t>
+  </si>
+  <si>
+    <t>ODM2</t>
+  </si>
+  <si>
+    <t>modified</t>
+  </si>
+  <si>
+    <t>The most recent calendar date on which the datasets were modified or combined as part of the integrated dataset.</t>
+  </si>
+  <si>
+    <t>2021-11-16</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>preProcessingCode</t>
+  </si>
+  <si>
+    <t>URL identifier for access to the code used to pre-process (download, standardize and tidy) the data sets before integration into the Stream Habitat Integrated Dataset.</t>
+  </si>
+  <si>
+    <t>projectCode</t>
+  </si>
+  <si>
+    <t>The acronym of the name assigned by the Institution (project leader or principal investigator) to the project, from wich the source data originates from.</t>
+  </si>
+  <si>
+    <t>PIBO, AIM, USFS, NRSA</t>
+  </si>
+  <si>
+    <t>projectName</t>
+  </si>
+  <si>
+    <t>The name assigned by the Institution (project leader or principal investigator) to the project, from wich the source data originates from.</t>
+  </si>
+  <si>
+    <t>USFS PacFish/InFish Biological Opinion Monitoring Program</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Comma Separated Value (CSV) file containing location data for the Integrated Stream Habitat Data. This table corresponds to the 'Location' table in the database (.accdb) file.</t>
+  </si>
+  <si>
+    <t>A unique numeric identifier assigned to the originating source data's program.</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>The geographic latitude (WGS84) of the geographic center of a location.</t>
+  </si>
+  <si>
+    <t>25.848932980000001</t>
+  </si>
+  <si>
+    <t>71.268600000000006</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>locationID</t>
+  </si>
+  <si>
+    <t>Unique global identifier assigned to the location where the event occurred.</t>
+  </si>
+  <si>
+    <t>5483AIM, 88963AREMP, WtR563EPA</t>
+  </si>
+  <si>
+    <t>locationRemarks</t>
+  </si>
+  <si>
+    <t>Comments or notes about the Location.</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>The geographic longitude (WGS84) of the geographic center of a location.</t>
+  </si>
+  <si>
+    <t>-163.74230800000001</t>
+  </si>
+  <si>
+    <t>-67.498393539999995</t>
+  </si>
+  <si>
+    <t>verbatimLocationID</t>
+  </si>
+  <si>
+    <t>The verbatim location ID from the originating source dataset assigned by the monitoring program.</t>
+  </si>
+  <si>
+    <t>5483, 88693. WtR563</t>
+  </si>
+  <si>
+    <t>siteSelectionType</t>
+  </si>
+  <si>
+    <t>Specifies whether the site was a part of a probabilistic random design (Random) or whether it was selected as a targeted site to address a specific management concern (Targeted)</t>
+  </si>
+  <si>
+    <t>Randome</t>
+  </si>
+  <si>
+    <t>waterBody</t>
+  </si>
+  <si>
+    <t>The name of the water body in which the location occurs.</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Comma Separated Value (CSV) file containing Event data for the Integrated Stream Habitat Data. This table corresponds to the 'Event' table in the database (.accdb) file.</t>
+  </si>
+  <si>
+    <t>eventDate</t>
+  </si>
+  <si>
+    <t>The calendar date of the event.</t>
+  </si>
+  <si>
+    <t>2000-05-20</t>
+  </si>
+  <si>
+    <t>2020-10-20</t>
+  </si>
+  <si>
+    <t>eventID</t>
+  </si>
+  <si>
+    <t>Global unique identifier assigned to an Event (something that occurs at a place and time, such as a survey or measurement).</t>
+  </si>
+  <si>
+    <t>FFFE9F28-60DB-40C0-B9C0-4AFC753A9880, 10002-PIBO</t>
+  </si>
+  <si>
+    <t>eventRemarks</t>
+  </si>
+  <si>
+    <t>Comments or notes about the Event. The description of flow for the reach flow, partial flow or dry.</t>
+  </si>
+  <si>
+    <t>fieldNotes</t>
+  </si>
+  <si>
+    <t>One of notes taken in the field about the Event.</t>
+  </si>
+  <si>
+    <t>dry, wet</t>
+  </si>
+  <si>
+    <t>samplingProtocol</t>
+  </si>
+  <si>
+    <t>The name of, reference to, or description of the stream survey method or protocol used during an Event.</t>
+  </si>
+  <si>
+    <t>UV light trap, "mist net", "bottom trawl", "ad hoc observation", "point count", "Penguins from space: faecal stains reveal the location of emperor penguin colonies, http://dx.doi.org/10.1111/j.1466-8238.2009.00467.x", "Takats et al. 2001. Guidelines for Nocturnal Owl Monitoring in North America. Beaverhill Bird Observatory and Bird Studies Canada, Edmonton, Alberta. 32 pp.", "http://www.bsc-eoc.org/download/Owl.pdf"</t>
+  </si>
+  <si>
+    <t>verbatimEventID</t>
+  </si>
+  <si>
+    <t>The verbatim event ID from the originating source dataset assigned by the program.</t>
+  </si>
+  <si>
+    <t>FFFE9F28-60DB-40C0-B9C0-4AFC753A9880, 10002</t>
+  </si>
+  <si>
+    <t>beaverImpact</t>
+  </si>
+  <si>
+    <t>Beaver impact the flow of the reach.</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>The four-digit year in which the event occurred.</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>MeasurementorFact</t>
+  </si>
+  <si>
+    <t>Comma Separated Value (CSV) file containing MeasurementorFact data for the Integrated Stream Habitat Data. This table corresponds to the 'MeasurementorFact' table in the database (.accdb) file.</t>
+  </si>
+  <si>
+    <t>measurementID</t>
+  </si>
+  <si>
+    <t>Global unique identifier assigned to the variable or measurementType.</t>
+  </si>
+  <si>
+    <t>measurementMethod</t>
+  </si>
+  <si>
+    <t>A description of or reference to (publication, URI) the method or protocol used to determine the measurement, fact, characteristic, or assertion.</t>
+  </si>
+  <si>
+    <t>URL of the MonitoringResources.rog field and if avilable calcuation method</t>
+  </si>
+  <si>
+    <t>measurementRemarks</t>
+  </si>
+  <si>
+    <t>Comments or notes accompanying the MeasurementOrFact.</t>
+  </si>
+  <si>
+    <t>tip of tail missing</t>
+  </si>
+  <si>
+    <t>measurementType</t>
+  </si>
+  <si>
+    <t>The variable or name of the measurement. Fill in with metric controlled voacabulary</t>
+  </si>
+  <si>
+    <t>Grad, WetWidth, ReachLen</t>
+  </si>
+  <si>
+    <t>measurementValue</t>
+  </si>
+  <si>
+    <t>The value of the measurementTerm attribute measured in units given in the measurementTerm definitions.</t>
+  </si>
+  <si>
+    <t>45, "20", "1", "14.5", "UV-light"</t>
+  </si>
+  <si>
+    <t>termID</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>longName</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>measurementUnit</t>
+  </si>
+  <si>
+    <t>minimumPossibleValue</t>
+  </si>
+  <si>
+    <t>maximumPossibleValue</t>
+  </si>
+  <si>
+    <t>Channel Characteristics</t>
+  </si>
+  <si>
+    <t>Sin</t>
+  </si>
+  <si>
+    <t>Sinuosity of Local Stream Reach</t>
+  </si>
+  <si>
+    <t>Reach sinuosity (reach length along the thalweg divided by straight line distance between the bottom of the reach and the top of the reach)</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>StreamOrder</t>
+  </si>
+  <si>
+    <t>Stream Order</t>
+  </si>
+  <si>
+    <t>Strahler stream order of the site from the provider dataset</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Channel dimensions</t>
+  </si>
+  <si>
+    <t>AvgBFWDRatio</t>
+  </si>
+  <si>
+    <t>Bankfull width to depth ratio at transects</t>
+  </si>
+  <si>
+    <t>Average bankfull width/depth ratio for the reach.</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>BFHeight</t>
+  </si>
+  <si>
+    <t>Bankfull Height</t>
+  </si>
+  <si>
+    <t>Average bankfull height measured from water surface across transects.</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>BFWidth</t>
+  </si>
+  <si>
+    <t>Average bankfull width from transects</t>
+  </si>
+  <si>
+    <t>Average bankfull width across transects for the reach.</t>
+  </si>
+  <si>
+    <t>countTransectsBFWidth</t>
+  </si>
+  <si>
+    <t>Count of cross sections</t>
+  </si>
+  <si>
+    <t>Number of cross sections included in the average bankfull width calculation</t>
+  </si>
+  <si>
+    <t>count of measurments</t>
+  </si>
+  <si>
+    <t>Grad</t>
+  </si>
+  <si>
+    <t>Gradient of stream reach</t>
+  </si>
+  <si>
+    <t>Mean slope of water surface (percent) from the bottom of the reach to the top of the reach.</t>
+  </si>
+  <si>
+    <t>min: 0, max: 100</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>MeanThalwegDepth</t>
+  </si>
+  <si>
+    <t>Average Thalweg Depth</t>
+  </si>
+  <si>
+    <t>Mean thalweg depth. Metric of how deep water was at the site.</t>
+  </si>
+  <si>
+    <t>ReachLen</t>
+  </si>
+  <si>
+    <t>Length of sampling reach</t>
+  </si>
+  <si>
+    <t>Length of sampling reach measured along the thalweg</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>WetWidth</t>
+  </si>
+  <si>
+    <t>Average wetted width from transects</t>
+  </si>
+  <si>
+    <t>Average wetted width across transects.</t>
+  </si>
+  <si>
+    <t>Pools</t>
+  </si>
+  <si>
+    <t>PctPool</t>
+  </si>
+  <si>
+    <t>percent pools</t>
+  </si>
+  <si>
+    <t>percent of the sample reach (linear extent) classified as pool habitat</t>
+  </si>
+  <si>
+    <t>RPD</t>
+  </si>
+  <si>
+    <t>Residual pool depth</t>
+  </si>
+  <si>
+    <t>Average of the residual pool depth values for all pools in a reach. Residual pool depth the difference of the pool tail depth from the max depth.</t>
+  </si>
+  <si>
+    <t>Streambanks</t>
+  </si>
+  <si>
+    <t>BankAngle</t>
+  </si>
+  <si>
+    <t>Bank angle</t>
+  </si>
+  <si>
+    <t>Measured angle of the stream bank;</t>
+  </si>
+  <si>
+    <t>min: 0, max: 180</t>
+  </si>
+  <si>
+    <t>degrees</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>PctStab</t>
+  </si>
+  <si>
+    <t>percent stable banks</t>
+  </si>
+  <si>
+    <t>percent of 42 banks lacking visible signs of active erosion (e.g., slump, slough, fracture) (units: percent, min: 0, max: 100, n= 42)</t>
+  </si>
+  <si>
+    <t>Substrate</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>Diameter of the 16th percentile streambed particle</t>
+  </si>
+  <si>
+    <t>Bed surface particle size corresponding to the 16th percentile of measured particles</t>
+  </si>
+  <si>
+    <t>min: 1, max: 4098</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>4098</t>
+  </si>
+  <si>
+    <t>D50</t>
+  </si>
+  <si>
+    <t>Diameter of the 50th percentile streambed particle</t>
+  </si>
+  <si>
+    <t>Median diameter of bed surface particle size corresponding to the areal median (50th percentile of measured particles) .</t>
+  </si>
+  <si>
+    <t>D84</t>
+  </si>
+  <si>
+    <t>Diameter of the 84th percentile streambed particle</t>
+  </si>
+  <si>
+    <t>Bed surface particle size corresponding to the 84th percentile of measured particles</t>
+  </si>
+  <si>
+    <t>PctBdrk</t>
+  </si>
+  <si>
+    <t>percent Bed Surface Bedrock</t>
+  </si>
+  <si>
+    <t>percent of the stream bed area that is composed of particles with a b-axis &gt; 4098mm (bedrock)</t>
+  </si>
+  <si>
+    <t>PctFines2</t>
+  </si>
+  <si>
+    <t>percent of streambed particles &lt;2mm</t>
+  </si>
+  <si>
+    <t>percent of the stream bed area that is comprised of particles with a b-axis &lt; 2 mm</t>
+  </si>
+  <si>
+    <t>PctFines6</t>
+  </si>
+  <si>
+    <t>percent of streambed particles &lt;6mm</t>
+  </si>
+  <si>
+    <t>percent of the stream bed area that is composed of particles with a b-axis &lt; 6 mm</t>
+  </si>
+  <si>
+    <t>PoolTailFines2</t>
+  </si>
+  <si>
+    <t>percent pool tail fines &lt; 2mm</t>
+  </si>
+  <si>
+    <t>Average percent fine sediment (&lt; 2mm) on the pool tail</t>
+  </si>
+  <si>
+    <t>PoolTailFines6</t>
+  </si>
+  <si>
+    <t>percent pool tail fines &lt; 6mm</t>
+  </si>
+  <si>
+    <t>Average percent fine sediment (&lt; 6mm) on the pool tail</t>
+  </si>
+  <si>
+    <t>Water chemistry</t>
+  </si>
+  <si>
+    <t>Conductivity</t>
+  </si>
+  <si>
+    <t>Measure of the concentration of ionized materials in water, or the ability of water to conduct electrical current. Used as a measure of mineral / ionic concentration.</t>
+  </si>
+  <si>
+    <t>ppm</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Measured pH value</t>
+  </si>
+  <si>
+    <t>min: 0, max: 14</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>SpecificConductance</t>
+  </si>
+  <si>
+    <t>Specific Conductance</t>
+  </si>
+  <si>
+    <t>Measured specific conductance value. The specific conductance is conductivity standardized to 25 degrees C.</t>
+  </si>
+  <si>
+    <t>min: 0, max: 65500</t>
+  </si>
+  <si>
+    <t>uS/cm</t>
+  </si>
+  <si>
+    <t>65500</t>
+  </si>
+  <si>
+    <t>TotalNitrogen</t>
+  </si>
+  <si>
+    <t>Total Nitrogen</t>
+  </si>
+  <si>
+    <t>Measured total nitrogen value</t>
+  </si>
+  <si>
+    <t>ug/L</t>
+  </si>
+  <si>
+    <t>TotalPhosphorous</t>
+  </si>
+  <si>
+    <t>Total Phosphorous</t>
+  </si>
+  <si>
+    <t>Measured total phosphorous value</t>
+  </si>
+  <si>
+    <t>Turbidity</t>
+  </si>
+  <si>
+    <t>Average water clarity as measured by the suspended solids in the water column</t>
+  </si>
+  <si>
+    <t>NTU</t>
+  </si>
+  <si>
+    <t>program</t>
+  </si>
+  <si>
+    <t>originalField</t>
+  </si>
+  <si>
+    <t>originalUnit</t>
+  </si>
+  <si>
+    <t>originalDataType</t>
+  </si>
+  <si>
+    <t>methodCollection</t>
+  </si>
+  <si>
+    <t>methodAnalysis</t>
+  </si>
+  <si>
+    <t>AREMP</t>
+  </si>
+  <si>
+    <t>lattitude</t>
+  </si>
+  <si>
+    <t>decimal degrees</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>AIM</t>
+  </si>
+  <si>
+    <t>MIDLAT</t>
+  </si>
+  <si>
+    <t>NRSA</t>
+  </si>
+  <si>
+    <t>LAT_DD83</t>
+  </si>
+  <si>
+    <t>PIBO</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>MIDLONG</t>
+  </si>
+  <si>
+    <t>LON_DD83</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>SITE_ID</t>
+  </si>
+  <si>
+    <t>MS_CD</t>
+  </si>
+  <si>
+    <t>SiteID</t>
+  </si>
+  <si>
+    <t>STRM_NM</t>
+  </si>
+  <si>
+    <t>Stream</t>
+  </si>
+  <si>
+    <t>survey_date</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>m/d/yyyy</t>
+  </si>
+  <si>
+    <t>DATE_COL</t>
+  </si>
+  <si>
+    <t>SampDate</t>
+  </si>
+  <si>
+    <t>PCT_DRY</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/CustomizedMethod/Details/31137</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7004</t>
+  </si>
+  <si>
+    <t>PCT_DRS</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/1610</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7018</t>
+  </si>
+  <si>
+    <t>StrmFlow</t>
+  </si>
+  <si>
+    <t>Categorical: Flow, No Flow, Other</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/924</t>
+  </si>
+  <si>
+    <t>tbd</t>
+  </si>
+  <si>
+    <t>survey_type</t>
+  </si>
+  <si>
+    <t>PRTCL</t>
+  </si>
+  <si>
+    <t>VALXSITE</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Categorical: I, IS, IK, IKS, K, P, R</t>
+  </si>
+  <si>
+    <t>site_survey_id</t>
+  </si>
+  <si>
+    <t>UID</t>
+  </si>
+  <si>
+    <t>RchID</t>
+  </si>
+  <si>
+    <t>beaver_impacted</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7003</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7002</t>
+  </si>
+  <si>
+    <t>SNSTY</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/3807</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7007</t>
+  </si>
+  <si>
+    <t>SINU</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7005</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6868</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>STRM_ORDR</t>
+  </si>
+  <si>
+    <t>STRAHLERORDER</t>
+  </si>
+  <si>
+    <t>ave_widthDepth_ratio</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6849 AND https://www.monitoringresources.org/Document/CustomizedMethod/Details/31107</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/1064 OR www.monitoringresources.org/Document/Method/Details/1275</t>
+  </si>
+  <si>
+    <t>BFWD_RAT</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6870 AND www.monitoringresources.org/Document/Method/Details/56</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/1064 OR  www.monitoringresources.org/Document/Method/Details/1275</t>
+  </si>
+  <si>
+    <t>WDTrans</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/65 AND https://www.monitoringresources.org/Document/Method/Details/6871</t>
+  </si>
+  <si>
+    <t>average_bfdepth</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/CustomizedMethod/Details/31107</t>
+  </si>
+  <si>
+    <t>BNKFLL_HT</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7013</t>
+  </si>
+  <si>
+    <t>XBKF_H</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/56</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7014</t>
+  </si>
+  <si>
+    <t>average_bfwidth</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6849</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/4103</t>
+  </si>
+  <si>
+    <t>BNKFLL_WT</t>
+  </si>
+  <si>
+    <t>https://www.monitoringresources.org/Document/CustomizedMethod/Details/31137</t>
+  </si>
+  <si>
+    <t>XBKF_W</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6870</t>
+  </si>
+  <si>
+    <t>Bf</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6871</t>
+  </si>
+  <si>
+    <t>gradient</t>
+  </si>
+  <si>
+    <t>percent, expressed as a decimal</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6852</t>
+  </si>
+  <si>
+    <t>SLPE</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/CustomizedMethod/Details/31139</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/4113</t>
+  </si>
+  <si>
+    <t>XSLOPE</t>
+  </si>
+  <si>
+    <t>ThalwegDepthMean</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7008</t>
+  </si>
+  <si>
+    <t>XDEPTH_CM</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/74</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7015</t>
+  </si>
+  <si>
+    <t>REACH_LENGTH</t>
+  </si>
+  <si>
+    <t>TOT_RCH_LEN</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7017</t>
+  </si>
+  <si>
+    <t>REACHLEN</t>
+  </si>
+  <si>
+    <t>RchLen</t>
+  </si>
+  <si>
+    <t>wettedWidth_ave</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/3893</t>
+  </si>
+  <si>
+    <t>WTTD_WT</t>
+  </si>
+  <si>
+    <t>XWIDTH</t>
+  </si>
+  <si>
+    <t>PctReachInPools</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6844</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/3852</t>
+  </si>
+  <si>
+    <t>PCT_PL</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6859</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/4115</t>
+  </si>
+  <si>
+    <t>PoolPct</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6872</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/55</t>
+  </si>
+  <si>
+    <t>ave_residual_depth</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6976</t>
+  </si>
+  <si>
+    <t>RES_PL_DEP</t>
+  </si>
+  <si>
+    <t>PoolDp</t>
+  </si>
+  <si>
+    <t>BNK_AN</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/68</t>
+  </si>
+  <si>
+    <t>BNK_STBLTY</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/69</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7010</t>
+  </si>
+  <si>
+    <t>Stab</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6801</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/1730</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6797</t>
+  </si>
+  <si>
+    <t>Sub_dmm</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6874</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6810</t>
+  </si>
+  <si>
+    <t>bedrock_pcnt</t>
+  </si>
+  <si>
+    <t>PCT_BDRK</t>
+  </si>
+  <si>
+    <t>Log 10 mm</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7011</t>
+  </si>
+  <si>
+    <t>pcnt_fines_tran2</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6977</t>
+  </si>
+  <si>
+    <t>PCT_FN</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6862</t>
+  </si>
+  <si>
+    <t>PCT_SAFN</t>
+  </si>
+  <si>
+    <t>precent</t>
+  </si>
+  <si>
+    <t>pect_fines_tran6</t>
+  </si>
+  <si>
+    <t>PCT_FN6</t>
+  </si>
+  <si>
+    <t>pool_fines</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6798</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/868</t>
+  </si>
+  <si>
+    <t>PL_TL_FN</t>
+  </si>
+  <si>
+    <t>PTFines2</t>
+  </si>
+  <si>
+    <t>PL_TL_FN6</t>
+  </si>
+  <si>
+    <t>PTFines6</t>
+  </si>
+  <si>
+    <t>TSS</t>
+  </si>
+  <si>
+    <t>mg/L</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/3792</t>
+  </si>
+  <si>
+    <t>Cond</t>
+  </si>
+  <si>
+    <t>Parts per million</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/61</t>
+  </si>
+  <si>
+    <t>SU</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6673</t>
+  </si>
+  <si>
+    <t>µS/cm</t>
+  </si>
+  <si>
+    <t>COND</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/72</t>
+  </si>
+  <si>
+    <t>µg/L</t>
+  </si>
+  <si>
+    <t>NTL</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/548</t>
+  </si>
+  <si>
+    <t>PTL</t>
+  </si>
+  <si>
+    <t>TRBDTY</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7012</t>
+  </si>
+  <si>
+    <t>TURB</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7016</t>
+  </si>
+  <si>
+    <t>Targeted</t>
+  </si>
+  <si>
+    <t>survey_year</t>
+  </si>
+  <si>
+    <t>Interger</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>Yr</t>
+  </si>
+  <si>
+    <t>BVR_FLW_MD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1290,6 +1300,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1571,14 +1590,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1604,21 +1623,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2"/>
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1628,17 +1641,14 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3"/>
-      <c r="E3"/>
       <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G3"/>
       <c r="H3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1648,17 +1658,14 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4"/>
-      <c r="E4"/>
       <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="G4"/>
       <c r="H4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1668,8 +1675,6 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5"/>
-      <c r="E5"/>
       <c r="F5" t="s">
         <v>12</v>
       </c>
@@ -1680,7 +1685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1690,8 +1695,6 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6"/>
-      <c r="E6"/>
       <c r="F6" t="s">
         <v>12</v>
       </c>
@@ -1702,7 +1705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1712,8 +1715,6 @@
       <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="D7"/>
-      <c r="E7"/>
       <c r="F7" t="s">
         <v>12</v>
       </c>
@@ -1724,7 +1725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1734,8 +1735,6 @@
       <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="D8"/>
-      <c r="E8"/>
       <c r="F8" t="s">
         <v>12</v>
       </c>
@@ -1746,7 +1745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1756,17 +1755,14 @@
       <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="D9"/>
-      <c r="E9"/>
       <c r="F9" t="s">
         <v>12</v>
       </c>
-      <c r="G9"/>
       <c r="H9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1785,12 +1781,11 @@
       <c r="F10" t="s">
         <v>36</v>
       </c>
-      <c r="G10"/>
       <c r="H10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1800,17 +1795,14 @@
       <c r="C11" t="s">
         <v>38</v>
       </c>
-      <c r="D11"/>
-      <c r="E11"/>
       <c r="F11" t="s">
         <v>12</v>
       </c>
-      <c r="G11"/>
       <c r="H11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1820,8 +1812,6 @@
       <c r="C12" t="s">
         <v>40</v>
       </c>
-      <c r="D12"/>
-      <c r="E12"/>
       <c r="F12" t="s">
         <v>12</v>
       </c>
@@ -1832,7 +1822,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1842,8 +1832,6 @@
       <c r="C13" t="s">
         <v>43</v>
       </c>
-      <c r="D13"/>
-      <c r="E13"/>
       <c r="F13" t="s">
         <v>12</v>
       </c>
@@ -1856,19 +1844,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1894,21 +1882,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>45</v>
       </c>
-      <c r="B2"/>
       <c r="C2" t="s">
         <v>46</v>
       </c>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1918,15 +1900,11 @@
       <c r="C3" t="s">
         <v>47</v>
       </c>
-      <c r="D3"/>
-      <c r="E3"/>
       <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="G3"/>
-      <c r="H3"/>
-    </row>
-    <row r="4">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -1945,12 +1923,11 @@
       <c r="F4" t="s">
         <v>52</v>
       </c>
-      <c r="G4"/>
       <c r="H4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -1960,8 +1937,6 @@
       <c r="C5" t="s">
         <v>54</v>
       </c>
-      <c r="D5"/>
-      <c r="E5"/>
       <c r="F5" t="s">
         <v>12</v>
       </c>
@@ -1972,7 +1947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1982,17 +1957,14 @@
       <c r="C6" t="s">
         <v>57</v>
       </c>
-      <c r="D6"/>
-      <c r="E6"/>
       <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="G6"/>
       <c r="H6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -2011,12 +1983,11 @@
       <c r="F7" t="s">
         <v>52</v>
       </c>
-      <c r="G7"/>
       <c r="H7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -2026,8 +1997,6 @@
       <c r="C8" t="s">
         <v>63</v>
       </c>
-      <c r="D8"/>
-      <c r="E8"/>
       <c r="F8" t="s">
         <v>12</v>
       </c>
@@ -2038,7 +2007,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -2048,8 +2017,6 @@
       <c r="C9" t="s">
         <v>66</v>
       </c>
-      <c r="D9"/>
-      <c r="E9"/>
       <c r="F9" t="s">
         <v>12</v>
       </c>
@@ -2060,7 +2027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -2070,31 +2037,28 @@
       <c r="C10" t="s">
         <v>69</v>
       </c>
-      <c r="D10"/>
-      <c r="E10"/>
       <c r="F10" t="s">
         <v>12</v>
       </c>
-      <c r="G10"/>
       <c r="H10" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2120,21 +2084,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>70</v>
       </c>
-      <c r="B2"/>
       <c r="C2" t="s">
         <v>71</v>
       </c>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -2153,12 +2111,11 @@
       <c r="F3" t="s">
         <v>36</v>
       </c>
-      <c r="G3"/>
       <c r="H3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -2168,8 +2125,6 @@
       <c r="C4" t="s">
         <v>77</v>
       </c>
-      <c r="D4"/>
-      <c r="E4"/>
       <c r="F4" t="s">
         <v>12</v>
       </c>
@@ -2180,7 +2135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -2190,17 +2145,14 @@
       <c r="C5" t="s">
         <v>80</v>
       </c>
-      <c r="D5"/>
-      <c r="E5"/>
       <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="G5"/>
       <c r="H5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -2210,8 +2162,6 @@
       <c r="C6" t="s">
         <v>82</v>
       </c>
-      <c r="D6"/>
-      <c r="E6"/>
       <c r="F6" t="s">
         <v>12</v>
       </c>
@@ -2222,7 +2172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -2232,15 +2182,11 @@
       <c r="C7" t="s">
         <v>54</v>
       </c>
-      <c r="D7"/>
-      <c r="E7"/>
       <c r="F7" t="s">
         <v>16</v>
       </c>
-      <c r="G7"/>
-      <c r="H7"/>
-    </row>
-    <row r="8">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -2250,8 +2196,6 @@
       <c r="C8" t="s">
         <v>85</v>
       </c>
-      <c r="D8"/>
-      <c r="E8"/>
       <c r="F8" t="s">
         <v>12</v>
       </c>
@@ -2262,7 +2206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -2272,8 +2216,6 @@
       <c r="C9" t="s">
         <v>88</v>
       </c>
-      <c r="D9"/>
-      <c r="E9"/>
       <c r="F9" t="s">
         <v>12</v>
       </c>
@@ -2284,7 +2226,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -2294,17 +2236,14 @@
       <c r="C10" t="s">
         <v>91</v>
       </c>
-      <c r="D10"/>
-      <c r="E10"/>
       <c r="F10" t="s">
         <v>12</v>
       </c>
-      <c r="G10"/>
       <c r="H10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -2332,19 +2271,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2370,21 +2309,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>97</v>
       </c>
-      <c r="B2"/>
       <c r="C2" t="s">
         <v>98</v>
       </c>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -2394,17 +2327,14 @@
       <c r="C3" t="s">
         <v>77</v>
       </c>
-      <c r="D3"/>
-      <c r="E3"/>
       <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="G3"/>
       <c r="H3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -2414,17 +2344,14 @@
       <c r="C4" t="s">
         <v>100</v>
       </c>
-      <c r="D4"/>
-      <c r="E4"/>
       <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="G4"/>
       <c r="H4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -2434,8 +2361,6 @@
       <c r="C5" t="s">
         <v>102</v>
       </c>
-      <c r="D5"/>
-      <c r="E5"/>
       <c r="F5" t="s">
         <v>12</v>
       </c>
@@ -2446,7 +2371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -2456,8 +2381,6 @@
       <c r="C6" t="s">
         <v>105</v>
       </c>
-      <c r="D6"/>
-      <c r="E6"/>
       <c r="F6" t="s">
         <v>12</v>
       </c>
@@ -2468,7 +2391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -2478,8 +2401,6 @@
       <c r="C7" t="s">
         <v>108</v>
       </c>
-      <c r="D7"/>
-      <c r="E7"/>
       <c r="F7" t="s">
         <v>12</v>
       </c>
@@ -2490,7 +2411,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -2500,8 +2421,6 @@
       <c r="C8" t="s">
         <v>111</v>
       </c>
-      <c r="D8"/>
-      <c r="E8"/>
       <c r="F8" t="s">
         <v>52</v>
       </c>
@@ -2514,19 +2433,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>107</v>
       </c>
@@ -2558,11 +2477,11 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>120</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>14</v>
       </c>
       <c r="C2" t="s">
@@ -2574,11 +2493,9 @@
       <c r="E2" t="s">
         <v>123</v>
       </c>
-      <c r="F2"/>
       <c r="G2" t="s">
         <v>124</v>
       </c>
-      <c r="H2"/>
       <c r="I2" t="s">
         <v>125</v>
       </c>
@@ -2586,11 +2503,11 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>120</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>15</v>
       </c>
       <c r="C3" t="s">
@@ -2602,7 +2519,6 @@
       <c r="E3" t="s">
         <v>129</v>
       </c>
-      <c r="F3"/>
       <c r="G3" t="s">
         <v>124</v>
       </c>
@@ -2616,11 +2532,11 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>131</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>16</v>
       </c>
       <c r="C4" t="s">
@@ -2632,7 +2548,6 @@
       <c r="E4" t="s">
         <v>134</v>
       </c>
-      <c r="F4"/>
       <c r="G4" t="s">
         <v>124</v>
       </c>
@@ -2646,11 +2561,11 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>131</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>17</v>
       </c>
       <c r="C5" t="s">
@@ -2662,7 +2577,6 @@
       <c r="E5" t="s">
         <v>139</v>
       </c>
-      <c r="F5"/>
       <c r="G5" t="s">
         <v>124</v>
       </c>
@@ -2676,11 +2590,11 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>131</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>18</v>
       </c>
       <c r="C6" t="s">
@@ -2692,7 +2606,6 @@
       <c r="E6" t="s">
         <v>143</v>
       </c>
-      <c r="F6"/>
       <c r="G6" t="s">
         <v>124</v>
       </c>
@@ -2706,11 +2619,11 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>131</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>19</v>
       </c>
       <c r="C7" t="s">
@@ -2722,7 +2635,6 @@
       <c r="E7" t="s">
         <v>146</v>
       </c>
-      <c r="F7"/>
       <c r="G7" t="s">
         <v>124</v>
       </c>
@@ -2736,11 +2648,11 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>131</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>20</v>
       </c>
       <c r="C8" t="s">
@@ -2768,11 +2680,11 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>131</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>21</v>
       </c>
       <c r="C9" t="s">
@@ -2784,7 +2696,6 @@
       <c r="E9" t="s">
         <v>156</v>
       </c>
-      <c r="F9"/>
       <c r="G9" t="s">
         <v>124</v>
       </c>
@@ -2798,11 +2709,11 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>131</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>22</v>
       </c>
       <c r="C10" t="s">
@@ -2814,7 +2725,6 @@
       <c r="E10" t="s">
         <v>159</v>
       </c>
-      <c r="F10"/>
       <c r="G10" t="s">
         <v>124</v>
       </c>
@@ -2828,11 +2738,11 @@
         <v>161</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>131</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>23</v>
       </c>
       <c r="C11" t="s">
@@ -2844,7 +2754,6 @@
       <c r="E11" t="s">
         <v>164</v>
       </c>
-      <c r="F11"/>
       <c r="G11" t="s">
         <v>124</v>
       </c>
@@ -2858,11 +2767,11 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>165</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>25</v>
       </c>
       <c r="C12" t="s">
@@ -2890,11 +2799,11 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>165</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>26</v>
       </c>
       <c r="C13" t="s">
@@ -2906,7 +2815,6 @@
       <c r="E13" t="s">
         <v>171</v>
       </c>
-      <c r="F13"/>
       <c r="G13" t="s">
         <v>124</v>
       </c>
@@ -2920,11 +2828,11 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>172</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>27</v>
       </c>
       <c r="C14" t="s">
@@ -2952,11 +2860,11 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>172</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>28</v>
       </c>
       <c r="C15" t="s">
@@ -2984,11 +2892,11 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>182</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>29</v>
       </c>
       <c r="C16" t="s">
@@ -3016,11 +2924,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>182</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>30</v>
       </c>
       <c r="C17" t="s">
@@ -3048,11 +2956,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>182</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>31</v>
       </c>
       <c r="C18" t="s">
@@ -3080,11 +2988,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>182</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>32</v>
       </c>
       <c r="C19" t="s">
@@ -3112,11 +3020,11 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>182</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>33</v>
       </c>
       <c r="C20" t="s">
@@ -3144,11 +3052,11 @@
         <v>153</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>182</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>34</v>
       </c>
       <c r="C21" t="s">
@@ -3176,11 +3084,11 @@
         <v>153</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>182</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>35</v>
       </c>
       <c r="C22" t="s">
@@ -3208,11 +3116,11 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>182</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>36</v>
       </c>
       <c r="C23" t="s">
@@ -3240,11 +3148,11 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>210</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>37</v>
       </c>
       <c r="C24" t="s">
@@ -3256,7 +3164,6 @@
       <c r="E24" t="s">
         <v>212</v>
       </c>
-      <c r="F24"/>
       <c r="G24" t="s">
         <v>124</v>
       </c>
@@ -3270,11 +3177,11 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>210</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>38</v>
       </c>
       <c r="C25" t="s">
@@ -3302,11 +3209,11 @@
         <v>217</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>210</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>39</v>
       </c>
       <c r="C26" t="s">
@@ -3334,11 +3241,11 @@
         <v>223</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>210</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>40</v>
       </c>
       <c r="C27" t="s">
@@ -3350,7 +3257,6 @@
       <c r="E27" t="s">
         <v>226</v>
       </c>
-      <c r="F27"/>
       <c r="G27" t="s">
         <v>124</v>
       </c>
@@ -3364,11 +3270,11 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>210</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>41</v>
       </c>
       <c r="C28" t="s">
@@ -3380,7 +3286,6 @@
       <c r="E28" t="s">
         <v>230</v>
       </c>
-      <c r="F28"/>
       <c r="G28" t="s">
         <v>124</v>
       </c>
@@ -3394,11 +3299,11 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>210</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>42</v>
       </c>
       <c r="C29" t="s">
@@ -3410,7 +3315,6 @@
       <c r="E29" t="s">
         <v>232</v>
       </c>
-      <c r="F29"/>
       <c r="G29" t="s">
         <v>124</v>
       </c>
@@ -3426,19 +3330,24 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G112" sqref="G112"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="19.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -3467,8 +3376,8 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -3489,11 +3398,9 @@
       <c r="G2" t="s">
         <v>243</v>
       </c>
-      <c r="H2"/>
-      <c r="I2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -3514,11 +3421,9 @@
       <c r="G3" t="s">
         <v>243</v>
       </c>
-      <c r="H3"/>
-      <c r="I3"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -3539,11 +3444,9 @@
       <c r="G4" t="s">
         <v>243</v>
       </c>
-      <c r="H4"/>
-      <c r="I4"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
@@ -3564,11 +3467,9 @@
       <c r="G5" t="s">
         <v>243</v>
       </c>
-      <c r="H5"/>
-      <c r="I5"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -3589,11 +3490,9 @@
       <c r="G6" t="s">
         <v>243</v>
       </c>
-      <c r="H6"/>
-      <c r="I6"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -3614,11 +3513,9 @@
       <c r="G7" t="s">
         <v>243</v>
       </c>
-      <c r="H7"/>
-      <c r="I7"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
@@ -3639,11 +3536,9 @@
       <c r="G8" t="s">
         <v>243</v>
       </c>
-      <c r="H8"/>
-      <c r="I8"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" t="s">
@@ -3664,11 +3559,9 @@
       <c r="G9" t="s">
         <v>243</v>
       </c>
-      <c r="H9"/>
-      <c r="I9"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>5</v>
       </c>
       <c r="B10" t="s">
@@ -3683,15 +3576,12 @@
       <c r="E10" t="s">
         <v>253</v>
       </c>
-      <c r="F10"/>
       <c r="G10" t="s">
         <v>12</v>
       </c>
-      <c r="H10"/>
-      <c r="I10"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>5</v>
       </c>
       <c r="B11" t="s">
@@ -3706,15 +3596,12 @@
       <c r="E11" t="s">
         <v>254</v>
       </c>
-      <c r="F11"/>
       <c r="G11" t="s">
         <v>12</v>
       </c>
-      <c r="H11"/>
-      <c r="I11"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>5</v>
       </c>
       <c r="B12" t="s">
@@ -3729,15 +3616,12 @@
       <c r="E12" t="s">
         <v>253</v>
       </c>
-      <c r="F12"/>
       <c r="G12" t="s">
         <v>12</v>
       </c>
-      <c r="H12"/>
-      <c r="I12"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>5</v>
       </c>
       <c r="B13" t="s">
@@ -3752,15 +3636,12 @@
       <c r="E13" t="s">
         <v>255</v>
       </c>
-      <c r="F13"/>
       <c r="G13" t="s">
         <v>16</v>
       </c>
-      <c r="H13"/>
-      <c r="I13"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>7</v>
       </c>
       <c r="B14" t="s">
@@ -3775,15 +3656,12 @@
       <c r="E14" t="s">
         <v>256</v>
       </c>
-      <c r="F14"/>
       <c r="G14" t="s">
         <v>12</v>
       </c>
-      <c r="H14"/>
-      <c r="I14"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>7</v>
       </c>
       <c r="B15" t="s">
@@ -3804,11 +3682,9 @@
       <c r="G15" t="s">
         <v>12</v>
       </c>
-      <c r="H15"/>
-      <c r="I15"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>8</v>
       </c>
       <c r="B16" t="s">
@@ -3823,15 +3699,12 @@
       <c r="E16" t="s">
         <v>258</v>
       </c>
-      <c r="F16"/>
       <c r="G16" t="s">
         <v>36</v>
       </c>
-      <c r="H16"/>
-      <c r="I16"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>8</v>
       </c>
       <c r="B17" t="s">
@@ -3852,11 +3725,9 @@
       <c r="G17" t="s">
         <v>36</v>
       </c>
-      <c r="H17"/>
-      <c r="I17"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>8</v>
       </c>
       <c r="B18" t="s">
@@ -3871,15 +3742,12 @@
       <c r="E18" t="s">
         <v>261</v>
       </c>
-      <c r="F18"/>
       <c r="G18" t="s">
         <v>36</v>
       </c>
-      <c r="H18"/>
-      <c r="I18"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>8</v>
       </c>
       <c r="B19" t="s">
@@ -3894,15 +3762,12 @@
       <c r="E19" t="s">
         <v>262</v>
       </c>
-      <c r="F19"/>
       <c r="G19" t="s">
         <v>36</v>
       </c>
-      <c r="H19"/>
-      <c r="I19"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" t="s">
@@ -3930,8 +3795,8 @@
         <v>265</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" t="s">
@@ -3959,8 +3824,8 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>1</v>
       </c>
       <c r="B22" t="s">
@@ -3988,8 +3853,8 @@
         <v>272</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>2</v>
       </c>
       <c r="B23" t="s">
@@ -4004,15 +3869,12 @@
       <c r="E23" t="s">
         <v>273</v>
       </c>
-      <c r="F23"/>
       <c r="G23" t="s">
         <v>12</v>
       </c>
-      <c r="H23"/>
-      <c r="I23"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>2</v>
       </c>
       <c r="B24" t="s">
@@ -4027,15 +3889,12 @@
       <c r="E24" t="s">
         <v>274</v>
       </c>
-      <c r="F24"/>
       <c r="G24" t="s">
         <v>12</v>
       </c>
-      <c r="H24"/>
-      <c r="I24"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>2</v>
       </c>
       <c r="B25" t="s">
@@ -4050,15 +3909,12 @@
       <c r="E25" t="s">
         <v>275</v>
       </c>
-      <c r="F25"/>
       <c r="G25" t="s">
         <v>12</v>
       </c>
-      <c r="H25"/>
-      <c r="I25"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>2</v>
       </c>
       <c r="B26" t="s">
@@ -4079,11 +3935,9 @@
       <c r="G26" t="s">
         <v>12</v>
       </c>
-      <c r="H26"/>
-      <c r="I26"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27">
         <v>3</v>
       </c>
       <c r="B27" t="s">
@@ -4098,15 +3952,12 @@
       <c r="E27" t="s">
         <v>278</v>
       </c>
-      <c r="F27"/>
       <c r="G27" t="s">
         <v>12</v>
       </c>
-      <c r="H27"/>
-      <c r="I27"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>3</v>
       </c>
       <c r="B28" t="s">
@@ -4121,15 +3972,12 @@
       <c r="E28" t="s">
         <v>279</v>
       </c>
-      <c r="F28"/>
       <c r="G28" t="s">
         <v>12</v>
       </c>
-      <c r="H28"/>
-      <c r="I28"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29">
         <v>3</v>
       </c>
       <c r="B29" t="s">
@@ -4144,15 +3992,12 @@
       <c r="E29" t="s">
         <v>279</v>
       </c>
-      <c r="F29"/>
       <c r="G29" t="s">
         <v>12</v>
       </c>
-      <c r="H29"/>
-      <c r="I29"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30">
         <v>3</v>
       </c>
       <c r="B30" t="s">
@@ -4167,15 +4012,12 @@
       <c r="E30" t="s">
         <v>280</v>
       </c>
-      <c r="F30"/>
       <c r="G30" t="s">
         <v>16</v>
       </c>
-      <c r="H30"/>
-      <c r="I30"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31">
         <v>12</v>
       </c>
       <c r="B31" t="s">
@@ -4190,17 +4032,15 @@
       <c r="E31" t="s">
         <v>281</v>
       </c>
-      <c r="F31"/>
       <c r="G31" t="s">
         <v>282</v>
       </c>
       <c r="H31" t="s">
         <v>283</v>
       </c>
-      <c r="I31"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32">
         <v>12</v>
       </c>
       <c r="B32" t="s">
@@ -4213,19 +4053,17 @@
         <v>244</v>
       </c>
       <c r="E32" t="s">
-        <v>284</v>
-      </c>
-      <c r="F32"/>
+        <v>409</v>
+      </c>
       <c r="G32" t="s">
         <v>282</v>
       </c>
       <c r="H32" t="s">
-        <v>285</v>
-      </c>
-      <c r="I32"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33">
         <v>14</v>
       </c>
       <c r="B33" t="s">
@@ -4238,21 +4076,20 @@
         <v>244</v>
       </c>
       <c r="E33" t="s">
+        <v>285</v>
+      </c>
+      <c r="G33" t="s">
+        <v>243</v>
+      </c>
+      <c r="H33" t="s">
         <v>286</v>
       </c>
-      <c r="F33"/>
-      <c r="G33" t="s">
-        <v>243</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>287</v>
       </c>
-      <c r="I33" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34">
         <v>14</v>
       </c>
       <c r="B34" t="s">
@@ -4265,9 +4102,8 @@
         <v>246</v>
       </c>
       <c r="E34" t="s">
-        <v>289</v>
-      </c>
-      <c r="F34"/>
+        <v>288</v>
+      </c>
       <c r="G34" t="s">
         <v>243</v>
       </c>
@@ -4275,11 +4111,11 @@
         <v>267</v>
       </c>
       <c r="I34" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35">
         <v>14</v>
       </c>
       <c r="B35" t="s">
@@ -4295,20 +4131,20 @@
         <v>121</v>
       </c>
       <c r="F35" t="s">
+        <v>290</v>
+      </c>
+      <c r="G35" t="s">
+        <v>243</v>
+      </c>
+      <c r="H35" t="s">
         <v>291</v>
-      </c>
-      <c r="G35" t="s">
-        <v>243</v>
-      </c>
-      <c r="H35" t="s">
-        <v>292</v>
       </c>
       <c r="I35" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36">
         <v>15</v>
       </c>
       <c r="B36" t="s">
@@ -4323,15 +4159,12 @@
       <c r="E36" t="s">
         <v>127</v>
       </c>
-      <c r="F36"/>
       <c r="G36" t="s">
-        <v>293</v>
-      </c>
-      <c r="H36"/>
-      <c r="I36"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37">
         <v>15</v>
       </c>
       <c r="B37" t="s">
@@ -4344,17 +4177,14 @@
         <v>244</v>
       </c>
       <c r="E37" t="s">
-        <v>294</v>
-      </c>
-      <c r="F37"/>
+        <v>293</v>
+      </c>
       <c r="G37" t="s">
-        <v>293</v>
-      </c>
-      <c r="H37"/>
-      <c r="I37"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38">
         <v>15</v>
       </c>
       <c r="B38" t="s">
@@ -4367,17 +4197,14 @@
         <v>246</v>
       </c>
       <c r="E38" t="s">
-        <v>295</v>
-      </c>
-      <c r="F38"/>
+        <v>294</v>
+      </c>
       <c r="G38" t="s">
         <v>243</v>
       </c>
-      <c r="H38"/>
-      <c r="I38"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39">
         <v>16</v>
       </c>
       <c r="B39" t="s">
@@ -4390,23 +4217,23 @@
         <v>240</v>
       </c>
       <c r="E39" t="s">
+        <v>295</v>
+      </c>
+      <c r="F39" t="s">
+        <v>290</v>
+      </c>
+      <c r="G39" t="s">
+        <v>243</v>
+      </c>
+      <c r="H39" t="s">
         <v>296</v>
       </c>
-      <c r="F39" t="s">
-        <v>291</v>
-      </c>
-      <c r="G39" t="s">
-        <v>243</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>297</v>
       </c>
-      <c r="I39" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40">
         <v>16</v>
       </c>
       <c r="B40" t="s">
@@ -4419,23 +4246,23 @@
         <v>246</v>
       </c>
       <c r="E40" t="s">
+        <v>298</v>
+      </c>
+      <c r="F40" t="s">
+        <v>290</v>
+      </c>
+      <c r="G40" t="s">
+        <v>243</v>
+      </c>
+      <c r="H40" t="s">
         <v>299</v>
       </c>
-      <c r="F40" t="s">
-        <v>291</v>
-      </c>
-      <c r="G40" t="s">
-        <v>243</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>300</v>
       </c>
-      <c r="I40" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41">
         <v>16</v>
       </c>
       <c r="B41" t="s">
@@ -4448,23 +4275,23 @@
         <v>248</v>
       </c>
       <c r="E41" t="s">
+        <v>301</v>
+      </c>
+      <c r="F41" t="s">
+        <v>290</v>
+      </c>
+      <c r="G41" t="s">
+        <v>243</v>
+      </c>
+      <c r="H41" t="s">
         <v>302</v>
       </c>
-      <c r="F41" t="s">
-        <v>291</v>
-      </c>
-      <c r="G41" t="s">
-        <v>243</v>
-      </c>
-      <c r="H41" t="s">
-        <v>303</v>
-      </c>
       <c r="I41" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42">
         <v>17</v>
       </c>
       <c r="B42" t="s">
@@ -4477,7 +4304,7 @@
         <v>240</v>
       </c>
       <c r="E42" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F42" t="s">
         <v>135</v>
@@ -4486,14 +4313,14 @@
         <v>243</v>
       </c>
       <c r="H42" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I42" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43">
         <v>17</v>
       </c>
       <c r="B43" t="s">
@@ -4506,7 +4333,7 @@
         <v>244</v>
       </c>
       <c r="E43" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F43" t="s">
         <v>135</v>
@@ -4515,14 +4342,14 @@
         <v>243</v>
       </c>
       <c r="H43" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I43" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44">
         <v>17</v>
       </c>
       <c r="B44" t="s">
@@ -4535,7 +4362,7 @@
         <v>246</v>
       </c>
       <c r="E44" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F44" t="s">
         <v>135</v>
@@ -4544,14 +4371,14 @@
         <v>243</v>
       </c>
       <c r="H44" t="s">
+        <v>308</v>
+      </c>
+      <c r="I44" t="s">
         <v>309</v>
       </c>
-      <c r="I44" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45">
         <v>18</v>
       </c>
       <c r="B45" t="s">
@@ -4564,7 +4391,7 @@
         <v>240</v>
       </c>
       <c r="E45" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F45" t="s">
         <v>135</v>
@@ -4573,14 +4400,14 @@
         <v>243</v>
       </c>
       <c r="H45" t="s">
+        <v>311</v>
+      </c>
+      <c r="I45" t="s">
         <v>312</v>
       </c>
-      <c r="I45" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46">
         <v>18</v>
       </c>
       <c r="B46" t="s">
@@ -4593,7 +4420,7 @@
         <v>244</v>
       </c>
       <c r="E46" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F46" t="s">
         <v>135</v>
@@ -4602,14 +4429,14 @@
         <v>243</v>
       </c>
       <c r="H46" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I46" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47">
         <v>18</v>
       </c>
       <c r="B47" t="s">
@@ -4622,7 +4449,7 @@
         <v>246</v>
       </c>
       <c r="E47" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F47" t="s">
         <v>135</v>
@@ -4631,14 +4458,14 @@
         <v>243</v>
       </c>
       <c r="H47" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I47" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48">
         <v>18</v>
       </c>
       <c r="B48" t="s">
@@ -4651,7 +4478,7 @@
         <v>248</v>
       </c>
       <c r="E48" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F48" t="s">
         <v>135</v>
@@ -4660,14 +4487,14 @@
         <v>243</v>
       </c>
       <c r="H48" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I48" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49">
         <v>20</v>
       </c>
       <c r="B49" t="s">
@@ -4680,21 +4507,20 @@
         <v>240</v>
       </c>
       <c r="E49" t="s">
+        <v>319</v>
+      </c>
+      <c r="F49" t="s">
         <v>320</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
+        <v>243</v>
+      </c>
+      <c r="H49" t="s">
         <v>321</v>
       </c>
-      <c r="G49" t="s">
-        <v>243</v>
-      </c>
-      <c r="H49" t="s">
-        <v>322</v>
-      </c>
-      <c r="I49"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50">
         <v>20</v>
       </c>
       <c r="B50" t="s">
@@ -4707,7 +4533,7 @@
         <v>244</v>
       </c>
       <c r="E50" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F50" t="s">
         <v>152</v>
@@ -4716,14 +4542,14 @@
         <v>243</v>
       </c>
       <c r="H50" t="s">
+        <v>323</v>
+      </c>
+      <c r="I50" t="s">
         <v>324</v>
       </c>
-      <c r="I50" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51">
         <v>20</v>
       </c>
       <c r="B51" t="s">
@@ -4736,7 +4562,7 @@
         <v>246</v>
       </c>
       <c r="E51" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F51" t="s">
         <v>152</v>
@@ -4745,14 +4571,14 @@
         <v>243</v>
       </c>
       <c r="H51" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I51" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52">
         <v>20</v>
       </c>
       <c r="B52" t="s">
@@ -4774,14 +4600,14 @@
         <v>243</v>
       </c>
       <c r="H52" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I52" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53">
         <v>21</v>
       </c>
       <c r="B53" t="s">
@@ -4794,7 +4620,7 @@
         <v>244</v>
       </c>
       <c r="E53" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F53" t="s">
         <v>135</v>
@@ -4803,14 +4629,14 @@
         <v>243</v>
       </c>
       <c r="H53" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I53" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54">
         <v>21</v>
       </c>
       <c r="B54" t="s">
@@ -4823,23 +4649,23 @@
         <v>246</v>
       </c>
       <c r="E54" t="s">
+        <v>328</v>
+      </c>
+      <c r="F54" t="s">
         <v>329</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
+        <v>243</v>
+      </c>
+      <c r="H54" t="s">
         <v>330</v>
       </c>
-      <c r="G54" t="s">
-        <v>243</v>
-      </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>331</v>
       </c>
-      <c r="I54" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55">
         <v>22</v>
       </c>
       <c r="B55" t="s">
@@ -4852,7 +4678,7 @@
         <v>240</v>
       </c>
       <c r="E55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F55" t="s">
         <v>135</v>
@@ -4861,12 +4687,11 @@
         <v>243</v>
       </c>
       <c r="H55" t="s">
-        <v>287</v>
-      </c>
-      <c r="I55"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56">
         <v>22</v>
       </c>
       <c r="B56" t="s">
@@ -4879,7 +4704,7 @@
         <v>244</v>
       </c>
       <c r="E56" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F56" t="s">
         <v>135</v>
@@ -4888,12 +4713,11 @@
         <v>243</v>
       </c>
       <c r="H56" t="s">
-        <v>335</v>
-      </c>
-      <c r="I56"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57">
         <v>22</v>
       </c>
       <c r="B57" t="s">
@@ -4906,7 +4730,7 @@
         <v>246</v>
       </c>
       <c r="E57" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F57" t="s">
         <v>135</v>
@@ -4917,10 +4741,9 @@
       <c r="H57" t="s">
         <v>267</v>
       </c>
-      <c r="I57"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58">
         <v>22</v>
       </c>
       <c r="B58" t="s">
@@ -4933,7 +4756,7 @@
         <v>248</v>
       </c>
       <c r="E58" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F58" t="s">
         <v>135</v>
@@ -4942,12 +4765,11 @@
         <v>243</v>
       </c>
       <c r="H58" t="s">
-        <v>292</v>
-      </c>
-      <c r="I58"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59">
         <v>23</v>
       </c>
       <c r="B59" t="s">
@@ -4960,7 +4782,7 @@
         <v>240</v>
       </c>
       <c r="E59" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F59" t="s">
         <v>135</v>
@@ -4969,14 +4791,14 @@
         <v>243</v>
       </c>
       <c r="H59" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I59" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60">
         <v>23</v>
       </c>
       <c r="B60" t="s">
@@ -4989,7 +4811,7 @@
         <v>244</v>
       </c>
       <c r="E60" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F60" t="s">
         <v>135</v>
@@ -5001,11 +4823,11 @@
         <v>264</v>
       </c>
       <c r="I60" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61">
         <v>23</v>
       </c>
       <c r="B61" t="s">
@@ -5018,7 +4840,7 @@
         <v>246</v>
       </c>
       <c r="E61" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F61" t="s">
         <v>135</v>
@@ -5030,11 +4852,11 @@
         <v>267</v>
       </c>
       <c r="I61" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62">
         <v>25</v>
       </c>
       <c r="B62" t="s">
@@ -5047,7 +4869,7 @@
         <v>240</v>
       </c>
       <c r="E62" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F62" t="s">
         <v>152</v>
@@ -5056,14 +4878,14 @@
         <v>243</v>
       </c>
       <c r="H62" t="s">
+        <v>342</v>
+      </c>
+      <c r="I62" t="s">
         <v>343</v>
       </c>
-      <c r="I62" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63">
         <v>25</v>
       </c>
       <c r="B63" t="s">
@@ -5076,7 +4898,7 @@
         <v>244</v>
       </c>
       <c r="E63" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F63" t="s">
         <v>152</v>
@@ -5085,14 +4907,14 @@
         <v>243</v>
       </c>
       <c r="H63" t="s">
+        <v>345</v>
+      </c>
+      <c r="I63" t="s">
         <v>346</v>
       </c>
-      <c r="I63" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64">
         <v>25</v>
       </c>
       <c r="B64" t="s">
@@ -5105,7 +4927,7 @@
         <v>248</v>
       </c>
       <c r="E64" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F64" t="s">
         <v>152</v>
@@ -5114,14 +4936,14 @@
         <v>243</v>
       </c>
       <c r="H64" t="s">
+        <v>348</v>
+      </c>
+      <c r="I64" t="s">
         <v>349</v>
       </c>
-      <c r="I64" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65">
         <v>26</v>
       </c>
       <c r="B65" t="s">
@@ -5134,7 +4956,7 @@
         <v>240</v>
       </c>
       <c r="E65" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F65" t="s">
         <v>135</v>
@@ -5143,14 +4965,14 @@
         <v>243</v>
       </c>
       <c r="H65" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I65" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66">
         <v>26</v>
       </c>
       <c r="B66" t="s">
@@ -5163,7 +4985,7 @@
         <v>244</v>
       </c>
       <c r="E66" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F66" t="s">
         <v>135</v>
@@ -5172,14 +4994,14 @@
         <v>243</v>
       </c>
       <c r="H66" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I66" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67">
         <v>26</v>
       </c>
       <c r="B67" t="s">
@@ -5192,7 +5014,7 @@
         <v>248</v>
       </c>
       <c r="E67" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F67" t="s">
         <v>135</v>
@@ -5201,14 +5023,14 @@
         <v>243</v>
       </c>
       <c r="H67" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I67" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68">
         <v>27</v>
       </c>
       <c r="B68" t="s">
@@ -5221,7 +5043,7 @@
         <v>244</v>
       </c>
       <c r="E68" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F68" t="s">
         <v>177</v>
@@ -5230,12 +5052,11 @@
         <v>243</v>
       </c>
       <c r="H68" t="s">
-        <v>356</v>
-      </c>
-      <c r="I68"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69">
         <v>27</v>
       </c>
       <c r="B69" t="s">
@@ -5257,12 +5078,11 @@
         <v>243</v>
       </c>
       <c r="H69" t="s">
-        <v>356</v>
-      </c>
-      <c r="I69"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70">
         <v>28</v>
       </c>
       <c r="B70" t="s">
@@ -5275,7 +5095,7 @@
         <v>244</v>
       </c>
       <c r="E70" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F70" t="s">
         <v>152</v>
@@ -5284,14 +5104,14 @@
         <v>243</v>
       </c>
       <c r="H70" t="s">
+        <v>357</v>
+      </c>
+      <c r="I70" t="s">
         <v>358</v>
       </c>
-      <c r="I70" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71">
         <v>28</v>
       </c>
       <c r="B71" t="s">
@@ -5304,7 +5124,7 @@
         <v>248</v>
       </c>
       <c r="E71" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F71" t="s">
         <v>152</v>
@@ -5313,14 +5133,14 @@
         <v>243</v>
       </c>
       <c r="H71" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I71" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72">
         <v>29</v>
       </c>
       <c r="B72" t="s">
@@ -5342,14 +5162,14 @@
         <v>243</v>
       </c>
       <c r="H72" t="s">
+        <v>360</v>
+      </c>
+      <c r="I72" t="s">
         <v>361</v>
       </c>
-      <c r="I72" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73">
         <v>29</v>
       </c>
       <c r="B73" t="s">
@@ -5371,14 +5191,14 @@
         <v>243</v>
       </c>
       <c r="H73" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I73" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74">
         <v>30</v>
       </c>
       <c r="B74" t="s">
@@ -5400,14 +5220,14 @@
         <v>243</v>
       </c>
       <c r="H74" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I74" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75">
         <v>30</v>
       </c>
       <c r="B75" t="s">
@@ -5429,14 +5249,14 @@
         <v>243</v>
       </c>
       <c r="H75" t="s">
+        <v>360</v>
+      </c>
+      <c r="I75" t="s">
         <v>361</v>
       </c>
-      <c r="I75" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76">
         <v>30</v>
       </c>
       <c r="B76" t="s">
@@ -5449,21 +5269,20 @@
         <v>246</v>
       </c>
       <c r="E76" t="s">
+        <v>363</v>
+      </c>
+      <c r="G76" t="s">
+        <v>243</v>
+      </c>
+      <c r="H76" t="s">
         <v>364</v>
       </c>
-      <c r="F76"/>
-      <c r="G76" t="s">
-        <v>243</v>
-      </c>
-      <c r="H76" t="s">
-        <v>365</v>
-      </c>
       <c r="I76" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77">
         <v>30</v>
       </c>
       <c r="B77" t="s">
@@ -5485,14 +5304,14 @@
         <v>243</v>
       </c>
       <c r="H77" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I77" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78">
         <v>31</v>
       </c>
       <c r="B78" t="s">
@@ -5514,14 +5333,14 @@
         <v>243</v>
       </c>
       <c r="H78" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I78" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79">
         <v>31</v>
       </c>
       <c r="B79" t="s">
@@ -5543,14 +5362,14 @@
         <v>243</v>
       </c>
       <c r="H79" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I79" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80">
         <v>32</v>
       </c>
       <c r="B80" t="s">
@@ -5563,7 +5382,7 @@
         <v>240</v>
       </c>
       <c r="E80" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F80" t="s">
         <v>152</v>
@@ -5572,14 +5391,14 @@
         <v>243</v>
       </c>
       <c r="H80" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I80" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="n">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81">
         <v>32</v>
       </c>
       <c r="B81" t="s">
@@ -5592,23 +5411,23 @@
         <v>246</v>
       </c>
       <c r="E81" t="s">
+        <v>367</v>
+      </c>
+      <c r="F81" t="s">
         <v>368</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
+        <v>243</v>
+      </c>
+      <c r="H81" t="s">
+        <v>364</v>
+      </c>
+      <c r="I81" t="s">
         <v>369</v>
       </c>
-      <c r="G81" t="s">
-        <v>243</v>
-      </c>
-      <c r="H81" t="s">
-        <v>365</v>
-      </c>
-      <c r="I81" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82">
         <v>33</v>
       </c>
       <c r="B82" t="s">
@@ -5621,7 +5440,7 @@
         <v>240</v>
       </c>
       <c r="E82" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F82" t="s">
         <v>152</v>
@@ -5630,14 +5449,14 @@
         <v>243</v>
       </c>
       <c r="H82" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I82" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83">
         <v>33</v>
       </c>
       <c r="B83" t="s">
@@ -5650,7 +5469,7 @@
         <v>244</v>
       </c>
       <c r="E83" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F83" t="s">
         <v>152</v>
@@ -5659,14 +5478,14 @@
         <v>243</v>
       </c>
       <c r="H83" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I83" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84">
         <v>33</v>
       </c>
       <c r="B84" t="s">
@@ -5679,23 +5498,23 @@
         <v>246</v>
       </c>
       <c r="E84" t="s">
+        <v>374</v>
+      </c>
+      <c r="F84" t="s">
         <v>375</v>
       </c>
-      <c r="F84" t="s">
-        <v>376</v>
-      </c>
       <c r="G84" t="s">
         <v>243</v>
       </c>
       <c r="H84" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I84" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85">
         <v>34</v>
       </c>
       <c r="B85" t="s">
@@ -5708,7 +5527,7 @@
         <v>240</v>
       </c>
       <c r="E85" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F85" t="s">
         <v>152</v>
@@ -5717,14 +5536,14 @@
         <v>243</v>
       </c>
       <c r="H85" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I85" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86">
         <v>34</v>
       </c>
       <c r="B86" t="s">
@@ -5737,7 +5556,7 @@
         <v>244</v>
       </c>
       <c r="E86" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F86" t="s">
         <v>152</v>
@@ -5746,14 +5565,14 @@
         <v>243</v>
       </c>
       <c r="H86" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I86" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87">
         <v>35</v>
       </c>
       <c r="B87" t="s">
@@ -5766,7 +5585,7 @@
         <v>240</v>
       </c>
       <c r="E87" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F87" t="s">
         <v>152</v>
@@ -5775,14 +5594,14 @@
         <v>243</v>
       </c>
       <c r="H87" t="s">
+        <v>379</v>
+      </c>
+      <c r="I87" t="s">
         <v>380</v>
       </c>
-      <c r="I87" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88">
         <v>35</v>
       </c>
       <c r="B88" t="s">
@@ -5795,7 +5614,7 @@
         <v>244</v>
       </c>
       <c r="E88" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F88" t="s">
         <v>152</v>
@@ -5804,14 +5623,14 @@
         <v>243</v>
       </c>
       <c r="H88" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I88" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89">
         <v>35</v>
       </c>
       <c r="B89" t="s">
@@ -5824,7 +5643,7 @@
         <v>248</v>
       </c>
       <c r="E89" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F89" t="s">
         <v>152</v>
@@ -5833,14 +5652,14 @@
         <v>243</v>
       </c>
       <c r="H89" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I89" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90">
         <v>36</v>
       </c>
       <c r="B90" t="s">
@@ -5853,7 +5672,7 @@
         <v>244</v>
       </c>
       <c r="E90" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F90" t="s">
         <v>152</v>
@@ -5862,14 +5681,14 @@
         <v>243</v>
       </c>
       <c r="H90" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I90" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91">
         <v>36</v>
       </c>
       <c r="B91" t="s">
@@ -5882,7 +5701,7 @@
         <v>248</v>
       </c>
       <c r="E91" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F91" t="s">
         <v>152</v>
@@ -5891,14 +5710,14 @@
         <v>243</v>
       </c>
       <c r="H91" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I91" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92">
         <v>37</v>
       </c>
       <c r="B92" t="s">
@@ -5911,23 +5730,23 @@
         <v>246</v>
       </c>
       <c r="E92" t="s">
+        <v>385</v>
+      </c>
+      <c r="F92" t="s">
         <v>386</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
+        <v>243</v>
+      </c>
+      <c r="H92" t="s">
         <v>387</v>
-      </c>
-      <c r="G92" t="s">
-        <v>243</v>
-      </c>
-      <c r="H92" t="s">
-        <v>388</v>
       </c>
       <c r="I92" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="n">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93">
         <v>37</v>
       </c>
       <c r="B93" t="s">
@@ -5940,23 +5759,23 @@
         <v>248</v>
       </c>
       <c r="E93" t="s">
+        <v>388</v>
+      </c>
+      <c r="F93" t="s">
         <v>389</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
+        <v>243</v>
+      </c>
+      <c r="H93" t="s">
         <v>390</v>
-      </c>
-      <c r="G93" t="s">
-        <v>243</v>
-      </c>
-      <c r="H93" t="s">
-        <v>391</v>
       </c>
       <c r="I93" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="n">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94">
         <v>38</v>
       </c>
       <c r="B94" t="s">
@@ -5972,20 +5791,20 @@
         <v>214</v>
       </c>
       <c r="F94" t="s">
+        <v>391</v>
+      </c>
+      <c r="G94" t="s">
+        <v>243</v>
+      </c>
+      <c r="H94" t="s">
         <v>392</v>
       </c>
-      <c r="G94" t="s">
-        <v>243</v>
-      </c>
-      <c r="H94" t="s">
-        <v>393</v>
-      </c>
       <c r="I94" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95">
         <v>39</v>
       </c>
       <c r="B95" t="s">
@@ -6001,20 +5820,20 @@
         <v>218</v>
       </c>
       <c r="F95" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G95" t="s">
         <v>243</v>
       </c>
       <c r="H95" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I95" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96">
         <v>39</v>
       </c>
       <c r="B96" t="s">
@@ -6027,7 +5846,7 @@
         <v>246</v>
       </c>
       <c r="E96" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F96" t="s">
         <v>222</v>
@@ -6036,14 +5855,14 @@
         <v>243</v>
       </c>
       <c r="H96" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I96" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="n">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97">
         <v>40</v>
       </c>
       <c r="B97" t="s">
@@ -6059,20 +5878,20 @@
         <v>224</v>
       </c>
       <c r="F97" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G97" t="s">
         <v>243</v>
       </c>
       <c r="H97" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I97" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="n">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98">
         <v>40</v>
       </c>
       <c r="B98" t="s">
@@ -6085,7 +5904,7 @@
         <v>246</v>
       </c>
       <c r="E98" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F98" t="s">
         <v>227</v>
@@ -6094,14 +5913,14 @@
         <v>243</v>
       </c>
       <c r="H98" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I98" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="n">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99">
         <v>41</v>
       </c>
       <c r="B99" t="s">
@@ -6117,20 +5936,20 @@
         <v>228</v>
       </c>
       <c r="F99" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G99" t="s">
         <v>243</v>
       </c>
       <c r="H99" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I99" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="n">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100">
         <v>41</v>
       </c>
       <c r="B100" t="s">
@@ -6143,7 +5962,7 @@
         <v>246</v>
       </c>
       <c r="E100" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F100" t="s">
         <v>227</v>
@@ -6152,14 +5971,14 @@
         <v>243</v>
       </c>
       <c r="H100" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I100" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="n">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101">
         <v>42</v>
       </c>
       <c r="B101" t="s">
@@ -6172,7 +5991,7 @@
         <v>244</v>
       </c>
       <c r="E101" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F101" t="s">
         <v>233</v>
@@ -6181,12 +6000,11 @@
         <v>243</v>
       </c>
       <c r="H101" t="s">
-        <v>402</v>
-      </c>
-      <c r="I101"/>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102">
         <v>42</v>
       </c>
       <c r="B102" t="s">
@@ -6199,24 +6017,22 @@
         <v>246</v>
       </c>
       <c r="E102" t="s">
+        <v>402</v>
+      </c>
+      <c r="G102" t="s">
+        <v>243</v>
+      </c>
+      <c r="H102" t="s">
         <v>403</v>
-      </c>
-      <c r="F102"/>
-      <c r="G102" t="s">
-        <v>243</v>
-      </c>
-      <c r="H102" t="s">
-        <v>404</v>
       </c>
       <c r="I102" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="n">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103">
         <v>66</v>
       </c>
-      <c r="B103"/>
       <c r="C103" t="s">
         <v>282</v>
       </c>
@@ -6224,17 +6040,14 @@
         <v>244</v>
       </c>
       <c r="E103" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F103" t="s">
         <v>126</v>
       </c>
-      <c r="G103"/>
-      <c r="H103"/>
-      <c r="I103"/>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A104">
         <v>93</v>
       </c>
       <c r="B104" t="s">
@@ -6247,19 +6060,17 @@
         <v>240</v>
       </c>
       <c r="E104" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F104" t="s">
         <v>92</v>
       </c>
       <c r="G104" t="s">
-        <v>407</v>
-      </c>
-      <c r="H104"/>
-      <c r="I104"/>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A105">
         <v>93</v>
       </c>
       <c r="B105" t="s">
@@ -6272,19 +6083,17 @@
         <v>246</v>
       </c>
       <c r="E105" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F105" t="s">
         <v>92</v>
       </c>
       <c r="G105" t="s">
-        <v>293</v>
-      </c>
-      <c r="H105"/>
-      <c r="I105"/>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A106">
         <v>93</v>
       </c>
       <c r="B106" t="s">
@@ -6297,7 +6106,7 @@
         <v>248</v>
       </c>
       <c r="E106" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F106" t="s">
         <v>92</v>
@@ -6305,11 +6114,10 @@
       <c r="G106" t="s">
         <v>16</v>
       </c>
-      <c r="H106"/>
-      <c r="I106"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I106" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Tables/StreamHabitatSpecifications.xlsx
+++ b/Tables/StreamHabitatSpecifications.xlsx
@@ -1,1270 +1,1260 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rscully\Documents\Projects\Habitat Data Sharing\2019_2020\Code\Stream-Monitoring-Data-Exchange-Specifications\Tables\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC2E6AC-F9C7-48E9-ABDD-0ACE5D3505EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="RecordLevel" sheetId="1" r:id="rId1"/>
-    <sheet name="Location" sheetId="2" r:id="rId2"/>
-    <sheet name="Event" sheetId="3" r:id="rId3"/>
-    <sheet name="MeasurementorFact" sheetId="4" r:id="rId4"/>
-    <sheet name="metricControlledVocabulary" sheetId="5" r:id="rId5"/>
-    <sheet name="Crosswalk" sheetId="6" r:id="rId6"/>
+    <sheet name="RecordLevel" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Location" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Event" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="MeasurementorFact" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="metricControlledVocabulary" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Crosswalk" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Crosswalk!$A$1:$I$106</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="410">
-  <si>
-    <t>tblname</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>definition</t>
-  </si>
-  <si>
-    <t>rdommin</t>
-  </si>
-  <si>
-    <t>rdommax</t>
-  </si>
-  <si>
-    <t>dataType</t>
-  </si>
-  <si>
-    <t>examples</t>
-  </si>
-  <si>
-    <t>standard</t>
-  </si>
-  <si>
-    <t>RecordLevel</t>
-  </si>
-  <si>
-    <t>Comma Separated Value (CSV) file containing information about the originating source datasets from Monitoring Programs for the Stream Habitat Metric Integration project. This table corresponds to the RecordLevel table in the database (.accdb) file.</t>
-  </si>
-  <si>
-    <t>bibilographicCitation</t>
-  </si>
-  <si>
-    <t>A bibliographic reference for the resource as a statement indicating how this record should be cited (attributed) when used.</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>Darwin Core</t>
-  </si>
-  <si>
-    <t>datasetID</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to the originating source data's program.</t>
-  </si>
-  <si>
-    <t>Integer</t>
-  </si>
-  <si>
-    <t>datasetLink</t>
-  </si>
-  <si>
-    <t>A URL identifier for the collection or dataset from which the record was derived. The source location for the originating source data.</t>
-  </si>
-  <si>
-    <t>https://www.epa.gov/national-aquatic-resource-surveys</t>
-  </si>
-  <si>
-    <t>Producer defned</t>
-  </si>
-  <si>
-    <t>datasetName</t>
-  </si>
-  <si>
-    <t>The name of the originating data set from which the record was derived.</t>
-  </si>
-  <si>
-    <t>EPA NARS 2018 dataset</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>The nature or genre of the resource. The type of data obtained from the originating dataset, including water chemistry (including but not limited to pH) and physical habitat (including but not limited to channel dimensions and characteristics).</t>
-  </si>
-  <si>
-    <t>Water Quality and Physical Habitat Structure</t>
-  </si>
-  <si>
-    <t>institutionCode</t>
-  </si>
-  <si>
-    <t>The name (or acronym) in use by the institution having custody of the object(s) or information referred to in the record.</t>
-  </si>
-  <si>
-    <t>BLM,  EPA, USFS</t>
-  </si>
-  <si>
-    <t>metadataID</t>
-  </si>
-  <si>
-    <t>A URL identifier for the metadata for the originating source dataset.</t>
-  </si>
-  <si>
-    <t>ODM2</t>
-  </si>
-  <si>
-    <t>modified</t>
-  </si>
-  <si>
-    <t>The most recent calendar date on which the datasets were modified or combined as part of the integrated dataset.</t>
-  </si>
-  <si>
-    <t>2021-11-16</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>preProcessingCode</t>
-  </si>
-  <si>
-    <t>URL identifier for access to the code used to pre-process (download, standardize and tidy) the data sets before integration into the Stream Habitat Integrated Dataset.</t>
-  </si>
-  <si>
-    <t>projectCode</t>
-  </si>
-  <si>
-    <t>The acronym of the name assigned by the Institution (project leader or principal investigator) to the project, from wich the source data originates from.</t>
-  </si>
-  <si>
-    <t>PIBO, AIM, USFS, NRSA</t>
-  </si>
-  <si>
-    <t>projectName</t>
-  </si>
-  <si>
-    <t>The name assigned by the Institution (project leader or principal investigator) to the project, from wich the source data originates from.</t>
-  </si>
-  <si>
-    <t>USFS PacFish/InFish Biological Opinion Monitoring Program</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Comma Separated Value (CSV) file containing location data for the Integrated Stream Habitat Data. This table corresponds to the 'Location' table in the database (.accdb) file.</t>
-  </si>
-  <si>
-    <t>A unique numeric identifier assigned to the originating source data's program.</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>The geographic latitude (WGS84) of the geographic center of a location.</t>
-  </si>
-  <si>
-    <t>25.848932980000001</t>
-  </si>
-  <si>
-    <t>71.268600000000006</t>
-  </si>
-  <si>
-    <t>Float</t>
-  </si>
-  <si>
-    <t>locationID</t>
-  </si>
-  <si>
-    <t>Unique global identifier assigned to the location where the event occurred.</t>
-  </si>
-  <si>
-    <t>5483AIM, 88963AREMP, WtR563EPA</t>
-  </si>
-  <si>
-    <t>locationRemarks</t>
-  </si>
-  <si>
-    <t>Comments or notes about the Location.</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
-    <t>The geographic longitude (WGS84) of the geographic center of a location.</t>
-  </si>
-  <si>
-    <t>-163.74230800000001</t>
-  </si>
-  <si>
-    <t>-67.498393539999995</t>
-  </si>
-  <si>
-    <t>verbatimLocationID</t>
-  </si>
-  <si>
-    <t>The verbatim location ID from the originating source dataset assigned by the monitoring program.</t>
-  </si>
-  <si>
-    <t>5483, 88693. WtR563</t>
-  </si>
-  <si>
-    <t>siteSelectionType</t>
-  </si>
-  <si>
-    <t>Specifies whether the site was a part of a probabilistic random design (Random) or whether it was selected as a targeted site to address a specific management concern (Targeted)</t>
-  </si>
-  <si>
-    <t>Randome</t>
-  </si>
-  <si>
-    <t>waterBody</t>
-  </si>
-  <si>
-    <t>The name of the water body in which the location occurs.</t>
-  </si>
-  <si>
-    <t>Event</t>
-  </si>
-  <si>
-    <t>Comma Separated Value (CSV) file containing Event data for the Integrated Stream Habitat Data. This table corresponds to the 'Event' table in the database (.accdb) file.</t>
-  </si>
-  <si>
-    <t>eventDate</t>
-  </si>
-  <si>
-    <t>The calendar date of the event.</t>
-  </si>
-  <si>
-    <t>2000-05-20</t>
-  </si>
-  <si>
-    <t>2020-10-20</t>
-  </si>
-  <si>
-    <t>eventID</t>
-  </si>
-  <si>
-    <t>Global unique identifier assigned to an Event (something that occurs at a place and time, such as a survey or measurement).</t>
-  </si>
-  <si>
-    <t>FFFE9F28-60DB-40C0-B9C0-4AFC753A9880, 10002-PIBO</t>
-  </si>
-  <si>
-    <t>eventRemarks</t>
-  </si>
-  <si>
-    <t>Comments or notes about the Event. The description of flow for the reach flow, partial flow or dry.</t>
-  </si>
-  <si>
-    <t>fieldNotes</t>
-  </si>
-  <si>
-    <t>One of notes taken in the field about the Event.</t>
-  </si>
-  <si>
-    <t>dry, wet</t>
-  </si>
-  <si>
-    <t>samplingProtocol</t>
-  </si>
-  <si>
-    <t>The name of, reference to, or description of the stream survey method or protocol used during an Event.</t>
-  </si>
-  <si>
-    <t>UV light trap, "mist net", "bottom trawl", "ad hoc observation", "point count", "Penguins from space: faecal stains reveal the location of emperor penguin colonies, http://dx.doi.org/10.1111/j.1466-8238.2009.00467.x", "Takats et al. 2001. Guidelines for Nocturnal Owl Monitoring in North America. Beaverhill Bird Observatory and Bird Studies Canada, Edmonton, Alberta. 32 pp.", "http://www.bsc-eoc.org/download/Owl.pdf"</t>
-  </si>
-  <si>
-    <t>verbatimEventID</t>
-  </si>
-  <si>
-    <t>The verbatim event ID from the originating source dataset assigned by the program.</t>
-  </si>
-  <si>
-    <t>FFFE9F28-60DB-40C0-B9C0-4AFC753A9880, 10002</t>
-  </si>
-  <si>
-    <t>beaverImpact</t>
-  </si>
-  <si>
-    <t>Beaver impact the flow of the reach.</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>The four-digit year in which the event occurred.</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>MeasurementorFact</t>
-  </si>
-  <si>
-    <t>Comma Separated Value (CSV) file containing MeasurementorFact data for the Integrated Stream Habitat Data. This table corresponds to the 'MeasurementorFact' table in the database (.accdb) file.</t>
-  </si>
-  <si>
-    <t>measurementID</t>
-  </si>
-  <si>
-    <t>Global unique identifier assigned to the variable or measurementType.</t>
-  </si>
-  <si>
-    <t>measurementMethod</t>
-  </si>
-  <si>
-    <t>A description of or reference to (publication, URI) the method or protocol used to determine the measurement, fact, characteristic, or assertion.</t>
-  </si>
-  <si>
-    <t>URL of the MonitoringResources.rog field and if avilable calcuation method</t>
-  </si>
-  <si>
-    <t>measurementRemarks</t>
-  </si>
-  <si>
-    <t>Comments or notes accompanying the MeasurementOrFact.</t>
-  </si>
-  <si>
-    <t>tip of tail missing</t>
-  </si>
-  <si>
-    <t>measurementType</t>
-  </si>
-  <si>
-    <t>The variable or name of the measurement. Fill in with metric controlled voacabulary</t>
-  </si>
-  <si>
-    <t>Grad, WetWidth, ReachLen</t>
-  </si>
-  <si>
-    <t>measurementValue</t>
-  </si>
-  <si>
-    <t>The value of the measurementTerm attribute measured in units given in the measurementTerm definitions.</t>
-  </si>
-  <si>
-    <t>45, "20", "1", "14.5", "UV-light"</t>
-  </si>
-  <si>
-    <t>termID</t>
-  </si>
-  <si>
-    <t>term</t>
-  </si>
-  <si>
-    <t>longName</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>measurementUnit</t>
-  </si>
-  <si>
-    <t>minimumPossibleValue</t>
-  </si>
-  <si>
-    <t>maximumPossibleValue</t>
-  </si>
-  <si>
-    <t>Channel Characteristics</t>
-  </si>
-  <si>
-    <t>Sin</t>
-  </si>
-  <si>
-    <t>Sinuosity of Local Stream Reach</t>
-  </si>
-  <si>
-    <t>Reach sinuosity (reach length along the thalweg divided by straight line distance between the bottom of the reach and the top of the reach)</t>
-  </si>
-  <si>
-    <t>Numeric</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>StreamOrder</t>
-  </si>
-  <si>
-    <t>Stream Order</t>
-  </si>
-  <si>
-    <t>Strahler stream order of the site from the provider dataset</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Channel dimensions</t>
-  </si>
-  <si>
-    <t>AvgBFWDRatio</t>
-  </si>
-  <si>
-    <t>Bankfull width to depth ratio at transects</t>
-  </si>
-  <si>
-    <t>Average bankfull width/depth ratio for the reach.</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>BFHeight</t>
-  </si>
-  <si>
-    <t>Bankfull Height</t>
-  </si>
-  <si>
-    <t>Average bankfull height measured from water surface across transects.</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>BFWidth</t>
-  </si>
-  <si>
-    <t>Average bankfull width from transects</t>
-  </si>
-  <si>
-    <t>Average bankfull width across transects for the reach.</t>
-  </si>
-  <si>
-    <t>countTransectsBFWidth</t>
-  </si>
-  <si>
-    <t>Count of cross sections</t>
-  </si>
-  <si>
-    <t>Number of cross sections included in the average bankfull width calculation</t>
-  </si>
-  <si>
-    <t>count of measurments</t>
-  </si>
-  <si>
-    <t>Grad</t>
-  </si>
-  <si>
-    <t>Gradient of stream reach</t>
-  </si>
-  <si>
-    <t>Mean slope of water surface (percent) from the bottom of the reach to the top of the reach.</t>
-  </si>
-  <si>
-    <t>min: 0, max: 100</t>
-  </si>
-  <si>
-    <t>percent</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>MeanThalwegDepth</t>
-  </si>
-  <si>
-    <t>Average Thalweg Depth</t>
-  </si>
-  <si>
-    <t>Mean thalweg depth. Metric of how deep water was at the site.</t>
-  </si>
-  <si>
-    <t>ReachLen</t>
-  </si>
-  <si>
-    <t>Length of sampling reach</t>
-  </si>
-  <si>
-    <t>Length of sampling reach measured along the thalweg</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>4000</t>
-  </si>
-  <si>
-    <t>WetWidth</t>
-  </si>
-  <si>
-    <t>Average wetted width from transects</t>
-  </si>
-  <si>
-    <t>Average wetted width across transects.</t>
-  </si>
-  <si>
-    <t>Pools</t>
-  </si>
-  <si>
-    <t>PctPool</t>
-  </si>
-  <si>
-    <t>percent pools</t>
-  </si>
-  <si>
-    <t>percent of the sample reach (linear extent) classified as pool habitat</t>
-  </si>
-  <si>
-    <t>RPD</t>
-  </si>
-  <si>
-    <t>Residual pool depth</t>
-  </si>
-  <si>
-    <t>Average of the residual pool depth values for all pools in a reach. Residual pool depth the difference of the pool tail depth from the max depth.</t>
-  </si>
-  <si>
-    <t>Streambanks</t>
-  </si>
-  <si>
-    <t>BankAngle</t>
-  </si>
-  <si>
-    <t>Bank angle</t>
-  </si>
-  <si>
-    <t>Measured angle of the stream bank;</t>
-  </si>
-  <si>
-    <t>min: 0, max: 180</t>
-  </si>
-  <si>
-    <t>degrees</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>PctStab</t>
-  </si>
-  <si>
-    <t>percent stable banks</t>
-  </si>
-  <si>
-    <t>percent of 42 banks lacking visible signs of active erosion (e.g., slump, slough, fracture) (units: percent, min: 0, max: 100, n= 42)</t>
-  </si>
-  <si>
-    <t>Substrate</t>
-  </si>
-  <si>
-    <t>D16</t>
-  </si>
-  <si>
-    <t>Diameter of the 16th percentile streambed particle</t>
-  </si>
-  <si>
-    <t>Bed surface particle size corresponding to the 16th percentile of measured particles</t>
-  </si>
-  <si>
-    <t>min: 1, max: 4098</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>4098</t>
-  </si>
-  <si>
-    <t>D50</t>
-  </si>
-  <si>
-    <t>Diameter of the 50th percentile streambed particle</t>
-  </si>
-  <si>
-    <t>Median diameter of bed surface particle size corresponding to the areal median (50th percentile of measured particles) .</t>
-  </si>
-  <si>
-    <t>D84</t>
-  </si>
-  <si>
-    <t>Diameter of the 84th percentile streambed particle</t>
-  </si>
-  <si>
-    <t>Bed surface particle size corresponding to the 84th percentile of measured particles</t>
-  </si>
-  <si>
-    <t>PctBdrk</t>
-  </si>
-  <si>
-    <t>percent Bed Surface Bedrock</t>
-  </si>
-  <si>
-    <t>percent of the stream bed area that is composed of particles with a b-axis &gt; 4098mm (bedrock)</t>
-  </si>
-  <si>
-    <t>PctFines2</t>
-  </si>
-  <si>
-    <t>percent of streambed particles &lt;2mm</t>
-  </si>
-  <si>
-    <t>percent of the stream bed area that is comprised of particles with a b-axis &lt; 2 mm</t>
-  </si>
-  <si>
-    <t>PctFines6</t>
-  </si>
-  <si>
-    <t>percent of streambed particles &lt;6mm</t>
-  </si>
-  <si>
-    <t>percent of the stream bed area that is composed of particles with a b-axis &lt; 6 mm</t>
-  </si>
-  <si>
-    <t>PoolTailFines2</t>
-  </si>
-  <si>
-    <t>percent pool tail fines &lt; 2mm</t>
-  </si>
-  <si>
-    <t>Average percent fine sediment (&lt; 2mm) on the pool tail</t>
-  </si>
-  <si>
-    <t>PoolTailFines6</t>
-  </si>
-  <si>
-    <t>percent pool tail fines &lt; 6mm</t>
-  </si>
-  <si>
-    <t>Average percent fine sediment (&lt; 6mm) on the pool tail</t>
-  </si>
-  <si>
-    <t>Water chemistry</t>
-  </si>
-  <si>
-    <t>Conductivity</t>
-  </si>
-  <si>
-    <t>Measure of the concentration of ionized materials in water, or the ability of water to conduct electrical current. Used as a measure of mineral / ionic concentration.</t>
-  </si>
-  <si>
-    <t>ppm</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>Measured pH value</t>
-  </si>
-  <si>
-    <t>min: 0, max: 14</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>SpecificConductance</t>
-  </si>
-  <si>
-    <t>Specific Conductance</t>
-  </si>
-  <si>
-    <t>Measured specific conductance value. The specific conductance is conductivity standardized to 25 degrees C.</t>
-  </si>
-  <si>
-    <t>min: 0, max: 65500</t>
-  </si>
-  <si>
-    <t>uS/cm</t>
-  </si>
-  <si>
-    <t>65500</t>
-  </si>
-  <si>
-    <t>TotalNitrogen</t>
-  </si>
-  <si>
-    <t>Total Nitrogen</t>
-  </si>
-  <si>
-    <t>Measured total nitrogen value</t>
-  </si>
-  <si>
-    <t>ug/L</t>
-  </si>
-  <si>
-    <t>TotalPhosphorous</t>
-  </si>
-  <si>
-    <t>Total Phosphorous</t>
-  </si>
-  <si>
-    <t>Measured total phosphorous value</t>
-  </si>
-  <si>
-    <t>Turbidity</t>
-  </si>
-  <si>
-    <t>Average water clarity as measured by the suspended solids in the water column</t>
-  </si>
-  <si>
-    <t>NTU</t>
-  </si>
-  <si>
-    <t>program</t>
-  </si>
-  <si>
-    <t>originalField</t>
-  </si>
-  <si>
-    <t>originalUnit</t>
-  </si>
-  <si>
-    <t>originalDataType</t>
-  </si>
-  <si>
-    <t>methodCollection</t>
-  </si>
-  <si>
-    <t>methodAnalysis</t>
-  </si>
-  <si>
-    <t>AREMP</t>
-  </si>
-  <si>
-    <t>lattitude</t>
-  </si>
-  <si>
-    <t>decimal degrees</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>AIM</t>
-  </si>
-  <si>
-    <t>MIDLAT</t>
-  </si>
-  <si>
-    <t>NRSA</t>
-  </si>
-  <si>
-    <t>LAT_DD83</t>
-  </si>
-  <si>
-    <t>PIBO</t>
-  </si>
-  <si>
-    <t>Lat</t>
-  </si>
-  <si>
-    <t>MIDLONG</t>
-  </si>
-  <si>
-    <t>LON_DD83</t>
-  </si>
-  <si>
-    <t>Long</t>
-  </si>
-  <si>
-    <t>SITE_ID</t>
-  </si>
-  <si>
-    <t>MS_CD</t>
-  </si>
-  <si>
-    <t>SiteID</t>
-  </si>
-  <si>
-    <t>STRM_NM</t>
-  </si>
-  <si>
-    <t>Stream</t>
-  </si>
-  <si>
-    <t>survey_date</t>
-  </si>
-  <si>
-    <t>DT</t>
-  </si>
-  <si>
-    <t>m/d/yyyy</t>
-  </si>
-  <si>
-    <t>DATE_COL</t>
-  </si>
-  <si>
-    <t>SampDate</t>
-  </si>
-  <si>
-    <t>PCT_DRY</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/CustomizedMethod/Details/31137</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/7004</t>
-  </si>
-  <si>
-    <t>PCT_DRS</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/1610</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/7018</t>
-  </si>
-  <si>
-    <t>StrmFlow</t>
-  </si>
-  <si>
-    <t>Categorical: Flow, No Flow, Other</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/924</t>
-  </si>
-  <si>
-    <t>tbd</t>
-  </si>
-  <si>
-    <t>survey_type</t>
-  </si>
-  <si>
-    <t>PRTCL</t>
-  </si>
-  <si>
-    <t>VALXSITE</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Categorical: I, IS, IK, IKS, K, P, R</t>
-  </si>
-  <si>
-    <t>site_survey_id</t>
-  </si>
-  <si>
-    <t>UID</t>
-  </si>
-  <si>
-    <t>RchID</t>
-  </si>
-  <si>
-    <t>beaver_impacted</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/7003</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/7002</t>
-  </si>
-  <si>
-    <t>SNSTY</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/3807</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/7007</t>
-  </si>
-  <si>
-    <t>SINU</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/7005</t>
-  </si>
-  <si>
-    <t>ratio</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/6868</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>STRM_ORDR</t>
-  </si>
-  <si>
-    <t>STRAHLERORDER</t>
-  </si>
-  <si>
-    <t>ave_widthDepth_ratio</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/6849 AND https://www.monitoringresources.org/Document/CustomizedMethod/Details/31107</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/1064 OR www.monitoringresources.org/Document/Method/Details/1275</t>
-  </si>
-  <si>
-    <t>BFWD_RAT</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/6870 AND www.monitoringresources.org/Document/Method/Details/56</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/1064 OR  www.monitoringresources.org/Document/Method/Details/1275</t>
-  </si>
-  <si>
-    <t>WDTrans</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/65 AND https://www.monitoringresources.org/Document/Method/Details/6871</t>
-  </si>
-  <si>
-    <t>average_bfdepth</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/CustomizedMethod/Details/31107</t>
-  </si>
-  <si>
-    <t>BNKFLL_HT</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/7013</t>
-  </si>
-  <si>
-    <t>XBKF_H</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/56</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/7014</t>
-  </si>
-  <si>
-    <t>average_bfwidth</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/6849</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/4103</t>
-  </si>
-  <si>
-    <t>BNKFLL_WT</t>
-  </si>
-  <si>
-    <t>https://www.monitoringresources.org/Document/CustomizedMethod/Details/31137</t>
-  </si>
-  <si>
-    <t>XBKF_W</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/6870</t>
-  </si>
-  <si>
-    <t>Bf</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/6871</t>
-  </si>
-  <si>
-    <t>gradient</t>
-  </si>
-  <si>
-    <t>percent, expressed as a decimal</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/6852</t>
-  </si>
-  <si>
-    <t>SLPE</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/CustomizedMethod/Details/31139</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/4113</t>
-  </si>
-  <si>
-    <t>XSLOPE</t>
-  </si>
-  <si>
-    <t>ThalwegDepthMean</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/7008</t>
-  </si>
-  <si>
-    <t>XDEPTH_CM</t>
-  </si>
-  <si>
-    <t>cm</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/74</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/7015</t>
-  </si>
-  <si>
-    <t>REACH_LENGTH</t>
-  </si>
-  <si>
-    <t>TOT_RCH_LEN</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/7017</t>
-  </si>
-  <si>
-    <t>REACHLEN</t>
-  </si>
-  <si>
-    <t>RchLen</t>
-  </si>
-  <si>
-    <t>wettedWidth_ave</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/3893</t>
-  </si>
-  <si>
-    <t>WTTD_WT</t>
-  </si>
-  <si>
-    <t>XWIDTH</t>
-  </si>
-  <si>
-    <t>PctReachInPools</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/6844</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/3852</t>
-  </si>
-  <si>
-    <t>PCT_PL</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/6859</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/4115</t>
-  </si>
-  <si>
-    <t>PoolPct</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/6872</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/55</t>
-  </si>
-  <si>
-    <t>ave_residual_depth</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/6976</t>
-  </si>
-  <si>
-    <t>RES_PL_DEP</t>
-  </si>
-  <si>
-    <t>PoolDp</t>
-  </si>
-  <si>
-    <t>BNK_AN</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/68</t>
-  </si>
-  <si>
-    <t>BNK_STBLTY</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/69</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/7010</t>
-  </si>
-  <si>
-    <t>Stab</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/6801</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/1730</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/6797</t>
-  </si>
-  <si>
-    <t>Sub_dmm</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/6874</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/6810</t>
-  </si>
-  <si>
-    <t>bedrock_pcnt</t>
-  </si>
-  <si>
-    <t>PCT_BDRK</t>
-  </si>
-  <si>
-    <t>Log 10 mm</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/7011</t>
-  </si>
-  <si>
-    <t>pcnt_fines_tran2</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/6977</t>
-  </si>
-  <si>
-    <t>PCT_FN</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/6862</t>
-  </si>
-  <si>
-    <t>PCT_SAFN</t>
-  </si>
-  <si>
-    <t>precent</t>
-  </si>
-  <si>
-    <t>pect_fines_tran6</t>
-  </si>
-  <si>
-    <t>PCT_FN6</t>
-  </si>
-  <si>
-    <t>pool_fines</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/6798</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/868</t>
-  </si>
-  <si>
-    <t>PL_TL_FN</t>
-  </si>
-  <si>
-    <t>PTFines2</t>
-  </si>
-  <si>
-    <t>PL_TL_FN6</t>
-  </si>
-  <si>
-    <t>PTFines6</t>
-  </si>
-  <si>
-    <t>TSS</t>
-  </si>
-  <si>
-    <t>mg/L</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/3792</t>
-  </si>
-  <si>
-    <t>Cond</t>
-  </si>
-  <si>
-    <t>Parts per million</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/61</t>
-  </si>
-  <si>
-    <t>SU</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/6673</t>
-  </si>
-  <si>
-    <t>µS/cm</t>
-  </si>
-  <si>
-    <t>COND</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/72</t>
-  </si>
-  <si>
-    <t>µg/L</t>
-  </si>
-  <si>
-    <t>NTL</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/548</t>
-  </si>
-  <si>
-    <t>PTL</t>
-  </si>
-  <si>
-    <t>TRBDTY</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/7012</t>
-  </si>
-  <si>
-    <t>TURB</t>
-  </si>
-  <si>
-    <t>www.monitoringresources.org/Document/Method/Details/7016</t>
-  </si>
-  <si>
-    <t>Targeted</t>
-  </si>
-  <si>
-    <t>survey_year</t>
-  </si>
-  <si>
-    <t>Interger</t>
-  </si>
-  <si>
-    <t>YEAR</t>
-  </si>
-  <si>
-    <t>Yr</t>
-  </si>
-  <si>
-    <t>BVR_FLW_MD</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="410">
+  <si>
+    <t xml:space="preserve">tblname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdommin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdommax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dataType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">examples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RecordLevel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comma Separated Value (CSV) file containing information about the originating source datasets from Monitoring Programs for the Stream Habitat Metric Integration project. This table corresponds to the RecordLevel table in the database (.accdb) file.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bibilographicCitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bibliographic reference for the resource as a statement indicating how this record should be cited (attributed) when used.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darwin Core</t>
+  </si>
+  <si>
+    <t xml:space="preserve">datasetID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A unique identifier assigned to the originating source data's program.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">datasetLink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A URL identifier for the collection or dataset from which the record was derived. The source location for the originating source data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.epa.gov/national-aquatic-resource-surveys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Producer defned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">datasetName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The name of the originating data set from which the record was derived.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPA NARS 2018 dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The nature or genre of the resource. The type of data obtained from the originating dataset, including water chemistry (including but not limited to pH) and physical habitat (including but not limited to channel dimensions and characteristics).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Quality and Physical Habitat Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">institutionCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The name (or acronym) in use by the institution having custody of the object(s) or information referred to in the record.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLM,  EPA, USFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metadataID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A URL identifier for the metadata for the originating source dataset.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODM2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The most recent calendar date on which the datasets were modified or combined as part of the integrated dataset.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preProcessingCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL identifier for access to the code used to pre-process (download, standardize and tidy) the data sets before integration into the Stream Habitat Integrated Dataset.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">projectCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The acronym of the name assigned by the Institution (project leader or principal investigator) to the project, from wich the source data originates from.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIBO, AIM, USFS, NRSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">projectName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The name assigned by the Institution (project leader or principal investigator) to the project, from wich the source data originates from.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USFS PacFish/InFish Biological Opinion Monitoring Program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comma Separated Value (CSV) file containing location data for the Integrated Stream Habitat Data. This table corresponds to the 'Location' table in the database (.accdb) file.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A unique numeric identifier assigned to the originating source data's program.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The geographic latitude (WGS84) of the geographic center of a location.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.848932980000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.268600000000006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Float</t>
+  </si>
+  <si>
+    <t xml:space="preserve">locationID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique global identifier assigned to the location where the event occurred.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5483AIM, 88963AREMP, WtR563EPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">locationRemarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments or notes about the Location.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The geographic longitude (WGS84) of the geographic center of a location.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-163.74230800000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-67.498393539999995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verbatimLocationID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The verbatim location ID from the originating source dataset assigned by the monitoring program.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5483, 88693. WtR563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">siteSelectionType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies whether the site was a part of a probabilistic random design (Random) or whether it was selected as a targeted site to address a specific management concern (Targeted)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Randome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waterBody</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The name of the water body in which the location occurs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comma Separated Value (CSV) file containing Event data for the Integrated Stream Habitat Data. This table corresponds to the 'Event' table in the database (.accdb) file.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eventDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The calendar date of the event.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000-05-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eventID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global unique identifier assigned to an Event (something that occurs at a place and time, such as a survey or measurement).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFFE9F28-60DB-40C0-B9C0-4AFC753A9880, 10002-PIBO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eventRemarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments or notes about the Event. The description of flow for the reach flow, partial flow or dry.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fieldNotes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of notes taken in the field about the Event.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dry, wet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samplingProtocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The name of, reference to, or description of the stream survey method or protocol used during an Event.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UV light trap, "mist net", "bottom trawl", "ad hoc observation", "point count", "Penguins from space: faecal stains reveal the location of emperor penguin colonies, http://dx.doi.org/10.1111/j.1466-8238.2009.00467.x", "Takats et al. 2001. Guidelines for Nocturnal Owl Monitoring in North America. Beaverhill Bird Observatory and Bird Studies Canada, Edmonton, Alberta. 32 pp.", "http://www.bsc-eoc.org/download/Owl.pdf"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verbatimEventID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The verbatim event ID from the originating source dataset assigned by the program.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFFE9F28-60DB-40C0-B9C0-4AFC753A9880, 10002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beaverImpactFlow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beaver impact the flow of the reach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The four-digit year in which the event occurred.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MeasurementorFact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comma Separated Value (CSV) file containing MeasurementorFact data for the Integrated Stream Habitat Data. This table corresponds to the 'MeasurementorFact' table in the database (.accdb) file.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measurementID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global unique identifier assigned to the variable or measurementType.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measurementMethod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A description of or reference to (publication, URI) the method or protocol used to determine the measurement, fact, characteristic, or assertion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL of the MonitoringResources.rog field and if avilable calcuation method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measurementRemarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments or notes accompanying the MeasurementOrFact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tip of tail missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measurementType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The variable or name of the measurement. Fill in with metric controlled voacabulary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grad, WetWidth, ReachLen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measurementValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The value of the measurementTerm attribute measured in units given in the measurementTerm definitions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45, "20", "1", "14.5", "UV-light"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">termID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measurementUnit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimumPossibleValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maximumPossibleValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Characteristics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinuosity of Local Stream Reach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reach sinuosity (reach length along the thalweg divided by straight line distance between the bottom of the reach and the top of the reach)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numeric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StreamOrder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stream Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strahler stream order of the site from the provider dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel dimensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AvgBFWDRatio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bankfull width to depth ratio at transects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average bankfull width/depth ratio for the reach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFHeight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bankfull Height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average bankfull height measured from water surface across transects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFWidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average bankfull width from transects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average bankfull width across transects for the reach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">countTransectsBFWidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of cross sections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cross sections included in the average bankfull width calculation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count of measurments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gradient of stream reach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean slope of water surface (percent) from the bottom of the reach to the top of the reach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min: 0, max: 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MeanThalwegDepth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Thalweg Depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean thalweg depth. Metric of how deep water was at the site.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReachLen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length of sampling reach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length of sampling reach measured along the thalweg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WetWidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average wetted width from transects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average wetted width across transects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctPool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent pools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent of the sample reach (linear extent) classified as pool habitat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residual pool depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average of the residual pool depth values for all pools in a reach. Residual pool depth the difference of the pool tail depth from the max depth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Streambanks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankAngle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank angle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measured angle of the stream bank;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min: 0, max: 180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">degrees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctStab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent stable banks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent of 42 banks lacking visible signs of active erosion (e.g., slump, slough, fracture) (units: percent, min: 0, max: 100, n= 42)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diameter of the 16th percentile streambed particle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bed surface particle size corresponding to the 16th percentile of measured particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min: 1, max: 4098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diameter of the 50th percentile streambed particle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median diameter of bed surface particle size corresponding to the areal median (50th percentile of measured particles) .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diameter of the 84th percentile streambed particle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bed surface particle size corresponding to the 84th percentile of measured particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctBdrk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent Bed Surface Bedrock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent of the stream bed area that is composed of particles with a b-axis &gt; 4098mm (bedrock)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctFines2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent of streambed particles &lt;2mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent of the stream bed area that is comprised of particles with a b-axis &lt; 2 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctFines6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent of streambed particles &lt;6mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent of the stream bed area that is composed of particles with a b-axis &lt; 6 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoolTailFines2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent pool tail fines &lt; 2mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average percent fine sediment (&lt; 2mm) on the pool tail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoolTailFines6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent pool tail fines &lt; 6mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average percent fine sediment (&lt; 6mm) on the pool tail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water chemistry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conductivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measure of the concentration of ionized materials in water, or the ability of water to conduct electrical current. Used as a measure of mineral / ionic concentration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ppm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measured pH value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min: 0, max: 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpecificConductance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specific Conductance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measured specific conductance value. The specific conductance is conductivity standardized to 25 degrees C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min: 0, max: 65500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uS/cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TotalNitrogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Nitrogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measured total nitrogen value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ug/L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TotalPhosphorous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Phosphorous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measured total phosphorous value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turbidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average water clarity as measured by the suspended solids in the water column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">originalField</t>
+  </si>
+  <si>
+    <t xml:space="preserve">originalUnit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">originalDataType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">methodCollection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">methodAnalysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AREMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lattitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal degrees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">double</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIDLAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NRSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAT_DD83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIBO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIDLONG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LON_DD83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SITE_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS_CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SiteID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRM_NM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">survey_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m/d/yyyy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE_COL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SampDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCT_DRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/CustomizedMethod/Details/31137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCT_DRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/1610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StrmFlow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Categorical: Flow, No Flow, Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">survey_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRTCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROTOCOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Categorical: I, IS, IK, IKS, K, P, R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">site_survey_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RchID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beaver_impacted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BeaverFlowMod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNSTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SINU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRM_ORDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRAHLERORDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ave_widthDepth_ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6849 AND https://www.monitoringresources.org/Document/CustomizedMethod/Details/31107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/1064 OR www.monitoringresources.org/Document/Method/Details/1275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFWD_RAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6870 AND www.monitoringresources.org/Document/Method/Details/56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/1064 OR  www.monitoringresources.org/Document/Method/Details/1275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDTrans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/65 AND https://www.monitoringresources.org/Document/Method/Details/6871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average_bfdepth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/CustomizedMethod/Details/31107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNKFLL_HT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XBKF_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average_bfwidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/4103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNKFLL_WT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.monitoringresources.org/Document/CustomizedMethod/Details/31137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XBKF_W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gradient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent, expressed as a decimal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/CustomizedMethod/Details/31139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/4113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XSLOPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ThalwegDepthMean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XDEPTH_CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REACH_LENGTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOT_RCH_LEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REACHLEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RchLen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wettedWidth_ave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WTTD_WT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XWIDTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctReachInPools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCT_PL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/4115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoolPct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ave_residual_depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RES_PL_DEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoolDp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNK_AN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNK_STBLTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/1730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub_dmm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bedrock_pcnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCT_BDRK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log 10 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pcnt_fines_tran2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCT_FN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCT_SAFN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">precent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pect_fines_tran6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCT_FN6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pool_fines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PL_TL_FN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTFines2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PL_TL_FN6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTFines6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mg/L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parts per million</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">µS/cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">µg/L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRBDTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TURB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Targeted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">survey_year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YEAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1300,15 +1290,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1590,14 +1571,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1623,15 +1604,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
+      <c r="B2"/>
       <c r="C2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1641,14 +1628,17 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
+      <c r="D3"/>
+      <c r="E3"/>
       <c r="F3" t="s">
         <v>12</v>
       </c>
+      <c r="G3"/>
       <c r="H3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1658,14 +1648,17 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
+      <c r="D4"/>
+      <c r="E4"/>
       <c r="F4" t="s">
         <v>16</v>
       </c>
+      <c r="G4"/>
       <c r="H4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1675,6 +1668,8 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
+      <c r="D5"/>
+      <c r="E5"/>
       <c r="F5" t="s">
         <v>12</v>
       </c>
@@ -1685,7 +1680,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1695,6 +1690,8 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
+      <c r="D6"/>
+      <c r="E6"/>
       <c r="F6" t="s">
         <v>12</v>
       </c>
@@ -1705,7 +1702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1715,6 +1712,8 @@
       <c r="C7" t="s">
         <v>25</v>
       </c>
+      <c r="D7"/>
+      <c r="E7"/>
       <c r="F7" t="s">
         <v>12</v>
       </c>
@@ -1725,7 +1724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1735,6 +1734,8 @@
       <c r="C8" t="s">
         <v>28</v>
       </c>
+      <c r="D8"/>
+      <c r="E8"/>
       <c r="F8" t="s">
         <v>12</v>
       </c>
@@ -1745,7 +1746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1755,14 +1756,17 @@
       <c r="C9" t="s">
         <v>31</v>
       </c>
+      <c r="D9"/>
+      <c r="E9"/>
       <c r="F9" t="s">
         <v>12</v>
       </c>
+      <c r="G9"/>
       <c r="H9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1781,11 +1785,12 @@
       <c r="F10" t="s">
         <v>36</v>
       </c>
+      <c r="G10"/>
       <c r="H10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1795,14 +1800,17 @@
       <c r="C11" t="s">
         <v>38</v>
       </c>
+      <c r="D11"/>
+      <c r="E11"/>
       <c r="F11" t="s">
         <v>12</v>
       </c>
+      <c r="G11"/>
       <c r="H11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1812,6 +1820,8 @@
       <c r="C12" t="s">
         <v>40</v>
       </c>
+      <c r="D12"/>
+      <c r="E12"/>
       <c r="F12" t="s">
         <v>12</v>
       </c>
@@ -1822,7 +1832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1832,6 +1842,8 @@
       <c r="C13" t="s">
         <v>43</v>
       </c>
+      <c r="D13"/>
+      <c r="E13"/>
       <c r="F13" t="s">
         <v>12</v>
       </c>
@@ -1844,19 +1856,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1882,15 +1894,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" t="s">
         <v>45</v>
       </c>
+      <c r="B2"/>
       <c r="C2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1900,11 +1918,15 @@
       <c r="C3" t="s">
         <v>47</v>
       </c>
+      <c r="D3"/>
+      <c r="E3"/>
       <c r="F3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -1923,11 +1945,12 @@
       <c r="F4" t="s">
         <v>52</v>
       </c>
+      <c r="G4"/>
       <c r="H4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -1937,6 +1960,8 @@
       <c r="C5" t="s">
         <v>54</v>
       </c>
+      <c r="D5"/>
+      <c r="E5"/>
       <c r="F5" t="s">
         <v>12</v>
       </c>
@@ -1947,7 +1972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1957,14 +1982,17 @@
       <c r="C6" t="s">
         <v>57</v>
       </c>
+      <c r="D6"/>
+      <c r="E6"/>
       <c r="F6" t="s">
         <v>12</v>
       </c>
+      <c r="G6"/>
       <c r="H6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1983,11 +2011,12 @@
       <c r="F7" t="s">
         <v>52</v>
       </c>
+      <c r="G7"/>
       <c r="H7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -1997,6 +2026,8 @@
       <c r="C8" t="s">
         <v>63</v>
       </c>
+      <c r="D8"/>
+      <c r="E8"/>
       <c r="F8" t="s">
         <v>12</v>
       </c>
@@ -2007,7 +2038,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -2017,6 +2048,8 @@
       <c r="C9" t="s">
         <v>66</v>
       </c>
+      <c r="D9"/>
+      <c r="E9"/>
       <c r="F9" t="s">
         <v>12</v>
       </c>
@@ -2027,7 +2060,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -2037,28 +2070,31 @@
       <c r="C10" t="s">
         <v>69</v>
       </c>
+      <c r="D10"/>
+      <c r="E10"/>
       <c r="F10" t="s">
         <v>12</v>
       </c>
+      <c r="G10"/>
       <c r="H10" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2084,15 +2120,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" t="s">
         <v>70</v>
       </c>
+      <c r="B2"/>
       <c r="C2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -2111,11 +2153,12 @@
       <c r="F3" t="s">
         <v>36</v>
       </c>
+      <c r="G3"/>
       <c r="H3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -2125,6 +2168,8 @@
       <c r="C4" t="s">
         <v>77</v>
       </c>
+      <c r="D4"/>
+      <c r="E4"/>
       <c r="F4" t="s">
         <v>12</v>
       </c>
@@ -2135,7 +2180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -2145,14 +2190,17 @@
       <c r="C5" t="s">
         <v>80</v>
       </c>
+      <c r="D5"/>
+      <c r="E5"/>
       <c r="F5" t="s">
         <v>12</v>
       </c>
+      <c r="G5"/>
       <c r="H5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -2162,6 +2210,8 @@
       <c r="C6" t="s">
         <v>82</v>
       </c>
+      <c r="D6"/>
+      <c r="E6"/>
       <c r="F6" t="s">
         <v>12</v>
       </c>
@@ -2172,7 +2222,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -2182,11 +2232,15 @@
       <c r="C7" t="s">
         <v>54</v>
       </c>
+      <c r="D7"/>
+      <c r="E7"/>
       <c r="F7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G7"/>
+      <c r="H7"/>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -2196,6 +2250,8 @@
       <c r="C8" t="s">
         <v>85</v>
       </c>
+      <c r="D8"/>
+      <c r="E8"/>
       <c r="F8" t="s">
         <v>12</v>
       </c>
@@ -2206,7 +2262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -2216,6 +2272,8 @@
       <c r="C9" t="s">
         <v>88</v>
       </c>
+      <c r="D9"/>
+      <c r="E9"/>
       <c r="F9" t="s">
         <v>12</v>
       </c>
@@ -2226,7 +2284,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -2236,14 +2294,17 @@
       <c r="C10" t="s">
         <v>91</v>
       </c>
+      <c r="D10"/>
+      <c r="E10"/>
       <c r="F10" t="s">
         <v>12</v>
       </c>
+      <c r="G10"/>
       <c r="H10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -2271,19 +2332,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2309,15 +2370,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" t="s">
         <v>97</v>
       </c>
+      <c r="B2"/>
       <c r="C2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -2327,14 +2394,17 @@
       <c r="C3" t="s">
         <v>77</v>
       </c>
+      <c r="D3"/>
+      <c r="E3"/>
       <c r="F3" t="s">
         <v>16</v>
       </c>
+      <c r="G3"/>
       <c r="H3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -2344,14 +2414,17 @@
       <c r="C4" t="s">
         <v>100</v>
       </c>
+      <c r="D4"/>
+      <c r="E4"/>
       <c r="F4" t="s">
         <v>16</v>
       </c>
+      <c r="G4"/>
       <c r="H4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -2361,6 +2434,8 @@
       <c r="C5" t="s">
         <v>102</v>
       </c>
+      <c r="D5"/>
+      <c r="E5"/>
       <c r="F5" t="s">
         <v>12</v>
       </c>
@@ -2371,7 +2446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -2381,6 +2456,8 @@
       <c r="C6" t="s">
         <v>105</v>
       </c>
+      <c r="D6"/>
+      <c r="E6"/>
       <c r="F6" t="s">
         <v>12</v>
       </c>
@@ -2391,7 +2468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -2401,6 +2478,8 @@
       <c r="C7" t="s">
         <v>108</v>
       </c>
+      <c r="D7"/>
+      <c r="E7"/>
       <c r="F7" t="s">
         <v>12</v>
       </c>
@@ -2411,7 +2490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -2421,6 +2500,8 @@
       <c r="C8" t="s">
         <v>111</v>
       </c>
+      <c r="D8"/>
+      <c r="E8"/>
       <c r="F8" t="s">
         <v>52</v>
       </c>
@@ -2433,19 +2514,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
         <v>107</v>
       </c>
@@ -2477,11 +2558,11 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" t="s">
         <v>120</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>14</v>
       </c>
       <c r="C2" t="s">
@@ -2493,9 +2574,11 @@
       <c r="E2" t="s">
         <v>123</v>
       </c>
+      <c r="F2"/>
       <c r="G2" t="s">
         <v>124</v>
       </c>
+      <c r="H2"/>
       <c r="I2" t="s">
         <v>125</v>
       </c>
@@ -2503,11 +2586,11 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3" t="s">
         <v>120</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>15</v>
       </c>
       <c r="C3" t="s">
@@ -2519,6 +2602,7 @@
       <c r="E3" t="s">
         <v>129</v>
       </c>
+      <c r="F3"/>
       <c r="G3" t="s">
         <v>124</v>
       </c>
@@ -2532,11 +2616,11 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4" t="s">
         <v>131</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>16</v>
       </c>
       <c r="C4" t="s">
@@ -2548,6 +2632,7 @@
       <c r="E4" t="s">
         <v>134</v>
       </c>
+      <c r="F4"/>
       <c r="G4" t="s">
         <v>124</v>
       </c>
@@ -2561,11 +2646,11 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5" t="s">
         <v>131</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>17</v>
       </c>
       <c r="C5" t="s">
@@ -2577,6 +2662,7 @@
       <c r="E5" t="s">
         <v>139</v>
       </c>
+      <c r="F5"/>
       <c r="G5" t="s">
         <v>124</v>
       </c>
@@ -2590,11 +2676,11 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6">
       <c r="A6" t="s">
         <v>131</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>18</v>
       </c>
       <c r="C6" t="s">
@@ -2606,6 +2692,7 @@
       <c r="E6" t="s">
         <v>143</v>
       </c>
+      <c r="F6"/>
       <c r="G6" t="s">
         <v>124</v>
       </c>
@@ -2619,11 +2706,11 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7">
       <c r="A7" t="s">
         <v>131</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>19</v>
       </c>
       <c r="C7" t="s">
@@ -2635,6 +2722,7 @@
       <c r="E7" t="s">
         <v>146</v>
       </c>
+      <c r="F7"/>
       <c r="G7" t="s">
         <v>124</v>
       </c>
@@ -2648,11 +2736,11 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8">
       <c r="A8" t="s">
         <v>131</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>20</v>
       </c>
       <c r="C8" t="s">
@@ -2680,11 +2768,11 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9">
       <c r="A9" t="s">
         <v>131</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>21</v>
       </c>
       <c r="C9" t="s">
@@ -2696,6 +2784,7 @@
       <c r="E9" t="s">
         <v>156</v>
       </c>
+      <c r="F9"/>
       <c r="G9" t="s">
         <v>124</v>
       </c>
@@ -2709,11 +2798,11 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10">
       <c r="A10" t="s">
         <v>131</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>22</v>
       </c>
       <c r="C10" t="s">
@@ -2725,6 +2814,7 @@
       <c r="E10" t="s">
         <v>159</v>
       </c>
+      <c r="F10"/>
       <c r="G10" t="s">
         <v>124</v>
       </c>
@@ -2738,11 +2828,11 @@
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11">
       <c r="A11" t="s">
         <v>131</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>23</v>
       </c>
       <c r="C11" t="s">
@@ -2754,6 +2844,7 @@
       <c r="E11" t="s">
         <v>164</v>
       </c>
+      <c r="F11"/>
       <c r="G11" t="s">
         <v>124</v>
       </c>
@@ -2767,11 +2858,11 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12">
       <c r="A12" t="s">
         <v>165</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>25</v>
       </c>
       <c r="C12" t="s">
@@ -2799,11 +2890,11 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13">
       <c r="A13" t="s">
         <v>165</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>26</v>
       </c>
       <c r="C13" t="s">
@@ -2815,6 +2906,7 @@
       <c r="E13" t="s">
         <v>171</v>
       </c>
+      <c r="F13"/>
       <c r="G13" t="s">
         <v>124</v>
       </c>
@@ -2828,11 +2920,11 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14">
       <c r="A14" t="s">
         <v>172</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>27</v>
       </c>
       <c r="C14" t="s">
@@ -2860,11 +2952,11 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15">
       <c r="A15" t="s">
         <v>172</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>28</v>
       </c>
       <c r="C15" t="s">
@@ -2892,11 +2984,11 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16">
       <c r="A16" t="s">
         <v>182</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>29</v>
       </c>
       <c r="C16" t="s">
@@ -2924,11 +3016,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17">
       <c r="A17" t="s">
         <v>182</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>30</v>
       </c>
       <c r="C17" t="s">
@@ -2956,11 +3048,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18">
       <c r="A18" t="s">
         <v>182</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>31</v>
       </c>
       <c r="C18" t="s">
@@ -2988,11 +3080,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19">
       <c r="A19" t="s">
         <v>182</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>32</v>
       </c>
       <c r="C19" t="s">
@@ -3020,11 +3112,11 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20">
       <c r="A20" t="s">
         <v>182</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>33</v>
       </c>
       <c r="C20" t="s">
@@ -3052,11 +3144,11 @@
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21">
       <c r="A21" t="s">
         <v>182</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>34</v>
       </c>
       <c r="C21" t="s">
@@ -3084,11 +3176,11 @@
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22">
       <c r="A22" t="s">
         <v>182</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>35</v>
       </c>
       <c r="C22" t="s">
@@ -3116,11 +3208,11 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23">
       <c r="A23" t="s">
         <v>182</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>36</v>
       </c>
       <c r="C23" t="s">
@@ -3148,11 +3240,11 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24">
       <c r="A24" t="s">
         <v>210</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>37</v>
       </c>
       <c r="C24" t="s">
@@ -3164,6 +3256,7 @@
       <c r="E24" t="s">
         <v>212</v>
       </c>
+      <c r="F24"/>
       <c r="G24" t="s">
         <v>124</v>
       </c>
@@ -3177,11 +3270,11 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25">
       <c r="A25" t="s">
         <v>210</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>38</v>
       </c>
       <c r="C25" t="s">
@@ -3209,11 +3302,11 @@
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26">
       <c r="A26" t="s">
         <v>210</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>39</v>
       </c>
       <c r="C26" t="s">
@@ -3241,11 +3334,11 @@
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27">
       <c r="A27" t="s">
         <v>210</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>40</v>
       </c>
       <c r="C27" t="s">
@@ -3257,6 +3350,7 @@
       <c r="E27" t="s">
         <v>226</v>
       </c>
+      <c r="F27"/>
       <c r="G27" t="s">
         <v>124</v>
       </c>
@@ -3270,11 +3364,11 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28">
       <c r="A28" t="s">
         <v>210</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>41</v>
       </c>
       <c r="C28" t="s">
@@ -3286,6 +3380,7 @@
       <c r="E28" t="s">
         <v>230</v>
       </c>
+      <c r="F28"/>
       <c r="G28" t="s">
         <v>124</v>
       </c>
@@ -3299,11 +3394,11 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29">
       <c r="A29" t="s">
         <v>210</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>42</v>
       </c>
       <c r="C29" t="s">
@@ -3315,6 +3410,7 @@
       <c r="E29" t="s">
         <v>232</v>
       </c>
+      <c r="F29"/>
       <c r="G29" t="s">
         <v>124</v>
       </c>
@@ -3330,24 +3426,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G112" sqref="G112"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="5" max="5" width="19.6328125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -3376,8 +3467,8 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -3398,9 +3489,11 @@
       <c r="G2" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="H2"/>
+      <c r="I2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -3421,9 +3514,11 @@
       <c r="G3" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="H3"/>
+      <c r="I3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -3444,9 +3539,11 @@
       <c r="G4" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="H4"/>
+      <c r="I4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>1</v>
       </c>
       <c r="B5" t="s">
@@ -3467,9 +3564,11 @@
       <c r="G5" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="H5"/>
+      <c r="I5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -3490,9 +3589,11 @@
       <c r="G6" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="H6"/>
+      <c r="I6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -3513,9 +3614,11 @@
       <c r="G7" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="H7"/>
+      <c r="I7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>4</v>
       </c>
       <c r="B8" t="s">
@@ -3536,9 +3639,11 @@
       <c r="G8" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="H8"/>
+      <c r="I8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>4</v>
       </c>
       <c r="B9" t="s">
@@ -3559,9 +3664,11 @@
       <c r="G9" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="H9"/>
+      <c r="I9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>5</v>
       </c>
       <c r="B10" t="s">
@@ -3576,12 +3683,15 @@
       <c r="E10" t="s">
         <v>253</v>
       </c>
+      <c r="F10"/>
       <c r="G10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="H10"/>
+      <c r="I10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>5</v>
       </c>
       <c r="B11" t="s">
@@ -3596,12 +3706,15 @@
       <c r="E11" t="s">
         <v>254</v>
       </c>
+      <c r="F11"/>
       <c r="G11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12">
+      <c r="H11"/>
+      <c r="I11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>5</v>
       </c>
       <c r="B12" t="s">
@@ -3616,12 +3729,15 @@
       <c r="E12" t="s">
         <v>253</v>
       </c>
+      <c r="F12"/>
       <c r="G12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13">
+      <c r="H12"/>
+      <c r="I12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
         <v>5</v>
       </c>
       <c r="B13" t="s">
@@ -3636,12 +3752,15 @@
       <c r="E13" t="s">
         <v>255</v>
       </c>
+      <c r="F13"/>
       <c r="G13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14">
+      <c r="H13"/>
+      <c r="I13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v>7</v>
       </c>
       <c r="B14" t="s">
@@ -3656,12 +3775,15 @@
       <c r="E14" t="s">
         <v>256</v>
       </c>
+      <c r="F14"/>
       <c r="G14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15">
+      <c r="H14"/>
+      <c r="I14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
         <v>7</v>
       </c>
       <c r="B15" t="s">
@@ -3682,9 +3804,11 @@
       <c r="G15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16">
+      <c r="H15"/>
+      <c r="I15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
         <v>8</v>
       </c>
       <c r="B16" t="s">
@@ -3699,12 +3823,15 @@
       <c r="E16" t="s">
         <v>258</v>
       </c>
+      <c r="F16"/>
       <c r="G16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17">
+      <c r="H16"/>
+      <c r="I16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
         <v>8</v>
       </c>
       <c r="B17" t="s">
@@ -3725,9 +3852,11 @@
       <c r="G17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18">
+      <c r="H17"/>
+      <c r="I17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
         <v>8</v>
       </c>
       <c r="B18" t="s">
@@ -3742,12 +3871,15 @@
       <c r="E18" t="s">
         <v>261</v>
       </c>
+      <c r="F18"/>
       <c r="G18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19">
+      <c r="H18"/>
+      <c r="I18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
         <v>8</v>
       </c>
       <c r="B19" t="s">
@@ -3762,12 +3894,15 @@
       <c r="E19" t="s">
         <v>262</v>
       </c>
+      <c r="F19"/>
       <c r="G19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20">
+      <c r="H19"/>
+      <c r="I19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
         <v>1</v>
       </c>
       <c r="B20" t="s">
@@ -3795,8 +3930,8 @@
         <v>265</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21">
+    <row r="21">
+      <c r="A21" t="n">
         <v>1</v>
       </c>
       <c r="B21" t="s">
@@ -3824,8 +3959,8 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22">
+    <row r="22">
+      <c r="A22" t="n">
         <v>1</v>
       </c>
       <c r="B22" t="s">
@@ -3853,8 +3988,8 @@
         <v>272</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23">
+    <row r="23">
+      <c r="A23" t="n">
         <v>2</v>
       </c>
       <c r="B23" t="s">
@@ -3869,12 +4004,15 @@
       <c r="E23" t="s">
         <v>273</v>
       </c>
+      <c r="F23"/>
       <c r="G23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24">
+      <c r="H23"/>
+      <c r="I23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
         <v>2</v>
       </c>
       <c r="B24" t="s">
@@ -3889,12 +4027,15 @@
       <c r="E24" t="s">
         <v>274</v>
       </c>
+      <c r="F24"/>
       <c r="G24" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25">
+      <c r="H24"/>
+      <c r="I24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
         <v>2</v>
       </c>
       <c r="B25" t="s">
@@ -3909,12 +4050,15 @@
       <c r="E25" t="s">
         <v>275</v>
       </c>
+      <c r="F25"/>
       <c r="G25" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26">
+      <c r="H25"/>
+      <c r="I25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
         <v>2</v>
       </c>
       <c r="B26" t="s">
@@ -3935,9 +4079,11 @@
       <c r="G26" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27">
+      <c r="H26"/>
+      <c r="I26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
         <v>3</v>
       </c>
       <c r="B27" t="s">
@@ -3952,12 +4098,15 @@
       <c r="E27" t="s">
         <v>278</v>
       </c>
+      <c r="F27"/>
       <c r="G27" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28">
+      <c r="H27"/>
+      <c r="I27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
         <v>3</v>
       </c>
       <c r="B28" t="s">
@@ -3972,12 +4121,15 @@
       <c r="E28" t="s">
         <v>279</v>
       </c>
+      <c r="F28"/>
       <c r="G28" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29">
+      <c r="H28"/>
+      <c r="I28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
         <v>3</v>
       </c>
       <c r="B29" t="s">
@@ -3992,12 +4144,15 @@
       <c r="E29" t="s">
         <v>279</v>
       </c>
+      <c r="F29"/>
       <c r="G29" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30">
+      <c r="H29"/>
+      <c r="I29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
         <v>3</v>
       </c>
       <c r="B30" t="s">
@@ -4012,12 +4167,15 @@
       <c r="E30" t="s">
         <v>280</v>
       </c>
+      <c r="F30"/>
       <c r="G30" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31">
+      <c r="H30"/>
+      <c r="I30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
         <v>12</v>
       </c>
       <c r="B31" t="s">
@@ -4032,15 +4190,17 @@
       <c r="E31" t="s">
         <v>281</v>
       </c>
+      <c r="F31"/>
       <c r="G31" t="s">
         <v>282</v>
       </c>
       <c r="H31" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32">
+      <c r="I31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
         <v>12</v>
       </c>
       <c r="B32" t="s">
@@ -4053,17 +4213,19 @@
         <v>244</v>
       </c>
       <c r="E32" t="s">
-        <v>409</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="F32"/>
       <c r="G32" t="s">
         <v>282</v>
       </c>
       <c r="H32" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33">
+        <v>285</v>
+      </c>
+      <c r="I32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
         <v>14</v>
       </c>
       <c r="B33" t="s">
@@ -4076,20 +4238,21 @@
         <v>244</v>
       </c>
       <c r="E33" t="s">
-        <v>285</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="F33"/>
       <c r="G33" t="s">
         <v>243</v>
       </c>
       <c r="H33" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I33" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
         <v>14</v>
       </c>
       <c r="B34" t="s">
@@ -4102,8 +4265,9 @@
         <v>246</v>
       </c>
       <c r="E34" t="s">
-        <v>288</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="F34"/>
       <c r="G34" t="s">
         <v>243</v>
       </c>
@@ -4111,11 +4275,11 @@
         <v>267</v>
       </c>
       <c r="I34" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
         <v>14</v>
       </c>
       <c r="B35" t="s">
@@ -4131,20 +4295,20 @@
         <v>121</v>
       </c>
       <c r="F35" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G35" t="s">
         <v>243</v>
       </c>
       <c r="H35" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I35" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36">
+    <row r="36">
+      <c r="A36" t="n">
         <v>15</v>
       </c>
       <c r="B36" t="s">
@@ -4159,12 +4323,15 @@
       <c r="E36" t="s">
         <v>127</v>
       </c>
+      <c r="F36"/>
       <c r="G36" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37">
+        <v>293</v>
+      </c>
+      <c r="H36"/>
+      <c r="I36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
         <v>15</v>
       </c>
       <c r="B37" t="s">
@@ -4177,14 +4344,17 @@
         <v>244</v>
       </c>
       <c r="E37" t="s">
+        <v>294</v>
+      </c>
+      <c r="F37"/>
+      <c r="G37" t="s">
         <v>293</v>
       </c>
-      <c r="G37" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38">
+      <c r="H37"/>
+      <c r="I37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
         <v>15</v>
       </c>
       <c r="B38" t="s">
@@ -4197,14 +4367,17 @@
         <v>246</v>
       </c>
       <c r="E38" t="s">
-        <v>294</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="F38"/>
       <c r="G38" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39">
+      <c r="H38"/>
+      <c r="I38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
         <v>16</v>
       </c>
       <c r="B39" t="s">
@@ -4217,23 +4390,23 @@
         <v>240</v>
       </c>
       <c r="E39" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F39" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G39" t="s">
         <v>243</v>
       </c>
       <c r="H39" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I39" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
         <v>16</v>
       </c>
       <c r="B40" t="s">
@@ -4246,23 +4419,23 @@
         <v>246</v>
       </c>
       <c r="E40" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F40" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G40" t="s">
         <v>243</v>
       </c>
       <c r="H40" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I40" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
         <v>16</v>
       </c>
       <c r="B41" t="s">
@@ -4275,23 +4448,23 @@
         <v>248</v>
       </c>
       <c r="E41" t="s">
+        <v>302</v>
+      </c>
+      <c r="F41" t="s">
+        <v>291</v>
+      </c>
+      <c r="G41" t="s">
+        <v>243</v>
+      </c>
+      <c r="H41" t="s">
+        <v>303</v>
+      </c>
+      <c r="I41" t="s">
         <v>301</v>
       </c>
-      <c r="F41" t="s">
-        <v>290</v>
-      </c>
-      <c r="G41" t="s">
-        <v>243</v>
-      </c>
-      <c r="H41" t="s">
-        <v>302</v>
-      </c>
-      <c r="I41" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42">
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
         <v>17</v>
       </c>
       <c r="B42" t="s">
@@ -4304,7 +4477,7 @@
         <v>240</v>
       </c>
       <c r="E42" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F42" t="s">
         <v>135</v>
@@ -4313,14 +4486,14 @@
         <v>243</v>
       </c>
       <c r="H42" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I42" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43">
+    <row r="43">
+      <c r="A43" t="n">
         <v>17</v>
       </c>
       <c r="B43" t="s">
@@ -4333,7 +4506,7 @@
         <v>244</v>
       </c>
       <c r="E43" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F43" t="s">
         <v>135</v>
@@ -4342,14 +4515,14 @@
         <v>243</v>
       </c>
       <c r="H43" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I43" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44">
+    <row r="44">
+      <c r="A44" t="n">
         <v>17</v>
       </c>
       <c r="B44" t="s">
@@ -4362,7 +4535,7 @@
         <v>246</v>
       </c>
       <c r="E44" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F44" t="s">
         <v>135</v>
@@ -4371,14 +4544,14 @@
         <v>243</v>
       </c>
       <c r="H44" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I44" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
         <v>18</v>
       </c>
       <c r="B45" t="s">
@@ -4391,7 +4564,7 @@
         <v>240</v>
       </c>
       <c r="E45" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F45" t="s">
         <v>135</v>
@@ -4400,14 +4573,14 @@
         <v>243</v>
       </c>
       <c r="H45" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I45" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
         <v>18</v>
       </c>
       <c r="B46" t="s">
@@ -4420,7 +4593,7 @@
         <v>244</v>
       </c>
       <c r="E46" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F46" t="s">
         <v>135</v>
@@ -4429,14 +4602,14 @@
         <v>243</v>
       </c>
       <c r="H46" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I46" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
         <v>18</v>
       </c>
       <c r="B47" t="s">
@@ -4449,7 +4622,7 @@
         <v>246</v>
       </c>
       <c r="E47" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F47" t="s">
         <v>135</v>
@@ -4458,14 +4631,14 @@
         <v>243</v>
       </c>
       <c r="H47" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I47" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
         <v>18</v>
       </c>
       <c r="B48" t="s">
@@ -4478,7 +4651,7 @@
         <v>248</v>
       </c>
       <c r="E48" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F48" t="s">
         <v>135</v>
@@ -4487,14 +4660,14 @@
         <v>243</v>
       </c>
       <c r="H48" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I48" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
         <v>20</v>
       </c>
       <c r="B49" t="s">
@@ -4507,20 +4680,21 @@
         <v>240</v>
       </c>
       <c r="E49" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F49" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G49" t="s">
         <v>243</v>
       </c>
       <c r="H49" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50">
+        <v>322</v>
+      </c>
+      <c r="I49"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
         <v>20</v>
       </c>
       <c r="B50" t="s">
@@ -4533,7 +4707,7 @@
         <v>244</v>
       </c>
       <c r="E50" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F50" t="s">
         <v>152</v>
@@ -4542,14 +4716,14 @@
         <v>243</v>
       </c>
       <c r="H50" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I50" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
         <v>20</v>
       </c>
       <c r="B51" t="s">
@@ -4562,7 +4736,7 @@
         <v>246</v>
       </c>
       <c r="E51" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F51" t="s">
         <v>152</v>
@@ -4571,14 +4745,14 @@
         <v>243</v>
       </c>
       <c r="H51" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I51" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A52">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
         <v>20</v>
       </c>
       <c r="B52" t="s">
@@ -4600,14 +4774,14 @@
         <v>243</v>
       </c>
       <c r="H52" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I52" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
         <v>21</v>
       </c>
       <c r="B53" t="s">
@@ -4620,7 +4794,7 @@
         <v>244</v>
       </c>
       <c r="E53" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F53" t="s">
         <v>135</v>
@@ -4629,14 +4803,14 @@
         <v>243</v>
       </c>
       <c r="H53" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I53" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A54">
+    <row r="54">
+      <c r="A54" t="n">
         <v>21</v>
       </c>
       <c r="B54" t="s">
@@ -4649,23 +4823,23 @@
         <v>246</v>
       </c>
       <c r="E54" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F54" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G54" t="s">
         <v>243</v>
       </c>
       <c r="H54" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I54" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A55">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
         <v>22</v>
       </c>
       <c r="B55" t="s">
@@ -4678,7 +4852,7 @@
         <v>240</v>
       </c>
       <c r="E55" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F55" t="s">
         <v>135</v>
@@ -4687,11 +4861,12 @@
         <v>243</v>
       </c>
       <c r="H55" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56">
+        <v>287</v>
+      </c>
+      <c r="I55"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
         <v>22</v>
       </c>
       <c r="B56" t="s">
@@ -4704,7 +4879,7 @@
         <v>244</v>
       </c>
       <c r="E56" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F56" t="s">
         <v>135</v>
@@ -4713,11 +4888,12 @@
         <v>243</v>
       </c>
       <c r="H56" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57">
+        <v>335</v>
+      </c>
+      <c r="I56"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
         <v>22</v>
       </c>
       <c r="B57" t="s">
@@ -4730,7 +4906,7 @@
         <v>246</v>
       </c>
       <c r="E57" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F57" t="s">
         <v>135</v>
@@ -4741,9 +4917,10 @@
       <c r="H57" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A58">
+      <c r="I57"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
         <v>22</v>
       </c>
       <c r="B58" t="s">
@@ -4756,7 +4933,7 @@
         <v>248</v>
       </c>
       <c r="E58" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F58" t="s">
         <v>135</v>
@@ -4765,11 +4942,12 @@
         <v>243</v>
       </c>
       <c r="H58" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A59">
+        <v>292</v>
+      </c>
+      <c r="I58"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
         <v>23</v>
       </c>
       <c r="B59" t="s">
@@ -4782,7 +4960,7 @@
         <v>240</v>
       </c>
       <c r="E59" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F59" t="s">
         <v>135</v>
@@ -4791,14 +4969,14 @@
         <v>243</v>
       </c>
       <c r="H59" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I59" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A60">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
         <v>23</v>
       </c>
       <c r="B60" t="s">
@@ -4811,7 +4989,7 @@
         <v>244</v>
       </c>
       <c r="E60" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F60" t="s">
         <v>135</v>
@@ -4823,11 +5001,11 @@
         <v>264</v>
       </c>
       <c r="I60" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A61">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
         <v>23</v>
       </c>
       <c r="B61" t="s">
@@ -4840,7 +5018,7 @@
         <v>246</v>
       </c>
       <c r="E61" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F61" t="s">
         <v>135</v>
@@ -4852,11 +5030,11 @@
         <v>267</v>
       </c>
       <c r="I61" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A62">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
         <v>25</v>
       </c>
       <c r="B62" t="s">
@@ -4869,7 +5047,7 @@
         <v>240</v>
       </c>
       <c r="E62" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F62" t="s">
         <v>152</v>
@@ -4878,14 +5056,14 @@
         <v>243</v>
       </c>
       <c r="H62" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I62" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A63">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
         <v>25</v>
       </c>
       <c r="B63" t="s">
@@ -4898,7 +5076,7 @@
         <v>244</v>
       </c>
       <c r="E63" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F63" t="s">
         <v>152</v>
@@ -4907,14 +5085,14 @@
         <v>243</v>
       </c>
       <c r="H63" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I63" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A64">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
         <v>25</v>
       </c>
       <c r="B64" t="s">
@@ -4927,7 +5105,7 @@
         <v>248</v>
       </c>
       <c r="E64" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F64" t="s">
         <v>152</v>
@@ -4936,14 +5114,14 @@
         <v>243</v>
       </c>
       <c r="H64" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I64" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A65">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
         <v>26</v>
       </c>
       <c r="B65" t="s">
@@ -4956,7 +5134,7 @@
         <v>240</v>
       </c>
       <c r="E65" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F65" t="s">
         <v>135</v>
@@ -4965,14 +5143,14 @@
         <v>243</v>
       </c>
       <c r="H65" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I65" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A66">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
         <v>26</v>
       </c>
       <c r="B66" t="s">
@@ -4985,7 +5163,7 @@
         <v>244</v>
       </c>
       <c r="E66" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F66" t="s">
         <v>135</v>
@@ -4994,14 +5172,14 @@
         <v>243</v>
       </c>
       <c r="H66" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I66" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A67">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
         <v>26</v>
       </c>
       <c r="B67" t="s">
@@ -5014,7 +5192,7 @@
         <v>248</v>
       </c>
       <c r="E67" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F67" t="s">
         <v>135</v>
@@ -5023,14 +5201,14 @@
         <v>243</v>
       </c>
       <c r="H67" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I67" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A68">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
         <v>27</v>
       </c>
       <c r="B68" t="s">
@@ -5043,7 +5221,7 @@
         <v>244</v>
       </c>
       <c r="E68" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F68" t="s">
         <v>177</v>
@@ -5052,11 +5230,12 @@
         <v>243</v>
       </c>
       <c r="H68" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A69">
+        <v>356</v>
+      </c>
+      <c r="I68"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
         <v>27</v>
       </c>
       <c r="B69" t="s">
@@ -5078,11 +5257,12 @@
         <v>243</v>
       </c>
       <c r="H69" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A70">
+        <v>356</v>
+      </c>
+      <c r="I69"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
         <v>28</v>
       </c>
       <c r="B70" t="s">
@@ -5095,7 +5275,7 @@
         <v>244</v>
       </c>
       <c r="E70" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F70" t="s">
         <v>152</v>
@@ -5104,14 +5284,14 @@
         <v>243</v>
       </c>
       <c r="H70" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I70" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A71">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
         <v>28</v>
       </c>
       <c r="B71" t="s">
@@ -5124,7 +5304,7 @@
         <v>248</v>
       </c>
       <c r="E71" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F71" t="s">
         <v>152</v>
@@ -5133,14 +5313,14 @@
         <v>243</v>
       </c>
       <c r="H71" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I71" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A72">
+    <row r="72">
+      <c r="A72" t="n">
         <v>29</v>
       </c>
       <c r="B72" t="s">
@@ -5162,14 +5342,14 @@
         <v>243</v>
       </c>
       <c r="H72" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I72" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A73">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
         <v>29</v>
       </c>
       <c r="B73" t="s">
@@ -5191,14 +5371,14 @@
         <v>243</v>
       </c>
       <c r="H73" t="s">
+        <v>363</v>
+      </c>
+      <c r="I73" t="s">
         <v>362</v>
       </c>
-      <c r="I73" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A74">
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
         <v>30</v>
       </c>
       <c r="B74" t="s">
@@ -5220,14 +5400,14 @@
         <v>243</v>
       </c>
       <c r="H74" t="s">
+        <v>363</v>
+      </c>
+      <c r="I74" t="s">
         <v>362</v>
       </c>
-      <c r="I74" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A75">
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
         <v>30</v>
       </c>
       <c r="B75" t="s">
@@ -5249,14 +5429,14 @@
         <v>243</v>
       </c>
       <c r="H75" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I75" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A76">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
         <v>30</v>
       </c>
       <c r="B76" t="s">
@@ -5269,20 +5449,21 @@
         <v>246</v>
       </c>
       <c r="E76" t="s">
-        <v>363</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="F76"/>
       <c r="G76" t="s">
         <v>243</v>
       </c>
       <c r="H76" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I76" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A77">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
         <v>30</v>
       </c>
       <c r="B77" t="s">
@@ -5304,14 +5485,14 @@
         <v>243</v>
       </c>
       <c r="H77" t="s">
+        <v>363</v>
+      </c>
+      <c r="I77" t="s">
         <v>362</v>
       </c>
-      <c r="I77" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A78">
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
         <v>31</v>
       </c>
       <c r="B78" t="s">
@@ -5333,14 +5514,14 @@
         <v>243</v>
       </c>
       <c r="H78" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I78" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A79">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
         <v>31</v>
       </c>
       <c r="B79" t="s">
@@ -5362,14 +5543,14 @@
         <v>243</v>
       </c>
       <c r="H79" t="s">
+        <v>363</v>
+      </c>
+      <c r="I79" t="s">
         <v>362</v>
       </c>
-      <c r="I79" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A80">
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
         <v>32</v>
       </c>
       <c r="B80" t="s">
@@ -5382,7 +5563,7 @@
         <v>240</v>
       </c>
       <c r="E80" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F80" t="s">
         <v>152</v>
@@ -5391,14 +5572,14 @@
         <v>243</v>
       </c>
       <c r="H80" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I80" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A81">
+    <row r="81">
+      <c r="A81" t="n">
         <v>32</v>
       </c>
       <c r="B81" t="s">
@@ -5411,23 +5592,23 @@
         <v>246</v>
       </c>
       <c r="E81" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F81" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G81" t="s">
         <v>243</v>
       </c>
       <c r="H81" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I81" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A82">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
         <v>33</v>
       </c>
       <c r="B82" t="s">
@@ -5440,7 +5621,7 @@
         <v>240</v>
       </c>
       <c r="E82" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F82" t="s">
         <v>152</v>
@@ -5449,14 +5630,14 @@
         <v>243</v>
       </c>
       <c r="H82" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I82" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A83">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
         <v>33</v>
       </c>
       <c r="B83" t="s">
@@ -5469,7 +5650,7 @@
         <v>244</v>
       </c>
       <c r="E83" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F83" t="s">
         <v>152</v>
@@ -5478,14 +5659,14 @@
         <v>243</v>
       </c>
       <c r="H83" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I83" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A84">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
         <v>33</v>
       </c>
       <c r="B84" t="s">
@@ -5498,23 +5679,23 @@
         <v>246</v>
       </c>
       <c r="E84" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F84" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G84" t="s">
         <v>243</v>
       </c>
       <c r="H84" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I84" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A85">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
         <v>34</v>
       </c>
       <c r="B85" t="s">
@@ -5527,7 +5708,7 @@
         <v>240</v>
       </c>
       <c r="E85" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F85" t="s">
         <v>152</v>
@@ -5536,14 +5717,14 @@
         <v>243</v>
       </c>
       <c r="H85" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I85" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A86">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
         <v>34</v>
       </c>
       <c r="B86" t="s">
@@ -5556,7 +5737,7 @@
         <v>244</v>
       </c>
       <c r="E86" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F86" t="s">
         <v>152</v>
@@ -5565,14 +5746,14 @@
         <v>243</v>
       </c>
       <c r="H86" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I86" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A87">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
         <v>35</v>
       </c>
       <c r="B87" t="s">
@@ -5585,7 +5766,7 @@
         <v>240</v>
       </c>
       <c r="E87" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F87" t="s">
         <v>152</v>
@@ -5594,14 +5775,14 @@
         <v>243</v>
       </c>
       <c r="H87" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I87" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A88">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
         <v>35</v>
       </c>
       <c r="B88" t="s">
@@ -5614,7 +5795,7 @@
         <v>244</v>
       </c>
       <c r="E88" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F88" t="s">
         <v>152</v>
@@ -5623,14 +5804,14 @@
         <v>243</v>
       </c>
       <c r="H88" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I88" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A89">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
         <v>35</v>
       </c>
       <c r="B89" t="s">
@@ -5643,7 +5824,7 @@
         <v>248</v>
       </c>
       <c r="E89" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F89" t="s">
         <v>152</v>
@@ -5652,14 +5833,14 @@
         <v>243</v>
       </c>
       <c r="H89" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I89" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A90">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
         <v>36</v>
       </c>
       <c r="B90" t="s">
@@ -5672,7 +5853,7 @@
         <v>244</v>
       </c>
       <c r="E90" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F90" t="s">
         <v>152</v>
@@ -5681,14 +5862,14 @@
         <v>243</v>
       </c>
       <c r="H90" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I90" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A91">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
         <v>36</v>
       </c>
       <c r="B91" t="s">
@@ -5701,7 +5882,7 @@
         <v>248</v>
       </c>
       <c r="E91" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F91" t="s">
         <v>152</v>
@@ -5710,14 +5891,14 @@
         <v>243</v>
       </c>
       <c r="H91" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I91" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A92">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
         <v>37</v>
       </c>
       <c r="B92" t="s">
@@ -5730,23 +5911,23 @@
         <v>246</v>
       </c>
       <c r="E92" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F92" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G92" t="s">
         <v>243</v>
       </c>
       <c r="H92" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I92" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A93">
+    <row r="93">
+      <c r="A93" t="n">
         <v>37</v>
       </c>
       <c r="B93" t="s">
@@ -5759,23 +5940,23 @@
         <v>248</v>
       </c>
       <c r="E93" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F93" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G93" t="s">
         <v>243</v>
       </c>
       <c r="H93" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I93" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A94">
+    <row r="94">
+      <c r="A94" t="n">
         <v>38</v>
       </c>
       <c r="B94" t="s">
@@ -5791,20 +5972,20 @@
         <v>214</v>
       </c>
       <c r="F94" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G94" t="s">
         <v>243</v>
       </c>
       <c r="H94" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I94" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A95">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
         <v>39</v>
       </c>
       <c r="B95" t="s">
@@ -5820,20 +6001,20 @@
         <v>218</v>
       </c>
       <c r="F95" t="s">
+        <v>394</v>
+      </c>
+      <c r="G95" t="s">
+        <v>243</v>
+      </c>
+      <c r="H95" t="s">
         <v>393</v>
       </c>
-      <c r="G95" t="s">
-        <v>243</v>
-      </c>
-      <c r="H95" t="s">
-        <v>392</v>
-      </c>
       <c r="I95" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A96">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
         <v>39</v>
       </c>
       <c r="B96" t="s">
@@ -5846,7 +6027,7 @@
         <v>246</v>
       </c>
       <c r="E96" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F96" t="s">
         <v>222</v>
@@ -5855,14 +6036,14 @@
         <v>243</v>
       </c>
       <c r="H96" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I96" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A97">
+    <row r="97">
+      <c r="A97" t="n">
         <v>40</v>
       </c>
       <c r="B97" t="s">
@@ -5878,20 +6059,20 @@
         <v>224</v>
       </c>
       <c r="F97" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G97" t="s">
         <v>243</v>
       </c>
       <c r="H97" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I97" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A98">
+    <row r="98">
+      <c r="A98" t="n">
         <v>40</v>
       </c>
       <c r="B98" t="s">
@@ -5904,7 +6085,7 @@
         <v>246</v>
       </c>
       <c r="E98" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F98" t="s">
         <v>227</v>
@@ -5913,14 +6094,14 @@
         <v>243</v>
       </c>
       <c r="H98" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I98" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A99">
+    <row r="99">
+      <c r="A99" t="n">
         <v>41</v>
       </c>
       <c r="B99" t="s">
@@ -5936,20 +6117,20 @@
         <v>228</v>
       </c>
       <c r="F99" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G99" t="s">
         <v>243</v>
       </c>
       <c r="H99" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I99" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A100">
+    <row r="100">
+      <c r="A100" t="n">
         <v>41</v>
       </c>
       <c r="B100" t="s">
@@ -5962,7 +6143,7 @@
         <v>246</v>
       </c>
       <c r="E100" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F100" t="s">
         <v>227</v>
@@ -5971,14 +6152,14 @@
         <v>243</v>
       </c>
       <c r="H100" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I100" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A101">
+    <row r="101">
+      <c r="A101" t="n">
         <v>42</v>
       </c>
       <c r="B101" t="s">
@@ -5991,7 +6172,7 @@
         <v>244</v>
       </c>
       <c r="E101" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F101" t="s">
         <v>233</v>
@@ -6000,11 +6181,12 @@
         <v>243</v>
       </c>
       <c r="H101" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A102">
+        <v>402</v>
+      </c>
+      <c r="I101"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
         <v>42</v>
       </c>
       <c r="B102" t="s">
@@ -6017,22 +6199,24 @@
         <v>246</v>
       </c>
       <c r="E102" t="s">
-        <v>402</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="F102"/>
       <c r="G102" t="s">
         <v>243</v>
       </c>
       <c r="H102" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I102" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A103">
+    <row r="103">
+      <c r="A103" t="n">
         <v>66</v>
       </c>
+      <c r="B103"/>
       <c r="C103" t="s">
         <v>282</v>
       </c>
@@ -6040,14 +6224,17 @@
         <v>244</v>
       </c>
       <c r="E103" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F103" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A104">
+      <c r="G103"/>
+      <c r="H103"/>
+      <c r="I103"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
         <v>93</v>
       </c>
       <c r="B104" t="s">
@@ -6060,17 +6247,19 @@
         <v>240</v>
       </c>
       <c r="E104" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F104" t="s">
         <v>92</v>
       </c>
       <c r="G104" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A105">
+        <v>407</v>
+      </c>
+      <c r="H104"/>
+      <c r="I104"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
         <v>93</v>
       </c>
       <c r="B105" t="s">
@@ -6083,17 +6272,19 @@
         <v>246</v>
       </c>
       <c r="E105" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F105" t="s">
         <v>92</v>
       </c>
       <c r="G105" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A106">
+        <v>293</v>
+      </c>
+      <c r="H105"/>
+      <c r="I105"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
         <v>93</v>
       </c>
       <c r="B106" t="s">
@@ -6106,7 +6297,7 @@
         <v>248</v>
       </c>
       <c r="E106" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F106" t="s">
         <v>92</v>
@@ -6114,10 +6305,11 @@
       <c r="G106" t="s">
         <v>16</v>
       </c>
+      <c r="H106"/>
+      <c r="I106"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I106" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Tables/StreamHabitatSpecifications.xlsx
+++ b/Tables/StreamHabitatSpecifications.xlsx
@@ -6216,7 +6216,9 @@
       <c r="A103" t="n">
         <v>66</v>
       </c>
-      <c r="B103"/>
+      <c r="B103" t="s">
+        <v>65</v>
+      </c>
       <c r="C103" t="s">
         <v>282</v>
       </c>

--- a/Tables/StreamHabitatSpecifications.xlsx
+++ b/Tables/StreamHabitatSpecifications.xlsx
@@ -1234,7 +1234,7 @@
     <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7016</t>
   </si>
   <si>
-    <t xml:space="preserve">Targeted</t>
+    <t xml:space="preserve">DSGN_TYP</t>
   </si>
   <si>
     <t xml:space="preserve">survey_year</t>

--- a/Tables/StreamHabitatSpecifications.xlsx
+++ b/Tables/StreamHabitatSpecifications.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="411">
   <si>
     <t xml:space="preserve">tblname</t>
   </si>
@@ -1235,6 +1235,9 @@
   </si>
   <si>
     <t xml:space="preserve">DSGN_TYP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project</t>
   </si>
   <si>
     <t xml:space="preserve">survey_year</t>
@@ -6237,26 +6240,22 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="B104" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="C104" t="s">
-        <v>124</v>
+        <v>282</v>
       </c>
       <c r="D104" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E104" t="s">
         <v>406</v>
       </c>
-      <c r="F104" t="s">
-        <v>92</v>
-      </c>
-      <c r="G104" t="s">
-        <v>407</v>
-      </c>
+      <c r="F104"/>
+      <c r="G104"/>
       <c r="H104"/>
       <c r="I104"/>
     </row>
@@ -6271,16 +6270,16 @@
         <v>124</v>
       </c>
       <c r="D105" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E105" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F105" t="s">
         <v>92</v>
       </c>
       <c r="G105" t="s">
-        <v>293</v>
+        <v>408</v>
       </c>
       <c r="H105"/>
       <c r="I105"/>
@@ -6296,7 +6295,7 @@
         <v>124</v>
       </c>
       <c r="D106" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E106" t="s">
         <v>409</v>
@@ -6305,10 +6304,35 @@
         <v>92</v>
       </c>
       <c r="G106" t="s">
-        <v>16</v>
+        <v>293</v>
       </c>
       <c r="H106"/>
       <c r="I106"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>93</v>
+      </c>
+      <c r="B107" t="s">
+        <v>92</v>
+      </c>
+      <c r="C107" t="s">
+        <v>124</v>
+      </c>
+      <c r="D107" t="s">
+        <v>248</v>
+      </c>
+      <c r="E107" t="s">
+        <v>410</v>
+      </c>
+      <c r="F107" t="s">
+        <v>92</v>
+      </c>
+      <c r="G107" t="s">
+        <v>16</v>
+      </c>
+      <c r="H107"/>
+      <c r="I107"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/StreamHabitatSpecifications.xlsx
+++ b/Tables/StreamHabitatSpecifications.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="418">
   <si>
     <t xml:space="preserve">tblname</t>
   </si>
@@ -394,6 +394,9 @@
     <t xml:space="preserve">Numeric</t>
   </si>
   <si>
+    <t xml:space="preserve">ratio</t>
+  </si>
+  <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
@@ -769,6 +772,57 @@
     <t xml:space="preserve">Lat</t>
   </si>
   <si>
+    <t xml:space="preserve">PCT_DRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/4115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCT_DRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/1610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StrmFlow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Categorical: Flow, No Flow, Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">survey_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRTCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROTOCOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Categorical: I, IS, IK, IKS, K, P, R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">site_survey_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RchID</t>
+  </si>
+  <si>
     <t xml:space="preserve">MIDLONG</t>
   </si>
   <si>
@@ -808,318 +862,282 @@
     <t xml:space="preserve">SampDate</t>
   </si>
   <si>
-    <t xml:space="preserve">PCT_DRY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/CustomizedMethod/Details/31137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_DRS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/1610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StrmFlow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Categorical: Flow, No Flow, Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/924</t>
+    <t xml:space="preserve">beaver_impacted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BeaverFlowMod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNSTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SINU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRM_ORDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRAHLERORDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ave_widthDepth_ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/CustomizedMethod/Details/31107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/4245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFWD_RAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6870 AND www.monitoringresources.org/Document/Method/Details/56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/1064 OR  www.monitoringresources.org/Document/Method/Details/1275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDTrans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/65 | https://www.monitoringresources.org/Document/Method/Details/6871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average_bfdepth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/CustomizedMethod/Details/32163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNKFLL_HT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XBKF_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average_bfwidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNKFLL_WT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/CustomizedMethod/Details/32166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XBKF_W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/4103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/CustomizedMethod/Details/32197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gradient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent, expressed as a decimal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/CustomizedMethod/Details/31139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XSLOPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/4113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ThalwegDepthMean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XDEPTH_CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REACH_LENGTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOT_RCH_LEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REACHLEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RchLen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wettedWidth_ave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WTTD_WT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XWIDTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctReachInPools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCT_PL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoolPct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ave_residual_depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RES_PL_DEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoolDp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNK_AN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNK_STBLTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/69</t>
   </si>
   <si>
     <t xml:space="preserve">tbd</t>
   </si>
   <si>
-    <t xml:space="preserve">survey_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRTCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROTOCOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Categorical: I, IS, IK, IKS, K, P, R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">site_survey_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RchID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beaver_impacted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BeaverFlowMod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNSTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SINU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STRM_ORDR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STRAHLERORDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ave_widthDepth_ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6849 AND https://www.monitoringresources.org/Document/CustomizedMethod/Details/31107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/1064 OR www.monitoringresources.org/Document/Method/Details/1275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFWD_RAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6870 AND www.monitoringresources.org/Document/Method/Details/56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/1064 OR  www.monitoringresources.org/Document/Method/Details/1275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WDTrans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/65 AND https://www.monitoringresources.org/Document/Method/Details/6871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">average_bfdepth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/CustomizedMethod/Details/31107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNKFLL_HT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XBKF_H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">average_bfwidth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/4103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNKFLL_WT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.monitoringresources.org/Document/CustomizedMethod/Details/31137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XBKF_W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6870</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gradient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent, expressed as a decimal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/CustomizedMethod/Details/31139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/4113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XSLOPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ThalwegDepthMean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XDEPTH_CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REACH_LENGTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOT_RCH_LEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REACHLEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RchLen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wettedWidth_ave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WTTD_WT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XWIDTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctReachInPools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_PL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/4115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoolPct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ave_residual_depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES_PL_DEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoolDp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNK_AN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNK_STBLTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stab</t>
-  </si>
-  <si>
     <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6801</t>
   </si>
   <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6797</t>
+  </si>
+  <si>
     <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/1730</t>
   </si>
   <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6797</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sub_dmm</t>
   </si>
   <si>
     <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6874</t>
   </si>
   <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6810</t>
-  </si>
-  <si>
     <t xml:space="preserve">bedrock_pcnt</t>
   </si>
   <si>
@@ -1135,42 +1153,45 @@
     <t xml:space="preserve">pcnt_fines_tran2</t>
   </si>
   <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6977</t>
-  </si>
-  <si>
     <t xml:space="preserve">PCT_FN</t>
   </si>
   <si>
+    <t xml:space="preserve">PCT_SAFN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">precent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pect_fines_tran6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCT_FN6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pool_fines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/CustomizedMethod/Details/32165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PL_TL_FN</t>
+  </si>
+  <si>
     <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6862</t>
   </si>
   <si>
-    <t xml:space="preserve">PCT_SAFN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">precent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pect_fines_tran6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_FN6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pool_fines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6798</t>
+    <t xml:space="preserve">www.monitoringresources.org/Document/CustomizedMethod/Details/32164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTFines2</t>
   </si>
   <si>
     <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/868</t>
   </si>
   <si>
-    <t xml:space="preserve">PL_TL_FN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTFines2</t>
-  </si>
-  <si>
     <t xml:space="preserve">PL_TL_FN6</t>
   </si>
   <si>
@@ -1183,7 +1204,10 @@
     <t xml:space="preserve">mg/L</t>
   </si>
   <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3792</t>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7048</t>
   </si>
   <si>
     <t xml:space="preserve">Cond</t>
@@ -1207,18 +1231,18 @@
     <t xml:space="preserve">COND</t>
   </si>
   <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/72</t>
-  </si>
-  <si>
     <t xml:space="preserve">µg/L</t>
   </si>
   <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7024</t>
+  </si>
+  <si>
     <t xml:space="preserve">NTL</t>
   </si>
   <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/548</t>
-  </si>
-  <si>
     <t xml:space="preserve">PTL</t>
   </si>
   <si>
@@ -1229,9 +1253,6 @@
   </si>
   <si>
     <t xml:space="preserve">TURB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7016</t>
   </si>
   <si>
     <t xml:space="preserve">DSGN_TYP</t>
@@ -2566,7 +2587,7 @@
         <v>120</v>
       </c>
       <c r="B2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>121</v>
@@ -2581,12 +2602,14 @@
       <c r="G2" t="s">
         <v>124</v>
       </c>
-      <c r="H2"/>
+      <c r="H2" t="s">
+        <v>125</v>
+      </c>
       <c r="I2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3">
@@ -2594,837 +2617,837 @@
         <v>120</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="s">
         <v>124</v>
       </c>
       <c r="H3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3" t="s">
         <v>126</v>
       </c>
-      <c r="I3" t="s">
-        <v>125</v>
-      </c>
       <c r="J3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F4"/>
       <c r="G4" t="s">
         <v>124</v>
       </c>
       <c r="H4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B5" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F5"/>
       <c r="G5" t="s">
         <v>124</v>
       </c>
       <c r="H5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B6" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F6"/>
       <c r="G6" t="s">
         <v>124</v>
       </c>
       <c r="H6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B7" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F7"/>
       <c r="G7" t="s">
         <v>124</v>
       </c>
       <c r="H7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G8" t="s">
         <v>124</v>
       </c>
       <c r="H8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B9" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F9"/>
       <c r="G9" t="s">
         <v>124</v>
       </c>
       <c r="H9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B10" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F10"/>
       <c r="G10" t="s">
         <v>124</v>
       </c>
       <c r="H10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B11" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F11"/>
       <c r="G11" t="s">
         <v>124</v>
       </c>
       <c r="H11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B12" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G12" t="s">
         <v>124</v>
       </c>
       <c r="H12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B13" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F13"/>
       <c r="G13" t="s">
         <v>124</v>
       </c>
       <c r="H13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B14" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G14" t="s">
         <v>124</v>
       </c>
       <c r="H14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B15" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G15" t="s">
         <v>124</v>
       </c>
       <c r="H15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B16" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G16" t="s">
         <v>124</v>
       </c>
       <c r="H16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B17" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17" t="s">
+        <v>124</v>
+      </c>
+      <c r="H17" t="s">
+        <v>188</v>
+      </c>
+      <c r="I17" t="s">
+        <v>126</v>
+      </c>
+      <c r="J17" t="s">
         <v>189</v>
-      </c>
-      <c r="D17" t="s">
-        <v>190</v>
-      </c>
-      <c r="E17" t="s">
-        <v>191</v>
-      </c>
-      <c r="F17" t="s">
-        <v>186</v>
-      </c>
-      <c r="G17" t="s">
-        <v>124</v>
-      </c>
-      <c r="H17" t="s">
-        <v>187</v>
-      </c>
-      <c r="I17" t="s">
-        <v>125</v>
-      </c>
-      <c r="J17" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B18" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G18" t="s">
         <v>124</v>
       </c>
       <c r="H18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B19" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G19" t="s">
         <v>124</v>
       </c>
       <c r="H19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B20" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G20" t="s">
         <v>124</v>
       </c>
       <c r="H20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E21" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G21" t="s">
         <v>124</v>
       </c>
       <c r="H21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B22" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G22" t="s">
         <v>124</v>
       </c>
       <c r="H22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B23" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G23" t="s">
         <v>124</v>
       </c>
       <c r="H23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B24" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F24"/>
       <c r="G24" t="s">
         <v>124</v>
       </c>
       <c r="H24" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B25" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D25" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F25" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G25" t="s">
         <v>124</v>
       </c>
       <c r="H25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J25" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B26" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D26" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E26" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F26" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G26" t="s">
         <v>124</v>
       </c>
       <c r="H26" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B27" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D27" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E27" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F27"/>
       <c r="G27" t="s">
         <v>124</v>
       </c>
       <c r="H27" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B28" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D28" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E28" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F28"/>
       <c r="G28" t="s">
         <v>124</v>
       </c>
       <c r="H28" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B29" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D29" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E29" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F29"/>
       <c r="G29" t="s">
         <v>124</v>
       </c>
       <c r="H29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3452,27 +3475,27 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>48</v>
@@ -3481,23 +3504,23 @@
         <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>48</v>
@@ -3506,23 +3529,23 @@
         <v>124</v>
       </c>
       <c r="D3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>48</v>
@@ -3531,23 +3554,23 @@
         <v>124</v>
       </c>
       <c r="D4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>48</v>
@@ -3556,116 +3579,124 @@
         <v>124</v>
       </c>
       <c r="D5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>251</v>
       </c>
       <c r="F6" t="s">
-        <v>242</v>
+        <v>153</v>
       </c>
       <c r="G6" t="s">
-        <v>243</v>
-      </c>
-      <c r="H6"/>
-      <c r="I6"/>
+        <v>244</v>
+      </c>
+      <c r="H6" t="s">
+        <v>252</v>
+      </c>
+      <c r="I6" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F7" t="s">
-        <v>242</v>
+        <v>153</v>
       </c>
       <c r="G7" t="s">
-        <v>243</v>
-      </c>
-      <c r="H7"/>
-      <c r="I7"/>
+        <v>244</v>
+      </c>
+      <c r="H7" t="s">
+        <v>255</v>
+      </c>
+      <c r="I7" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E8" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F8" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="G8" t="s">
-        <v>243</v>
-      </c>
-      <c r="H8"/>
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>259</v>
+      </c>
       <c r="I8"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E9" t="s">
-        <v>252</v>
-      </c>
-      <c r="F9" t="s">
-        <v>242</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="F9"/>
       <c r="G9" t="s">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
@@ -3675,16 +3706,16 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E10" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="F10"/>
       <c r="G10" t="s">
@@ -3698,16 +3729,16 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E11" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F11"/>
       <c r="G11" t="s">
@@ -3721,18 +3752,20 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E12" t="s">
-        <v>253</v>
-      </c>
-      <c r="F12"/>
+        <v>263</v>
+      </c>
+      <c r="F12" t="s">
+        <v>264</v>
+      </c>
       <c r="G12" t="s">
         <v>12</v>
       </c>
@@ -3741,23 +3774,23 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E13" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="F13"/>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H13"/>
       <c r="I13"/>
@@ -3767,16 +3800,16 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E14" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="F14"/>
       <c r="G14" t="s">
@@ -3790,20 +3823,18 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E15" t="s">
-        <v>257</v>
-      </c>
-      <c r="F15" t="s">
-        <v>126</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="F15"/>
       <c r="G15" t="s">
         <v>12</v>
       </c>
@@ -3812,23 +3843,23 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="E16" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="F16"/>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="H16"/>
       <c r="I16"/>
@@ -3838,22 +3869,22 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="D17" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E17" t="s">
-        <v>259</v>
+        <v>58</v>
       </c>
       <c r="F17" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
@@ -3863,20 +3894,22 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="D18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E18" t="s">
-        <v>261</v>
-      </c>
-      <c r="F18"/>
+        <v>268</v>
+      </c>
+      <c r="F18" t="s">
+        <v>243</v>
+      </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="H18"/>
       <c r="I18"/>
@@ -3886,126 +3919,112 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="D19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E19" t="s">
-        <v>262</v>
-      </c>
-      <c r="F19"/>
+        <v>269</v>
+      </c>
+      <c r="F19" t="s">
+        <v>243</v>
+      </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="D20" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E20" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="F20" t="s">
-        <v>152</v>
+        <v>243</v>
       </c>
       <c r="G20" t="s">
-        <v>243</v>
-      </c>
-      <c r="H20" t="s">
-        <v>264</v>
-      </c>
-      <c r="I20" t="s">
-        <v>265</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="H20"/>
+      <c r="I20"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E21" t="s">
-        <v>266</v>
-      </c>
-      <c r="F21" t="s">
-        <v>152</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="F21"/>
       <c r="G21" t="s">
-        <v>243</v>
-      </c>
-      <c r="H21" t="s">
-        <v>267</v>
-      </c>
-      <c r="I21" t="s">
-        <v>268</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H21"/>
+      <c r="I21"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E22" t="s">
-        <v>269</v>
-      </c>
-      <c r="F22" t="s">
-        <v>270</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="F22"/>
       <c r="G22" t="s">
         <v>12</v>
       </c>
-      <c r="H22" t="s">
-        <v>271</v>
-      </c>
-      <c r="I22" t="s">
-        <v>272</v>
-      </c>
+      <c r="H22"/>
+      <c r="I22"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="E23" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F23"/>
       <c r="G23" t="s">
@@ -4016,42 +4035,42 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F24"/>
       <c r="G24" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F25"/>
       <c r="G25" t="s">
@@ -4062,22 +4081,22 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F26" t="s">
-        <v>277</v>
+        <v>127</v>
       </c>
       <c r="G26" t="s">
         <v>12</v>
@@ -4087,99 +4106,101 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E27" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F27"/>
       <c r="G27" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H27"/>
       <c r="I27"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E28" t="s">
-        <v>279</v>
-      </c>
-      <c r="F28"/>
+        <v>277</v>
+      </c>
+      <c r="F28" t="s">
+        <v>278</v>
+      </c>
       <c r="G28" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H28"/>
       <c r="I28"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E29" t="s">
         <v>279</v>
       </c>
       <c r="F29"/>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E30" t="s">
         <v>280</v>
       </c>
       <c r="F30"/>
       <c r="G30" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="H30"/>
       <c r="I30"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
         <v>90</v>
@@ -4188,7 +4209,7 @@
         <v>124</v>
       </c>
       <c r="D31" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E31" t="s">
         <v>281</v>
@@ -4204,7 +4225,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
         <v>90</v>
@@ -4213,7 +4234,7 @@
         <v>124</v>
       </c>
       <c r="D32" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E32" t="s">
         <v>284</v>
@@ -4229,7 +4250,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
         <v>121</v>
@@ -4238,14 +4259,16 @@
         <v>124</v>
       </c>
       <c r="D33" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E33" t="s">
         <v>286</v>
       </c>
-      <c r="F33"/>
+      <c r="F33" t="s">
+        <v>125</v>
+      </c>
       <c r="G33" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H33" t="s">
         <v>287</v>
@@ -4256,7 +4279,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
         <v>121</v>
@@ -4265,17 +4288,19 @@
         <v>124</v>
       </c>
       <c r="D34" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E34" t="s">
         <v>289</v>
       </c>
-      <c r="F34"/>
+      <c r="F34" t="s">
+        <v>125</v>
+      </c>
       <c r="G34" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H34" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="I34" t="s">
         <v>290</v>
@@ -4283,7 +4308,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
         <v>121</v>
@@ -4292,259 +4317,259 @@
         <v>124</v>
       </c>
       <c r="D35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E35" t="s">
         <v>121</v>
       </c>
       <c r="F35" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35" t="s">
+        <v>244</v>
+      </c>
+      <c r="H35" t="s">
         <v>291</v>
       </c>
-      <c r="G35" t="s">
-        <v>243</v>
-      </c>
-      <c r="H35" t="s">
-        <v>292</v>
-      </c>
       <c r="I35" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C36" t="s">
         <v>124</v>
       </c>
       <c r="D36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F36"/>
       <c r="G36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H36"/>
       <c r="I36"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C37" t="s">
         <v>124</v>
       </c>
       <c r="D37" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F37"/>
       <c r="G37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H37"/>
       <c r="I37"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C38" t="s">
         <v>124</v>
       </c>
       <c r="D38" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E38" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F38"/>
       <c r="G38" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H38"/>
       <c r="I38"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C39" t="s">
         <v>124</v>
       </c>
       <c r="D39" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E39" t="s">
+        <v>295</v>
+      </c>
+      <c r="F39" t="s">
+        <v>125</v>
+      </c>
+      <c r="G39" t="s">
+        <v>244</v>
+      </c>
+      <c r="H39" t="s">
         <v>296</v>
       </c>
-      <c r="F39" t="s">
-        <v>291</v>
-      </c>
-      <c r="G39" t="s">
-        <v>243</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>297</v>
-      </c>
-      <c r="I39" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C40" t="s">
         <v>124</v>
       </c>
       <c r="D40" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E40" t="s">
+        <v>298</v>
+      </c>
+      <c r="F40" t="s">
+        <v>125</v>
+      </c>
+      <c r="G40" t="s">
+        <v>244</v>
+      </c>
+      <c r="H40" t="s">
         <v>299</v>
       </c>
-      <c r="F40" t="s">
-        <v>291</v>
-      </c>
-      <c r="G40" t="s">
-        <v>243</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>300</v>
-      </c>
-      <c r="I40" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C41" t="s">
         <v>124</v>
       </c>
       <c r="D41" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E41" t="s">
+        <v>301</v>
+      </c>
+      <c r="F41" t="s">
+        <v>125</v>
+      </c>
+      <c r="G41" t="s">
+        <v>244</v>
+      </c>
+      <c r="H41" t="s">
         <v>302</v>
       </c>
-      <c r="F41" t="s">
-        <v>291</v>
-      </c>
-      <c r="G41" t="s">
-        <v>243</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>303</v>
-      </c>
-      <c r="I41" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C42" t="s">
         <v>124</v>
       </c>
       <c r="D42" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E42" t="s">
         <v>304</v>
       </c>
       <c r="F42" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G42" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H42" t="s">
+        <v>296</v>
+      </c>
+      <c r="I42" t="s">
         <v>305</v>
-      </c>
-      <c r="I42" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B43" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C43" t="s">
         <v>124</v>
       </c>
       <c r="D43" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E43" t="s">
         <v>306</v>
       </c>
       <c r="F43" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G43" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H43" t="s">
         <v>307</v>
       </c>
       <c r="I43" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B44" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C44" t="s">
         <v>124</v>
       </c>
       <c r="D44" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E44" t="s">
         <v>308</v>
       </c>
       <c r="F44" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G44" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H44" t="s">
         <v>309</v>
@@ -4555,1669 +4580,1669 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C45" t="s">
         <v>124</v>
       </c>
       <c r="D45" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E45" t="s">
         <v>311</v>
       </c>
       <c r="F45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G45" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H45" t="s">
         <v>312</v>
       </c>
       <c r="I45" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C46" t="s">
         <v>124</v>
       </c>
       <c r="D46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E46" t="s">
+        <v>313</v>
+      </c>
+      <c r="F46" t="s">
+        <v>136</v>
+      </c>
+      <c r="G46" t="s">
+        <v>244</v>
+      </c>
+      <c r="H46" t="s">
         <v>314</v>
       </c>
-      <c r="F46" t="s">
-        <v>135</v>
-      </c>
-      <c r="G46" t="s">
-        <v>243</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>315</v>
-      </c>
-      <c r="I46" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C47" t="s">
         <v>124</v>
       </c>
       <c r="D47" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E47" t="s">
         <v>316</v>
       </c>
       <c r="F47" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G47" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H47" t="s">
         <v>317</v>
       </c>
       <c r="I47" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C48" t="s">
         <v>124</v>
       </c>
       <c r="D48" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E48" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F48" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G48" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H48" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I48" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B49" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C49" t="s">
         <v>124</v>
       </c>
       <c r="D49" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E49" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F49" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G49" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H49" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="I49"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B50" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C50" t="s">
         <v>124</v>
       </c>
       <c r="D50" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E50" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F50" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G50" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H50" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="I50" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B51" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C51" t="s">
         <v>124</v>
       </c>
       <c r="D51" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E51" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F51" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G51" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H51" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="I51" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B52" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C52" t="s">
         <v>124</v>
       </c>
       <c r="D52" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E52" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F52" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G52" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H52" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I52" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C53" t="s">
         <v>124</v>
       </c>
       <c r="D53" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E53" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F53" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G53" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H53" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="I53" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B54" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C54" t="s">
         <v>124</v>
       </c>
       <c r="D54" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E54" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F54" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G54" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H54" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="I54" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B55" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C55" t="s">
         <v>124</v>
       </c>
       <c r="D55" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E55" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F55" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G55" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H55" t="s">
-        <v>287</v>
+        <v>337</v>
       </c>
       <c r="I55"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B56" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C56" t="s">
         <v>124</v>
       </c>
       <c r="D56" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E56" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F56" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G56" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H56" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="I56"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B57" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C57" t="s">
         <v>124</v>
       </c>
       <c r="D57" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E57" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F57" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G57" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H57" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="I57"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B58" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C58" t="s">
         <v>124</v>
       </c>
       <c r="D58" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E58" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F58" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G58" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H58" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="I58"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C59" t="s">
         <v>124</v>
       </c>
       <c r="D59" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E59" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F59" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G59" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H59" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="I59" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B60" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C60" t="s">
         <v>124</v>
       </c>
       <c r="D60" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E60" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F60" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G60" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H60" t="s">
-        <v>264</v>
+        <v>344</v>
       </c>
       <c r="I60" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B61" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C61" t="s">
         <v>124</v>
       </c>
       <c r="D61" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E61" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F61" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G61" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H61" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="I61" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B62" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C62" t="s">
         <v>124</v>
       </c>
       <c r="D62" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E62" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="F62" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G62" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H62" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="I62" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B63" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C63" t="s">
         <v>124</v>
       </c>
       <c r="D63" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E63" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="F63" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G63" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H63" t="s">
-        <v>346</v>
+        <v>252</v>
       </c>
       <c r="I63" t="s">
-        <v>347</v>
+        <v>253</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B64" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C64" t="s">
         <v>124</v>
       </c>
       <c r="D64" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E64" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F64" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G64" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H64" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="I64" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B65" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C65" t="s">
         <v>124</v>
       </c>
       <c r="D65" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E65" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F65" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G65" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H65" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="I65" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B66" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C66" t="s">
         <v>124</v>
       </c>
       <c r="D66" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E66" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F66" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G66" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H66" t="s">
-        <v>346</v>
+        <v>252</v>
       </c>
       <c r="I66" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B67" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C67" t="s">
         <v>124</v>
       </c>
       <c r="D67" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E67" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F67" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G67" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H67" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="I67" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B68" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C68" t="s">
         <v>124</v>
       </c>
       <c r="D68" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E68" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F68" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G68" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H68" t="s">
-        <v>356</v>
-      </c>
-      <c r="I68"/>
+        <v>359</v>
+      </c>
+      <c r="I68" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B69" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C69" t="s">
         <v>124</v>
       </c>
       <c r="D69" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E69" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F69" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G69" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H69" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="I69"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B70" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C70" t="s">
         <v>124</v>
       </c>
       <c r="D70" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E70" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G70" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H70" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="I70" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B71" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C71" t="s">
         <v>124</v>
       </c>
       <c r="D71" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E71" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="F71" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G71" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H71" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="I71" t="s">
-        <v>272</v>
+        <v>366</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B72" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C72" t="s">
         <v>124</v>
       </c>
       <c r="D72" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E72" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F72" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G72" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H72" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="I72" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B73" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C73" t="s">
         <v>124</v>
       </c>
       <c r="D73" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E73" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F73" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G73" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H73" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="I73" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B74" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C74" t="s">
         <v>124</v>
       </c>
       <c r="D74" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E74" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F74" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G74" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H74" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="I74" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B75" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C75" t="s">
         <v>124</v>
       </c>
       <c r="D75" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E75" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F75" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G75" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H75" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="I75" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B76" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C76" t="s">
         <v>124</v>
       </c>
       <c r="D76" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E76" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="F76"/>
       <c r="G76" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H76" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="I76" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B77" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C77" t="s">
         <v>124</v>
       </c>
       <c r="D77" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E77" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F77" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G77" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H77" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="I77" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B78" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C78" t="s">
         <v>124</v>
       </c>
       <c r="D78" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E78" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F78" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G78" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H78" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I78" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B79" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C79" t="s">
         <v>124</v>
       </c>
       <c r="D79" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E79" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F79" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G79" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H79" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="I79" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B80" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C80" t="s">
         <v>124</v>
       </c>
       <c r="D80" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E80" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="F80" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G80" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H80" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="I80" t="s">
-        <v>272</v>
+        <v>368</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B81" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C81" t="s">
         <v>124</v>
       </c>
       <c r="D81" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E81" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="F81" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="G81" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H81" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="I81" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B82" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C82" t="s">
         <v>124</v>
       </c>
       <c r="D82" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E82" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F82" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G82" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H82" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="I82" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B83" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C83" t="s">
         <v>124</v>
       </c>
       <c r="D83" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E83" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="F83" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G83" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H83" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="I83" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B84" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C84" t="s">
         <v>124</v>
       </c>
       <c r="D84" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E84" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F84" t="s">
+        <v>380</v>
+      </c>
+      <c r="G84" t="s">
+        <v>244</v>
+      </c>
+      <c r="H84" t="s">
+        <v>372</v>
+      </c>
+      <c r="I84" t="s">
         <v>376</v>
-      </c>
-      <c r="G84" t="s">
-        <v>243</v>
-      </c>
-      <c r="H84" t="s">
-        <v>365</v>
-      </c>
-      <c r="I84" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B85" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C85" t="s">
         <v>124</v>
       </c>
       <c r="D85" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E85" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="F85" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G85" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H85" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="I85" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B86" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C86" t="s">
         <v>124</v>
       </c>
       <c r="D86" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E86" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F86" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G86" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H86" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="I86" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B87" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C87" t="s">
         <v>124</v>
       </c>
       <c r="D87" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E87" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="F87" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G87" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H87" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I87" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B88" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C88" t="s">
         <v>124</v>
       </c>
       <c r="D88" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E88" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F88" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G88" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H88" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="I88" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B89" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C89" t="s">
         <v>124</v>
       </c>
       <c r="D89" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E89" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="F89" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G89" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H89" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="I89" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B90" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C90" t="s">
         <v>124</v>
       </c>
       <c r="D90" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E90" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="F90" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G90" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H90" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="I90" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B91" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C91" t="s">
         <v>124</v>
       </c>
       <c r="D91" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E91" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="F91" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G91" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H91" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="I91" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B92" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C92" t="s">
         <v>124</v>
       </c>
       <c r="D92" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E92" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="F92" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="G92" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H92" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="I92" t="s">
-        <v>272</v>
+        <v>396</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B93" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C93" t="s">
         <v>124</v>
       </c>
       <c r="D93" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E93" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="F93" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="G93" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H93" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="I93" t="s">
-        <v>272</v>
+        <v>366</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B94" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C94" t="s">
         <v>124</v>
       </c>
       <c r="D94" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E94" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F94" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="G94" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H94" t="s">
-        <v>393</v>
-      </c>
-      <c r="I94" t="s">
-        <v>393</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="I94"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B95" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C95" t="s">
         <v>124</v>
       </c>
       <c r="D95" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E95" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F95" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="G95" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H95" t="s">
-        <v>393</v>
-      </c>
-      <c r="I95" t="s">
-        <v>393</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="I95"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B96" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C96" t="s">
         <v>124</v>
       </c>
       <c r="D96" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E96" t="s">
+        <v>403</v>
+      </c>
+      <c r="F96" t="s">
+        <v>223</v>
+      </c>
+      <c r="G96" t="s">
+        <v>244</v>
+      </c>
+      <c r="H96" t="s">
         <v>395</v>
       </c>
-      <c r="F96" t="s">
-        <v>222</v>
-      </c>
-      <c r="G96" t="s">
-        <v>243</v>
-      </c>
-      <c r="H96" t="s">
+      <c r="I96" t="s">
         <v>396</v>
-      </c>
-      <c r="I96" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B97" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C97" t="s">
         <v>124</v>
       </c>
       <c r="D97" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E97" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F97" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="G97" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H97" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="I97" t="s">
-        <v>272</v>
+        <v>406</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B98" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C98" t="s">
         <v>124</v>
       </c>
       <c r="D98" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E98" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="F98" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G98" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H98" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="I98" t="s">
-        <v>272</v>
+        <v>396</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B99" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C99" t="s">
         <v>124</v>
       </c>
       <c r="D99" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E99" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F99" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="G99" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H99" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="I99" t="s">
-        <v>272</v>
+        <v>406</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B100" t="s">
+        <v>229</v>
+      </c>
+      <c r="C100" t="s">
+        <v>124</v>
+      </c>
+      <c r="D100" t="s">
+        <v>247</v>
+      </c>
+      <c r="E100" t="s">
+        <v>408</v>
+      </c>
+      <c r="F100" t="s">
         <v>228</v>
       </c>
-      <c r="C100" t="s">
-        <v>124</v>
-      </c>
-      <c r="D100" t="s">
-        <v>246</v>
-      </c>
-      <c r="E100" t="s">
-        <v>400</v>
-      </c>
-      <c r="F100" t="s">
-        <v>227</v>
-      </c>
       <c r="G100" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H100" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="I100" t="s">
-        <v>272</v>
+        <v>396</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B101" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C101" t="s">
         <v>124</v>
       </c>
       <c r="D101" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E101" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="F101" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G101" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H101" t="s">
-        <v>402</v>
-      </c>
-      <c r="I101"/>
+        <v>410</v>
+      </c>
+      <c r="I101" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B102" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C102" t="s">
         <v>124</v>
       </c>
       <c r="D102" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E102" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="F102"/>
       <c r="G102" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H102" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="I102" t="s">
-        <v>272</v>
+        <v>396</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B103" t="s">
         <v>65</v>
@@ -6226,13 +6251,13 @@
         <v>282</v>
       </c>
       <c r="D103" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E103" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="F103" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G103"/>
       <c r="H103"/>
@@ -6240,7 +6265,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B104" t="s">
         <v>65</v>
@@ -6249,10 +6274,10 @@
         <v>282</v>
       </c>
       <c r="D104" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E104" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="F104"/>
       <c r="G104"/>
@@ -6261,7 +6286,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B105" t="s">
         <v>92</v>
@@ -6270,23 +6295,23 @@
         <v>124</v>
       </c>
       <c r="D105" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E105" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="F105" t="s">
         <v>92</v>
       </c>
       <c r="G105" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="H105"/>
       <c r="I105"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B106" t="s">
         <v>92</v>
@@ -6295,23 +6320,23 @@
         <v>124</v>
       </c>
       <c r="D106" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E106" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F106" t="s">
         <v>92</v>
       </c>
       <c r="G106" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H106"/>
       <c r="I106"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B107" t="s">
         <v>92</v>
@@ -6320,10 +6345,10 @@
         <v>124</v>
       </c>
       <c r="D107" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E107" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="F107" t="s">
         <v>92</v>
@@ -6333,6 +6358,27 @@
       </c>
       <c r="H107"/>
       <c r="I107"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>3</v>
+      </c>
+      <c r="B108" t="s">
+        <v>81</v>
+      </c>
+      <c r="C108"/>
+      <c r="D108" t="s">
+        <v>241</v>
+      </c>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
+      <c r="H108" t="s">
+        <v>348</v>
+      </c>
+      <c r="I108" t="s">
+        <v>253</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/StreamHabitatSpecifications.xlsx
+++ b/Tables/StreamHabitatSpecifications.xlsx
@@ -1,1269 +1,1276 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rscully\Documents\Projects\Habitat Data Sharing\2019_2020\Code\Stream-Monitoring-Data-Exchange-Specifications\Tables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44663886-B953-4B71-879F-40193C7A120C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="RecordLevel" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Location" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Event" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="MeasurementorFact" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="metricControlledVocabulary" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Crosswalk" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="RecordLevel" sheetId="1" r:id="rId1"/>
+    <sheet name="Location" sheetId="2" r:id="rId2"/>
+    <sheet name="Event" sheetId="3" r:id="rId3"/>
+    <sheet name="MeasurementorFact" sheetId="4" r:id="rId4"/>
+    <sheet name="metricControlledVocabulary" sheetId="5" r:id="rId5"/>
+    <sheet name="Crosswalk" sheetId="6" r:id="rId6"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="413">
-  <si>
-    <t xml:space="preserve">tblname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">term</t>
-  </si>
-  <si>
-    <t xml:space="preserve">termID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">definition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdommin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdommax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dataType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">examples</t>
-  </si>
-  <si>
-    <t xml:space="preserve">standard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datasetID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A unique identifier assigned to the originating source data's program.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Darwin Core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bibilographicCitation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A bibliographic reference for the resource as a statement indicating how this record should be cited (attributed) when used.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datasetLink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A URL identifier for the collection or dataset from which the record was derived. The source location for the originating source data.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.epa.gov/national-aquatic-resource-surveys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Producer defned</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datasetName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The name of the originating data set from which the record was derived.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPA NARS 2018 dataset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">institutionCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The name (or acronym) in use by the institution having custody of the object(s) or information referred to in the record.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLM,  EPA, USFS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metadataID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A URL identifier for the metadata for the originating source dataset or note how to access metadata.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ODM2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preProcessingCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL identifier for access to the code used to pre-process (download, standardize and tidy) the data sets before integration into the destination dataset.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">projectCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The acronym of the name assigned by the Institution (project leader or principal investigator) to the project, from which the source data originates from.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIBO, AIM, USFS, NRSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">projectName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The name assigned by the Institution (project leader or principal investigator) to the project, from which the source data originates from.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USFS PacFish/InFish Biological Opinion Monitoring Program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A unique numeric identifier assigned to the originating source data's program.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">locationID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique global identifier assigned to the location where the event occurred.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5483AIM, 88963AREMP, WtR563EPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verbatimLocationID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The verbatim location ID from the originating source dataset assigned by the monitoring program.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5483, 88693, WtR563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">latitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The geographic latitude (WGS84) of the geographic center of a location.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.268600000000006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Float</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The geographic longitude (WGS84) of the geographic center of a location.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-163.74230800000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-67.240600000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">locationRemarks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The location along the reach where geographic coordinates were obtained.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">siteSelectionType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The type of site selection used according to the program.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random, Targeted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waterBody</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The name of the water body in which the location occurs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eventDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The calendar date of the event from the source data.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000-05-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-10-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eventID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global unique identifier assigned to an Event (something that occurs at a place and time, such as a survey or measurement).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FFFE9F28-60DB-40C0-B9C0-4AFC753A9880, 10002-PIBO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fieldNotes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The description of flow for the reach (flow, partial flow or dry).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dry, wet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">samplingProtocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The name of, reference to, or description of the stream survey method or protocol used during an Event.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UV light trap, "mist net", "bottom trawl", "ad hoc observation", "point count", "Penguins from space: faecal stains reveal the location of emperor penguin colonies, http://dx.doi.org/10.1111/j.1466-8238.2009.00467.x", "Takats et al. 2001. Guidelines for Nocturnal Owl Monitoring in North America. Beaverhill Bird Observatory and Bird Studies Canada, Edmonton, Alberta. 32 pp.", "http://www.bsc-eoc.org/download/Owl.pdf"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verbatimEventID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The verbatim event ID from the originating source dataset assigned by the program.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FFFE9F28-60DB-40C0-B9C0-4AFC753A9880, 10002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beaverImpactFlow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beaver impact the flow of the reach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The four-digit year in which the event occurred.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MeasurementOrFact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measurementID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global unique identifier assigned to the measurementValue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">191982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global unique identifier assigned to the term.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measurementValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The value of the term attribute measured in units given in the term attribute definition.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45, "20", "1", "14.5", "UV-light"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The variable or name of the measurement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grad, WetWidth, ReachLen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">categoryID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">edomvds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measurementType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minimumPossibleValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maximumPossibleValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ControlledVocabulary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reach sinuosity (reach length along the thalweg divided by straight line distance between the bottom of the reach and the top of the reach)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Producer Defined</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numeric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Characteristics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinuosity of Local Stream Reach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StreamOrder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strahler stream order of the site from the provider dataset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stream Order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AvgBFWDRatio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull width/depth ratio for the reach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel dimensions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bankfull width to depth ratio at transects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFHeight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull height measured from water surface across transects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bankfull Height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFWidth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull width across transects for the reach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull width from transects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">countTransectsBFWidth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of cross sections included in the average bankfull width calculation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">count of measurments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of cross sections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean slope of water surface (percent) from the bottom of the reach to the top of the reach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gradient of stream reach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 0, max: 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MeanThalwegDepth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean thalweg depth. Metric of how deep water was at the site.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average Thalweg Depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReachLen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length of sampling reach measured along the thalweg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length of sampling reach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WetWidth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average wetted width across transects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average wetted width from transects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctPool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent of the sample reach (linear extent) classified as pool habitat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent pools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average of the residual pool depth values for all pools in a reach. Residual pool depth the difference of the pool tail depth from the max depth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residual pool depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankAngle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured angle of the stream bank;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">degrees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Streambanks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank angle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 0, max: 180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctStab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent of 42 banks lacking visible signs of active erosion (e.g., slump, slough, fracture) (units: percent, min: 0, max: 100, n= 42)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent stable banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bed surface particle size corresponding to the 16th percentile of measured particles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter of the 16th percentile streambed particle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 1, max: 4098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median diameter of bed surface particle size corresponding to the areal median (50th percentile of measured particles) .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter of the 50th percentile streambed particle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bed surface particle size corresponding to the 84th percentile of measured particles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter of the 84th percentile streambed particle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctBdrk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent of the stream bed area that is composed of particles with a b-axis &gt; 4098mm (bedrock)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent Bed Surface Bedrock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctFines2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent of the stream bed area that is comprised of particles with a b-axis &lt; 2 mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent of streambed particles &lt;2mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctFines6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent of the stream bed area that is composed of particles with a b-axis &lt; 6 mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent of streambed particles &lt;6mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoolTailFines2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average percent fine sediment (&lt; 2mm) on the pool tail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent pool tail fines &lt; 2mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoolTailFines6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average percent fine sediment (&lt; 6mm) on the pool tail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent pool tail fines &lt; 6mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conductivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measure of the concentration of ionized materials in water, or the ability of water to conduct electrical current. Used as a measure of mineral / ionic concentration.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ppm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water chemistry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured pH value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 0, max: 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpecificConductance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured specific conductance value. The specific conductance is conductivity standardized to 25 degrees C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uS/cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specific Conductance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 0, max: 65500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TotalNitrogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured total nitrogen value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ug/L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Nitrogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TotalPhosphorous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured total phosphorous value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Phosphorous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turbidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average water clarity as measured by the suspended solids in the water column</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">catagoryID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">catagory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">originalField</t>
-  </si>
-  <si>
-    <t xml:space="preserve">originalUnit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">originalDataType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">methodCollection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">methodAnalysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNSTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">double</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NRSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SINU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/1610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIBO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AREMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STRM_ORDR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STRAHLERORDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ave_widthDepth_ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/CustomizedMethod/Details/31107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/4245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFWD_RAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6870 AND www.monitoringresources.org/Document/Method/Details/56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/1064 OR  www.monitoringresources.org/Document/Method/Details/1275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WDTrans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/65 | https://www.monitoringresources.org/Document/Method/Details/6871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">average_bfdepth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/CustomizedMethod/Details/32163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNKFLL_HT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XBKF_H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">average_bfwidth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNKFLL_WT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/CustomizedMethod/Details/32166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XBKF_W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6870</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/4103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/CustomizedMethod/Details/32197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gradient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent, expressed as a decimal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/CustomizedMethod/Details/31139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XSLOPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/4113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ThalwegDepthMean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XDEPTH_CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REACH_LENGTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOT_RCH_LEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REACHLEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RchLen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wettedWidth_ave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WTTD_WT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XWIDTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctReachInPools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_PL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/4115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoolPct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ave_residual_depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES_PL_DEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoolDp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNK_AN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNK_STBLTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/1730</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub_dmm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bedrock_pcnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_BDRK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Log 10 mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pcnt_fines_tran2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_FN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_SAFN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">precent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pect_fines_tran6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_FN6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pool_fines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/CustomizedMethod/Details/32165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL_TL_FN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/CustomizedMethod/Details/32164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTFines2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL_TL_FN6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTFines6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mg/L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parts per million</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">µS/cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">µg/L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRBDTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TURB</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">SITE_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MS_CD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SiteID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lattitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal degrees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIDLAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAT_DD83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIDLONG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LON_DD83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Long</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSGN_TYP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STRM_NM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">site_survey_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RchID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">survey_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m/d/yyyy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DATE_COL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SampDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">survey_year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YEAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">survey_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRTCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROTOCOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Categorical: I, IS, IK, IKS, K, P, R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_DRY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_DRS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StrmFlow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Categorical: Flow, No Flow, Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beaver_impacted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BeaverFlowMod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7002</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="413">
+  <si>
+    <t>tblname</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>termID</t>
+  </si>
+  <si>
+    <t>definition</t>
+  </si>
+  <si>
+    <t>rdommin</t>
+  </si>
+  <si>
+    <t>rdommax</t>
+  </si>
+  <si>
+    <t>dataType</t>
+  </si>
+  <si>
+    <t>examples</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>datasetID</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to the originating source data's program.</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Darwin Core</t>
+  </si>
+  <si>
+    <t>bibilographicCitation</t>
+  </si>
+  <si>
+    <t>A bibliographic reference for the resource as a statement indicating how this record should be cited (attributed) when used.</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>datasetLink</t>
+  </si>
+  <si>
+    <t>A URL identifier for the collection or dataset from which the record was derived. The source location for the originating source data.</t>
+  </si>
+  <si>
+    <t>https://www.epa.gov/national-aquatic-resource-surveys</t>
+  </si>
+  <si>
+    <t>Producer defned</t>
+  </si>
+  <si>
+    <t>datasetName</t>
+  </si>
+  <si>
+    <t>The name of the originating data set from which the record was derived.</t>
+  </si>
+  <si>
+    <t>EPA NARS 2018 dataset</t>
+  </si>
+  <si>
+    <t>institutionCode</t>
+  </si>
+  <si>
+    <t>The name (or acronym) in use by the institution having custody of the object(s) or information referred to in the record.</t>
+  </si>
+  <si>
+    <t>BLM,  EPA, USFS</t>
+  </si>
+  <si>
+    <t>metadataID</t>
+  </si>
+  <si>
+    <t>A URL identifier for the metadata for the originating source dataset or note how to access metadata.</t>
+  </si>
+  <si>
+    <t>ODM2</t>
+  </si>
+  <si>
+    <t>preProcessingCode</t>
+  </si>
+  <si>
+    <t>URL identifier for access to the code used to pre-process (download, standardize and tidy) the data sets before integration into the destination dataset.</t>
+  </si>
+  <si>
+    <t>projectCode</t>
+  </si>
+  <si>
+    <t>The acronym of the name assigned by the Institution (project leader or principal investigator) to the project, from which the source data originates from.</t>
+  </si>
+  <si>
+    <t>PIBO, AIM, USFS, NRSA</t>
+  </si>
+  <si>
+    <t>projectName</t>
+  </si>
+  <si>
+    <t>The name assigned by the Institution (project leader or principal investigator) to the project, from which the source data originates from.</t>
+  </si>
+  <si>
+    <t>USFS PacFish/InFish Biological Opinion Monitoring Program</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>A unique numeric identifier assigned to the originating source data's program.</t>
+  </si>
+  <si>
+    <t>locationID</t>
+  </si>
+  <si>
+    <t>Unique global identifier assigned to the location where the event occurred.</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>11584</t>
+  </si>
+  <si>
+    <t>5483AIM, 88963AREMP, WtR563EPA</t>
+  </si>
+  <si>
+    <t>verbatimLocationID</t>
+  </si>
+  <si>
+    <t>The verbatim location ID from the originating source dataset assigned by the monitoring program.</t>
+  </si>
+  <si>
+    <t>5483, 88693, WtR563</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>The geographic latitude (WGS84) of the geographic center of a location.</t>
+  </si>
+  <si>
+    <t>26.625</t>
+  </si>
+  <si>
+    <t>71.268600000000006</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>The geographic longitude (WGS84) of the geographic center of a location.</t>
+  </si>
+  <si>
+    <t>-163.74230800000001</t>
+  </si>
+  <si>
+    <t>-67.240600000000001</t>
+  </si>
+  <si>
+    <t>locationRemarks</t>
+  </si>
+  <si>
+    <t>The location along the reach where geographic coordinates were obtained.</t>
+  </si>
+  <si>
+    <t>siteSelectionType</t>
+  </si>
+  <si>
+    <t>The type of site selection used according to the program.</t>
+  </si>
+  <si>
+    <t>Random, Targeted</t>
+  </si>
+  <si>
+    <t>waterBody</t>
+  </si>
+  <si>
+    <t>The name of the water body in which the location occurs.</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>11585</t>
+  </si>
+  <si>
+    <t>eventDate</t>
+  </si>
+  <si>
+    <t>The calendar date of the event from the source data.</t>
+  </si>
+  <si>
+    <t>2000-05-20</t>
+  </si>
+  <si>
+    <t>2020-10-20</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>eventID</t>
+  </si>
+  <si>
+    <t>Global unique identifier assigned to an Event (something that occurs at a place and time, such as a survey or measurement).</t>
+  </si>
+  <si>
+    <t>16280</t>
+  </si>
+  <si>
+    <t>FFFE9F28-60DB-40C0-B9C0-4AFC753A9880, 10002-PIBO</t>
+  </si>
+  <si>
+    <t>fieldNotes</t>
+  </si>
+  <si>
+    <t>The description of flow for the reach (flow, partial flow or dry).</t>
+  </si>
+  <si>
+    <t>dry, wet</t>
+  </si>
+  <si>
+    <t>samplingProtocol</t>
+  </si>
+  <si>
+    <t>The name of, reference to, or description of the stream survey method or protocol used during an Event.</t>
+  </si>
+  <si>
+    <t>UV light trap, "mist net", "bottom trawl", "ad hoc observation", "point count", "Penguins from space: faecal stains reveal the location of emperor penguin colonies, http://dx.doi.org/10.1111/j.1466-8238.2009.00467.x", "Takats et al. 2001. Guidelines for Nocturnal Owl Monitoring in North America. Beaverhill Bird Observatory and Bird Studies Canada, Edmonton, Alberta. 32 pp.", "http://www.bsc-eoc.org/download/Owl.pdf"</t>
+  </si>
+  <si>
+    <t>verbatimEventID</t>
+  </si>
+  <si>
+    <t>The verbatim event ID from the originating source dataset assigned by the program.</t>
+  </si>
+  <si>
+    <t>FFFE9F28-60DB-40C0-B9C0-4AFC753A9880, 10002</t>
+  </si>
+  <si>
+    <t>beaverImpactFlow</t>
+  </si>
+  <si>
+    <t>Beaver impact the flow of the reach.</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>The four-digit year in which the event occurred.</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>MeasurementOrFact</t>
+  </si>
+  <si>
+    <t>measurementID</t>
+  </si>
+  <si>
+    <t>Global unique identifier assigned to the measurementValue.</t>
+  </si>
+  <si>
+    <t>191982</t>
+  </si>
+  <si>
+    <t>Global unique identifier assigned to the term.</t>
+  </si>
+  <si>
+    <t>measurementValue</t>
+  </si>
+  <si>
+    <t>The value of the term attribute measured in units given in the term attribute definition.</t>
+  </si>
+  <si>
+    <t>45, "20", "1", "14.5", "UV-light"</t>
+  </si>
+  <si>
+    <t>The variable or name of the measurement.</t>
+  </si>
+  <si>
+    <t>Grad, WetWidth, ReachLen</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>categoryID</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>edomvds</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>measurementType</t>
+  </si>
+  <si>
+    <t>longName</t>
+  </si>
+  <si>
+    <t>minimumPossibleValue</t>
+  </si>
+  <si>
+    <t>maximumPossibleValue</t>
+  </si>
+  <si>
+    <t>MeasuremeorFact</t>
+  </si>
+  <si>
+    <t>Sin</t>
+  </si>
+  <si>
+    <t>Reach sinuosity (reach length along the thalweg divided by straight line distance between the bottom of the reach and the top of the reach)</t>
+  </si>
+  <si>
+    <t>Producer Defined</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>Channel Characteristics</t>
+  </si>
+  <si>
+    <t>Sinuosity of Local Stream Reach</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>StreamOrder</t>
+  </si>
+  <si>
+    <t>Strahler stream order of the site from the provider dataset</t>
+  </si>
+  <si>
+    <t>Stream Order</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>AvgBFWDRatio</t>
+  </si>
+  <si>
+    <t>Average bankfull width/depth ratio for the reach.</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Channel dimensions</t>
+  </si>
+  <si>
+    <t>Bankfull width to depth ratio at transects</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>BFHeight</t>
+  </si>
+  <si>
+    <t>Average bankfull height measured from water surface across transects.</t>
+  </si>
+  <si>
+    <t>Bankfull Height</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>BFWidth</t>
+  </si>
+  <si>
+    <t>Average bankfull width across transects for the reach.</t>
+  </si>
+  <si>
+    <t>Average bankfull width from transects</t>
+  </si>
+  <si>
+    <t>countTransectsBFWidth</t>
+  </si>
+  <si>
+    <t>Number of cross sections included in the average bankfull width calculation</t>
+  </si>
+  <si>
+    <t>count of measurments</t>
+  </si>
+  <si>
+    <t>Count of cross sections</t>
+  </si>
+  <si>
+    <t>Grad</t>
+  </si>
+  <si>
+    <t>Mean slope of water surface (percent) from the bottom of the reach to the top of the reach.</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>Gradient of stream reach</t>
+  </si>
+  <si>
+    <t>min: 0, max: 100</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>MeanThalwegDepth</t>
+  </si>
+  <si>
+    <t>Mean thalweg depth. Metric of how deep water was at the site.</t>
+  </si>
+  <si>
+    <t>Average Thalweg Depth</t>
+  </si>
+  <si>
+    <t>ReachLen</t>
+  </si>
+  <si>
+    <t>Length of sampling reach measured along the thalweg</t>
+  </si>
+  <si>
+    <t>Length of sampling reach</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>WetWidth</t>
+  </si>
+  <si>
+    <t>Average wetted width across transects.</t>
+  </si>
+  <si>
+    <t>Average wetted width from transects</t>
+  </si>
+  <si>
+    <t>PctPool</t>
+  </si>
+  <si>
+    <t>percent of the sample reach (linear extent) classified as pool habitat</t>
+  </si>
+  <si>
+    <t>Pools</t>
+  </si>
+  <si>
+    <t>percent pools</t>
+  </si>
+  <si>
+    <t>RPD</t>
+  </si>
+  <si>
+    <t>Average of the residual pool depth values for all pools in a reach. Residual pool depth the difference of the pool tail depth from the max depth.</t>
+  </si>
+  <si>
+    <t>Residual pool depth</t>
+  </si>
+  <si>
+    <t>BankAngle</t>
+  </si>
+  <si>
+    <t>Measured angle of the stream bank;</t>
+  </si>
+  <si>
+    <t>degrees</t>
+  </si>
+  <si>
+    <t>Streambanks</t>
+  </si>
+  <si>
+    <t>Bank angle</t>
+  </si>
+  <si>
+    <t>min: 0, max: 180</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>PctStab</t>
+  </si>
+  <si>
+    <t>percent of 42 banks lacking visible signs of active erosion (e.g., slump, slough, fracture) (units: percent, min: 0, max: 100, n= 42)</t>
+  </si>
+  <si>
+    <t>percent stable banks</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>Bed surface particle size corresponding to the 16th percentile of measured particles</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Substrate</t>
+  </si>
+  <si>
+    <t>Diameter of the 16th percentile streambed particle</t>
+  </si>
+  <si>
+    <t>min: 1, max: 4098</t>
+  </si>
+  <si>
+    <t>4098</t>
+  </si>
+  <si>
+    <t>D50</t>
+  </si>
+  <si>
+    <t>Median diameter of bed surface particle size corresponding to the areal median (50th percentile of measured particles) .</t>
+  </si>
+  <si>
+    <t>Diameter of the 50th percentile streambed particle</t>
+  </si>
+  <si>
+    <t>D84</t>
+  </si>
+  <si>
+    <t>Bed surface particle size corresponding to the 84th percentile of measured particles</t>
+  </si>
+  <si>
+    <t>Diameter of the 84th percentile streambed particle</t>
+  </si>
+  <si>
+    <t>PctBdrk</t>
+  </si>
+  <si>
+    <t>percent of the stream bed area that is composed of particles with a b-axis &gt; 4098mm (bedrock)</t>
+  </si>
+  <si>
+    <t>percent Bed Surface Bedrock</t>
+  </si>
+  <si>
+    <t>PctFines2</t>
+  </si>
+  <si>
+    <t>percent of the stream bed area that is comprised of particles with a b-axis &lt; 2 mm</t>
+  </si>
+  <si>
+    <t>percent of streambed particles &lt;2mm</t>
+  </si>
+  <si>
+    <t>PctFines6</t>
+  </si>
+  <si>
+    <t>percent of the stream bed area that is composed of particles with a b-axis &lt; 6 mm</t>
+  </si>
+  <si>
+    <t>percent of streambed particles &lt;6mm</t>
+  </si>
+  <si>
+    <t>PoolTailFines2</t>
+  </si>
+  <si>
+    <t>Average percent fine sediment (&lt; 2mm) on the pool tail</t>
+  </si>
+  <si>
+    <t>percent pool tail fines &lt; 2mm</t>
+  </si>
+  <si>
+    <t>PoolTailFines6</t>
+  </si>
+  <si>
+    <t>Average percent fine sediment (&lt; 6mm) on the pool tail</t>
+  </si>
+  <si>
+    <t>percent pool tail fines &lt; 6mm</t>
+  </si>
+  <si>
+    <t>Conductivity</t>
+  </si>
+  <si>
+    <t>Measure of the concentration of ionized materials in water, or the ability of water to conduct electrical current. Used as a measure of mineral / ionic concentration.</t>
+  </si>
+  <si>
+    <t>ppm</t>
+  </si>
+  <si>
+    <t>Water chemistry</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Measured pH value</t>
+  </si>
+  <si>
+    <t>min: 0, max: 14</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>SpecificConductance</t>
+  </si>
+  <si>
+    <t>Measured specific conductance value. The specific conductance is conductivity standardized to 25 degrees C.</t>
+  </si>
+  <si>
+    <t>uS/cm</t>
+  </si>
+  <si>
+    <t>Specific Conductance</t>
+  </si>
+  <si>
+    <t>min: 0, max: 65500</t>
+  </si>
+  <si>
+    <t>65500</t>
+  </si>
+  <si>
+    <t>TotalNitrogen</t>
+  </si>
+  <si>
+    <t>Measured total nitrogen value</t>
+  </si>
+  <si>
+    <t>ug/L</t>
+  </si>
+  <si>
+    <t>Total Nitrogen</t>
+  </si>
+  <si>
+    <t>TotalPhosphorous</t>
+  </si>
+  <si>
+    <t>Measured total phosphorous value</t>
+  </si>
+  <si>
+    <t>Total Phosphorous</t>
+  </si>
+  <si>
+    <t>Turbidity</t>
+  </si>
+  <si>
+    <t>Average water clarity as measured by the suspended solids in the water column</t>
+  </si>
+  <si>
+    <t>NTU</t>
+  </si>
+  <si>
+    <t>catagoryID</t>
+  </si>
+  <si>
+    <t>catagory</t>
+  </si>
+  <si>
+    <t>program</t>
+  </si>
+  <si>
+    <t>originalField</t>
+  </si>
+  <si>
+    <t>originalUnit</t>
+  </si>
+  <si>
+    <t>originalDataType</t>
+  </si>
+  <si>
+    <t>methodCollection</t>
+  </si>
+  <si>
+    <t>methodAnalysis</t>
+  </si>
+  <si>
+    <t>AIM</t>
+  </si>
+  <si>
+    <t>SNSTY</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7017</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7007</t>
+  </si>
+  <si>
+    <t>NRSA</t>
+  </si>
+  <si>
+    <t>SINU</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/1610</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7005</t>
+  </si>
+  <si>
+    <t>PIBO</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6868</t>
+  </si>
+  <si>
+    <t>AREMP</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>STRM_ORDR</t>
+  </si>
+  <si>
+    <t>STRAHLERORDER</t>
+  </si>
+  <si>
+    <t>ave_widthDepth_ratio</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/CustomizedMethod/Details/31107</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/4245</t>
+  </si>
+  <si>
+    <t>BFWD_RAT</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6870 AND www.monitoringresources.org/Document/Method/Details/56</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/1064 OR  www.monitoringresources.org/Document/Method/Details/1275</t>
+  </si>
+  <si>
+    <t>WDTrans</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/65 | https://www.monitoringresources.org/Document/Method/Details/6871</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7047</t>
+  </si>
+  <si>
+    <t>average_bfdepth</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/CustomizedMethod/Details/32163</t>
+  </si>
+  <si>
+    <t>BNKFLL_HT</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7013</t>
+  </si>
+  <si>
+    <t>XBKF_H</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/56</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7014</t>
+  </si>
+  <si>
+    <t>average_bfwidth</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6849</t>
+  </si>
+  <si>
+    <t>BNKFLL_WT</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7030</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/CustomizedMethod/Details/32166</t>
+  </si>
+  <si>
+    <t>XBKF_W</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6870</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/4103</t>
+  </si>
+  <si>
+    <t>Bf</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6871</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/CustomizedMethod/Details/32197</t>
+  </si>
+  <si>
+    <t>gradient</t>
+  </si>
+  <si>
+    <t>percent, expressed as a decimal</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6852</t>
+  </si>
+  <si>
+    <t>SLPE</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/CustomizedMethod/Details/31139</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7033</t>
+  </si>
+  <si>
+    <t>XSLOPE</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/4113</t>
+  </si>
+  <si>
+    <t>ThalwegDepthMean</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7008</t>
+  </si>
+  <si>
+    <t>XDEPTH_CM</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/74</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7015</t>
+  </si>
+  <si>
+    <t>REACH_LENGTH</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/3807</t>
+  </si>
+  <si>
+    <t>TOT_RCH_LEN</t>
+  </si>
+  <si>
+    <t>REACHLEN</t>
+  </si>
+  <si>
+    <t>RchLen</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/58</t>
+  </si>
+  <si>
+    <t>wettedWidth_ave</t>
+  </si>
+  <si>
+    <t>WTTD_WT</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7031</t>
+  </si>
+  <si>
+    <t>XWIDTH</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/3893</t>
+  </si>
+  <si>
+    <t>PctReachInPools</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6844</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/3852</t>
+  </si>
+  <si>
+    <t>PCT_PL</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6859</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/4115</t>
+  </si>
+  <si>
+    <t>PoolPct</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6872</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/55</t>
+  </si>
+  <si>
+    <t>ave_residual_depth</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6976</t>
+  </si>
+  <si>
+    <t>RES_PL_DEP</t>
+  </si>
+  <si>
+    <t>PoolDp</t>
+  </si>
+  <si>
+    <t>BNK_AN</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/68</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7034</t>
+  </si>
+  <si>
+    <t>BNK_STBLTY</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7026</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7010</t>
+  </si>
+  <si>
+    <t>Stab</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/69</t>
+  </si>
+  <si>
+    <t>tbd</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6801</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7025</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6797</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/1730</t>
+  </si>
+  <si>
+    <t>Sub_dmm</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6874</t>
+  </si>
+  <si>
+    <t>bedrock_pcnt</t>
+  </si>
+  <si>
+    <t>PCT_BDRK</t>
+  </si>
+  <si>
+    <t>Log 10 mm</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7011</t>
+  </si>
+  <si>
+    <t>pcnt_fines_tran2</t>
+  </si>
+  <si>
+    <t>PCT_FN</t>
+  </si>
+  <si>
+    <t>PCT_SAFN</t>
+  </si>
+  <si>
+    <t>precent</t>
+  </si>
+  <si>
+    <t>pect_fines_tran6</t>
+  </si>
+  <si>
+    <t>PCT_FN6</t>
+  </si>
+  <si>
+    <t>pool_fines</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6798</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/CustomizedMethod/Details/32165</t>
+  </si>
+  <si>
+    <t>PL_TL_FN</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6862</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/CustomizedMethod/Details/32164</t>
+  </si>
+  <si>
+    <t>PTFines2</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/868</t>
+  </si>
+  <si>
+    <t>PL_TL_FN6</t>
+  </si>
+  <si>
+    <t>PTFines6</t>
+  </si>
+  <si>
+    <t>TSS</t>
+  </si>
+  <si>
+    <t>mg/L</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7016</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7048</t>
+  </si>
+  <si>
+    <t>Cond</t>
+  </si>
+  <si>
+    <t>Parts per million</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/61</t>
+  </si>
+  <si>
+    <t>SU</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6673</t>
+  </si>
+  <si>
+    <t>µS/cm</t>
+  </si>
+  <si>
+    <t>COND</t>
+  </si>
+  <si>
+    <t>µg/L</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7023</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7024</t>
+  </si>
+  <si>
+    <t>NTL</t>
+  </si>
+  <si>
+    <t>PTL</t>
+  </si>
+  <si>
+    <t>TRBDTY</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7012</t>
+  </si>
+  <si>
+    <t>TURB</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>SITE_ID</t>
+  </si>
+  <si>
+    <t>MS_CD</t>
+  </si>
+  <si>
+    <t>SiteID</t>
+  </si>
+  <si>
+    <t>lattitude</t>
+  </si>
+  <si>
+    <t>decimal degrees</t>
+  </si>
+  <si>
+    <t>MIDLAT</t>
+  </si>
+  <si>
+    <t>LAT_DD83</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>MIDLONG</t>
+  </si>
+  <si>
+    <t>LON_DD83</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>DSGN_TYP</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>STRM_NM</t>
+  </si>
+  <si>
+    <t>Stream</t>
+  </si>
+  <si>
+    <t>site_survey_id</t>
+  </si>
+  <si>
+    <t>UID</t>
+  </si>
+  <si>
+    <t>RchID</t>
+  </si>
+  <si>
+    <t>survey_date</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>m/d/yyyy</t>
+  </si>
+  <si>
+    <t>DATE_COL</t>
+  </si>
+  <si>
+    <t>SampDate</t>
+  </si>
+  <si>
+    <t>survey_year</t>
+  </si>
+  <si>
+    <t>Interger</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>Yr</t>
+  </si>
+  <si>
+    <t>survey_type</t>
+  </si>
+  <si>
+    <t>PRTCL</t>
+  </si>
+  <si>
+    <t>PROTOCOL</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Categorical: I, IS, IK, IKS, K, P, R</t>
+  </si>
+  <si>
+    <t>PCT_DRY</t>
+  </si>
+  <si>
+    <t>PCT_DRS</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7018</t>
+  </si>
+  <si>
+    <t>StrmFlow</t>
+  </si>
+  <si>
+    <t>Categorical: Flow, No Flow, Other</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/924</t>
+  </si>
+  <si>
+    <t>beaver_impacted</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7003</t>
+  </si>
+  <si>
+    <t>BeaverFlowMod</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1299,6 +1306,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1580,14 +1596,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1616,67 +1632,59 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>100</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2"/>
-      <c r="F2"/>
       <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="H2"/>
       <c r="I2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>105</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3"/>
-      <c r="F3"/>
       <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="H3"/>
       <c r="I3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>107</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4"/>
-      <c r="F4"/>
       <c r="G4" t="s">
         <v>16</v>
       </c>
@@ -1687,21 +1695,19 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>108</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="E5"/>
-      <c r="F5"/>
       <c r="G5" t="s">
         <v>16</v>
       </c>
@@ -1712,21 +1718,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>101</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="E6"/>
-      <c r="F6"/>
       <c r="G6" t="s">
         <v>16</v>
       </c>
@@ -1737,67 +1741,59 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>102</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="E7"/>
-      <c r="F7"/>
       <c r="G7" t="s">
         <v>16</v>
       </c>
-      <c r="H7"/>
       <c r="I7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>104</v>
       </c>
       <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="E8"/>
-      <c r="F8"/>
       <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="H8"/>
       <c r="I8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>110</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="E9"/>
-      <c r="F9"/>
       <c r="G9" t="s">
         <v>16</v>
       </c>
@@ -1808,21 +1804,19 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>109</v>
       </c>
       <c r="D10" t="s">
         <v>36</v>
       </c>
-      <c r="E10"/>
-      <c r="F10"/>
       <c r="G10" t="s">
         <v>16</v>
       </c>
@@ -1835,19 +1829,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1876,35 +1870,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>100</v>
       </c>
       <c r="D2" t="s">
         <v>39</v>
       </c>
-      <c r="E2"/>
-      <c r="F2"/>
       <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="H2"/>
-      <c r="I2"/>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>200</v>
       </c>
       <c r="D3" t="s">
@@ -1926,21 +1916,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>38</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>201</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
       </c>
-      <c r="E4"/>
-      <c r="F4"/>
       <c r="G4" t="s">
         <v>16</v>
       </c>
@@ -1951,14 +1939,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>202</v>
       </c>
       <c r="D5" t="s">
@@ -1973,19 +1961,18 @@
       <c r="G5" t="s">
         <v>52</v>
       </c>
-      <c r="H5"/>
       <c r="I5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>203</v>
       </c>
       <c r="D6" t="s">
@@ -2000,49 +1987,43 @@
       <c r="G6" t="s">
         <v>52</v>
       </c>
-      <c r="H6"/>
       <c r="I6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>38</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>204</v>
       </c>
       <c r="D7" t="s">
         <v>58</v>
       </c>
-      <c r="E7"/>
-      <c r="F7"/>
       <c r="G7" t="s">
         <v>16</v>
       </c>
-      <c r="H7"/>
       <c r="I7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>38</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>205</v>
       </c>
       <c r="D8" t="s">
         <v>60</v>
       </c>
-      <c r="E8"/>
-      <c r="F8"/>
       <c r="G8" t="s">
         <v>16</v>
       </c>
@@ -2053,44 +2034,41 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>62</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>206</v>
       </c>
       <c r="D9" t="s">
         <v>63</v>
       </c>
-      <c r="E9"/>
-      <c r="F9"/>
       <c r="G9" t="s">
         <v>16</v>
       </c>
-      <c r="H9"/>
       <c r="I9" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2119,14 +2097,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>64</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>200</v>
       </c>
       <c r="D2" t="s">
@@ -2141,17 +2119,15 @@
       <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="H2"/>
-      <c r="I2"/>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>64</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>302</v>
       </c>
       <c r="D3" t="s">
@@ -2166,19 +2142,18 @@
       <c r="G3" t="s">
         <v>70</v>
       </c>
-      <c r="H3"/>
       <c r="I3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>64</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>300</v>
       </c>
       <c r="D4" t="s">
@@ -2200,21 +2175,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>64</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>305</v>
       </c>
       <c r="D5" t="s">
         <v>76</v>
       </c>
-      <c r="E5"/>
-      <c r="F5"/>
       <c r="G5" t="s">
         <v>16</v>
       </c>
@@ -2225,21 +2198,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>64</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>304</v>
       </c>
       <c r="D6" t="s">
         <v>79</v>
       </c>
-      <c r="E6"/>
-      <c r="F6"/>
       <c r="G6" t="s">
         <v>16</v>
       </c>
@@ -2250,21 +2221,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>64</v>
       </c>
       <c r="B7" t="s">
         <v>81</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>301</v>
       </c>
       <c r="D7" t="s">
         <v>82</v>
       </c>
-      <c r="E7"/>
-      <c r="F7"/>
       <c r="G7" t="s">
         <v>16</v>
       </c>
@@ -2275,37 +2244,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>64</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>306</v>
       </c>
       <c r="D8" t="s">
         <v>85</v>
       </c>
-      <c r="E8"/>
-      <c r="F8"/>
       <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="H8"/>
       <c r="I8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>64</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>303</v>
       </c>
       <c r="D9" t="s">
@@ -2329,19 +2295,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2370,14 +2336,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>91</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>300</v>
       </c>
       <c r="D2" t="s">
@@ -2392,19 +2358,18 @@
       <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="H2"/>
       <c r="I2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>91</v>
       </c>
       <c r="B3" t="s">
         <v>92</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>400</v>
       </c>
       <c r="D3" t="s">
@@ -2419,45 +2384,37 @@
       <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="H3"/>
       <c r="I3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>91</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>401</v>
       </c>
       <c r="D4" t="s">
         <v>95</v>
       </c>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-    </row>
-    <row r="5">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>91</v>
       </c>
       <c r="B5" t="s">
         <v>96</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>403</v>
       </c>
       <c r="D5" t="s">
         <v>97</v>
       </c>
-      <c r="E5"/>
-      <c r="F5"/>
       <c r="G5" t="s">
         <v>52</v>
       </c>
@@ -2468,21 +2425,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>91</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>402</v>
       </c>
       <c r="D6" t="s">
         <v>99</v>
       </c>
-      <c r="E6"/>
-      <c r="F6"/>
       <c r="G6" t="s">
         <v>16</v>
       </c>
@@ -2495,19 +2450,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>101</v>
       </c>
@@ -2551,17 +2506,17 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>111</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>401</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>500</v>
       </c>
       <c r="E2" t="s">
@@ -2585,7 +2540,6 @@
       <c r="K2" t="s">
         <v>118</v>
       </c>
-      <c r="L2"/>
       <c r="M2" t="s">
         <v>42</v>
       </c>
@@ -2593,17 +2547,17 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>111</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>401</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>501</v>
       </c>
       <c r="E3" t="s">
@@ -2627,7 +2581,6 @@
       <c r="K3" t="s">
         <v>122</v>
       </c>
-      <c r="L3"/>
       <c r="M3" t="s">
         <v>42</v>
       </c>
@@ -2635,17 +2588,17 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>111</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>401</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>502</v>
       </c>
       <c r="E4" t="s">
@@ -2669,7 +2622,6 @@
       <c r="K4" t="s">
         <v>128</v>
       </c>
-      <c r="L4"/>
       <c r="M4" t="s">
         <v>129</v>
       </c>
@@ -2677,17 +2629,17 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>111</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>401</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>503</v>
       </c>
       <c r="E5" t="s">
@@ -2711,7 +2663,6 @@
       <c r="K5" t="s">
         <v>132</v>
       </c>
-      <c r="L5"/>
       <c r="M5" t="s">
         <v>129</v>
       </c>
@@ -2719,17 +2670,17 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>111</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>401</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>504</v>
       </c>
       <c r="E6" t="s">
@@ -2753,7 +2704,6 @@
       <c r="K6" t="s">
         <v>136</v>
       </c>
-      <c r="L6"/>
       <c r="M6" t="s">
         <v>129</v>
       </c>
@@ -2761,17 +2711,17 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>111</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>401</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>505</v>
       </c>
       <c r="E7" t="s">
@@ -2795,7 +2745,6 @@
       <c r="K7" t="s">
         <v>140</v>
       </c>
-      <c r="L7"/>
       <c r="M7" t="s">
         <v>129</v>
       </c>
@@ -2803,17 +2752,17 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>111</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>401</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>506</v>
       </c>
       <c r="E8" t="s">
@@ -2847,17 +2796,17 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>111</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>401</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>507</v>
       </c>
       <c r="E9" t="s">
@@ -2881,7 +2830,6 @@
       <c r="K9" t="s">
         <v>149</v>
       </c>
-      <c r="L9"/>
       <c r="M9" t="s">
         <v>129</v>
       </c>
@@ -2889,17 +2837,17 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>111</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>401</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>508</v>
       </c>
       <c r="E10" t="s">
@@ -2923,7 +2871,6 @@
       <c r="K10" t="s">
         <v>152</v>
       </c>
-      <c r="L10"/>
       <c r="M10" t="s">
         <v>153</v>
       </c>
@@ -2931,17 +2878,17 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>111</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>401</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>509</v>
       </c>
       <c r="E11" t="s">
@@ -2965,7 +2912,6 @@
       <c r="K11" t="s">
         <v>157</v>
       </c>
-      <c r="L11"/>
       <c r="M11" t="s">
         <v>129</v>
       </c>
@@ -2973,17 +2919,17 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>111</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>401</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>510</v>
       </c>
       <c r="E12" t="s">
@@ -3017,17 +2963,17 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>111</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>401</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>511</v>
       </c>
       <c r="E13" t="s">
@@ -3051,7 +2997,6 @@
       <c r="K13" t="s">
         <v>164</v>
       </c>
-      <c r="L13"/>
       <c r="M13" t="s">
         <v>129</v>
       </c>
@@ -3059,17 +3004,17 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>111</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>401</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>512</v>
       </c>
       <c r="E14" t="s">
@@ -3103,17 +3048,17 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>111</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>401</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>513</v>
       </c>
       <c r="E15" t="s">
@@ -3147,17 +3092,17 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>111</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>401</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>514</v>
       </c>
       <c r="E16" t="s">
@@ -3191,17 +3136,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>111</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>401</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>515</v>
       </c>
       <c r="E17" t="s">
@@ -3235,17 +3180,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>401</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>516</v>
       </c>
       <c r="E18" t="s">
@@ -3279,17 +3224,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>401</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>517</v>
       </c>
       <c r="E19" t="s">
@@ -3323,17 +3268,17 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>111</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>401</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>518</v>
       </c>
       <c r="E20" t="s">
@@ -3367,17 +3312,17 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>111</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>401</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>519</v>
       </c>
       <c r="E21" t="s">
@@ -3411,17 +3356,17 @@
         <v>146</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>111</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>401</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>520</v>
       </c>
       <c r="E22" t="s">
@@ -3455,17 +3400,17 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>111</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>401</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>522</v>
       </c>
       <c r="E23" t="s">
@@ -3499,17 +3444,17 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>111</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>401</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>523</v>
       </c>
       <c r="E24" t="s">
@@ -3533,7 +3478,6 @@
       <c r="K24" t="s">
         <v>203</v>
       </c>
-      <c r="L24"/>
       <c r="M24" t="s">
         <v>129</v>
       </c>
@@ -3541,17 +3485,17 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>111</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>401</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>524</v>
       </c>
       <c r="E25" t="s">
@@ -3585,17 +3529,17 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>111</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>401</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>525</v>
       </c>
       <c r="E26" t="s">
@@ -3629,17 +3573,17 @@
         <v>216</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>111</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>401</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>526</v>
       </c>
       <c r="E27" t="s">
@@ -3663,7 +3607,6 @@
       <c r="K27" t="s">
         <v>220</v>
       </c>
-      <c r="L27"/>
       <c r="M27" t="s">
         <v>129</v>
       </c>
@@ -3671,17 +3614,17 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>111</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>401</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>527</v>
       </c>
       <c r="E28" t="s">
@@ -3705,7 +3648,6 @@
       <c r="K28" t="s">
         <v>223</v>
       </c>
-      <c r="L28"/>
       <c r="M28" t="s">
         <v>129</v>
       </c>
@@ -3713,17 +3655,17 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>111</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>401</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>528</v>
       </c>
       <c r="E29" t="s">
@@ -3747,7 +3689,6 @@
       <c r="K29" t="s">
         <v>224</v>
       </c>
-      <c r="L29"/>
       <c r="M29" t="s">
         <v>129</v>
       </c>
@@ -3757,19 +3698,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3804,14 +3745,14 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>401</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>500</v>
       </c>
       <c r="D2" t="s">
@@ -3839,14 +3780,14 @@
         <v>239</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>401</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>500</v>
       </c>
       <c r="D3" t="s">
@@ -3874,14 +3815,14 @@
         <v>243</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>401</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>500</v>
       </c>
       <c r="D4" t="s">
@@ -3909,14 +3850,14 @@
         <v>239</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>401</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>501</v>
       </c>
       <c r="D5" t="s">
@@ -3931,21 +3872,18 @@
       <c r="G5" t="s">
         <v>120</v>
       </c>
-      <c r="H5"/>
       <c r="I5" t="s">
         <v>247</v>
       </c>
-      <c r="J5"/>
-      <c r="K5"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>401</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>501</v>
       </c>
       <c r="D6" t="s">
@@ -3960,21 +3898,18 @@
       <c r="G6" t="s">
         <v>248</v>
       </c>
-      <c r="H6"/>
       <c r="I6" t="s">
         <v>247</v>
       </c>
-      <c r="J6"/>
-      <c r="K6"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>401</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>501</v>
       </c>
       <c r="D7" t="s">
@@ -3989,21 +3924,18 @@
       <c r="G7" t="s">
         <v>249</v>
       </c>
-      <c r="H7"/>
       <c r="I7" t="s">
         <v>237</v>
       </c>
-      <c r="J7"/>
-      <c r="K7"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>401</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>502</v>
       </c>
       <c r="D8" t="s">
@@ -4031,14 +3963,14 @@
         <v>252</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>401</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>502</v>
       </c>
       <c r="D9" t="s">
@@ -4066,14 +3998,14 @@
         <v>255</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>401</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>502</v>
       </c>
       <c r="D10" t="s">
@@ -4101,14 +4033,14 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>401</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>503</v>
       </c>
       <c r="D11" t="s">
@@ -4136,14 +4068,14 @@
         <v>260</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>401</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>503</v>
       </c>
       <c r="D12" t="s">
@@ -4171,14 +4103,14 @@
         <v>252</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>401</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>503</v>
       </c>
       <c r="D13" t="s">
@@ -4206,14 +4138,14 @@
         <v>265</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>401</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>504</v>
       </c>
       <c r="D14" t="s">
@@ -4241,14 +4173,14 @@
         <v>252</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>401</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>504</v>
       </c>
       <c r="D15" t="s">
@@ -4276,14 +4208,14 @@
         <v>270</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>401</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>504</v>
       </c>
       <c r="D16" t="s">
@@ -4311,14 +4243,14 @@
         <v>273</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>401</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>504</v>
       </c>
       <c r="D17" t="s">
@@ -4346,14 +4278,14 @@
         <v>276</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>401</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>506</v>
       </c>
       <c r="D18" t="s">
@@ -4377,16 +4309,15 @@
       <c r="J18" t="s">
         <v>279</v>
       </c>
-      <c r="K18"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>401</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>506</v>
       </c>
       <c r="D19" t="s">
@@ -4414,14 +4345,14 @@
         <v>282</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>401</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>506</v>
       </c>
       <c r="D20" t="s">
@@ -4449,14 +4380,14 @@
         <v>284</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>401</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>506</v>
       </c>
       <c r="D21" t="s">
@@ -4484,14 +4415,14 @@
         <v>284</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>401</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>507</v>
       </c>
       <c r="D22" t="s">
@@ -4519,14 +4450,14 @@
         <v>252</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>401</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>507</v>
       </c>
       <c r="D23" t="s">
@@ -4554,14 +4485,14 @@
         <v>290</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>401</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>508</v>
       </c>
       <c r="D24" t="s">
@@ -4585,16 +4516,15 @@
       <c r="J24" t="s">
         <v>292</v>
       </c>
-      <c r="K24"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>401</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>508</v>
       </c>
       <c r="D25" t="s">
@@ -4618,16 +4548,15 @@
       <c r="J25" t="s">
         <v>238</v>
       </c>
-      <c r="K25"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>401</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>508</v>
       </c>
       <c r="D26" t="s">
@@ -4651,16 +4580,15 @@
       <c r="J26" t="s">
         <v>242</v>
       </c>
-      <c r="K26"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27">
         <v>401</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>508</v>
       </c>
       <c r="D27" t="s">
@@ -4684,16 +4612,15 @@
       <c r="J27" t="s">
         <v>296</v>
       </c>
-      <c r="K27"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>401</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>509</v>
       </c>
       <c r="D28" t="s">
@@ -4721,14 +4648,14 @@
         <v>260</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29">
         <v>401</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>509</v>
       </c>
       <c r="D29" t="s">
@@ -4756,14 +4683,14 @@
         <v>252</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30">
         <v>401</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>509</v>
       </c>
       <c r="D30" t="s">
@@ -4791,14 +4718,14 @@
         <v>301</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31">
         <v>401</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>510</v>
       </c>
       <c r="D31" t="s">
@@ -4826,14 +4753,14 @@
         <v>304</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32">
         <v>401</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>510</v>
       </c>
       <c r="D32" t="s">
@@ -4861,14 +4788,14 @@
         <v>307</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33">
         <v>401</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>510</v>
       </c>
       <c r="D33" t="s">
@@ -4896,14 +4823,14 @@
         <v>310</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34">
         <v>401</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>511</v>
       </c>
       <c r="D34" t="s">
@@ -4931,14 +4858,14 @@
         <v>312</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35">
         <v>401</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>511</v>
       </c>
       <c r="D35" t="s">
@@ -4966,14 +4893,14 @@
         <v>312</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36">
         <v>401</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>511</v>
       </c>
       <c r="D36" t="s">
@@ -5001,14 +4928,14 @@
         <v>312</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37">
         <v>401</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>512</v>
       </c>
       <c r="D37" t="s">
@@ -5036,14 +4963,14 @@
         <v>317</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38">
         <v>401</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>512</v>
       </c>
       <c r="D38" t="s">
@@ -5067,16 +4994,15 @@
       <c r="J38" t="s">
         <v>316</v>
       </c>
-      <c r="K38"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39">
         <v>401</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>513</v>
       </c>
       <c r="D39" t="s">
@@ -5104,14 +5030,14 @@
         <v>320</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40">
         <v>401</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>513</v>
       </c>
       <c r="D40" t="s">
@@ -5139,14 +5065,14 @@
         <v>323</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41">
         <v>401</v>
       </c>
       <c r="B41" t="s">
         <v>1</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>514</v>
       </c>
       <c r="D41" t="s">
@@ -5174,14 +5100,14 @@
         <v>325</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42">
         <v>401</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>514</v>
       </c>
       <c r="D42" t="s">
@@ -5209,14 +5135,14 @@
         <v>327</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43">
         <v>401</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>515</v>
       </c>
       <c r="D43" t="s">
@@ -5244,14 +5170,14 @@
         <v>325</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44">
         <v>401</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>515</v>
       </c>
       <c r="D44" t="s">
@@ -5279,14 +5205,14 @@
         <v>325</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45">
         <v>401</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>515</v>
       </c>
       <c r="D45" t="s">
@@ -5301,7 +5227,6 @@
       <c r="G45" t="s">
         <v>328</v>
       </c>
-      <c r="H45"/>
       <c r="I45" t="s">
         <v>237</v>
       </c>
@@ -5312,14 +5237,14 @@
         <v>327</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46">
         <v>401</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>515</v>
       </c>
       <c r="D46" t="s">
@@ -5347,14 +5272,14 @@
         <v>327</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47">
         <v>401</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>516</v>
       </c>
       <c r="D47" t="s">
@@ -5382,14 +5307,14 @@
         <v>325</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48">
         <v>401</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>516</v>
       </c>
       <c r="D48" t="s">
@@ -5417,14 +5342,14 @@
         <v>327</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49">
         <v>401</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>517</v>
       </c>
       <c r="D49" t="s">
@@ -5452,14 +5377,14 @@
         <v>325</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50">
         <v>401</v>
       </c>
       <c r="B50" t="s">
         <v>1</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>517</v>
       </c>
       <c r="D50" t="s">
@@ -5487,14 +5412,14 @@
         <v>333</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51">
         <v>401</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>518</v>
       </c>
       <c r="D51" t="s">
@@ -5522,14 +5447,14 @@
         <v>325</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52">
         <v>401</v>
       </c>
       <c r="B52" t="s">
         <v>1</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>518</v>
       </c>
       <c r="D52" t="s">
@@ -5557,14 +5482,14 @@
         <v>325</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53">
         <v>401</v>
       </c>
       <c r="B53" t="s">
         <v>1</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>518</v>
       </c>
       <c r="D53" t="s">
@@ -5592,14 +5517,14 @@
         <v>333</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54">
         <v>401</v>
       </c>
       <c r="B54" t="s">
         <v>1</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>519</v>
       </c>
       <c r="D54" t="s">
@@ -5627,14 +5552,14 @@
         <v>325</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A55">
         <v>401</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>519</v>
       </c>
       <c r="D55" t="s">
@@ -5662,14 +5587,14 @@
         <v>325</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56">
         <v>401</v>
       </c>
       <c r="B56" t="s">
         <v>1</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>520</v>
       </c>
       <c r="D56" t="s">
@@ -5697,14 +5622,14 @@
         <v>342</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A57">
         <v>401</v>
       </c>
       <c r="B57" t="s">
         <v>1</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>520</v>
       </c>
       <c r="D57" t="s">
@@ -5732,14 +5657,14 @@
         <v>345</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A58">
         <v>401</v>
       </c>
       <c r="B58" t="s">
         <v>1</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>520</v>
       </c>
       <c r="D58" t="s">
@@ -5767,14 +5692,14 @@
         <v>347</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A59">
         <v>401</v>
       </c>
       <c r="B59" t="s">
         <v>1</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>522</v>
       </c>
       <c r="D59" t="s">
@@ -5802,14 +5727,14 @@
         <v>345</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A60">
         <v>401</v>
       </c>
       <c r="B60" t="s">
         <v>1</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>522</v>
       </c>
       <c r="D60" t="s">
@@ -5837,14 +5762,14 @@
         <v>347</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A61">
         <v>401</v>
       </c>
       <c r="B61" t="s">
         <v>1</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>523</v>
       </c>
       <c r="D61" t="s">
@@ -5872,14 +5797,14 @@
         <v>353</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A62">
         <v>401</v>
       </c>
       <c r="B62" t="s">
         <v>1</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>523</v>
       </c>
       <c r="D62" t="s">
@@ -5907,14 +5832,14 @@
         <v>323</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A63">
         <v>401</v>
       </c>
       <c r="B63" t="s">
         <v>1</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>524</v>
       </c>
       <c r="D63" t="s">
@@ -5938,16 +5863,15 @@
       <c r="J63" t="s">
         <v>358</v>
       </c>
-      <c r="K63"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A64">
         <v>401</v>
       </c>
       <c r="B64" t="s">
         <v>1</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>525</v>
       </c>
       <c r="D64" t="s">
@@ -5971,16 +5895,15 @@
       <c r="J64" t="s">
         <v>358</v>
       </c>
-      <c r="K64"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A65">
         <v>401</v>
       </c>
       <c r="B65" t="s">
         <v>1</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>525</v>
       </c>
       <c r="D65" t="s">
@@ -6008,14 +5931,14 @@
         <v>353</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A66">
         <v>401</v>
       </c>
       <c r="B66" t="s">
         <v>1</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>526</v>
       </c>
       <c r="D66" t="s">
@@ -6043,14 +5966,14 @@
         <v>363</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A67">
         <v>401</v>
       </c>
       <c r="B67" t="s">
         <v>1</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>526</v>
       </c>
       <c r="D67" t="s">
@@ -6078,14 +6001,14 @@
         <v>353</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A68">
         <v>401</v>
       </c>
       <c r="B68" t="s">
         <v>1</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>527</v>
       </c>
       <c r="D68" t="s">
@@ -6113,14 +6036,14 @@
         <v>363</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A69">
         <v>401</v>
       </c>
       <c r="B69" t="s">
         <v>1</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>527</v>
       </c>
       <c r="D69" t="s">
@@ -6148,14 +6071,14 @@
         <v>353</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A70">
         <v>401</v>
       </c>
       <c r="B70" t="s">
         <v>1</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>528</v>
       </c>
       <c r="D70" t="s">
@@ -6183,14 +6106,14 @@
         <v>252</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A71">
         <v>401</v>
       </c>
       <c r="B71" t="s">
         <v>1</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>528</v>
       </c>
       <c r="D71" t="s">
@@ -6205,7 +6128,6 @@
       <c r="G71" t="s">
         <v>368</v>
       </c>
-      <c r="H71"/>
       <c r="I71" t="s">
         <v>237</v>
       </c>
@@ -6216,14 +6138,13 @@
         <v>353</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A72">
         <v>201</v>
       </c>
       <c r="B72" t="s">
         <v>45</v>
       </c>
-      <c r="C72"/>
       <c r="D72" t="s">
         <v>369</v>
       </c>
@@ -6236,21 +6157,17 @@
       <c r="G72" t="s">
         <v>370</v>
       </c>
-      <c r="H72"/>
       <c r="I72" t="s">
         <v>16</v>
       </c>
-      <c r="J72"/>
-      <c r="K72"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A73">
         <v>201</v>
       </c>
       <c r="B73" t="s">
         <v>45</v>
       </c>
-      <c r="C73"/>
       <c r="D73" t="s">
         <v>369</v>
       </c>
@@ -6263,21 +6180,17 @@
       <c r="G73" t="s">
         <v>371</v>
       </c>
-      <c r="H73"/>
       <c r="I73" t="s">
         <v>16</v>
       </c>
-      <c r="J73"/>
-      <c r="K73"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A74">
         <v>201</v>
       </c>
       <c r="B74" t="s">
         <v>45</v>
       </c>
-      <c r="C74"/>
       <c r="D74" t="s">
         <v>369</v>
       </c>
@@ -6290,21 +6203,17 @@
       <c r="G74" t="s">
         <v>370</v>
       </c>
-      <c r="H74"/>
       <c r="I74" t="s">
         <v>16</v>
       </c>
-      <c r="J74"/>
-      <c r="K74"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A75">
         <v>201</v>
       </c>
       <c r="B75" t="s">
         <v>45</v>
       </c>
-      <c r="C75"/>
       <c r="D75" t="s">
         <v>369</v>
       </c>
@@ -6317,21 +6226,17 @@
       <c r="G75" t="s">
         <v>372</v>
       </c>
-      <c r="H75"/>
       <c r="I75" t="s">
         <v>12</v>
       </c>
-      <c r="J75"/>
-      <c r="K75"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A76">
         <v>202</v>
       </c>
       <c r="B76" t="s">
         <v>48</v>
       </c>
-      <c r="C76"/>
       <c r="D76" t="s">
         <v>369</v>
       </c>
@@ -6350,17 +6255,14 @@
       <c r="I76" t="s">
         <v>237</v>
       </c>
-      <c r="J76"/>
-      <c r="K76"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A77">
         <v>202</v>
       </c>
       <c r="B77" t="s">
         <v>48</v>
       </c>
-      <c r="C77"/>
       <c r="D77" t="s">
         <v>369</v>
       </c>
@@ -6379,17 +6281,14 @@
       <c r="I77" t="s">
         <v>237</v>
       </c>
-      <c r="J77"/>
-      <c r="K77"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A78">
         <v>202</v>
       </c>
       <c r="B78" t="s">
         <v>48</v>
       </c>
-      <c r="C78"/>
       <c r="D78" t="s">
         <v>369</v>
       </c>
@@ -6408,17 +6307,14 @@
       <c r="I78" t="s">
         <v>237</v>
       </c>
-      <c r="J78"/>
-      <c r="K78"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A79">
         <v>202</v>
       </c>
       <c r="B79" t="s">
         <v>48</v>
       </c>
-      <c r="C79"/>
       <c r="D79" t="s">
         <v>369</v>
       </c>
@@ -6437,17 +6333,14 @@
       <c r="I79" t="s">
         <v>237</v>
       </c>
-      <c r="J79"/>
-      <c r="K79"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A80">
         <v>203</v>
       </c>
       <c r="B80" t="s">
         <v>53</v>
       </c>
-      <c r="C80"/>
       <c r="D80" t="s">
         <v>369</v>
       </c>
@@ -6466,17 +6359,14 @@
       <c r="I80" t="s">
         <v>237</v>
       </c>
-      <c r="J80"/>
-      <c r="K80"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81">
         <v>203</v>
       </c>
       <c r="B81" t="s">
         <v>53</v>
       </c>
-      <c r="C81"/>
       <c r="D81" t="s">
         <v>369</v>
       </c>
@@ -6495,17 +6385,14 @@
       <c r="I81" t="s">
         <v>237</v>
       </c>
-      <c r="J81"/>
-      <c r="K81"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82">
         <v>203</v>
       </c>
       <c r="B82" t="s">
         <v>53</v>
       </c>
-      <c r="C82"/>
       <c r="D82" t="s">
         <v>369</v>
       </c>
@@ -6524,17 +6411,14 @@
       <c r="I82" t="s">
         <v>237</v>
       </c>
-      <c r="J82"/>
-      <c r="K82"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83">
         <v>203</v>
       </c>
       <c r="B83" t="s">
         <v>53</v>
       </c>
-      <c r="C83"/>
       <c r="D83" t="s">
         <v>369</v>
       </c>
@@ -6553,17 +6437,14 @@
       <c r="I83" t="s">
         <v>237</v>
       </c>
-      <c r="J83"/>
-      <c r="K83"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84">
         <v>205</v>
       </c>
       <c r="B84" t="s">
         <v>59</v>
       </c>
-      <c r="C84"/>
       <c r="D84" t="s">
         <v>369</v>
       </c>
@@ -6579,18 +6460,14 @@
       <c r="H84" t="s">
         <v>119</v>
       </c>
-      <c r="I84"/>
-      <c r="J84"/>
-      <c r="K84"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85">
         <v>205</v>
       </c>
       <c r="B85" t="s">
         <v>59</v>
       </c>
-      <c r="C85"/>
       <c r="D85" t="s">
         <v>369</v>
       </c>
@@ -6603,19 +6480,14 @@
       <c r="G85" t="s">
         <v>383</v>
       </c>
-      <c r="H85"/>
-      <c r="I85"/>
-      <c r="J85"/>
-      <c r="K85"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86">
         <v>206</v>
       </c>
       <c r="B86" t="s">
         <v>62</v>
       </c>
-      <c r="C86"/>
       <c r="D86" t="s">
         <v>369</v>
       </c>
@@ -6628,21 +6500,17 @@
       <c r="G86" t="s">
         <v>384</v>
       </c>
-      <c r="H86"/>
       <c r="I86" t="s">
         <v>16</v>
       </c>
-      <c r="J86"/>
-      <c r="K86"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87">
         <v>206</v>
       </c>
       <c r="B87" t="s">
         <v>62</v>
       </c>
-      <c r="C87"/>
       <c r="D87" t="s">
         <v>369</v>
       </c>
@@ -6661,17 +6529,14 @@
       <c r="I87" t="s">
         <v>16</v>
       </c>
-      <c r="J87"/>
-      <c r="K87"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88">
         <v>301</v>
       </c>
       <c r="B88" t="s">
         <v>81</v>
       </c>
-      <c r="C88"/>
       <c r="D88" t="s">
         <v>369</v>
       </c>
@@ -6684,21 +6549,17 @@
       <c r="G88" t="s">
         <v>386</v>
       </c>
-      <c r="H88"/>
       <c r="I88" t="s">
         <v>16</v>
       </c>
-      <c r="J88"/>
-      <c r="K88"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89">
         <v>301</v>
       </c>
       <c r="B89" t="s">
         <v>81</v>
       </c>
-      <c r="C89"/>
       <c r="D89" t="s">
         <v>369</v>
       </c>
@@ -6711,21 +6572,17 @@
       <c r="G89" t="s">
         <v>387</v>
       </c>
-      <c r="H89"/>
       <c r="I89" t="s">
         <v>16</v>
       </c>
-      <c r="J89"/>
-      <c r="K89"/>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90">
         <v>301</v>
       </c>
       <c r="B90" t="s">
         <v>81</v>
       </c>
-      <c r="C90"/>
       <c r="D90" t="s">
         <v>369</v>
       </c>
@@ -6738,21 +6595,17 @@
       <c r="G90" t="s">
         <v>387</v>
       </c>
-      <c r="H90"/>
       <c r="I90" t="s">
         <v>16</v>
       </c>
-      <c r="J90"/>
-      <c r="K90"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91">
         <v>301</v>
       </c>
       <c r="B91" t="s">
         <v>81</v>
       </c>
-      <c r="C91"/>
       <c r="D91" t="s">
         <v>369</v>
       </c>
@@ -6765,21 +6618,17 @@
       <c r="G91" t="s">
         <v>388</v>
       </c>
-      <c r="H91"/>
       <c r="I91" t="s">
         <v>12</v>
       </c>
-      <c r="J91"/>
-      <c r="K91"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92">
         <v>302</v>
       </c>
       <c r="B92" t="s">
         <v>66</v>
       </c>
-      <c r="C92"/>
       <c r="D92" t="s">
         <v>369</v>
       </c>
@@ -6792,21 +6641,17 @@
       <c r="G92" t="s">
         <v>389</v>
       </c>
-      <c r="H92"/>
       <c r="I92" t="s">
         <v>70</v>
       </c>
-      <c r="J92"/>
-      <c r="K92"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93">
         <v>302</v>
       </c>
       <c r="B93" t="s">
         <v>66</v>
       </c>
-      <c r="C93"/>
       <c r="D93" t="s">
         <v>369</v>
       </c>
@@ -6825,17 +6670,14 @@
       <c r="I93" t="s">
         <v>70</v>
       </c>
-      <c r="J93"/>
-      <c r="K93"/>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94">
         <v>302</v>
       </c>
       <c r="B94" t="s">
         <v>66</v>
       </c>
-      <c r="C94"/>
       <c r="D94" t="s">
         <v>369</v>
       </c>
@@ -6848,21 +6690,17 @@
       <c r="G94" t="s">
         <v>392</v>
       </c>
-      <c r="H94"/>
       <c r="I94" t="s">
         <v>70</v>
       </c>
-      <c r="J94"/>
-      <c r="K94"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95">
         <v>302</v>
       </c>
       <c r="B95" t="s">
         <v>66</v>
       </c>
-      <c r="C95"/>
       <c r="D95" t="s">
         <v>369</v>
       </c>
@@ -6875,21 +6713,17 @@
       <c r="G95" t="s">
         <v>393</v>
       </c>
-      <c r="H95"/>
       <c r="I95" t="s">
         <v>70</v>
       </c>
-      <c r="J95"/>
-      <c r="K95"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96">
         <v>303</v>
       </c>
       <c r="B96" t="s">
         <v>86</v>
       </c>
-      <c r="C96"/>
       <c r="D96" t="s">
         <v>369</v>
       </c>
@@ -6908,17 +6742,14 @@
       <c r="I96" t="s">
         <v>395</v>
       </c>
-      <c r="J96"/>
-      <c r="K96"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A97">
         <v>303</v>
       </c>
       <c r="B97" t="s">
         <v>86</v>
       </c>
-      <c r="C97"/>
       <c r="D97" t="s">
         <v>369</v>
       </c>
@@ -6937,17 +6768,14 @@
       <c r="I97" t="s">
         <v>247</v>
       </c>
-      <c r="J97"/>
-      <c r="K97"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A98">
         <v>303</v>
       </c>
       <c r="B98" t="s">
         <v>86</v>
       </c>
-      <c r="C98"/>
       <c r="D98" t="s">
         <v>369</v>
       </c>
@@ -6966,17 +6794,14 @@
       <c r="I98" t="s">
         <v>12</v>
       </c>
-      <c r="J98"/>
-      <c r="K98"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A99">
         <v>304</v>
       </c>
       <c r="B99" t="s">
         <v>78</v>
       </c>
-      <c r="C99"/>
       <c r="D99" t="s">
         <v>369</v>
       </c>
@@ -6989,21 +6814,17 @@
       <c r="G99" t="s">
         <v>398</v>
       </c>
-      <c r="H99"/>
       <c r="I99" t="s">
         <v>16</v>
       </c>
-      <c r="J99"/>
-      <c r="K99"/>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A100">
         <v>304</v>
       </c>
       <c r="B100" t="s">
         <v>78</v>
       </c>
-      <c r="C100"/>
       <c r="D100" t="s">
         <v>369</v>
       </c>
@@ -7016,21 +6837,17 @@
       <c r="G100" t="s">
         <v>399</v>
       </c>
-      <c r="H100"/>
       <c r="I100" t="s">
         <v>16</v>
       </c>
-      <c r="J100"/>
-      <c r="K100"/>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A101">
         <v>304</v>
       </c>
       <c r="B101" t="s">
         <v>78</v>
       </c>
-      <c r="C101"/>
       <c r="D101" t="s">
         <v>369</v>
       </c>
@@ -7043,21 +6860,17 @@
       <c r="G101" t="s">
         <v>400</v>
       </c>
-      <c r="H101"/>
       <c r="I101" t="s">
         <v>16</v>
       </c>
-      <c r="J101"/>
-      <c r="K101"/>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A102">
         <v>304</v>
       </c>
       <c r="B102" t="s">
         <v>78</v>
       </c>
-      <c r="C102"/>
       <c r="D102" t="s">
         <v>369</v>
       </c>
@@ -7076,17 +6889,14 @@
       <c r="I102" t="s">
         <v>16</v>
       </c>
-      <c r="J102"/>
-      <c r="K102"/>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A103">
         <v>305</v>
       </c>
       <c r="B103" t="s">
         <v>75</v>
       </c>
-      <c r="C103"/>
       <c r="D103" t="s">
         <v>369</v>
       </c>
@@ -7112,14 +6922,13 @@
         <v>307</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="n">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A104">
         <v>305</v>
       </c>
       <c r="B104" t="s">
         <v>75</v>
       </c>
-      <c r="C104"/>
       <c r="D104" t="s">
         <v>369</v>
       </c>
@@ -7145,14 +6954,13 @@
         <v>405</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="n">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A105">
         <v>305</v>
       </c>
       <c r="B105" t="s">
         <v>75</v>
       </c>
-      <c r="C105"/>
       <c r="D105" t="s">
         <v>369</v>
       </c>
@@ -7174,16 +6982,14 @@
       <c r="J105" t="s">
         <v>408</v>
       </c>
-      <c r="K105"/>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A106">
         <v>306</v>
       </c>
       <c r="B106" t="s">
         <v>84</v>
       </c>
-      <c r="C106"/>
       <c r="D106" t="s">
         <v>369</v>
       </c>
@@ -7196,23 +7002,20 @@
       <c r="G106" t="s">
         <v>409</v>
       </c>
-      <c r="H106"/>
       <c r="I106" t="s">
         <v>381</v>
       </c>
       <c r="J106" t="s">
         <v>410</v>
       </c>
-      <c r="K106"/>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A107">
         <v>306</v>
       </c>
       <c r="B107" t="s">
         <v>84</v>
       </c>
-      <c r="C107"/>
       <c r="D107" t="s">
         <v>369</v>
       </c>
@@ -7225,33 +7028,26 @@
       <c r="G107" t="s">
         <v>411</v>
       </c>
-      <c r="H107"/>
       <c r="I107" t="s">
         <v>381</v>
       </c>
       <c r="J107" t="s">
         <v>412</v>
       </c>
-      <c r="K107"/>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A108">
         <v>305</v>
       </c>
       <c r="B108" t="s">
         <v>75</v>
       </c>
-      <c r="C108"/>
       <c r="D108" t="s">
         <v>369</v>
       </c>
-      <c r="E108"/>
       <c r="F108" t="s">
         <v>246</v>
       </c>
-      <c r="G108"/>
-      <c r="H108"/>
-      <c r="I108"/>
       <c r="J108" t="s">
         <v>303</v>
       </c>
@@ -7261,6 +7057,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Tables/StreamHabitatSpecifications.xlsx
+++ b/Tables/StreamHabitatSpecifications.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="405">
   <si>
     <t xml:space="preserve">tblname</t>
   </si>
@@ -680,12 +680,6 @@
   </si>
   <si>
     <t xml:space="preserve">NTU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">catagoryID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">catagory</t>
   </si>
   <si>
     <t xml:space="preserve">program</t>
@@ -3672,31 +3666,31 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>221</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>222</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>223</v>
       </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>224</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>225</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>226</v>
-      </c>
-      <c r="J1" t="s">
-        <v>227</v>
-      </c>
-      <c r="K1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="2">
@@ -3713,25 +3707,25 @@
         <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>229</v>
+        <v>116</v>
       </c>
       <c r="F2" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="G2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H2" t="s">
         <v>115</v>
       </c>
       <c r="I2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J2" t="s">
+        <v>230</v>
+      </c>
+      <c r="K2" t="s">
         <v>231</v>
-      </c>
-      <c r="J2" t="s">
-        <v>232</v>
-      </c>
-      <c r="K2" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="3">
@@ -3748,25 +3742,25 @@
         <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c r="F3" t="s">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="G3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H3" t="s">
         <v>115</v>
       </c>
       <c r="I3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4">
@@ -3783,10 +3777,10 @@
         <v>112</v>
       </c>
       <c r="E4" t="s">
-        <v>238</v>
+        <v>116</v>
       </c>
       <c r="F4" t="s">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="G4" t="s">
         <v>112</v>
@@ -3795,13 +3789,13 @@
         <v>115</v>
       </c>
       <c r="I4" t="s">
+        <v>229</v>
+      </c>
+      <c r="J4" t="s">
+        <v>237</v>
+      </c>
+      <c r="K4" t="s">
         <v>231</v>
-      </c>
-      <c r="J4" t="s">
-        <v>239</v>
-      </c>
-      <c r="K4" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="5">
@@ -3818,17 +3812,17 @@
         <v>119</v>
       </c>
       <c r="E5" t="s">
-        <v>240</v>
+        <v>116</v>
       </c>
       <c r="F5" t="s">
-        <v>116</v>
+        <v>238</v>
       </c>
       <c r="G5" t="s">
         <v>119</v>
       </c>
       <c r="H5"/>
       <c r="I5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
@@ -3847,17 +3841,17 @@
         <v>119</v>
       </c>
       <c r="E6" t="s">
-        <v>229</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="G6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H6"/>
       <c r="I6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>
@@ -3876,17 +3870,17 @@
         <v>119</v>
       </c>
       <c r="E7" t="s">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c r="F7" t="s">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="G7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
@@ -3905,25 +3899,25 @@
         <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>116</v>
       </c>
       <c r="F8" t="s">
-        <v>116</v>
+        <v>238</v>
       </c>
       <c r="G8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H8" t="s">
         <v>115</v>
       </c>
       <c r="I8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9">
@@ -3940,25 +3934,25 @@
         <v>123</v>
       </c>
       <c r="E9" t="s">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c r="F9" t="s">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="G9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H9" t="s">
         <v>115</v>
       </c>
       <c r="I9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10">
@@ -3975,25 +3969,25 @@
         <v>123</v>
       </c>
       <c r="E10" t="s">
-        <v>238</v>
+        <v>116</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="G10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H10" t="s">
         <v>115</v>
       </c>
       <c r="I10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11">
@@ -4010,25 +4004,25 @@
         <v>128</v>
       </c>
       <c r="E11" t="s">
-        <v>240</v>
+        <v>116</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>238</v>
       </c>
       <c r="G11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H11" t="s">
         <v>125</v>
       </c>
       <c r="I11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12">
@@ -4045,25 +4039,25 @@
         <v>128</v>
       </c>
       <c r="E12" t="s">
-        <v>229</v>
+        <v>116</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="G12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H12" t="s">
         <v>125</v>
       </c>
       <c r="I12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13">
@@ -4080,25 +4074,25 @@
         <v>128</v>
       </c>
       <c r="E13" t="s">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="G13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H13" t="s">
         <v>125</v>
       </c>
       <c r="I13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14">
@@ -4115,25 +4109,25 @@
         <v>132</v>
       </c>
       <c r="E14" t="s">
-        <v>240</v>
+        <v>116</v>
       </c>
       <c r="F14" t="s">
-        <v>116</v>
+        <v>238</v>
       </c>
       <c r="G14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H14" t="s">
         <v>125</v>
       </c>
       <c r="I14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15">
@@ -4150,25 +4144,25 @@
         <v>132</v>
       </c>
       <c r="E15" t="s">
-        <v>229</v>
+        <v>116</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="G15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H15" t="s">
         <v>125</v>
       </c>
       <c r="I15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16">
@@ -4185,25 +4179,25 @@
         <v>132</v>
       </c>
       <c r="E16" t="s">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c r="F16" t="s">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="G16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H16" t="s">
         <v>125</v>
       </c>
       <c r="I16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J16" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K16" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17">
@@ -4220,25 +4214,25 @@
         <v>132</v>
       </c>
       <c r="E17" t="s">
-        <v>238</v>
+        <v>116</v>
       </c>
       <c r="F17" t="s">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="G17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H17" t="s">
         <v>125</v>
       </c>
       <c r="I17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18">
@@ -4255,22 +4249,22 @@
         <v>139</v>
       </c>
       <c r="E18" t="s">
-        <v>240</v>
+        <v>116</v>
       </c>
       <c r="F18" t="s">
-        <v>116</v>
+        <v>238</v>
       </c>
       <c r="G18" t="s">
+        <v>269</v>
+      </c>
+      <c r="H18" t="s">
+        <v>270</v>
+      </c>
+      <c r="I18" t="s">
+        <v>229</v>
+      </c>
+      <c r="J18" t="s">
         <v>271</v>
-      </c>
-      <c r="H18" t="s">
-        <v>272</v>
-      </c>
-      <c r="I18" t="s">
-        <v>231</v>
-      </c>
-      <c r="J18" t="s">
-        <v>273</v>
       </c>
       <c r="K18"/>
     </row>
@@ -4288,25 +4282,25 @@
         <v>139</v>
       </c>
       <c r="E19" t="s">
-        <v>229</v>
+        <v>116</v>
       </c>
       <c r="F19" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="G19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H19" t="s">
         <v>141</v>
       </c>
       <c r="I19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20">
@@ -4323,25 +4317,25 @@
         <v>139</v>
       </c>
       <c r="E20" t="s">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c r="F20" t="s">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="G20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H20" t="s">
         <v>141</v>
       </c>
       <c r="I20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J20" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K20" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21">
@@ -4358,10 +4352,10 @@
         <v>139</v>
       </c>
       <c r="E21" t="s">
-        <v>238</v>
+        <v>116</v>
       </c>
       <c r="F21" t="s">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="G21" t="s">
         <v>139</v>
@@ -4370,13 +4364,13 @@
         <v>141</v>
       </c>
       <c r="I21" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J21" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22">
@@ -4393,25 +4387,25 @@
         <v>145</v>
       </c>
       <c r="E22" t="s">
-        <v>229</v>
+        <v>116</v>
       </c>
       <c r="F22" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="G22" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H22" t="s">
         <v>125</v>
       </c>
       <c r="I22" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J22" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23">
@@ -4428,25 +4422,25 @@
         <v>145</v>
       </c>
       <c r="E23" t="s">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c r="F23" t="s">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="G23" t="s">
+        <v>279</v>
+      </c>
+      <c r="H23" t="s">
+        <v>280</v>
+      </c>
+      <c r="I23" t="s">
+        <v>229</v>
+      </c>
+      <c r="J23" t="s">
         <v>281</v>
       </c>
-      <c r="H23" t="s">
+      <c r="K23" t="s">
         <v>282</v>
-      </c>
-      <c r="I23" t="s">
-        <v>231</v>
-      </c>
-      <c r="J23" t="s">
-        <v>283</v>
-      </c>
-      <c r="K23" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="24">
@@ -4463,22 +4457,22 @@
         <v>148</v>
       </c>
       <c r="E24" t="s">
-        <v>240</v>
+        <v>116</v>
       </c>
       <c r="F24" t="s">
-        <v>116</v>
+        <v>238</v>
       </c>
       <c r="G24" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H24" t="s">
         <v>125</v>
       </c>
       <c r="I24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J24" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K24"/>
     </row>
@@ -4496,22 +4490,22 @@
         <v>148</v>
       </c>
       <c r="E25" t="s">
-        <v>229</v>
+        <v>116</v>
       </c>
       <c r="F25" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="G25" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H25" t="s">
         <v>125</v>
       </c>
       <c r="I25" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K25"/>
     </row>
@@ -4529,22 +4523,22 @@
         <v>148</v>
       </c>
       <c r="E26" t="s">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c r="F26" t="s">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="G26" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H26" t="s">
         <v>125</v>
       </c>
       <c r="I26" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J26" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K26"/>
     </row>
@@ -4562,22 +4556,22 @@
         <v>148</v>
       </c>
       <c r="E27" t="s">
-        <v>238</v>
+        <v>116</v>
       </c>
       <c r="F27" t="s">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="G27" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H27" t="s">
         <v>125</v>
       </c>
       <c r="I27" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J27" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K27"/>
     </row>
@@ -4595,25 +4589,25 @@
         <v>153</v>
       </c>
       <c r="E28" t="s">
-        <v>240</v>
+        <v>116</v>
       </c>
       <c r="F28" t="s">
-        <v>116</v>
+        <v>238</v>
       </c>
       <c r="G28" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H28" t="s">
         <v>125</v>
       </c>
       <c r="I28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J28" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K28" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29">
@@ -4630,25 +4624,25 @@
         <v>153</v>
       </c>
       <c r="E29" t="s">
-        <v>229</v>
+        <v>116</v>
       </c>
       <c r="F29" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="G29" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H29" t="s">
         <v>125</v>
       </c>
       <c r="I29" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J29" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K29" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30">
@@ -4665,25 +4659,25 @@
         <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c r="F30" t="s">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="G30" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H30" t="s">
         <v>125</v>
       </c>
       <c r="I30" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J30" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31">
@@ -4700,25 +4694,25 @@
         <v>156</v>
       </c>
       <c r="E31" t="s">
-        <v>240</v>
+        <v>116</v>
       </c>
       <c r="F31" t="s">
-        <v>116</v>
+        <v>238</v>
       </c>
       <c r="G31" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H31" t="s">
         <v>141</v>
       </c>
       <c r="I31" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J31" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K31" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32">
@@ -4735,25 +4729,25 @@
         <v>156</v>
       </c>
       <c r="E32" t="s">
-        <v>229</v>
+        <v>116</v>
       </c>
       <c r="F32" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="G32" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H32" t="s">
         <v>141</v>
       </c>
       <c r="I32" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J32" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K32" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33">
@@ -4770,25 +4764,25 @@
         <v>156</v>
       </c>
       <c r="E33" t="s">
-        <v>238</v>
+        <v>116</v>
       </c>
       <c r="F33" t="s">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="G33" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H33" t="s">
         <v>141</v>
       </c>
       <c r="I33" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J33" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K33" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34">
@@ -4805,25 +4799,25 @@
         <v>159</v>
       </c>
       <c r="E34" t="s">
-        <v>240</v>
+        <v>116</v>
       </c>
       <c r="F34" t="s">
-        <v>116</v>
+        <v>238</v>
       </c>
       <c r="G34" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H34" t="s">
         <v>125</v>
       </c>
       <c r="I34" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J34" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K34" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35">
@@ -4840,25 +4834,25 @@
         <v>159</v>
       </c>
       <c r="E35" t="s">
-        <v>229</v>
+        <v>116</v>
       </c>
       <c r="F35" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="G35" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H35" t="s">
         <v>125</v>
       </c>
       <c r="I35" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J35" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K35" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36">
@@ -4875,25 +4869,25 @@
         <v>159</v>
       </c>
       <c r="E36" t="s">
-        <v>238</v>
+        <v>116</v>
       </c>
       <c r="F36" t="s">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="G36" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H36" t="s">
         <v>125</v>
       </c>
       <c r="I36" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J36" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K36" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37">
@@ -4910,25 +4904,25 @@
         <v>162</v>
       </c>
       <c r="E37" t="s">
-        <v>229</v>
+        <v>116</v>
       </c>
       <c r="F37" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="G37" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H37" t="s">
         <v>164</v>
       </c>
       <c r="I37" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J37" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K37" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38">
@@ -4945,10 +4939,10 @@
         <v>162</v>
       </c>
       <c r="E38" t="s">
-        <v>238</v>
+        <v>116</v>
       </c>
       <c r="F38" t="s">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="G38" t="s">
         <v>162</v>
@@ -4957,10 +4951,10 @@
         <v>164</v>
       </c>
       <c r="I38" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J38" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K38"/>
     </row>
@@ -4978,25 +4972,25 @@
         <v>168</v>
       </c>
       <c r="E39" t="s">
-        <v>229</v>
+        <v>116</v>
       </c>
       <c r="F39" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="G39" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H39" t="s">
         <v>141</v>
       </c>
       <c r="I39" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J39" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K39" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40">
@@ -5013,25 +5007,25 @@
         <v>168</v>
       </c>
       <c r="E40" t="s">
-        <v>238</v>
+        <v>116</v>
       </c>
       <c r="F40" t="s">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="G40" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H40" t="s">
         <v>141</v>
       </c>
       <c r="I40" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J40" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K40" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41">
@@ -5048,10 +5042,10 @@
         <v>171</v>
       </c>
       <c r="E41" t="s">
-        <v>229</v>
+        <v>116</v>
       </c>
       <c r="F41" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="G41" t="s">
         <v>171</v>
@@ -5060,13 +5054,13 @@
         <v>173</v>
       </c>
       <c r="I41" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J41" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K41" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42">
@@ -5083,10 +5077,10 @@
         <v>171</v>
       </c>
       <c r="E42" t="s">
-        <v>238</v>
+        <v>116</v>
       </c>
       <c r="F42" t="s">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="G42" t="s">
         <v>171</v>
@@ -5095,13 +5089,13 @@
         <v>125</v>
       </c>
       <c r="I42" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J42" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K42" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43">
@@ -5118,10 +5112,10 @@
         <v>177</v>
       </c>
       <c r="E43" t="s">
-        <v>240</v>
+        <v>116</v>
       </c>
       <c r="F43" t="s">
-        <v>116</v>
+        <v>238</v>
       </c>
       <c r="G43" t="s">
         <v>177</v>
@@ -5130,13 +5124,13 @@
         <v>173</v>
       </c>
       <c r="I43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J43" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K43" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44">
@@ -5153,10 +5147,10 @@
         <v>177</v>
       </c>
       <c r="E44" t="s">
-        <v>229</v>
+        <v>116</v>
       </c>
       <c r="F44" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="G44" t="s">
         <v>177</v>
@@ -5165,13 +5159,13 @@
         <v>173</v>
       </c>
       <c r="I44" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J44" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K44" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45">
@@ -5188,23 +5182,23 @@
         <v>177</v>
       </c>
       <c r="E45" t="s">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c r="F45" t="s">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="G45" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H45"/>
       <c r="I45" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J45" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K45" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="46">
@@ -5221,10 +5215,10 @@
         <v>177</v>
       </c>
       <c r="E46" t="s">
-        <v>238</v>
+        <v>116</v>
       </c>
       <c r="F46" t="s">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="G46" t="s">
         <v>177</v>
@@ -5233,13 +5227,13 @@
         <v>125</v>
       </c>
       <c r="I46" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J46" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K46" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47">
@@ -5256,10 +5250,10 @@
         <v>180</v>
       </c>
       <c r="E47" t="s">
-        <v>229</v>
+        <v>116</v>
       </c>
       <c r="F47" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="G47" t="s">
         <v>180</v>
@@ -5268,13 +5262,13 @@
         <v>173</v>
       </c>
       <c r="I47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J47" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K47" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="48">
@@ -5291,10 +5285,10 @@
         <v>180</v>
       </c>
       <c r="E48" t="s">
-        <v>238</v>
+        <v>116</v>
       </c>
       <c r="F48" t="s">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="G48" t="s">
         <v>180</v>
@@ -5303,13 +5297,13 @@
         <v>125</v>
       </c>
       <c r="I48" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J48" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K48" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="49">
@@ -5326,25 +5320,25 @@
         <v>183</v>
       </c>
       <c r="E49" t="s">
-        <v>240</v>
+        <v>116</v>
       </c>
       <c r="F49" t="s">
-        <v>116</v>
+        <v>238</v>
       </c>
       <c r="G49" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H49" t="s">
         <v>141</v>
       </c>
       <c r="I49" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J49" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K49" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50">
@@ -5361,25 +5355,25 @@
         <v>183</v>
       </c>
       <c r="E50" t="s">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c r="F50" t="s">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="G50" t="s">
+        <v>323</v>
+      </c>
+      <c r="H50" t="s">
+        <v>324</v>
+      </c>
+      <c r="I50" t="s">
+        <v>229</v>
+      </c>
+      <c r="J50" t="s">
+        <v>321</v>
+      </c>
+      <c r="K50" t="s">
         <v>325</v>
-      </c>
-      <c r="H50" t="s">
-        <v>326</v>
-      </c>
-      <c r="I50" t="s">
-        <v>231</v>
-      </c>
-      <c r="J50" t="s">
-        <v>323</v>
-      </c>
-      <c r="K50" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="51">
@@ -5396,25 +5390,25 @@
         <v>186</v>
       </c>
       <c r="E51" t="s">
-        <v>240</v>
+        <v>116</v>
       </c>
       <c r="F51" t="s">
-        <v>116</v>
+        <v>238</v>
       </c>
       <c r="G51" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H51" t="s">
         <v>141</v>
       </c>
       <c r="I51" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J51" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K51" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="52">
@@ -5431,25 +5425,25 @@
         <v>186</v>
       </c>
       <c r="E52" t="s">
-        <v>229</v>
+        <v>116</v>
       </c>
       <c r="F52" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="G52" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H52" t="s">
         <v>141</v>
       </c>
       <c r="I52" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J52" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K52" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53">
@@ -5466,25 +5460,25 @@
         <v>186</v>
       </c>
       <c r="E53" t="s">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c r="F53" t="s">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="G53" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H53" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I53" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J53" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K53" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="54">
@@ -5501,25 +5495,25 @@
         <v>189</v>
       </c>
       <c r="E54" t="s">
-        <v>240</v>
+        <v>116</v>
       </c>
       <c r="F54" t="s">
-        <v>116</v>
+        <v>238</v>
       </c>
       <c r="G54" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H54" t="s">
         <v>141</v>
       </c>
       <c r="I54" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J54" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K54" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="55">
@@ -5536,25 +5530,25 @@
         <v>189</v>
       </c>
       <c r="E55" t="s">
-        <v>229</v>
+        <v>116</v>
       </c>
       <c r="F55" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="G55" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H55" t="s">
         <v>141</v>
       </c>
       <c r="I55" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J55" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K55" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="56">
@@ -5571,25 +5565,25 @@
         <v>192</v>
       </c>
       <c r="E56" t="s">
-        <v>240</v>
+        <v>116</v>
       </c>
       <c r="F56" t="s">
-        <v>116</v>
+        <v>238</v>
       </c>
       <c r="G56" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H56" t="s">
         <v>141</v>
       </c>
       <c r="I56" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J56" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K56" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="57">
@@ -5606,25 +5600,25 @@
         <v>192</v>
       </c>
       <c r="E57" t="s">
-        <v>229</v>
+        <v>116</v>
       </c>
       <c r="F57" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="G57" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H57" t="s">
         <v>141</v>
       </c>
       <c r="I57" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J57" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K57" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="58">
@@ -5641,25 +5635,25 @@
         <v>192</v>
       </c>
       <c r="E58" t="s">
-        <v>238</v>
+        <v>116</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="G58" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H58" t="s">
         <v>141</v>
       </c>
       <c r="I58" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J58" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K58" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="59">
@@ -5676,25 +5670,25 @@
         <v>195</v>
       </c>
       <c r="E59" t="s">
-        <v>229</v>
+        <v>116</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="G59" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H59" t="s">
         <v>141</v>
       </c>
       <c r="I59" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J59" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K59" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="60">
@@ -5711,25 +5705,25 @@
         <v>195</v>
       </c>
       <c r="E60" t="s">
-        <v>238</v>
+        <v>116</v>
       </c>
       <c r="F60" t="s">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="G60" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H60" t="s">
         <v>141</v>
       </c>
       <c r="I60" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J60" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K60" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61">
@@ -5746,25 +5740,25 @@
         <v>198</v>
       </c>
       <c r="E61" t="s">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c r="F61" t="s">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="G61" t="s">
+        <v>342</v>
+      </c>
+      <c r="H61" t="s">
+        <v>343</v>
+      </c>
+      <c r="I61" t="s">
+        <v>229</v>
+      </c>
+      <c r="J61" t="s">
         <v>344</v>
       </c>
-      <c r="H61" t="s">
+      <c r="K61" t="s">
         <v>345</v>
-      </c>
-      <c r="I61" t="s">
-        <v>231</v>
-      </c>
-      <c r="J61" t="s">
-        <v>346</v>
-      </c>
-      <c r="K61" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="62">
@@ -5781,25 +5775,25 @@
         <v>198</v>
       </c>
       <c r="E62" t="s">
-        <v>238</v>
+        <v>116</v>
       </c>
       <c r="F62" t="s">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="G62" t="s">
+        <v>346</v>
+      </c>
+      <c r="H62" t="s">
+        <v>347</v>
+      </c>
+      <c r="I62" t="s">
+        <v>229</v>
+      </c>
+      <c r="J62" t="s">
         <v>348</v>
       </c>
-      <c r="H62" t="s">
-        <v>349</v>
-      </c>
-      <c r="I62" t="s">
-        <v>231</v>
-      </c>
-      <c r="J62" t="s">
-        <v>350</v>
-      </c>
       <c r="K62" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="63">
@@ -5816,22 +5810,22 @@
         <v>201</v>
       </c>
       <c r="E63" t="s">
-        <v>229</v>
+        <v>116</v>
       </c>
       <c r="F63" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="G63" t="s">
         <v>201</v>
       </c>
       <c r="H63" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I63" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J63" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K63"/>
     </row>
@@ -5849,22 +5843,22 @@
         <v>205</v>
       </c>
       <c r="E64" t="s">
-        <v>229</v>
+        <v>116</v>
       </c>
       <c r="F64" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="G64" t="s">
         <v>205</v>
       </c>
       <c r="H64" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I64" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J64" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K64"/>
     </row>
@@ -5882,25 +5876,25 @@
         <v>205</v>
       </c>
       <c r="E65" t="s">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c r="F65" t="s">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="G65" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H65" t="s">
         <v>207</v>
       </c>
       <c r="I65" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J65" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K65" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="66">
@@ -5917,25 +5911,25 @@
         <v>211</v>
       </c>
       <c r="E66" t="s">
-        <v>229</v>
+        <v>116</v>
       </c>
       <c r="F66" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="G66" t="s">
         <v>211</v>
       </c>
       <c r="H66" t="s">
+        <v>353</v>
+      </c>
+      <c r="I66" t="s">
+        <v>229</v>
+      </c>
+      <c r="J66" t="s">
+        <v>354</v>
+      </c>
+      <c r="K66" t="s">
         <v>355</v>
-      </c>
-      <c r="I66" t="s">
-        <v>231</v>
-      </c>
-      <c r="J66" t="s">
-        <v>356</v>
-      </c>
-      <c r="K66" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="67">
@@ -5952,25 +5946,25 @@
         <v>211</v>
       </c>
       <c r="E67" t="s">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c r="F67" t="s">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="G67" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H67" t="s">
         <v>213</v>
       </c>
       <c r="I67" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J67" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K67" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="68">
@@ -5987,25 +5981,25 @@
         <v>215</v>
       </c>
       <c r="E68" t="s">
-        <v>229</v>
+        <v>116</v>
       </c>
       <c r="F68" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="G68" t="s">
         <v>215</v>
       </c>
       <c r="H68" t="s">
+        <v>353</v>
+      </c>
+      <c r="I68" t="s">
+        <v>229</v>
+      </c>
+      <c r="J68" t="s">
+        <v>354</v>
+      </c>
+      <c r="K68" t="s">
         <v>355</v>
-      </c>
-      <c r="I68" t="s">
-        <v>231</v>
-      </c>
-      <c r="J68" t="s">
-        <v>356</v>
-      </c>
-      <c r="K68" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="69">
@@ -6022,25 +6016,25 @@
         <v>215</v>
       </c>
       <c r="E69" t="s">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c r="F69" t="s">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="G69" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H69" t="s">
         <v>213</v>
       </c>
       <c r="I69" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J69" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K69" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="70">
@@ -6057,25 +6051,25 @@
         <v>218</v>
       </c>
       <c r="E70" t="s">
-        <v>229</v>
+        <v>116</v>
       </c>
       <c r="F70" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="G70" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H70" t="s">
         <v>220</v>
       </c>
       <c r="I70" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J70" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K70" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="71">
@@ -6092,23 +6086,23 @@
         <v>218</v>
       </c>
       <c r="E71" t="s">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c r="F71" t="s">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="G71" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H71"/>
       <c r="I71" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J71" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K71" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="72">
@@ -6120,16 +6114,16 @@
       </c>
       <c r="C72"/>
       <c r="D72" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E72" t="s">
-        <v>240</v>
+        <v>16</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
+        <v>238</v>
       </c>
       <c r="G72" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H72"/>
       <c r="I72" t="s">
@@ -6147,16 +6141,16 @@
       </c>
       <c r="C73"/>
       <c r="D73" t="s">
+        <v>361</v>
+      </c>
+      <c r="E73" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" t="s">
+        <v>227</v>
+      </c>
+      <c r="G73" t="s">
         <v>363</v>
-      </c>
-      <c r="E73" t="s">
-        <v>229</v>
-      </c>
-      <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s">
-        <v>365</v>
       </c>
       <c r="H73"/>
       <c r="I73" t="s">
@@ -6174,16 +6168,16 @@
       </c>
       <c r="C74"/>
       <c r="D74" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E74" t="s">
-        <v>234</v>
+        <v>16</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="G74" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H74"/>
       <c r="I74" t="s">
@@ -6201,16 +6195,16 @@
       </c>
       <c r="C75"/>
       <c r="D75" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E75" t="s">
-        <v>238</v>
+        <v>16</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="G75" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H75"/>
       <c r="I75" t="s">
@@ -6228,22 +6222,22 @@
       </c>
       <c r="C76"/>
       <c r="D76" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E76" t="s">
-        <v>240</v>
+        <v>116</v>
       </c>
       <c r="F76" t="s">
-        <v>116</v>
+        <v>238</v>
       </c>
       <c r="G76" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H76" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I76" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J76"/>
       <c r="K76"/>
@@ -6257,22 +6251,22 @@
       </c>
       <c r="C77"/>
       <c r="D77" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E77" t="s">
-        <v>229</v>
+        <v>116</v>
       </c>
       <c r="F77" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="G77" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H77" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I77" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J77"/>
       <c r="K77"/>
@@ -6286,22 +6280,22 @@
       </c>
       <c r="C78"/>
       <c r="D78" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E78" t="s">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c r="F78" t="s">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="G78" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H78" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I78" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J78"/>
       <c r="K78"/>
@@ -6315,22 +6309,22 @@
       </c>
       <c r="C79"/>
       <c r="D79" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E79" t="s">
-        <v>238</v>
+        <v>116</v>
       </c>
       <c r="F79" t="s">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="G79" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H79" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I79" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J79"/>
       <c r="K79"/>
@@ -6344,22 +6338,22 @@
       </c>
       <c r="C80"/>
       <c r="D80" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E80" t="s">
-        <v>240</v>
+        <v>116</v>
       </c>
       <c r="F80" t="s">
-        <v>116</v>
+        <v>238</v>
       </c>
       <c r="G80" t="s">
         <v>53</v>
       </c>
       <c r="H80" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I80" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J80"/>
       <c r="K80"/>
@@ -6373,22 +6367,22 @@
       </c>
       <c r="C81"/>
       <c r="D81" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E81" t="s">
-        <v>229</v>
+        <v>116</v>
       </c>
       <c r="F81" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="G81" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H81" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I81" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J81"/>
       <c r="K81"/>
@@ -6402,22 +6396,22 @@
       </c>
       <c r="C82"/>
       <c r="D82" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E82" t="s">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c r="F82" t="s">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="G82" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H82" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I82" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J82"/>
       <c r="K82"/>
@@ -6431,22 +6425,22 @@
       </c>
       <c r="C83"/>
       <c r="D83" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E83" t="s">
-        <v>238</v>
+        <v>116</v>
       </c>
       <c r="F83" t="s">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="G83" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H83" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I83" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J83"/>
       <c r="K83"/>
@@ -6460,16 +6454,16 @@
       </c>
       <c r="C84"/>
       <c r="D84" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E84" t="s">
-        <v>229</v>
+        <v>373</v>
       </c>
       <c r="F84" t="s">
-        <v>375</v>
+        <v>227</v>
       </c>
       <c r="G84" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H84" t="s">
         <v>118</v>
@@ -6487,16 +6481,16 @@
       </c>
       <c r="C85"/>
       <c r="D85" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E85" t="s">
-        <v>238</v>
+        <v>373</v>
       </c>
       <c r="F85" t="s">
+        <v>236</v>
+      </c>
+      <c r="G85" t="s">
         <v>375</v>
-      </c>
-      <c r="G85" t="s">
-        <v>377</v>
       </c>
       <c r="H85"/>
       <c r="I85"/>
@@ -6512,16 +6506,16 @@
       </c>
       <c r="C86"/>
       <c r="D86" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E86" t="s">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="G86" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H86"/>
       <c r="I86" t="s">
@@ -6539,16 +6533,16 @@
       </c>
       <c r="C87"/>
       <c r="D87" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E87" t="s">
-        <v>238</v>
+        <v>16</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="G87" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H87" t="s">
         <v>118</v>
@@ -6568,16 +6562,16 @@
       </c>
       <c r="C88"/>
       <c r="D88" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E88" t="s">
-        <v>240</v>
+        <v>16</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
+        <v>238</v>
       </c>
       <c r="G88" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H88"/>
       <c r="I88" t="s">
@@ -6595,16 +6589,16 @@
       </c>
       <c r="C89"/>
       <c r="D89" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E89" t="s">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="G89" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H89"/>
       <c r="I89" t="s">
@@ -6622,16 +6616,16 @@
       </c>
       <c r="C90"/>
       <c r="D90" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E90" t="s">
-        <v>234</v>
+        <v>16</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="G90" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H90"/>
       <c r="I90" t="s">
@@ -6649,16 +6643,16 @@
       </c>
       <c r="C91"/>
       <c r="D91" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E91" t="s">
-        <v>238</v>
+        <v>16</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="G91" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H91"/>
       <c r="I91" t="s">
@@ -6676,16 +6670,16 @@
       </c>
       <c r="C92"/>
       <c r="D92" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E92" t="s">
-        <v>240</v>
+        <v>70</v>
       </c>
       <c r="F92" t="s">
-        <v>70</v>
+        <v>238</v>
       </c>
       <c r="G92" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H92"/>
       <c r="I92" t="s">
@@ -6703,19 +6697,19 @@
       </c>
       <c r="C93"/>
       <c r="D93" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E93" t="s">
-        <v>229</v>
+        <v>70</v>
       </c>
       <c r="F93" t="s">
-        <v>70</v>
+        <v>227</v>
       </c>
       <c r="G93" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H93" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I93" t="s">
         <v>70</v>
@@ -6732,16 +6726,16 @@
       </c>
       <c r="C94"/>
       <c r="D94" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E94" t="s">
-        <v>234</v>
+        <v>70</v>
       </c>
       <c r="F94" t="s">
-        <v>70</v>
+        <v>232</v>
       </c>
       <c r="G94" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H94"/>
       <c r="I94" t="s">
@@ -6759,16 +6753,16 @@
       </c>
       <c r="C95"/>
       <c r="D95" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E95" t="s">
-        <v>238</v>
+        <v>70</v>
       </c>
       <c r="F95" t="s">
-        <v>70</v>
+        <v>236</v>
       </c>
       <c r="G95" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H95"/>
       <c r="I95" t="s">
@@ -6786,22 +6780,22 @@
       </c>
       <c r="C96"/>
       <c r="D96" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E96" t="s">
-        <v>240</v>
+        <v>116</v>
       </c>
       <c r="F96" t="s">
-        <v>116</v>
+        <v>238</v>
       </c>
       <c r="G96" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H96" t="s">
         <v>86</v>
       </c>
       <c r="I96" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J96"/>
       <c r="K96"/>
@@ -6815,22 +6809,22 @@
       </c>
       <c r="C97"/>
       <c r="D97" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E97" t="s">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c r="F97" t="s">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="G97" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H97" t="s">
         <v>86</v>
       </c>
       <c r="I97" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J97"/>
       <c r="K97"/>
@@ -6844,16 +6838,16 @@
       </c>
       <c r="C98"/>
       <c r="D98" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E98" t="s">
-        <v>238</v>
+        <v>116</v>
       </c>
       <c r="F98" t="s">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="G98" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H98" t="s">
         <v>86</v>
@@ -6873,16 +6867,16 @@
       </c>
       <c r="C99"/>
       <c r="D99" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E99" t="s">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="G99" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H99"/>
       <c r="I99" t="s">
@@ -6900,16 +6894,16 @@
       </c>
       <c r="C100"/>
       <c r="D100" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E100" t="s">
-        <v>229</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="G100" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H100"/>
       <c r="I100" t="s">
@@ -6927,16 +6921,16 @@
       </c>
       <c r="C101"/>
       <c r="D101" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E101" t="s">
-        <v>234</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="G101" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H101"/>
       <c r="I101" t="s">
@@ -6954,19 +6948,19 @@
       </c>
       <c r="C102"/>
       <c r="D102" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E102" t="s">
-        <v>238</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="G102" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H102" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I102" t="s">
         <v>16</v>
@@ -6983,28 +6977,28 @@
       </c>
       <c r="C103"/>
       <c r="D103" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E103" t="s">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="G103" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H103" t="s">
         <v>141</v>
       </c>
       <c r="I103" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J103" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K103" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="104">
@@ -7016,28 +7010,28 @@
       </c>
       <c r="C104"/>
       <c r="D104" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E104" t="s">
-        <v>234</v>
+        <v>16</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="G104" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H104" t="s">
         <v>141</v>
       </c>
       <c r="I104" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J104" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K104" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="105">
@@ -7049,25 +7043,25 @@
       </c>
       <c r="C105"/>
       <c r="D105" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E105" t="s">
-        <v>238</v>
+        <v>16</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="G105" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H105" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I105" t="s">
         <v>16</v>
       </c>
       <c r="J105" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K105"/>
     </row>
@@ -7080,23 +7074,23 @@
       </c>
       <c r="C106"/>
       <c r="D106" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E106" t="s">
-        <v>240</v>
+        <v>116</v>
       </c>
       <c r="F106" t="s">
-        <v>116</v>
+        <v>238</v>
       </c>
       <c r="G106" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H106"/>
       <c r="I106" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J106" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="K106"/>
     </row>
@@ -7109,23 +7103,23 @@
       </c>
       <c r="C107"/>
       <c r="D107" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E107" t="s">
-        <v>229</v>
+        <v>116</v>
       </c>
       <c r="F107" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="G107" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H107"/>
       <c r="I107" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J107" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="K107"/>
     </row>
@@ -7138,20 +7132,20 @@
       </c>
       <c r="C108"/>
       <c r="D108" t="s">
-        <v>363</v>
-      </c>
-      <c r="E108" t="s">
-        <v>240</v>
-      </c>
-      <c r="F108"/>
+        <v>361</v>
+      </c>
+      <c r="E108"/>
+      <c r="F108" t="s">
+        <v>238</v>
+      </c>
       <c r="G108"/>
       <c r="H108"/>
       <c r="I108"/>
       <c r="J108" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K108" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
